--- a/P4_analyse_by_shehzad.xlsx
+++ b/P4_analyse_by_shehzad.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bureau\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bureau\Desktop\P4_shehzad_qaiser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{283A73D0-1D89-4395-894F-5A914A5239F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E8E344-B2EA-4BA3-BAA7-D71E07302FDB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18690" windowHeight="9135" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,10 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="166">
-  <si>
-    <t>Audit du site web : La Chouette agence</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="199">
   <si>
     <t>URL :</t>
   </si>
@@ -46,24 +43,6 @@
     <t>W3C Html&amp;Css</t>
   </si>
   <si>
-    <t>Test de crawlabilité sur Seolyser</t>
-  </si>
-  <si>
-    <t>Test de vitesse sur Gtmetrix</t>
-  </si>
-  <si>
-    <t>Test de contenu dupliqué Siteliner</t>
-  </si>
-  <si>
-    <t>Test des mots clés avec Alize.info</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Tanaguru </t>
-  </si>
-  <si>
-    <t>1. Detecter les problèmes</t>
-  </si>
-  <si>
     <t>Le site arrive-t-il en 1er avec une recherche du nom de l'agence ?</t>
   </si>
   <si>
@@ -91,9 +70,6 @@
     <t>- N'ayant pas de version mobile, le site doit pouvoir s'adapter aux différentes taille d'écran</t>
   </si>
   <si>
-    <t>2. Audit On-page</t>
-  </si>
-  <si>
     <t>Vérifier que les URLs sont intelligibles et qu'elles contiennent le sujet des pages</t>
   </si>
   <si>
@@ -139,9 +115,6 @@
     <t>Existe-t-il un outil type SeeUrank ?</t>
   </si>
   <si>
-    <t>4. Analyser les liens</t>
-  </si>
-  <si>
     <t>Existe-t-il des comptes sur les RS ?</t>
   </si>
   <si>
@@ -374,9 +347,6 @@
   </si>
   <si>
     <t>- Les balises "alt" doivent être remplies de manière pertinente</t>
-  </si>
-  <si>
-    <t>3 . Surveiller la position des mots clés</t>
   </si>
   <si>
     <t>Cette expression clé est à la fois composée de mots clés généralistes : Entreprise webdesign</t>
@@ -551,12 +521,141 @@
   <si>
     <t>- Ok 410 mots sur la page d'accueil</t>
   </si>
+  <si>
+    <t>Teste de crawlabilité sur Seolyser</t>
+  </si>
+  <si>
+    <t>Teste de vitesse sur Gtmetrix</t>
+  </si>
+  <si>
+    <t>Teste de contenu dupliqué Siteliner</t>
+  </si>
+  <si>
+    <t>https://search.google.com/test/mobile-friendly</t>
+  </si>
+  <si>
+    <t>recherche de mots clés</t>
+  </si>
+  <si>
+    <t>Keyword Planner de Google ou KWFinder</t>
+  </si>
+  <si>
+    <t>&lt;link rel="alternate" hreflang="en" href="https://votre-site.fr/en/" /&gt;</t>
+  </si>
+  <si>
+    <t>à vos visiteurs en fonction de leur langue et de leur situation géographique.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">un site multilingue : la balise hreflang est utilisée pour aider Google à identifier la page url qui doivent être servies </t>
+  </si>
+  <si>
+    <t>https://validator.w3.org</t>
+  </si>
+  <si>
+    <t>https://jigsaw.w3.org/css-validator/</t>
+  </si>
+  <si>
+    <t>Teste d'optimisation mobile de Google</t>
+  </si>
+  <si>
+    <t>https://chrome.google.com/webstore/detail/wave-evaluation-tool/jbbplnpkjmmeebjpijfedlgcdilocofh</t>
+  </si>
+  <si>
+    <t>https://chrome.google.com/webstore/detail/headingsmap/flbjommegcjonpdmenkdiocclhjacmbi</t>
+  </si>
+  <si>
+    <t>https://www.tpgi.com/color-contrast-checker/</t>
+  </si>
+  <si>
+    <t>Vérifier le contraste des elements d'un site</t>
+  </si>
+  <si>
+    <t>https://www.nvaccess.org</t>
+  </si>
+  <si>
+    <t>HeadingsMap : Générer un Plan du site cliquable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teste d'accessibilité automatisé </t>
+  </si>
+  <si>
+    <t>https://chrome.google.com/webstore/detail/axe-devtools-web-accessib/lhdoppojpmngadmnindnejefpokejbdd</t>
+  </si>
+  <si>
+    <t>https://validator.w3.org/nu/</t>
+  </si>
+  <si>
+    <t>lecteur d’écran</t>
+  </si>
+  <si>
+    <t>https://blog.atalan.fr/tester-accessibilite-web-pdf-lecteur-ecran-nvda/</t>
+  </si>
+  <si>
+    <t>https://whatcms.org</t>
+  </si>
+  <si>
+    <t>Technologie de codage d'un site</t>
+  </si>
+  <si>
+    <t>suivre l’évolution du référencement d’un site web</t>
+  </si>
+  <si>
+    <t>Google Search Console et Google Analytics</t>
+  </si>
+  <si>
+    <t>1. Detecter les problèmes évidents</t>
+  </si>
+  <si>
+    <t>2. Analyse On-page</t>
+  </si>
+  <si>
+    <t>3 . Analyse des mots-clés existants et de la position des mots clés</t>
+  </si>
+  <si>
+    <t>Audit SEO d'un site web : La Chouette agence</t>
+  </si>
+  <si>
+    <t>4. Étude de la qualité des liens</t>
+  </si>
+  <si>
+    <t>Google Search Console</t>
+  </si>
+  <si>
+    <t>Outil utiliser pour connaître la position de mes mots-clés dans Google </t>
+  </si>
+  <si>
+    <t>Générer des mots-clés pertinents et optimiser le référencement</t>
+  </si>
+  <si>
+    <t>https://neilpatel.com/fr/ubersuggest/</t>
+  </si>
+  <si>
+    <t>https://seolyzer.io/fr/</t>
+  </si>
+  <si>
+    <t>https://gtmetrix.com</t>
+  </si>
+  <si>
+    <t>https://www.siteliner.com</t>
+  </si>
+  <si>
+    <t>https://alyze.com</t>
+  </si>
+  <si>
+    <t>Teste des mots clés avec Alize</t>
+  </si>
+  <si>
+    <t>https://www.tanaguru.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teste l'accessibilité avec Tanaguru </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -625,46 +724,51 @@
     </font>
     <font>
       <b/>
-      <u/>
-      <sz val="12"/>
-      <color rgb="FF00B0F0"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF00B0F0"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Verdana"/>
       <family val="2"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FFCC66FF"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
-      <sz val="14"/>
+      <sz val="20"/>
       <color rgb="FFFFFFFF"/>
       <name val="Verdana"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="20"/>
       <name val="Verdana"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="14"/>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Verdana"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -729,6 +833,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFCC66FF"/>
         <bgColor rgb="FF7030A0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -862,7 +972,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
@@ -899,6 +1009,75 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -917,93 +1096,37 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1357,371 +1480,342 @@
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="B1:K87"/>
+  <dimension ref="A1:L109"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="N64" sqref="N64"/>
+    <sheetView showGridLines="0" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" style="1"/>
+    <col min="1" max="1" width="10.88671875" style="71"/>
     <col min="2" max="2" width="21.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.88671875" style="1"/>
+    <col min="3" max="5" width="10.88671875" style="1"/>
+    <col min="6" max="6" width="16.88671875" style="1" customWidth="1"/>
+    <col min="7" max="10" width="10.88671875" style="1"/>
+    <col min="11" max="11" width="58.5546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.88671875" style="71"/>
+    <col min="13" max="16384" width="10.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="47" t="s">
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="40" t="s">
+        <v>186</v>
+      </c>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="74"/>
+    </row>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B2" s="41"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="44"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B3" s="42"/>
+      <c r="K3" s="45"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B4" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="45"/>
-    </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B2" s="56"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="61"/>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="57"/>
-      <c r="K3" s="62"/>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="58" t="s">
+      <c r="C4" s="2"/>
+      <c r="K4" s="45"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="70"/>
+      <c r="K5" s="45"/>
+    </row>
+    <row r="6" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="K4" s="62"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="59"/>
-      <c r="K5" s="62"/>
-    </row>
-    <row r="6" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="58" t="s">
+      <c r="C6" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K6" s="45"/>
+    </row>
+    <row r="7" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="70"/>
+      <c r="K7" s="45"/>
+    </row>
+    <row r="8" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K8" s="45"/>
+    </row>
+    <row r="9" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="70"/>
+      <c r="C9" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K9" s="45"/>
+    </row>
+    <row r="10" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="70"/>
+      <c r="C10" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="K10" s="45"/>
+    </row>
+    <row r="11" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="69" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="K11" s="45"/>
+    </row>
+    <row r="12" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="54"/>
+      <c r="C12" s="53" t="s">
         <v>156</v>
       </c>
-      <c r="K6" s="62"/>
-    </row>
-    <row r="7" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="59"/>
-      <c r="K7" s="62"/>
-    </row>
-    <row r="8" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="58" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="G12" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K12" s="45"/>
+    </row>
+    <row r="13" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="42"/>
+      <c r="C13" s="53" t="s">
         <v>157</v>
       </c>
-      <c r="K8" s="62"/>
-    </row>
-    <row r="9" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="59"/>
-      <c r="C9" s="1" t="s">
+      <c r="G13" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="K13" s="45"/>
+    </row>
+    <row r="14" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="42"/>
+      <c r="C14" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="K14" s="45"/>
+    </row>
+    <row r="15" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="42"/>
+      <c r="C15" s="53" t="s">
+        <v>196</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K15" s="45"/>
+    </row>
+    <row r="16" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="42"/>
+      <c r="C16" s="53" t="s">
+        <v>198</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="K16" s="45"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B17" s="42"/>
+      <c r="C17" s="53" t="s">
+        <v>167</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="K17" s="45"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B18" s="42"/>
+      <c r="C18" s="53" t="s">
         <v>160</v>
       </c>
-      <c r="K9" s="62"/>
-    </row>
-    <row r="10" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="59"/>
-      <c r="C10" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="K10" s="62"/>
-    </row>
-    <row r="11" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="K18" s="45"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B19" s="42"/>
+      <c r="C19" s="53" t="s">
+        <v>190</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="K19" s="45"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B20" s="42"/>
+      <c r="C20" s="53" t="s">
+        <v>189</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="K20" s="45"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B21" s="42"/>
+      <c r="C21" s="53" t="s">
+        <v>174</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="K21" s="45"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B22" s="42"/>
+      <c r="C22" s="53"/>
+      <c r="G22" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="K22" s="45"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B23" s="42"/>
+      <c r="C23" s="53" t="s">
+        <v>173</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="K23" s="45"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B24" s="42"/>
+      <c r="C24" s="53" t="s">
+        <v>171</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="K24" s="45"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B25" s="42"/>
+      <c r="C25" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="K25" s="45"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B26" s="42"/>
+      <c r="C26" s="53"/>
+      <c r="G26" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="K26" s="45"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B27" s="42"/>
+      <c r="G27" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="K27" s="45"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B28" s="42"/>
+      <c r="C28" s="53" t="s">
+        <v>180</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="K28" s="45"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B29" s="42"/>
+      <c r="C29" s="53" t="s">
+        <v>181</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="K29" s="45"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B30" s="42"/>
+      <c r="K30" s="45"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B31" s="43"/>
+      <c r="K31" s="46"/>
+    </row>
+    <row r="32" spans="2:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="B32" s="55" t="s">
+        <v>183</v>
+      </c>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="56"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B33" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="K11" s="62"/>
-    </row>
-    <row r="12" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="59"/>
-      <c r="C12" s="1" t="s">
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B34" s="3"/>
+      <c r="C34" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="K12" s="62"/>
-    </row>
-    <row r="13" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="57"/>
-      <c r="C13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K13" s="62"/>
-    </row>
-    <row r="14" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="57"/>
-      <c r="C14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K14" s="62"/>
-    </row>
-    <row r="15" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="57"/>
-      <c r="C15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K15" s="62"/>
-    </row>
-    <row r="16" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="57"/>
-      <c r="C16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K16" s="62"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B17" s="57"/>
-      <c r="K17" s="62"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B18" s="60"/>
-      <c r="K18" s="63"/>
-    </row>
-    <row r="19" spans="2:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="B19" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="49"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B20" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B21" s="3"/>
-      <c r="C21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B22" s="4"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B23" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B24" s="3"/>
-      <c r="C24" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B25" s="4"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B26" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B27" s="3"/>
-      <c r="C27" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B28" s="4"/>
-      <c r="C28" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B29" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B30" s="3"/>
-      <c r="C30" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B31" s="3"/>
-      <c r="C31" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D31" s="8"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B32" s="3"/>
-      <c r="C32" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="D32" s="8"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B33" s="3"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B34" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B35" s="3"/>
-      <c r="C35" s="7" t="s">
-        <v>20</v>
-      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="7"/>
       <c r="D35" s="8"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
@@ -1732,221 +1826,227 @@
       <c r="K35" s="4"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B36" s="9"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
-    </row>
-    <row r="38" spans="2:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="B38" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="C38" s="51"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="51"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="51"/>
-      <c r="H38" s="51"/>
-      <c r="I38" s="51"/>
-      <c r="J38" s="51"/>
-      <c r="K38" s="51"/>
+      <c r="B36" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B37" s="3"/>
+      <c r="C37" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B38" s="4"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B39" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="14"/>
+      <c r="B39" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B40" s="12"/>
-      <c r="C40" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D40" s="12"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B42" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="14"/>
-      <c r="K42" s="14"/>
+      <c r="B42" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="12"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B44" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="14"/>
-      <c r="K44" s="14"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="12"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B46" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="14"/>
-      <c r="J46" s="14"/>
-      <c r="K46" s="14"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B47" s="12"/>
-      <c r="C47" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D47" s="12"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="12"/>
-      <c r="K47" s="12"/>
+      <c r="B47" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B48" s="12"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="12"/>
-      <c r="K48" s="12"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B49" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="14"/>
-      <c r="K49" s="14"/>
-    </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="12"/>
-      <c r="J50" s="12"/>
-      <c r="K50" s="12"/>
-    </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B51" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
-      <c r="H51" s="14"/>
-      <c r="I51" s="14"/>
-      <c r="J51" s="14"/>
-      <c r="K51" s="14"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+    </row>
+    <row r="51" spans="2:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="B51" s="57" t="s">
+        <v>184</v>
+      </c>
+      <c r="C51" s="58"/>
+      <c r="D51" s="58"/>
+      <c r="E51" s="58"/>
+      <c r="F51" s="58"/>
+      <c r="G51" s="58"/>
+      <c r="H51" s="58"/>
+      <c r="I51" s="58"/>
+      <c r="J51" s="58"/>
+      <c r="K51" s="58"/>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B52" s="12"/>
-      <c r="C52" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="D52" s="12"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="12"/>
-      <c r="I52" s="12"/>
-      <c r="J52" s="12"/>
-      <c r="K52" s="12"/>
+      <c r="B52" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="14"/>
+      <c r="J52" s="14"/>
+      <c r="K52" s="14"/>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B53" s="12"/>
       <c r="C53" s="15" t="s">
-        <v>112</v>
+        <v>15</v>
       </c>
       <c r="D53" s="12"/>
       <c r="E53" s="16"/>
@@ -1958,40 +2058,36 @@
       <c r="K53" s="12"/>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B54" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C54" s="17"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="14"/>
-      <c r="J54" s="14"/>
-      <c r="K54" s="14"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="12"/>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B55" s="12"/>
-      <c r="C55" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="12"/>
-      <c r="I55" s="12"/>
-      <c r="J55" s="12"/>
-      <c r="K55" s="12"/>
+      <c r="B55" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="14"/>
+      <c r="J55" s="14"/>
+      <c r="K55" s="14"/>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B56" s="12"/>
-      <c r="C56" s="15" t="s">
-        <v>163</v>
-      </c>
+      <c r="C56" s="12"/>
       <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
+      <c r="E56" s="16"/>
       <c r="F56" s="12"/>
       <c r="G56" s="12"/>
       <c r="H56" s="12"/>
@@ -2000,51 +2096,49 @@
       <c r="K56" s="12"/>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B57" s="12"/>
-      <c r="C57" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="D57" s="12"/>
-      <c r="E57" s="16"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="12"/>
-      <c r="I57" s="12"/>
-      <c r="J57" s="12"/>
-      <c r="K57" s="12"/>
+      <c r="B57" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="14"/>
+      <c r="J57" s="14"/>
+      <c r="K57" s="14"/>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B58" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="14"/>
-      <c r="H58" s="14"/>
-      <c r="I58" s="14"/>
-      <c r="J58" s="14"/>
-      <c r="K58" s="14"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="12"/>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B59" s="12"/>
-      <c r="C59" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="D59" s="12"/>
-      <c r="E59" s="16"/>
-      <c r="F59" s="12"/>
-      <c r="G59" s="12"/>
-      <c r="H59" s="12"/>
-      <c r="I59" s="12"/>
-      <c r="J59" s="12"/>
-      <c r="K59" s="12"/>
+      <c r="B59" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="14"/>
+      <c r="I59" s="14"/>
+      <c r="J59" s="14"/>
+      <c r="K59" s="14"/>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B60" s="12"/>
       <c r="C60" s="15" t="s">
-        <v>114</v>
+        <v>17</v>
       </c>
       <c r="D60" s="12"/>
       <c r="E60" s="16"/>
@@ -2057,9 +2151,7 @@
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B61" s="12"/>
-      <c r="C61" s="15" t="s">
-        <v>115</v>
-      </c>
+      <c r="C61" s="15"/>
       <c r="D61" s="12"/>
       <c r="E61" s="16"/>
       <c r="F61" s="12"/>
@@ -2070,50 +2162,52 @@
       <c r="K61" s="12"/>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B62" s="12"/>
-      <c r="C62" s="15"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="16"/>
-      <c r="F62" s="12"/>
-      <c r="G62" s="12"/>
-      <c r="H62" s="12"/>
-      <c r="I62" s="12"/>
-      <c r="J62" s="12"/>
-      <c r="K62" s="12"/>
+      <c r="B62" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="14"/>
+      <c r="J62" s="14"/>
+      <c r="K62" s="14"/>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B63" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c r="G63" s="14"/>
-      <c r="H63" s="14"/>
-      <c r="I63" s="14"/>
-      <c r="J63" s="14"/>
-      <c r="K63" s="14"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="12"/>
+      <c r="K63" s="12"/>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B64" s="19"/>
-      <c r="C64" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="D64" s="11"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11"/>
-      <c r="H64" s="11"/>
-      <c r="I64" s="11"/>
-      <c r="J64" s="11"/>
-      <c r="K64" s="11"/>
+      <c r="B64" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="14"/>
+      <c r="H64" s="14"/>
+      <c r="I64" s="14"/>
+      <c r="J64" s="14"/>
+      <c r="K64" s="14"/>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B65" s="21"/>
-      <c r="C65" s="15"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="15" t="s">
+        <v>102</v>
+      </c>
       <c r="D65" s="12"/>
-      <c r="E65" s="12"/>
+      <c r="E65" s="16"/>
       <c r="F65" s="12"/>
       <c r="G65" s="12"/>
       <c r="H65" s="12"/>
@@ -2122,286 +2216,562 @@
       <c r="K65" s="12"/>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B66" s="22" t="s">
+      <c r="B66" s="12"/>
+      <c r="C66" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D66" s="12"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="12"/>
+      <c r="J66" s="12"/>
+      <c r="K66" s="12"/>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B67" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C67" s="17"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="14"/>
+      <c r="H67" s="14"/>
+      <c r="I67" s="14"/>
+      <c r="J67" s="14"/>
+      <c r="K67" s="14"/>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B68" s="12"/>
+      <c r="C68" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="12"/>
+      <c r="J68" s="12"/>
+      <c r="K68" s="12"/>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B69" s="12"/>
+      <c r="C69" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="12"/>
+      <c r="I69" s="12"/>
+      <c r="J69" s="12"/>
+      <c r="K69" s="12"/>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B70" s="12"/>
+      <c r="C70" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="D70" s="12"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="12"/>
+      <c r="I70" s="12"/>
+      <c r="J70" s="12"/>
+      <c r="K70" s="12"/>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B71" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c r="G71" s="14"/>
+      <c r="H71" s="14"/>
+      <c r="I71" s="14"/>
+      <c r="J71" s="14"/>
+      <c r="K71" s="14"/>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B72" s="12"/>
+      <c r="C72" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="D72" s="12"/>
+      <c r="E72" s="16"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="12"/>
+      <c r="J72" s="12"/>
+      <c r="K72" s="12"/>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B73" s="12"/>
+      <c r="C73" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D73" s="12"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="12"/>
+      <c r="I73" s="12"/>
+      <c r="J73" s="12"/>
+      <c r="K73" s="12"/>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B74" s="12"/>
+      <c r="C74" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D74" s="12"/>
+      <c r="E74" s="16"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="12"/>
+      <c r="I74" s="12"/>
+      <c r="J74" s="12"/>
+      <c r="K74" s="12"/>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B75" s="12"/>
+      <c r="C75" s="15"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="16"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="12"/>
+      <c r="I75" s="12"/>
+      <c r="J75" s="12"/>
+      <c r="K75" s="12"/>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B76" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c r="G76" s="14"/>
+      <c r="H76" s="14"/>
+      <c r="I76" s="14"/>
+      <c r="J76" s="14"/>
+      <c r="K76" s="14"/>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B77" s="19"/>
+      <c r="C77" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="D77" s="11"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="11"/>
+      <c r="H77" s="11"/>
+      <c r="I77" s="11"/>
+      <c r="J77" s="11"/>
+      <c r="K77" s="11"/>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B78" s="21"/>
+      <c r="C78" s="15"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="12"/>
+      <c r="H78" s="12"/>
+      <c r="I78" s="12"/>
+      <c r="J78" s="12"/>
+      <c r="K78" s="12"/>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B79" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C79" s="23"/>
+      <c r="D79" s="24"/>
+      <c r="E79" s="24"/>
+      <c r="F79" s="24"/>
+      <c r="G79" s="24"/>
+      <c r="H79" s="24"/>
+      <c r="I79" s="24"/>
+      <c r="J79" s="24"/>
+      <c r="K79" s="24"/>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B80" s="25"/>
+      <c r="C80" s="26"/>
+      <c r="D80" s="27"/>
+      <c r="E80" s="27"/>
+      <c r="F80" s="27"/>
+      <c r="G80" s="27"/>
+      <c r="H80" s="27"/>
+      <c r="I80" s="27"/>
+      <c r="J80" s="27"/>
+      <c r="K80" s="27"/>
+    </row>
+    <row r="82" spans="2:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="B82" s="59" t="s">
+        <v>185</v>
+      </c>
+      <c r="C82" s="60"/>
+      <c r="D82" s="60"/>
+      <c r="E82" s="60"/>
+      <c r="F82" s="60"/>
+      <c r="G82" s="60"/>
+      <c r="H82" s="60"/>
+      <c r="I82" s="60"/>
+      <c r="J82" s="60"/>
+      <c r="K82" s="31"/>
+    </row>
+    <row r="83" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B83" s="63" t="s">
+        <v>145</v>
+      </c>
+      <c r="C83" s="64"/>
+      <c r="D83" s="64"/>
+      <c r="E83" s="64"/>
+      <c r="F83" s="64"/>
+      <c r="G83" s="64"/>
+      <c r="H83" s="64"/>
+      <c r="I83" s="64"/>
+      <c r="J83" s="64"/>
+      <c r="K83" s="64"/>
+    </row>
+    <row r="84" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B84" s="65"/>
+      <c r="C84" s="66"/>
+      <c r="D84" s="66"/>
+      <c r="E84" s="66"/>
+      <c r="F84" s="66"/>
+      <c r="G84" s="66"/>
+      <c r="H84" s="66"/>
+      <c r="I84" s="66"/>
+      <c r="J84" s="66"/>
+      <c r="K84" s="66"/>
+    </row>
+    <row r="85" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B85" s="65" t="s">
+        <v>107</v>
+      </c>
+      <c r="C85" s="66"/>
+      <c r="D85" s="66"/>
+      <c r="E85" s="66"/>
+      <c r="F85" s="66"/>
+      <c r="G85" s="66"/>
+      <c r="H85" s="66"/>
+      <c r="I85" s="66"/>
+      <c r="J85" s="66"/>
+      <c r="K85" s="66"/>
+    </row>
+    <row r="86" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B86" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="C86" s="66"/>
+      <c r="D86" s="66"/>
+      <c r="E86" s="66"/>
+      <c r="F86" s="66"/>
+      <c r="G86" s="66"/>
+      <c r="H86" s="66"/>
+      <c r="I86" s="66"/>
+      <c r="J86" s="66"/>
+      <c r="K86" s="66"/>
+    </row>
+    <row r="87" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B87" s="65"/>
+      <c r="C87" s="66"/>
+      <c r="D87" s="66"/>
+      <c r="E87" s="66"/>
+      <c r="F87" s="66"/>
+      <c r="G87" s="66"/>
+      <c r="H87" s="66"/>
+      <c r="I87" s="66"/>
+      <c r="J87" s="66"/>
+      <c r="K87" s="66"/>
+    </row>
+    <row r="88" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B88" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="C88" s="66"/>
+      <c r="D88" s="66"/>
+      <c r="E88" s="66"/>
+      <c r="F88" s="66"/>
+      <c r="G88" s="66"/>
+      <c r="H88" s="66"/>
+      <c r="I88" s="66"/>
+      <c r="J88" s="66"/>
+      <c r="K88" s="66"/>
+    </row>
+    <row r="89" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B89" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="C89" s="68"/>
+      <c r="D89" s="68"/>
+      <c r="E89" s="68"/>
+      <c r="F89" s="68"/>
+      <c r="G89" s="68"/>
+      <c r="H89" s="68"/>
+      <c r="I89" s="68"/>
+      <c r="J89" s="68"/>
+      <c r="K89" s="68"/>
+    </row>
+    <row r="90" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B90" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C90" s="31"/>
+      <c r="D90" s="31"/>
+      <c r="E90" s="31"/>
+      <c r="F90" s="31"/>
+      <c r="G90" s="31"/>
+      <c r="H90" s="31"/>
+      <c r="I90" s="31"/>
+      <c r="J90" s="31"/>
+      <c r="K90" s="31"/>
+    </row>
+    <row r="91" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B91" s="28"/>
+      <c r="C91" s="29"/>
+      <c r="D91" s="29"/>
+      <c r="E91" s="29"/>
+      <c r="F91" s="29"/>
+      <c r="G91" s="29"/>
+      <c r="H91" s="29"/>
+      <c r="I91" s="29"/>
+      <c r="J91" s="29"/>
+      <c r="K91" s="29"/>
+    </row>
+    <row r="92" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B92" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="C92" s="31"/>
+      <c r="D92" s="31"/>
+      <c r="E92" s="31"/>
+      <c r="F92" s="31"/>
+      <c r="G92" s="31"/>
+      <c r="H92" s="31"/>
+      <c r="I92" s="31"/>
+      <c r="J92" s="31"/>
+      <c r="K92" s="31"/>
+    </row>
+    <row r="93" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B93" s="32"/>
+      <c r="C93" s="33"/>
+      <c r="D93" s="33"/>
+      <c r="E93" s="33"/>
+      <c r="F93" s="33"/>
+      <c r="G93" s="33"/>
+      <c r="H93" s="33"/>
+      <c r="I93" s="33"/>
+      <c r="J93" s="33"/>
+      <c r="K93" s="33"/>
+    </row>
+    <row r="94" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B94" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C94" s="33"/>
+      <c r="D94" s="33"/>
+      <c r="E94" s="33"/>
+      <c r="F94" s="33"/>
+      <c r="G94" s="33"/>
+      <c r="H94" s="33"/>
+      <c r="I94" s="33"/>
+      <c r="J94" s="33"/>
+      <c r="K94" s="33"/>
+    </row>
+    <row r="95" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B95" s="32"/>
+      <c r="C95" s="33"/>
+      <c r="D95" s="33"/>
+      <c r="E95" s="33"/>
+      <c r="F95" s="33"/>
+      <c r="G95" s="33"/>
+      <c r="H95" s="33"/>
+      <c r="I95" s="33"/>
+      <c r="J95" s="33"/>
+      <c r="K95" s="33"/>
+    </row>
+    <row r="97" spans="2:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="B97" s="61" t="s">
+        <v>187</v>
+      </c>
+      <c r="C97" s="62"/>
+      <c r="D97" s="62"/>
+      <c r="E97" s="62"/>
+      <c r="F97" s="62"/>
+      <c r="G97" s="62"/>
+      <c r="H97" s="62"/>
+      <c r="I97" s="62"/>
+      <c r="J97" s="62"/>
+      <c r="K97" s="62"/>
+    </row>
+    <row r="98" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B98" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C98" s="35"/>
+      <c r="D98" s="35"/>
+      <c r="E98" s="35"/>
+      <c r="F98" s="35"/>
+      <c r="G98" s="35"/>
+      <c r="H98" s="35"/>
+      <c r="I98" s="35"/>
+      <c r="J98" s="35"/>
+      <c r="K98" s="35"/>
+    </row>
+    <row r="99" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B99" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C99" s="35"/>
+      <c r="D99" s="35"/>
+      <c r="E99" s="35"/>
+      <c r="F99" s="35"/>
+      <c r="G99" s="35"/>
+      <c r="H99" s="35"/>
+      <c r="I99" s="35"/>
+      <c r="J99" s="35"/>
+      <c r="K99" s="35"/>
+    </row>
+    <row r="100" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B100" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="C66" s="23"/>
-      <c r="D66" s="24"/>
-      <c r="E66" s="24"/>
-      <c r="F66" s="24"/>
-      <c r="G66" s="24"/>
-      <c r="H66" s="24"/>
-      <c r="I66" s="24"/>
-      <c r="J66" s="24"/>
-      <c r="K66" s="24"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B67" s="25"/>
-      <c r="C67" s="26"/>
-      <c r="D67" s="27"/>
-      <c r="E67" s="27"/>
-      <c r="F67" s="27"/>
-      <c r="G67" s="27"/>
-      <c r="H67" s="27"/>
-      <c r="I67" s="27"/>
-      <c r="J67" s="27"/>
-      <c r="K67" s="27"/>
-    </row>
-    <row r="69" spans="2:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="B69" s="52" t="s">
-        <v>116</v>
-      </c>
-      <c r="C69" s="53"/>
-      <c r="D69" s="53"/>
-      <c r="E69" s="53"/>
-      <c r="F69" s="53"/>
-      <c r="G69" s="53"/>
-      <c r="H69" s="53"/>
-      <c r="I69" s="53"/>
-      <c r="J69" s="53"/>
-      <c r="K69" s="31"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B70" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="C70" s="37"/>
-      <c r="D70" s="37"/>
-      <c r="E70" s="37"/>
-      <c r="F70" s="37"/>
-      <c r="G70" s="37"/>
-      <c r="H70" s="37"/>
-      <c r="I70" s="37"/>
-      <c r="J70" s="37"/>
-      <c r="K70" s="37"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B71" s="38"/>
-      <c r="C71" s="39"/>
-      <c r="D71" s="39"/>
-      <c r="E71" s="39"/>
-      <c r="F71" s="39"/>
-      <c r="G71" s="39"/>
-      <c r="H71" s="39"/>
-      <c r="I71" s="39"/>
-      <c r="J71" s="39"/>
-      <c r="K71" s="39"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B72" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="C72" s="39"/>
-      <c r="D72" s="39"/>
-      <c r="E72" s="39"/>
-      <c r="F72" s="39"/>
-      <c r="G72" s="39"/>
-      <c r="H72" s="39"/>
-      <c r="I72" s="39"/>
-      <c r="J72" s="39"/>
-      <c r="K72" s="39"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B73" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="C73" s="39"/>
-      <c r="D73" s="39"/>
-      <c r="E73" s="39"/>
-      <c r="F73" s="39"/>
-      <c r="G73" s="39"/>
-      <c r="H73" s="39"/>
-      <c r="I73" s="39"/>
-      <c r="J73" s="39"/>
-      <c r="K73" s="39"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B74" s="38"/>
-      <c r="C74" s="39"/>
-      <c r="D74" s="39"/>
-      <c r="E74" s="39"/>
-      <c r="F74" s="39"/>
-      <c r="G74" s="39"/>
-      <c r="H74" s="39"/>
-      <c r="I74" s="39"/>
-      <c r="J74" s="39"/>
-      <c r="K74" s="39"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B75" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="C75" s="39"/>
-      <c r="D75" s="39"/>
-      <c r="E75" s="39"/>
-      <c r="F75" s="39"/>
-      <c r="G75" s="39"/>
-      <c r="H75" s="39"/>
-      <c r="I75" s="39"/>
-      <c r="J75" s="39"/>
-      <c r="K75" s="39"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B76" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="C76" s="41"/>
-      <c r="D76" s="41"/>
-      <c r="E76" s="41"/>
-      <c r="F76" s="41"/>
-      <c r="G76" s="41"/>
-      <c r="H76" s="41"/>
-      <c r="I76" s="41"/>
-      <c r="J76" s="41"/>
-      <c r="K76" s="41"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B77" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="C77" s="31"/>
-      <c r="D77" s="31"/>
-      <c r="E77" s="31"/>
-      <c r="F77" s="31"/>
-      <c r="G77" s="31"/>
-      <c r="H77" s="31"/>
-      <c r="I77" s="31"/>
-      <c r="J77" s="31"/>
-      <c r="K77" s="31"/>
-    </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B78" s="28"/>
-      <c r="C78" s="29"/>
-      <c r="D78" s="29"/>
-      <c r="E78" s="29"/>
-      <c r="F78" s="29"/>
-      <c r="G78" s="29"/>
-      <c r="H78" s="29"/>
-      <c r="I78" s="29"/>
-      <c r="J78" s="29"/>
-      <c r="K78" s="29"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B79" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="C79" s="31"/>
-      <c r="D79" s="31"/>
-      <c r="E79" s="31"/>
-      <c r="F79" s="31"/>
-      <c r="G79" s="31"/>
-      <c r="H79" s="31"/>
-      <c r="I79" s="31"/>
-      <c r="J79" s="31"/>
-      <c r="K79" s="31"/>
-    </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B80" s="32"/>
-      <c r="C80" s="33"/>
-      <c r="D80" s="33"/>
-      <c r="E80" s="33"/>
-      <c r="F80" s="33"/>
-      <c r="G80" s="33"/>
-      <c r="H80" s="33"/>
-      <c r="I80" s="33"/>
-      <c r="J80" s="33"/>
-      <c r="K80" s="33"/>
-    </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B81" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="C81" s="33"/>
-      <c r="D81" s="33"/>
-      <c r="E81" s="33"/>
-      <c r="F81" s="33"/>
-      <c r="G81" s="33"/>
-      <c r="H81" s="33"/>
-      <c r="I81" s="33"/>
-      <c r="J81" s="33"/>
-      <c r="K81" s="33"/>
-    </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B82" s="32"/>
-      <c r="C82" s="33"/>
-      <c r="D82" s="33"/>
-      <c r="E82" s="33"/>
-      <c r="F82" s="33"/>
-      <c r="G82" s="33"/>
-      <c r="H82" s="33"/>
-      <c r="I82" s="33"/>
-      <c r="J82" s="33"/>
-      <c r="K82" s="33"/>
-    </row>
-    <row r="84" spans="2:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="B84" s="54" t="s">
-        <v>37</v>
-      </c>
-      <c r="C84" s="55"/>
-      <c r="D84" s="55"/>
-      <c r="E84" s="55"/>
-      <c r="F84" s="55"/>
-      <c r="G84" s="55"/>
-      <c r="H84" s="55"/>
-      <c r="I84" s="55"/>
-      <c r="J84" s="55"/>
-      <c r="K84" s="55"/>
-    </row>
-    <row r="85" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B85" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="C85" s="35"/>
-      <c r="D85" s="35"/>
-      <c r="E85" s="35"/>
-      <c r="F85" s="35"/>
-      <c r="G85" s="35"/>
-      <c r="H85" s="35"/>
-      <c r="I85" s="35"/>
-      <c r="J85" s="35"/>
-      <c r="K85" s="35"/>
-    </row>
-    <row r="86" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B86" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="C86" s="35"/>
-      <c r="D86" s="35"/>
-      <c r="E86" s="35"/>
-      <c r="F86" s="35"/>
-      <c r="G86" s="35"/>
-      <c r="H86" s="35"/>
-      <c r="I86" s="35"/>
-      <c r="J86" s="35"/>
-      <c r="K86" s="35"/>
-    </row>
-    <row r="87" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B87" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="C87" s="35"/>
-      <c r="D87" s="35"/>
-      <c r="E87" s="35"/>
-      <c r="F87" s="35"/>
-      <c r="G87" s="35"/>
-      <c r="H87" s="35"/>
-      <c r="I87" s="35"/>
-      <c r="J87" s="35"/>
-      <c r="K87" s="35"/>
+      <c r="C100" s="35"/>
+      <c r="D100" s="35"/>
+      <c r="E100" s="35"/>
+      <c r="F100" s="35"/>
+      <c r="G100" s="35"/>
+      <c r="H100" s="35"/>
+      <c r="I100" s="35"/>
+      <c r="J100" s="35"/>
+      <c r="K100" s="35"/>
+    </row>
+    <row r="101" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B101" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="C101" s="35"/>
+      <c r="D101" s="35"/>
+      <c r="E101" s="35"/>
+      <c r="F101" s="35"/>
+      <c r="G101" s="35"/>
+      <c r="H101" s="35"/>
+      <c r="I101" s="35"/>
+      <c r="J101" s="35"/>
+      <c r="K101" s="35"/>
+    </row>
+    <row r="102" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B102" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="C102" s="35"/>
+      <c r="D102" s="35"/>
+      <c r="E102" s="35"/>
+      <c r="F102" s="35"/>
+      <c r="G102" s="35"/>
+      <c r="H102" s="35"/>
+      <c r="I102" s="35"/>
+      <c r="J102" s="35"/>
+      <c r="K102" s="35"/>
+    </row>
+    <row r="103" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B103" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="C103" s="35"/>
+      <c r="D103" s="35"/>
+      <c r="E103" s="35"/>
+      <c r="F103" s="35"/>
+      <c r="G103" s="35"/>
+      <c r="H103" s="35"/>
+      <c r="I103" s="35"/>
+      <c r="J103" s="35"/>
+      <c r="K103" s="35"/>
+    </row>
+    <row r="104" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B104" s="34"/>
+      <c r="C104" s="35"/>
+      <c r="D104" s="35"/>
+      <c r="E104" s="35"/>
+      <c r="F104" s="35"/>
+      <c r="G104" s="35"/>
+      <c r="H104" s="35"/>
+      <c r="I104" s="35"/>
+      <c r="J104" s="35"/>
+      <c r="K104" s="35"/>
+    </row>
+    <row r="106" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C106" s="71"/>
+      <c r="D106" s="71"/>
+      <c r="E106" s="71"/>
+      <c r="F106" s="71"/>
+      <c r="G106" s="71"/>
+      <c r="H106" s="71"/>
+      <c r="I106" s="71"/>
+      <c r="J106" s="71"/>
+      <c r="K106" s="71"/>
+    </row>
+    <row r="107" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C107" s="71"/>
+      <c r="D107" s="71"/>
+      <c r="E107" s="71"/>
+      <c r="F107" s="71"/>
+      <c r="G107" s="71"/>
+      <c r="H107" s="71"/>
+      <c r="I107" s="71"/>
+      <c r="J107" s="71"/>
+      <c r="K107" s="71"/>
+    </row>
+    <row r="108" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C108" s="71"/>
+      <c r="D108" s="71"/>
+      <c r="E108" s="71"/>
+      <c r="F108" s="71"/>
+      <c r="G108" s="71"/>
+      <c r="H108" s="71"/>
+      <c r="I108" s="71"/>
+      <c r="J108" s="71"/>
+      <c r="K108" s="71"/>
+    </row>
+    <row r="109" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C109" s="71"/>
+      <c r="D109" s="71"/>
+      <c r="E109" s="71"/>
+      <c r="F109" s="71"/>
+      <c r="G109" s="71"/>
+      <c r="H109" s="71"/>
+      <c r="I109" s="71"/>
+      <c r="J109" s="71"/>
+      <c r="K109" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B32:K32"/>
+    <mergeCell ref="B51:K51"/>
+    <mergeCell ref="B82:J82"/>
+    <mergeCell ref="B97:K97"/>
+    <mergeCell ref="B83:K83"/>
     <mergeCell ref="B84:K84"/>
-    <mergeCell ref="B70:K70"/>
-    <mergeCell ref="B71:K71"/>
-    <mergeCell ref="B72:K72"/>
-    <mergeCell ref="B73:K73"/>
-    <mergeCell ref="B74:K74"/>
-    <mergeCell ref="B75:K75"/>
-    <mergeCell ref="B76:K76"/>
-    <mergeCell ref="B19:K19"/>
-    <mergeCell ref="B38:K38"/>
-    <mergeCell ref="B69:J69"/>
+    <mergeCell ref="B85:K85"/>
+    <mergeCell ref="B86:K86"/>
+    <mergeCell ref="B87:K87"/>
+    <mergeCell ref="B88:K88"/>
+    <mergeCell ref="B89:K89"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2415,8 +2785,8 @@
   </sheetPr>
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2430,462 +2800,462 @@
     <col min="26" max="16384" width="11.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="68" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="65" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="66" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1" s="74" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="75" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
-      <c r="W1" s="67"/>
-      <c r="X1" s="67"/>
-      <c r="Y1" s="67"/>
+    <row r="1" spans="1:25" s="81" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="75" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="76" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="77" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="78" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="79" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
+      <c r="W1" s="80"/>
+      <c r="X1" s="80"/>
+      <c r="Y1" s="80"/>
     </row>
     <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="69" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="70" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="70" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="70" t="s">
-        <v>50</v>
+        <v>37</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="48" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="69" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="70" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="70" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="70" t="s">
-        <v>54</v>
+        <v>37</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="48" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="71" t="s">
-        <v>153</v>
-      </c>
-      <c r="C4" s="70" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="70" t="s">
+      <c r="D4" s="48" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" s="48" t="s">
         <v>133</v>
-      </c>
-      <c r="E4" s="70" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="69" t="s">
-        <v>119</v>
-      </c>
-      <c r="C5" s="70" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="70" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="70"/>
+        <v>37</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="48"/>
     </row>
     <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="71" t="s">
-        <v>154</v>
-      </c>
-      <c r="C6" s="70" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" s="70" t="s">
-        <v>134</v>
-      </c>
-      <c r="E6" s="70" t="s">
-        <v>60</v>
+        <v>49</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="48" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" s="69" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="70" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" s="70" t="s">
-        <v>64</v>
+        <v>49</v>
+      </c>
+      <c r="B7" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="48" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="69" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="70" t="s">
-        <v>63</v>
-      </c>
-      <c r="E8" s="70" t="s">
-        <v>64</v>
+        <v>49</v>
+      </c>
+      <c r="B8" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="48" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="69" t="s">
-        <v>120</v>
-      </c>
-      <c r="C9" s="70" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="70" t="s">
-        <v>67</v>
-      </c>
-      <c r="E9" s="70" t="s">
-        <v>68</v>
+        <v>37</v>
+      </c>
+      <c r="B9" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="48" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" s="69" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" s="70" t="s">
-        <v>70</v>
-      </c>
-      <c r="D10" s="70" t="s">
-        <v>71</v>
-      </c>
-      <c r="E10" s="70" t="s">
-        <v>72</v>
+        <v>49</v>
+      </c>
+      <c r="B10" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="48" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" s="69" t="s">
-        <v>121</v>
-      </c>
-      <c r="C11" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="48" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" s="48" t="s">
         <v>125</v>
       </c>
-      <c r="D11" s="70" t="s">
-        <v>135</v>
-      </c>
-      <c r="E11" s="70" t="s">
-        <v>73</v>
+      <c r="E11" s="48" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="69" t="s">
-        <v>74</v>
-      </c>
-      <c r="C12" s="70" t="s">
-        <v>75</v>
-      </c>
-      <c r="D12" s="70" t="s">
-        <v>76</v>
-      </c>
-      <c r="E12" s="70" t="s">
-        <v>77</v>
+        <v>37</v>
+      </c>
+      <c r="B12" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="48" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="69" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="D13" s="70" t="s">
-        <v>136</v>
-      </c>
-      <c r="E13" s="70" t="s">
-        <v>144</v>
+      <c r="E13" s="48" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="69" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14" s="70" t="s">
-        <v>127</v>
-      </c>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70" t="s">
-        <v>80</v>
+        <v>37</v>
+      </c>
+      <c r="B14" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="69" t="s">
-        <v>81</v>
-      </c>
-      <c r="C15" s="70" t="s">
-        <v>82</v>
-      </c>
-      <c r="D15" s="70" t="s">
-        <v>137</v>
-      </c>
-      <c r="E15" s="70" t="s">
-        <v>145</v>
+        <v>37</v>
+      </c>
+      <c r="B15" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="48" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15" s="48" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="69" t="s">
-        <v>122</v>
-      </c>
-      <c r="C16" s="70" t="s">
-        <v>83</v>
-      </c>
-      <c r="D16" s="70" t="s">
-        <v>84</v>
-      </c>
-      <c r="E16" s="70" t="s">
-        <v>85</v>
+        <v>37</v>
+      </c>
+      <c r="B16" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="48" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="72" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17" s="73" t="s">
-        <v>87</v>
-      </c>
-      <c r="D17" s="73" t="s">
-        <v>138</v>
-      </c>
-      <c r="E17" s="73" t="s">
-        <v>146</v>
+        <v>37</v>
+      </c>
+      <c r="B17" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="E17" s="51" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="69" t="s">
-        <v>88</v>
-      </c>
-      <c r="C18" s="70" t="s">
-        <v>128</v>
-      </c>
-      <c r="D18" s="70" t="s">
-        <v>89</v>
-      </c>
-      <c r="E18" s="70" t="s">
-        <v>147</v>
+        <v>37</v>
+      </c>
+      <c r="B18" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="48" t="s">
+        <v>118</v>
+      </c>
+      <c r="D18" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" s="48" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="76" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="69" t="s">
-        <v>90</v>
-      </c>
-      <c r="C19" s="70" t="s">
-        <v>91</v>
-      </c>
-      <c r="D19" s="70" t="s">
-        <v>139</v>
-      </c>
-      <c r="E19" s="70" t="s">
-        <v>92</v>
+      <c r="A19" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="48" t="s">
+        <v>129</v>
+      </c>
+      <c r="E19" s="48" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="69" t="s">
-        <v>93</v>
-      </c>
-      <c r="C20" s="70" t="s">
-        <v>94</v>
-      </c>
-      <c r="D20" s="70" t="s">
-        <v>95</v>
-      </c>
-      <c r="E20" s="70" t="s">
-        <v>96</v>
+        <v>37</v>
+      </c>
+      <c r="B20" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20" s="48" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="69" t="s">
-        <v>123</v>
-      </c>
-      <c r="C21" s="70" t="s">
-        <v>129</v>
-      </c>
-      <c r="D21" s="70" t="s">
-        <v>97</v>
-      </c>
-      <c r="E21" s="70" t="s">
-        <v>148</v>
+        <v>37</v>
+      </c>
+      <c r="B21" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" s="48" t="s">
+        <v>119</v>
+      </c>
+      <c r="D21" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" s="48" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="69" t="s">
-        <v>98</v>
-      </c>
-      <c r="C22" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="48" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="D22" s="70" t="s">
-        <v>140</v>
-      </c>
-      <c r="E22" s="70" t="s">
-        <v>149</v>
+      <c r="E22" s="48" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="69" t="s">
-        <v>99</v>
-      </c>
-      <c r="C23" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="48" t="s">
+        <v>121</v>
+      </c>
+      <c r="D23" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="D23" s="70" t="s">
-        <v>141</v>
-      </c>
-      <c r="E23" s="70" t="s">
-        <v>150</v>
+      <c r="E23" s="48" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="69" t="s">
-        <v>100</v>
-      </c>
-      <c r="C24" s="70" t="s">
-        <v>101</v>
-      </c>
-      <c r="D24" s="70" t="s">
-        <v>102</v>
-      </c>
-      <c r="E24" s="70" t="s">
-        <v>103</v>
+        <v>37</v>
+      </c>
+      <c r="B24" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="E24" s="48" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" s="69" t="s">
-        <v>104</v>
-      </c>
-      <c r="C25" s="70" t="s">
-        <v>105</v>
-      </c>
-      <c r="D25" s="70" t="s">
-        <v>106</v>
-      </c>
-      <c r="E25" s="70" t="s">
-        <v>151</v>
+        <v>37</v>
+      </c>
+      <c r="B25" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="E25" s="48" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" s="69" t="s">
-        <v>124</v>
-      </c>
-      <c r="C26" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="C26" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="D26" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="D26" s="70" t="s">
+      <c r="E26" s="48" t="s">
         <v>142</v>
-      </c>
-      <c r="E26" s="70" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/P4_analyse_by_shehzad.xlsx
+++ b/P4_analyse_by_shehzad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bureau\Desktop\P4_shehzad_qaiser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E8E344-B2EA-4BA3-BAA7-D71E07302FDB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9AF1438-C5E4-4C3F-B9F4-480EC1765A1D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18690" windowHeight="9135" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="235">
   <si>
     <t>URL :</t>
   </si>
@@ -122,12 +122,6 @@
   </si>
   <si>
     <t>Présence de liens spammy ?</t>
-  </si>
-  <si>
-    <t>Categorie</t>
-  </si>
-  <si>
-    <t>Problème analysé</t>
   </si>
   <si>
     <t>Bonne pratique à adopter</t>
@@ -650,12 +644,126 @@
   <si>
     <t xml:space="preserve">Teste l'accessibilité avec Tanaguru </t>
   </si>
+  <si>
+    <t>La checklist pour renforcer son SEO on-site</t>
+  </si>
+  <si>
+    <t>Les « classiques » du SEO à réaliser en priorité</t>
+  </si>
+  <si>
+    <t>2) Vérifiez que toutes vos pages ont une balise META &lt;title&gt; qui ne dépasse pas 65 caractères idéalement.</t>
+  </si>
+  <si>
+    <t>3) Rédigez des balises META &lt;description&gt; entre 70 et 320 caractères qui donnent envie aux internautes de cliquer.</t>
+  </si>
+  <si>
+    <t>4) Vos URLs doivent être compréhensibles par un humain, et idéalement ne dépassent pas 115 caractères.</t>
+  </si>
+  <si>
+    <t>Votre contenu à proprement dit</t>
+  </si>
+  <si>
+    <t>5) Rédigez des contenus de plus de 500 mots, voire encore plus longs si vous le pouvez (la longueur du texte compte pour votre référencement).</t>
+  </si>
+  <si>
+    <t>6) Utilisez les mots justes et un vocabulaire riche dans vos contenus pour maximiser votre impact SEO (aidez vous d’un outil).</t>
+  </si>
+  <si>
+    <t>7) Utilisez des images dans vos contenus, en prenant soin de renseigner les balises &lt;alt&gt; et &lt;title&gt; de vos visuels.</t>
+  </si>
+  <si>
+    <t>8) Prenez soins de garder la taille de vos images la plus légère possible pour ne pas impacter défavorablement votre temps de chargement.</t>
+  </si>
+  <si>
+    <t>9) « Stratégisez » votre maillage interne en utilisant un outil comme Google Search Console.</t>
+  </si>
+  <si>
+    <t>Soigner la structuration HTML</t>
+  </si>
+  <si>
+    <t>10) Structurez votre contenu avec des titres H1 – H6.</t>
+  </si>
+  <si>
+    <t>11) Si vous avez un contenu qui se lit sur plusieurs pages, utilisez les balises de pagination rel= »next » et rel= »prev ».</t>
+  </si>
+  <si>
+    <t>12) Si votre contenu s’y prête, n’oubliez pas d’ajouter toutes les micro-données possibles  (voir schema.org).</t>
+  </si>
+  <si>
+    <t>13) Votre contenu texte doit idéalement représenter plus de 10% de votre code HTML.</t>
+  </si>
+  <si>
+    <t>L’expérience utilisateur a aussi un impact SEO</t>
+  </si>
+  <si>
+    <t>15) Assurez-vous que votre site est compatible avec les appareils mobiles et évitez les erreurs UX basiques d’un site mobile.</t>
+  </si>
+  <si>
+    <t>16) Assurez vous de garder une page légère, pour favoriser un temps de chargement rapide.</t>
+  </si>
+  <si>
+    <t>17) Corrigez toutes les erreurs d’exploitation, et faites la chasse aux pages 404.</t>
+  </si>
+  <si>
+    <t>18) Déliez tous les liens cassés qui peuvent être présents sur votre site.</t>
+  </si>
+  <si>
+    <t>19) Ajoutez une Favicon à votre site, qui apparaisse sur tous les navigateurs.</t>
+  </si>
+  <si>
+    <t>20) Ne pensez pas qu’aux moteurs de recherche et cherchez à développer une vraie marque sur la toile pour gagner la bataille du « préférencement ».</t>
+  </si>
+  <si>
+    <t>Les éléments techniques SEO à prendre en compte</t>
+  </si>
+  <si>
+    <t>21) Assurez-vous d’avoir un sitemap XML</t>
+  </si>
+  <si>
+    <t>23) Eviter que les éventuels paramètres de vos URLs (ex: quand vous filtrez un catalogue produit) génèrent du duplicate content, ou cannibalisent le SEO d’autres pages.</t>
+  </si>
+  <si>
+    <t>24) De manière générale, évitez les techniques de cloaking (servir un contenu différent aux moteurs de recherche et aux utilisateurs)</t>
+  </si>
+  <si>
+    <t>25) Passez au protocole HTTPs (tout en évitant ses pièges SEO)</t>
+  </si>
+  <si>
+    <t>5. CHECK LIST SEO</t>
+  </si>
+  <si>
+    <t>d’une en-tête HTTP X-Robots-Tag ou d’une indication de non indexation dans votre fichier robot.txt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Assurez vous que l‘indexation de vos pages n’est pas bloquée à cause d’une balise NoIndex, </t>
+  </si>
+  <si>
+    <t>pour essayer d’influencer votre classement dans les moteurs de recherche.</t>
+  </si>
+  <si>
+    <t>14) N’utilisez pas de liens ou de textes cachés (par exemple un texte blanc sur fond blanc) au risque que Google considère la manœuvre comme une tentative malhonnête</t>
+  </si>
+  <si>
+    <t>Utilisez une balise &lt;canonical&gt; pour déclarer quelle variante vous voulez voir dans les résultats de recherche.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22) Évitez le duplicate content « bête » à cause des deux variantes de votre site, avec ou sans les « www » (par exemple, http://www.monsite.com et http://monsite.com). </t>
+  </si>
+  <si>
+    <t>N°</t>
+  </si>
+  <si>
+    <t>Problèmes analysés</t>
+  </si>
+  <si>
+    <t>Categories</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -767,8 +875,14 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -838,6 +952,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -972,7 +1104,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
@@ -1034,26 +1166,41 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1096,37 +1243,44 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1138,6 +1292,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFFCC"/>
       <color rgb="FFCC66FF"/>
       <color rgb="FF00CC99"/>
       <color rgb="FF00CCFF"/>
@@ -1158,7 +1313,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>249382</xdr:rowOff>
@@ -1480,37 +1635,37 @@
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:L109"/>
+  <dimension ref="A1:L169"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView showGridLines="0" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" style="71"/>
+    <col min="1" max="1" width="10.88671875" style="51"/>
     <col min="2" max="2" width="21.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="10.88671875" style="1"/>
     <col min="6" max="6" width="16.88671875" style="1" customWidth="1"/>
     <col min="7" max="10" width="10.88671875" style="1"/>
-    <col min="11" max="11" width="58.5546875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.88671875" style="71"/>
+    <col min="11" max="11" width="66.77734375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.88671875" style="51"/>
     <col min="13" max="16384" width="10.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
       <c r="D1" s="39"/>
       <c r="E1" s="37"/>
       <c r="F1" s="40" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G1" s="38"/>
       <c r="H1" s="38"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="74"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="54"/>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="41"/>
@@ -1529,215 +1684,212 @@
       <c r="K3" s="45"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="49" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="2"/>
       <c r="K4" s="45"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="70"/>
+      <c r="B5" s="50"/>
       <c r="K5" s="45"/>
     </row>
     <row r="6" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="69" t="s">
+      <c r="B6" s="49" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K6" s="45"/>
     </row>
     <row r="7" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="70"/>
+      <c r="B7" s="50"/>
       <c r="K7" s="45"/>
     </row>
     <row r="8" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="69" t="s">
+      <c r="B8" s="49" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K8" s="45"/>
     </row>
     <row r="9" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="70"/>
+      <c r="B9" s="50"/>
       <c r="C9" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K9" s="45"/>
     </row>
     <row r="10" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="70"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K10" s="45"/>
     </row>
     <row r="11" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="69" t="s">
+      <c r="B11" s="50"/>
+      <c r="K11" s="45"/>
+    </row>
+    <row r="12" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="53" t="s">
+      <c r="C12" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="K11" s="45"/>
-    </row>
-    <row r="12" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="54"/>
-      <c r="C12" s="53" t="s">
-        <v>156</v>
-      </c>
       <c r="G12" s="1" t="s">
-        <v>192</v>
+        <v>163</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>164</v>
       </c>
       <c r="K12" s="45"/>
     </row>
     <row r="13" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="42"/>
-      <c r="C13" s="53" t="s">
-        <v>157</v>
+      <c r="B13" s="48"/>
+      <c r="C13" s="47" t="s">
+        <v>154</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="K13" s="45"/>
     </row>
     <row r="14" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="42"/>
-      <c r="C14" s="53" t="s">
-        <v>158</v>
+      <c r="C14" s="47" t="s">
+        <v>155</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="K14" s="45"/>
     </row>
     <row r="15" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="42"/>
-      <c r="C15" s="53" t="s">
-        <v>196</v>
+      <c r="C15" s="47" t="s">
+        <v>156</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="K15" s="45"/>
     </row>
     <row r="16" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="42"/>
-      <c r="C16" s="53" t="s">
-        <v>198</v>
+      <c r="C16" s="47" t="s">
+        <v>194</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="K16" s="45"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="42"/>
-      <c r="C17" s="53" t="s">
-        <v>167</v>
+      <c r="C17" s="47" t="s">
+        <v>196</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>159</v>
+        <v>195</v>
       </c>
       <c r="K17" s="45"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" s="42"/>
-      <c r="C18" s="53" t="s">
-        <v>160</v>
+      <c r="C18" s="47" t="s">
+        <v>165</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="K18" s="45"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" s="42"/>
-      <c r="C19" s="53" t="s">
-        <v>190</v>
+      <c r="C19" s="47" t="s">
+        <v>158</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>191</v>
+        <v>159</v>
       </c>
       <c r="K19" s="45"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" s="42"/>
-      <c r="C20" s="53" t="s">
+      <c r="C20" s="47" t="s">
+        <v>188</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="K20" s="45"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" s="42"/>
-      <c r="C21" s="53" t="s">
-        <v>174</v>
+      <c r="C21" s="47" t="s">
+        <v>187</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="K21" s="45"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" s="42"/>
-      <c r="C22" s="53"/>
+      <c r="C22" s="47" t="s">
+        <v>172</v>
+      </c>
       <c r="G22" s="1" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="K22" s="45"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23" s="42"/>
-      <c r="C23" s="53" t="s">
+      <c r="C23" s="47"/>
+      <c r="G23" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="K23" s="45"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24" s="42"/>
-      <c r="C24" s="53" t="s">
+      <c r="C24" s="47" t="s">
         <v>171</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="K24" s="45"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25" s="42"/>
-      <c r="C25" s="53" t="s">
-        <v>177</v>
+      <c r="C25" s="47" t="s">
+        <v>169</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="K25" s="45"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B26" s="42"/>
-      <c r="C26" s="53"/>
+      <c r="C26" s="47" t="s">
+        <v>175</v>
+      </c>
       <c r="G26" s="1" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="K26" s="45"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B27" s="42"/>
+      <c r="C27" s="47"/>
       <c r="G27" s="1" t="s">
         <v>176</v>
       </c>
@@ -1745,77 +1897,72 @@
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B28" s="42"/>
-      <c r="C28" s="53" t="s">
-        <v>180</v>
-      </c>
       <c r="G28" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="K28" s="45"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B29" s="42"/>
-      <c r="C29" s="53" t="s">
-        <v>181</v>
+      <c r="C29" s="47" t="s">
+        <v>178</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="K29" s="45"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B30" s="42"/>
+      <c r="C30" s="47" t="s">
+        <v>179</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>180</v>
+      </c>
       <c r="K30" s="45"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B31" s="43"/>
-      <c r="K31" s="46"/>
-    </row>
-    <row r="32" spans="2:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="B32" s="55" t="s">
-        <v>183</v>
-      </c>
-      <c r="C32" s="56"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="56"/>
-      <c r="H32" s="56"/>
-      <c r="I32" s="56"/>
-      <c r="J32" s="56"/>
-      <c r="K32" s="56"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B33" s="5" t="s">
+      <c r="B31" s="42"/>
+      <c r="K31" s="45"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B32" s="43"/>
+      <c r="K32" s="46"/>
+    </row>
+    <row r="33" spans="2:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="B33" s="62" t="s">
+        <v>181</v>
+      </c>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="63"/>
+      <c r="K33" s="63"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B34" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B34" s="3"/>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B35" s="3"/>
+      <c r="C35" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D34" s="8"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B35" s="4"/>
-      <c r="C35" s="7"/>
       <c r="D35" s="8"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
@@ -1826,36 +1973,36 @@
       <c r="K35" s="4"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="4"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B37" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B37" s="3"/>
-      <c r="C37" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D37" s="8"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B38" s="4"/>
-      <c r="C38" s="7"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="7" t="s">
+        <v>96</v>
+      </c>
       <c r="D38" s="8"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
@@ -1866,37 +2013,35 @@
       <c r="K38" s="4"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="4"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B40" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B40" s="3"/>
-      <c r="C40" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="D40" s="8"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B41" s="4"/>
+      <c r="B41" s="3"/>
       <c r="C41" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="4"/>
@@ -1908,37 +2053,37 @@
       <c r="K41" s="4"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="4"/>
+      <c r="C42" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B43" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B43" s="3"/>
-      <c r="C43" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D43" s="8"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B44" s="3"/>
       <c r="C44" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="4"/>
@@ -1952,7 +2097,7 @@
     <row r="45" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B45" s="3"/>
       <c r="C45" s="7" t="s">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="4"/>
@@ -1965,8 +2110,10 @@
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B46" s="3"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
+      <c r="C46" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D46" s="8"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
@@ -1976,90 +2123,90 @@
       <c r="K46" s="4"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="3"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B48" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B48" s="3"/>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B49" s="3"/>
+      <c r="C49" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D48" s="8"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
-    </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B49" s="9"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="10"/>
-    </row>
-    <row r="51" spans="2:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="B51" s="57" t="s">
-        <v>184</v>
-      </c>
-      <c r="C51" s="58"/>
-      <c r="D51" s="58"/>
-      <c r="E51" s="58"/>
-      <c r="F51" s="58"/>
-      <c r="G51" s="58"/>
-      <c r="H51" s="58"/>
-      <c r="I51" s="58"/>
-      <c r="J51" s="58"/>
-      <c r="K51" s="58"/>
-    </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B52" s="13" t="s">
+      <c r="D49" s="8"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B50" s="9"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+    </row>
+    <row r="52" spans="2:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="B52" s="64" t="s">
+        <v>182</v>
+      </c>
+      <c r="C52" s="65"/>
+      <c r="D52" s="65"/>
+      <c r="E52" s="65"/>
+      <c r="F52" s="65"/>
+      <c r="G52" s="65"/>
+      <c r="H52" s="65"/>
+      <c r="I52" s="65"/>
+      <c r="J52" s="65"/>
+      <c r="K52" s="65"/>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B53" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
-      <c r="H52" s="14"/>
-      <c r="I52" s="14"/>
-      <c r="J52" s="14"/>
-      <c r="K52" s="14"/>
-    </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B53" s="12"/>
-      <c r="C53" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D53" s="12"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="12"/>
-      <c r="I53" s="12"/>
-      <c r="J53" s="12"/>
-      <c r="K53" s="12"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="14"/>
+      <c r="K53" s="14"/>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B54" s="12"/>
-      <c r="C54" s="12"/>
+      <c r="C54" s="15" t="s">
+        <v>15</v>
+      </c>
       <c r="D54" s="12"/>
       <c r="E54" s="16"/>
       <c r="F54" s="12"/>
@@ -2070,88 +2217,88 @@
       <c r="K54" s="12"/>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B55" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="14"/>
-      <c r="J55" s="14"/>
-      <c r="K55" s="14"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="12"/>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="12"/>
-      <c r="I56" s="12"/>
-      <c r="J56" s="12"/>
-      <c r="K56" s="12"/>
+      <c r="B56" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="14"/>
+      <c r="J56" s="14"/>
+      <c r="K56" s="14"/>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B57" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14"/>
-      <c r="H57" s="14"/>
-      <c r="I57" s="14"/>
-      <c r="J57" s="14"/>
-      <c r="K57" s="14"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="12"/>
+      <c r="K57" s="12"/>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B58" s="12"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="12"/>
-      <c r="I58" s="12"/>
-      <c r="J58" s="12"/>
-      <c r="K58" s="12"/>
+      <c r="B58" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="14"/>
+      <c r="I58" s="14"/>
+      <c r="J58" s="14"/>
+      <c r="K58" s="14"/>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B59" s="13" t="s">
+      <c r="B59" s="12"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="12"/>
+      <c r="K59" s="12"/>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B60" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="14"/>
-      <c r="H59" s="14"/>
-      <c r="I59" s="14"/>
-      <c r="J59" s="14"/>
-      <c r="K59" s="14"/>
-    </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B60" s="12"/>
-      <c r="C60" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D60" s="12"/>
-      <c r="E60" s="16"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="12"/>
-      <c r="H60" s="12"/>
-      <c r="I60" s="12"/>
-      <c r="J60" s="12"/>
-      <c r="K60" s="12"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="14"/>
+      <c r="H60" s="14"/>
+      <c r="I60" s="14"/>
+      <c r="J60" s="14"/>
+      <c r="K60" s="14"/>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B61" s="12"/>
-      <c r="C61" s="15"/>
+      <c r="C61" s="15" t="s">
+        <v>17</v>
+      </c>
       <c r="D61" s="12"/>
       <c r="E61" s="16"/>
       <c r="F61" s="12"/>
@@ -2162,63 +2309,61 @@
       <c r="K61" s="12"/>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B62" s="13" t="s">
+      <c r="B62" s="12"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="12"/>
+      <c r="K62" s="12"/>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B63" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c r="G62" s="14"/>
-      <c r="H62" s="14"/>
-      <c r="I62" s="14"/>
-      <c r="J62" s="14"/>
-      <c r="K62" s="14"/>
-    </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B63" s="12"/>
-      <c r="C63" s="12"/>
-      <c r="D63" s="12"/>
-      <c r="E63" s="16"/>
-      <c r="F63" s="12"/>
-      <c r="G63" s="12"/>
-      <c r="H63" s="12"/>
-      <c r="I63" s="12"/>
-      <c r="J63" s="12"/>
-      <c r="K63" s="12"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="14"/>
+      <c r="I63" s="14"/>
+      <c r="J63" s="14"/>
+      <c r="K63" s="14"/>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B64" s="13" t="s">
+      <c r="B64" s="12"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="12"/>
+      <c r="K64" s="12"/>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B65" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c r="G64" s="14"/>
-      <c r="H64" s="14"/>
-      <c r="I64" s="14"/>
-      <c r="J64" s="14"/>
-      <c r="K64" s="14"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B65" s="12"/>
-      <c r="C65" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="D65" s="12"/>
-      <c r="E65" s="16"/>
-      <c r="F65" s="12"/>
-      <c r="G65" s="12"/>
-      <c r="H65" s="12"/>
-      <c r="I65" s="12"/>
-      <c r="J65" s="12"/>
-      <c r="K65" s="12"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="14"/>
+      <c r="H65" s="14"/>
+      <c r="I65" s="14"/>
+      <c r="J65" s="14"/>
+      <c r="K65" s="14"/>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B66" s="12"/>
       <c r="C66" s="15" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D66" s="12"/>
       <c r="E66" s="16"/>
@@ -2230,37 +2375,37 @@
       <c r="K66" s="12"/>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B67" s="13" t="s">
+      <c r="B67" s="12"/>
+      <c r="C67" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D67" s="12"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="12"/>
+      <c r="J67" s="12"/>
+      <c r="K67" s="12"/>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B68" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C67" s="17"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c r="G67" s="14"/>
-      <c r="H67" s="14"/>
-      <c r="I67" s="14"/>
-      <c r="J67" s="14"/>
-      <c r="K67" s="14"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B68" s="12"/>
-      <c r="C68" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="D68" s="12"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="12"/>
-      <c r="G68" s="12"/>
-      <c r="H68" s="12"/>
-      <c r="I68" s="12"/>
-      <c r="J68" s="12"/>
-      <c r="K68" s="12"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="14"/>
+      <c r="J68" s="14"/>
+      <c r="K68" s="14"/>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B69" s="12"/>
       <c r="C69" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D69" s="12"/>
       <c r="E69" s="12"/>
@@ -2274,10 +2419,10 @@
     <row r="70" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B70" s="12"/>
       <c r="C70" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D70" s="12"/>
-      <c r="E70" s="16"/>
+      <c r="E70" s="12"/>
       <c r="F70" s="12"/>
       <c r="G70" s="12"/>
       <c r="H70" s="12"/>
@@ -2286,37 +2431,37 @@
       <c r="K70" s="12"/>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B71" s="13" t="s">
+      <c r="B71" s="12"/>
+      <c r="C71" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="D71" s="12"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="12"/>
+      <c r="I71" s="12"/>
+      <c r="J71" s="12"/>
+      <c r="K71" s="12"/>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B72" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c r="G71" s="14"/>
-      <c r="H71" s="14"/>
-      <c r="I71" s="14"/>
-      <c r="J71" s="14"/>
-      <c r="K71" s="14"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B72" s="12"/>
-      <c r="C72" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="D72" s="12"/>
-      <c r="E72" s="16"/>
-      <c r="F72" s="12"/>
-      <c r="G72" s="12"/>
-      <c r="H72" s="12"/>
-      <c r="I72" s="12"/>
-      <c r="J72" s="12"/>
-      <c r="K72" s="12"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c r="G72" s="14"/>
+      <c r="H72" s="14"/>
+      <c r="I72" s="14"/>
+      <c r="J72" s="14"/>
+      <c r="K72" s="14"/>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B73" s="12"/>
       <c r="C73" s="15" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D73" s="12"/>
       <c r="E73" s="16"/>
@@ -2330,7 +2475,7 @@
     <row r="74" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B74" s="12"/>
       <c r="C74" s="15" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D74" s="12"/>
       <c r="E74" s="16"/>
@@ -2343,7 +2488,9 @@
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B75" s="12"/>
-      <c r="C75" s="15"/>
+      <c r="C75" s="15" t="s">
+        <v>104</v>
+      </c>
       <c r="D75" s="12"/>
       <c r="E75" s="16"/>
       <c r="F75" s="12"/>
@@ -2354,235 +2501,233 @@
       <c r="K75" s="12"/>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B76" s="18" t="s">
+      <c r="B76" s="12"/>
+      <c r="C76" s="15"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="16"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="12"/>
+      <c r="I76" s="12"/>
+      <c r="J76" s="12"/>
+      <c r="K76" s="12"/>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B77" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
-      <c r="G76" s="14"/>
-      <c r="H76" s="14"/>
-      <c r="I76" s="14"/>
-      <c r="J76" s="14"/>
-      <c r="K76" s="14"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B77" s="19"/>
-      <c r="C77" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="D77" s="11"/>
-      <c r="E77" s="11"/>
-      <c r="F77" s="11"/>
-      <c r="G77" s="11"/>
-      <c r="H77" s="11"/>
-      <c r="I77" s="11"/>
-      <c r="J77" s="11"/>
-      <c r="K77" s="11"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c r="G77" s="14"/>
+      <c r="H77" s="14"/>
+      <c r="I77" s="14"/>
+      <c r="J77" s="14"/>
+      <c r="K77" s="14"/>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B78" s="21"/>
-      <c r="C78" s="15"/>
-      <c r="D78" s="12"/>
-      <c r="E78" s="12"/>
-      <c r="F78" s="12"/>
-      <c r="G78" s="12"/>
-      <c r="H78" s="12"/>
-      <c r="I78" s="12"/>
-      <c r="J78" s="12"/>
-      <c r="K78" s="12"/>
+      <c r="B78" s="19"/>
+      <c r="C78" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="11"/>
+      <c r="J78" s="11"/>
+      <c r="K78" s="11"/>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B79" s="22" t="s">
+      <c r="B79" s="21"/>
+      <c r="C79" s="15"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="12"/>
+      <c r="G79" s="12"/>
+      <c r="H79" s="12"/>
+      <c r="I79" s="12"/>
+      <c r="J79" s="12"/>
+      <c r="K79" s="12"/>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B80" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C79" s="23"/>
-      <c r="D79" s="24"/>
-      <c r="E79" s="24"/>
-      <c r="F79" s="24"/>
-      <c r="G79" s="24"/>
-      <c r="H79" s="24"/>
-      <c r="I79" s="24"/>
-      <c r="J79" s="24"/>
-      <c r="K79" s="24"/>
-    </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B80" s="25"/>
-      <c r="C80" s="26"/>
-      <c r="D80" s="27"/>
-      <c r="E80" s="27"/>
-      <c r="F80" s="27"/>
-      <c r="G80" s="27"/>
-      <c r="H80" s="27"/>
-      <c r="I80" s="27"/>
-      <c r="J80" s="27"/>
-      <c r="K80" s="27"/>
-    </row>
-    <row r="82" spans="2:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="B82" s="59" t="s">
-        <v>185</v>
-      </c>
-      <c r="C82" s="60"/>
-      <c r="D82" s="60"/>
-      <c r="E82" s="60"/>
-      <c r="F82" s="60"/>
-      <c r="G82" s="60"/>
-      <c r="H82" s="60"/>
-      <c r="I82" s="60"/>
-      <c r="J82" s="60"/>
-      <c r="K82" s="31"/>
-    </row>
-    <row r="83" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B83" s="63" t="s">
-        <v>145</v>
-      </c>
-      <c r="C83" s="64"/>
-      <c r="D83" s="64"/>
-      <c r="E83" s="64"/>
-      <c r="F83" s="64"/>
-      <c r="G83" s="64"/>
-      <c r="H83" s="64"/>
-      <c r="I83" s="64"/>
-      <c r="J83" s="64"/>
-      <c r="K83" s="64"/>
+      <c r="C80" s="23"/>
+      <c r="D80" s="24"/>
+      <c r="E80" s="24"/>
+      <c r="F80" s="24"/>
+      <c r="G80" s="24"/>
+      <c r="H80" s="24"/>
+      <c r="I80" s="24"/>
+      <c r="J80" s="24"/>
+      <c r="K80" s="24"/>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B81" s="25"/>
+      <c r="C81" s="26"/>
+      <c r="D81" s="27"/>
+      <c r="E81" s="27"/>
+      <c r="F81" s="27"/>
+      <c r="G81" s="27"/>
+      <c r="H81" s="27"/>
+      <c r="I81" s="27"/>
+      <c r="J81" s="27"/>
+      <c r="K81" s="27"/>
+    </row>
+    <row r="83" spans="2:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="B83" s="66" t="s">
+        <v>183</v>
+      </c>
+      <c r="C83" s="67"/>
+      <c r="D83" s="67"/>
+      <c r="E83" s="67"/>
+      <c r="F83" s="67"/>
+      <c r="G83" s="67"/>
+      <c r="H83" s="67"/>
+      <c r="I83" s="67"/>
+      <c r="J83" s="67"/>
+      <c r="K83" s="31"/>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B84" s="65"/>
-      <c r="C84" s="66"/>
-      <c r="D84" s="66"/>
-      <c r="E84" s="66"/>
-      <c r="F84" s="66"/>
-      <c r="G84" s="66"/>
-      <c r="H84" s="66"/>
-      <c r="I84" s="66"/>
-      <c r="J84" s="66"/>
-      <c r="K84" s="66"/>
+      <c r="B84" s="70" t="s">
+        <v>143</v>
+      </c>
+      <c r="C84" s="71"/>
+      <c r="D84" s="71"/>
+      <c r="E84" s="71"/>
+      <c r="F84" s="71"/>
+      <c r="G84" s="71"/>
+      <c r="H84" s="71"/>
+      <c r="I84" s="71"/>
+      <c r="J84" s="71"/>
+      <c r="K84" s="71"/>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B85" s="65" t="s">
-        <v>107</v>
-      </c>
-      <c r="C85" s="66"/>
-      <c r="D85" s="66"/>
-      <c r="E85" s="66"/>
-      <c r="F85" s="66"/>
-      <c r="G85" s="66"/>
-      <c r="H85" s="66"/>
-      <c r="I85" s="66"/>
-      <c r="J85" s="66"/>
-      <c r="K85" s="66"/>
+      <c r="B85" s="72"/>
+      <c r="C85" s="73"/>
+      <c r="D85" s="73"/>
+      <c r="E85" s="73"/>
+      <c r="F85" s="73"/>
+      <c r="G85" s="73"/>
+      <c r="H85" s="73"/>
+      <c r="I85" s="73"/>
+      <c r="J85" s="73"/>
+      <c r="K85" s="73"/>
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B86" s="65" t="s">
+      <c r="B86" s="72" t="s">
+        <v>105</v>
+      </c>
+      <c r="C86" s="73"/>
+      <c r="D86" s="73"/>
+      <c r="E86" s="73"/>
+      <c r="F86" s="73"/>
+      <c r="G86" s="73"/>
+      <c r="H86" s="73"/>
+      <c r="I86" s="73"/>
+      <c r="J86" s="73"/>
+      <c r="K86" s="73"/>
+    </row>
+    <row r="87" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B87" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="C86" s="66"/>
-      <c r="D86" s="66"/>
-      <c r="E86" s="66"/>
-      <c r="F86" s="66"/>
-      <c r="G86" s="66"/>
-      <c r="H86" s="66"/>
-      <c r="I86" s="66"/>
-      <c r="J86" s="66"/>
-      <c r="K86" s="66"/>
-    </row>
-    <row r="87" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B87" s="65"/>
-      <c r="C87" s="66"/>
-      <c r="D87" s="66"/>
-      <c r="E87" s="66"/>
-      <c r="F87" s="66"/>
-      <c r="G87" s="66"/>
-      <c r="H87" s="66"/>
-      <c r="I87" s="66"/>
-      <c r="J87" s="66"/>
-      <c r="K87" s="66"/>
+      <c r="C87" s="73"/>
+      <c r="D87" s="73"/>
+      <c r="E87" s="73"/>
+      <c r="F87" s="73"/>
+      <c r="G87" s="73"/>
+      <c r="H87" s="73"/>
+      <c r="I87" s="73"/>
+      <c r="J87" s="73"/>
+      <c r="K87" s="73"/>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B88" s="65" t="s">
+      <c r="B88" s="72"/>
+      <c r="C88" s="73"/>
+      <c r="D88" s="73"/>
+      <c r="E88" s="73"/>
+      <c r="F88" s="73"/>
+      <c r="G88" s="73"/>
+      <c r="H88" s="73"/>
+      <c r="I88" s="73"/>
+      <c r="J88" s="73"/>
+      <c r="K88" s="73"/>
+    </row>
+    <row r="89" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B89" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="C88" s="66"/>
-      <c r="D88" s="66"/>
-      <c r="E88" s="66"/>
-      <c r="F88" s="66"/>
-      <c r="G88" s="66"/>
-      <c r="H88" s="66"/>
-      <c r="I88" s="66"/>
-      <c r="J88" s="66"/>
-      <c r="K88" s="66"/>
-    </row>
-    <row r="89" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B89" s="67" t="s">
+      <c r="C89" s="73"/>
+      <c r="D89" s="73"/>
+      <c r="E89" s="73"/>
+      <c r="F89" s="73"/>
+      <c r="G89" s="73"/>
+      <c r="H89" s="73"/>
+      <c r="I89" s="73"/>
+      <c r="J89" s="73"/>
+      <c r="K89" s="73"/>
+    </row>
+    <row r="90" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B90" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="C89" s="68"/>
-      <c r="D89" s="68"/>
-      <c r="E89" s="68"/>
-      <c r="F89" s="68"/>
-      <c r="G89" s="68"/>
-      <c r="H89" s="68"/>
-      <c r="I89" s="68"/>
-      <c r="J89" s="68"/>
-      <c r="K89" s="68"/>
-    </row>
-    <row r="90" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B90" s="30" t="s">
+      <c r="C90" s="75"/>
+      <c r="D90" s="75"/>
+      <c r="E90" s="75"/>
+      <c r="F90" s="75"/>
+      <c r="G90" s="75"/>
+      <c r="H90" s="75"/>
+      <c r="I90" s="75"/>
+      <c r="J90" s="75"/>
+      <c r="K90" s="75"/>
+    </row>
+    <row r="91" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B91" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C90" s="31"/>
-      <c r="D90" s="31"/>
-      <c r="E90" s="31"/>
-      <c r="F90" s="31"/>
-      <c r="G90" s="31"/>
-      <c r="H90" s="31"/>
-      <c r="I90" s="31"/>
-      <c r="J90" s="31"/>
-      <c r="K90" s="31"/>
-    </row>
-    <row r="91" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B91" s="28"/>
-      <c r="C91" s="29"/>
-      <c r="D91" s="29"/>
-      <c r="E91" s="29"/>
-      <c r="F91" s="29"/>
-      <c r="G91" s="29"/>
-      <c r="H91" s="29"/>
-      <c r="I91" s="29"/>
-      <c r="J91" s="29"/>
-      <c r="K91" s="29"/>
+      <c r="C91" s="31"/>
+      <c r="D91" s="31"/>
+      <c r="E91" s="31"/>
+      <c r="F91" s="31"/>
+      <c r="G91" s="31"/>
+      <c r="H91" s="31"/>
+      <c r="I91" s="31"/>
+      <c r="J91" s="31"/>
+      <c r="K91" s="31"/>
     </row>
     <row r="92" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B92" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="C92" s="31"/>
-      <c r="D92" s="31"/>
-      <c r="E92" s="31"/>
-      <c r="F92" s="31"/>
-      <c r="G92" s="31"/>
-      <c r="H92" s="31"/>
-      <c r="I92" s="31"/>
-      <c r="J92" s="31"/>
-      <c r="K92" s="31"/>
+      <c r="B92" s="28"/>
+      <c r="C92" s="29"/>
+      <c r="D92" s="29"/>
+      <c r="E92" s="29"/>
+      <c r="F92" s="29"/>
+      <c r="G92" s="29"/>
+      <c r="H92" s="29"/>
+      <c r="I92" s="29"/>
+      <c r="J92" s="29"/>
+      <c r="K92" s="29"/>
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B93" s="32"/>
-      <c r="C93" s="33"/>
-      <c r="D93" s="33"/>
-      <c r="E93" s="33"/>
-      <c r="F93" s="33"/>
-      <c r="G93" s="33"/>
-      <c r="H93" s="33"/>
-      <c r="I93" s="33"/>
-      <c r="J93" s="33"/>
-      <c r="K93" s="33"/>
+      <c r="B93" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="C93" s="31"/>
+      <c r="D93" s="31"/>
+      <c r="E93" s="31"/>
+      <c r="F93" s="31"/>
+      <c r="G93" s="31"/>
+      <c r="H93" s="31"/>
+      <c r="I93" s="31"/>
+      <c r="J93" s="31"/>
+      <c r="K93" s="31"/>
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B94" s="32" t="s">
-        <v>28</v>
-      </c>
+      <c r="B94" s="32"/>
       <c r="C94" s="33"/>
       <c r="D94" s="33"/>
       <c r="E94" s="33"/>
@@ -2594,7 +2739,9 @@
       <c r="K94" s="33"/>
     </row>
     <row r="95" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B95" s="32"/>
+      <c r="B95" s="32" t="s">
+        <v>28</v>
+      </c>
       <c r="C95" s="33"/>
       <c r="D95" s="33"/>
       <c r="E95" s="33"/>
@@ -2605,37 +2752,35 @@
       <c r="J95" s="33"/>
       <c r="K95" s="33"/>
     </row>
-    <row r="97" spans="2:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="B97" s="61" t="s">
-        <v>187</v>
-      </c>
-      <c r="C97" s="62"/>
-      <c r="D97" s="62"/>
-      <c r="E97" s="62"/>
-      <c r="F97" s="62"/>
-      <c r="G97" s="62"/>
-      <c r="H97" s="62"/>
-      <c r="I97" s="62"/>
-      <c r="J97" s="62"/>
-      <c r="K97" s="62"/>
-    </row>
-    <row r="98" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B98" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="C98" s="35"/>
-      <c r="D98" s="35"/>
-      <c r="E98" s="35"/>
-      <c r="F98" s="35"/>
-      <c r="G98" s="35"/>
-      <c r="H98" s="35"/>
-      <c r="I98" s="35"/>
-      <c r="J98" s="35"/>
-      <c r="K98" s="35"/>
+    <row r="96" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B96" s="32"/>
+      <c r="C96" s="33"/>
+      <c r="D96" s="33"/>
+      <c r="E96" s="33"/>
+      <c r="F96" s="33"/>
+      <c r="G96" s="33"/>
+      <c r="H96" s="33"/>
+      <c r="I96" s="33"/>
+      <c r="J96" s="33"/>
+      <c r="K96" s="33"/>
+    </row>
+    <row r="98" spans="2:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="B98" s="68" t="s">
+        <v>185</v>
+      </c>
+      <c r="C98" s="69"/>
+      <c r="D98" s="69"/>
+      <c r="E98" s="69"/>
+      <c r="F98" s="69"/>
+      <c r="G98" s="69"/>
+      <c r="H98" s="69"/>
+      <c r="I98" s="69"/>
+      <c r="J98" s="69"/>
+      <c r="K98" s="69"/>
     </row>
     <row r="99" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B99" s="34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C99" s="35"/>
       <c r="D99" s="35"/>
@@ -2649,7 +2794,7 @@
     </row>
     <row r="100" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B100" s="34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C100" s="35"/>
       <c r="D100" s="35"/>
@@ -2663,7 +2808,7 @@
     </row>
     <row r="101" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B101" s="34" t="s">
-        <v>164</v>
+        <v>31</v>
       </c>
       <c r="C101" s="35"/>
       <c r="D101" s="35"/>
@@ -2677,7 +2822,7 @@
     </row>
     <row r="102" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B102" s="34" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C102" s="35"/>
       <c r="D102" s="35"/>
@@ -2691,7 +2836,7 @@
     </row>
     <row r="103" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B103" s="34" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C103" s="35"/>
       <c r="D103" s="35"/>
@@ -2704,7 +2849,9 @@
       <c r="K103" s="35"/>
     </row>
     <row r="104" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B104" s="34"/>
+      <c r="B104" s="34" t="s">
+        <v>160</v>
+      </c>
       <c r="C104" s="35"/>
       <c r="D104" s="35"/>
       <c r="E104" s="35"/>
@@ -2715,63 +2862,482 @@
       <c r="J104" s="35"/>
       <c r="K104" s="35"/>
     </row>
-    <row r="106" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C106" s="71"/>
-      <c r="D106" s="71"/>
-      <c r="E106" s="71"/>
-      <c r="F106" s="71"/>
-      <c r="G106" s="71"/>
-      <c r="H106" s="71"/>
-      <c r="I106" s="71"/>
-      <c r="J106" s="71"/>
-      <c r="K106" s="71"/>
+    <row r="105" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B105" s="34"/>
+      <c r="C105" s="35"/>
+      <c r="D105" s="35"/>
+      <c r="E105" s="35"/>
+      <c r="F105" s="35"/>
+      <c r="G105" s="35"/>
+      <c r="H105" s="35"/>
+      <c r="I105" s="35"/>
+      <c r="J105" s="35"/>
+      <c r="K105" s="35"/>
     </row>
     <row r="107" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C107" s="71"/>
-      <c r="D107" s="71"/>
-      <c r="E107" s="71"/>
-      <c r="F107" s="71"/>
-      <c r="G107" s="71"/>
-      <c r="H107" s="71"/>
-      <c r="I107" s="71"/>
-      <c r="J107" s="71"/>
-      <c r="K107" s="71"/>
+      <c r="B107" s="76"/>
+      <c r="C107" s="76"/>
+      <c r="D107" s="76"/>
+      <c r="E107" s="76"/>
+      <c r="F107" s="76"/>
+      <c r="G107" s="76"/>
+      <c r="H107" s="76"/>
+      <c r="I107" s="76"/>
+      <c r="J107" s="76"/>
+      <c r="K107" s="76"/>
     </row>
     <row r="108" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C108" s="71"/>
-      <c r="D108" s="71"/>
-      <c r="E108" s="71"/>
-      <c r="F108" s="71"/>
-      <c r="G108" s="71"/>
-      <c r="H108" s="71"/>
-      <c r="I108" s="71"/>
-      <c r="J108" s="71"/>
-      <c r="K108" s="71"/>
-    </row>
-    <row r="109" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C109" s="71"/>
-      <c r="D109" s="71"/>
-      <c r="E109" s="71"/>
-      <c r="F109" s="71"/>
-      <c r="G109" s="71"/>
-      <c r="H109" s="71"/>
-      <c r="I109" s="71"/>
-      <c r="J109" s="71"/>
-      <c r="K109" s="71"/>
+      <c r="B108" s="76"/>
+      <c r="C108" s="76"/>
+      <c r="D108" s="76"/>
+      <c r="E108" s="76"/>
+      <c r="F108" s="76"/>
+      <c r="G108" s="76"/>
+      <c r="H108" s="76"/>
+      <c r="I108" s="76"/>
+      <c r="J108" s="76"/>
+      <c r="K108" s="76"/>
+    </row>
+    <row r="109" spans="2:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="B109" s="77" t="s">
+        <v>225</v>
+      </c>
+      <c r="C109" s="78"/>
+      <c r="D109" s="78"/>
+      <c r="E109" s="78"/>
+      <c r="F109" s="78"/>
+      <c r="G109" s="78"/>
+      <c r="H109" s="78"/>
+      <c r="I109" s="78"/>
+      <c r="J109" s="78"/>
+      <c r="K109" s="78"/>
+    </row>
+    <row r="110" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B110" s="79"/>
+      <c r="C110" s="79"/>
+      <c r="D110" s="79"/>
+      <c r="E110" s="79"/>
+      <c r="F110" s="79"/>
+      <c r="G110" s="79"/>
+      <c r="H110" s="79"/>
+      <c r="I110" s="79"/>
+      <c r="J110" s="79"/>
+      <c r="K110" s="79"/>
+    </row>
+    <row r="111" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B111" s="76"/>
+      <c r="C111" s="80" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="112" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B112" s="76"/>
+      <c r="C112" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="113" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B113" s="76"/>
+    </row>
+    <row r="114" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B114" s="76"/>
+      <c r="C114" s="76" t="s">
+        <v>227</v>
+      </c>
+      <c r="D114" s="76"/>
+      <c r="E114" s="76"/>
+      <c r="F114" s="76"/>
+      <c r="G114" s="76"/>
+      <c r="H114" s="76"/>
+      <c r="I114" s="76"/>
+      <c r="J114" s="76"/>
+      <c r="K114" s="76"/>
+    </row>
+    <row r="115" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B115" s="76"/>
+      <c r="C115" s="76" t="s">
+        <v>226</v>
+      </c>
+      <c r="D115" s="76"/>
+      <c r="E115" s="76"/>
+      <c r="F115" s="76"/>
+      <c r="G115" s="76"/>
+      <c r="H115" s="76"/>
+      <c r="I115" s="76"/>
+      <c r="J115" s="76"/>
+      <c r="K115" s="76"/>
+    </row>
+    <row r="116" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B116" s="76"/>
+    </row>
+    <row r="117" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B117" s="76"/>
+      <c r="C117" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="118" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B118" s="76"/>
+    </row>
+    <row r="119" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B119" s="76"/>
+      <c r="C119" s="76" t="s">
+        <v>200</v>
+      </c>
+      <c r="D119" s="76"/>
+      <c r="E119" s="76"/>
+      <c r="F119" s="76"/>
+      <c r="G119" s="76"/>
+      <c r="H119" s="76"/>
+      <c r="I119" s="76"/>
+      <c r="J119" s="76"/>
+      <c r="K119" s="76"/>
+    </row>
+    <row r="120" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B120" s="76"/>
+    </row>
+    <row r="121" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B121" s="76"/>
+      <c r="C121" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="122" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B122" s="76"/>
+      <c r="C122" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="123" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B123" s="76"/>
+    </row>
+    <row r="124" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B124" s="76"/>
+      <c r="C124" s="76" t="s">
+        <v>203</v>
+      </c>
+      <c r="D124" s="76"/>
+      <c r="E124" s="76"/>
+      <c r="F124" s="76"/>
+      <c r="G124" s="76"/>
+      <c r="H124" s="76"/>
+      <c r="I124" s="76"/>
+      <c r="J124" s="76"/>
+      <c r="K124" s="76"/>
+    </row>
+    <row r="125" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B125" s="76"/>
+    </row>
+    <row r="126" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B126" s="76"/>
+      <c r="C126" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="127" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B127" s="76"/>
+    </row>
+    <row r="128" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B128" s="76"/>
+      <c r="C128" s="76" t="s">
+        <v>205</v>
+      </c>
+      <c r="D128" s="76"/>
+      <c r="E128" s="76"/>
+      <c r="F128" s="76"/>
+      <c r="G128" s="76"/>
+      <c r="H128" s="76"/>
+      <c r="I128" s="76"/>
+      <c r="J128" s="76"/>
+      <c r="K128" s="76"/>
+    </row>
+    <row r="129" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B129" s="76"/>
+    </row>
+    <row r="130" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B130" s="76"/>
+      <c r="C130" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="131" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B131" s="76"/>
+    </row>
+    <row r="132" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B132" s="76"/>
+      <c r="C132" s="76" t="s">
+        <v>207</v>
+      </c>
+      <c r="D132" s="76"/>
+      <c r="E132" s="76"/>
+      <c r="F132" s="76"/>
+      <c r="G132" s="76"/>
+      <c r="H132" s="76"/>
+      <c r="I132" s="76"/>
+      <c r="J132" s="76"/>
+      <c r="K132" s="76"/>
+    </row>
+    <row r="133" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B133" s="76"/>
+      <c r="C133" s="76" t="s">
+        <v>208</v>
+      </c>
+      <c r="D133" s="76"/>
+      <c r="E133" s="76"/>
+      <c r="F133" s="76"/>
+      <c r="G133" s="76"/>
+      <c r="H133" s="76"/>
+      <c r="I133" s="76"/>
+      <c r="J133" s="76"/>
+      <c r="K133" s="76"/>
+    </row>
+    <row r="134" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B134" s="76"/>
+    </row>
+    <row r="135" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B135" s="76"/>
+      <c r="C135" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="136" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B136" s="76"/>
+    </row>
+    <row r="137" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B137" s="76"/>
+      <c r="C137" s="76" t="s">
+        <v>210</v>
+      </c>
+      <c r="D137" s="76"/>
+      <c r="E137" s="76"/>
+      <c r="F137" s="76"/>
+      <c r="G137" s="76"/>
+      <c r="H137" s="76"/>
+      <c r="I137" s="76"/>
+      <c r="J137" s="76"/>
+      <c r="K137" s="76"/>
+    </row>
+    <row r="138" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B138" s="76"/>
+    </row>
+    <row r="139" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B139" s="76"/>
+      <c r="C139" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="140" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B140" s="76"/>
+    </row>
+    <row r="141" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B141" s="76"/>
+      <c r="C141" s="76" t="s">
+        <v>212</v>
+      </c>
+      <c r="D141" s="76"/>
+      <c r="E141" s="76"/>
+      <c r="F141" s="76"/>
+      <c r="G141" s="76"/>
+      <c r="H141" s="76"/>
+      <c r="I141" s="76"/>
+      <c r="J141" s="76"/>
+      <c r="K141" s="76"/>
+    </row>
+    <row r="142" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B142" s="76"/>
+    </row>
+    <row r="143" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B143" s="76"/>
+      <c r="C143" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="144" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B144" s="76"/>
+      <c r="C144" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="145" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B145" s="76"/>
+      <c r="C145" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="146" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B146" s="76"/>
+    </row>
+    <row r="147" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B147" s="76"/>
+      <c r="C147" s="76" t="s">
+        <v>214</v>
+      </c>
+      <c r="D147" s="76"/>
+      <c r="E147" s="76"/>
+      <c r="F147" s="76"/>
+      <c r="G147" s="76"/>
+      <c r="H147" s="76"/>
+      <c r="I147" s="76"/>
+      <c r="J147" s="76"/>
+      <c r="K147" s="76"/>
+    </row>
+    <row r="148" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B148" s="76"/>
+    </row>
+    <row r="149" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B149" s="76"/>
+      <c r="C149" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="150" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B150" s="76"/>
+    </row>
+    <row r="151" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B151" s="76"/>
+      <c r="C151" s="76" t="s">
+        <v>216</v>
+      </c>
+      <c r="D151" s="76"/>
+      <c r="E151" s="76"/>
+      <c r="F151" s="76"/>
+      <c r="G151" s="76"/>
+      <c r="H151" s="76"/>
+      <c r="I151" s="76"/>
+      <c r="J151" s="76"/>
+      <c r="K151" s="76"/>
+    </row>
+    <row r="152" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B152" s="76"/>
+    </row>
+    <row r="153" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B153" s="76"/>
+      <c r="C153" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="154" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B154" s="76"/>
+    </row>
+    <row r="155" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B155" s="76"/>
+      <c r="C155" s="76" t="s">
+        <v>218</v>
+      </c>
+      <c r="D155" s="76"/>
+      <c r="E155" s="76"/>
+      <c r="F155" s="76"/>
+      <c r="G155" s="76"/>
+      <c r="H155" s="76"/>
+      <c r="I155" s="76"/>
+      <c r="J155" s="76"/>
+      <c r="K155" s="76"/>
+    </row>
+    <row r="156" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B156" s="76"/>
+    </row>
+    <row r="157" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B157" s="76"/>
+      <c r="C157" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="158" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B158" s="76"/>
+      <c r="C158" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="159" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B159" s="76"/>
+    </row>
+    <row r="160" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B160" s="76"/>
+      <c r="C160" s="76" t="s">
+        <v>221</v>
+      </c>
+      <c r="D160" s="76"/>
+      <c r="E160" s="76"/>
+      <c r="F160" s="76"/>
+      <c r="G160" s="76"/>
+      <c r="H160" s="76"/>
+      <c r="I160" s="76"/>
+      <c r="J160" s="76"/>
+      <c r="K160" s="76"/>
+    </row>
+    <row r="161" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B161" s="76"/>
+    </row>
+    <row r="162" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B162" s="76"/>
+      <c r="C162" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="163" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B163" s="76"/>
+      <c r="C163" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="164" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B164" s="76"/>
+    </row>
+    <row r="165" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B165" s="76"/>
+      <c r="C165" s="76" t="s">
+        <v>222</v>
+      </c>
+      <c r="D165" s="76"/>
+      <c r="E165" s="76"/>
+      <c r="F165" s="76"/>
+      <c r="G165" s="76"/>
+      <c r="H165" s="76"/>
+      <c r="I165" s="76"/>
+      <c r="J165" s="76"/>
+      <c r="K165" s="76"/>
+    </row>
+    <row r="166" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B166" s="76"/>
+    </row>
+    <row r="167" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B167" s="76"/>
+      <c r="C167" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="168" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B168" s="76"/>
+    </row>
+    <row r="169" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B169" s="76"/>
+      <c r="C169" s="76" t="s">
+        <v>224</v>
+      </c>
+      <c r="D169" s="76"/>
+      <c r="E169" s="76"/>
+      <c r="F169" s="76"/>
+      <c r="G169" s="76"/>
+      <c r="H169" s="76"/>
+      <c r="I169" s="76"/>
+      <c r="J169" s="76"/>
+      <c r="K169" s="76"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="B32:K32"/>
-    <mergeCell ref="B51:K51"/>
-    <mergeCell ref="B82:J82"/>
-    <mergeCell ref="B97:K97"/>
-    <mergeCell ref="B83:K83"/>
+  <mergeCells count="13">
+    <mergeCell ref="B109:K109"/>
+    <mergeCell ref="B110:K110"/>
+    <mergeCell ref="B33:K33"/>
+    <mergeCell ref="B52:K52"/>
+    <mergeCell ref="B83:J83"/>
+    <mergeCell ref="B98:K98"/>
     <mergeCell ref="B84:K84"/>
     <mergeCell ref="B85:K85"/>
     <mergeCell ref="B86:K86"/>
     <mergeCell ref="B87:K87"/>
     <mergeCell ref="B88:K88"/>
     <mergeCell ref="B89:K89"/>
+    <mergeCell ref="B90:K90"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2783,486 +3349,563 @@
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:Y1000"/>
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="99" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="224.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="144" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="130.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="25" width="10.5546875" style="1" customWidth="1"/>
-    <col min="26" max="16384" width="11.21875" style="1"/>
+    <col min="1" max="1" width="11.21875" style="1"/>
+    <col min="2" max="2" width="127.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="224.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="144" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="130.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="26" width="10.5546875" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="11.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="81" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="75" t="s">
+    <row r="1" spans="1:26" s="61" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="81" t="s">
+        <v>232</v>
+      </c>
+      <c r="B1" s="56" t="s">
+        <v>233</v>
+      </c>
+      <c r="C1" s="55" t="s">
+        <v>234</v>
+      </c>
+      <c r="D1" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="E1" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="77" t="s">
+      <c r="F1" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="78" t="s">
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
+      <c r="W1" s="60"/>
+      <c r="X1" s="60"/>
+      <c r="Y1" s="60"/>
+      <c r="Z1" s="60"/>
+    </row>
+    <row r="2" spans="1:26" s="84" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="82">
+        <v>1</v>
+      </c>
+      <c r="B2" s="83" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="84" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="79" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
-      <c r="W1" s="80"/>
-      <c r="X1" s="80"/>
-      <c r="Y1" s="80"/>
-    </row>
-    <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="D2" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="E2" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="F2" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="48" t="s">
+    </row>
+    <row r="3" spans="1:26" s="88" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="86">
+        <v>2</v>
+      </c>
+      <c r="B3" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="C3" s="88" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="89" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="47" t="s">
+      <c r="E3" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="F3" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="48" t="s">
+    </row>
+    <row r="4" spans="1:26" s="84" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="82">
+        <v>3</v>
+      </c>
+      <c r="B4" s="90" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="48" t="s">
+      <c r="E4" s="85" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" s="85" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" s="88" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="86">
+        <v>4</v>
+      </c>
+      <c r="B5" s="87" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="88" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="89" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="49" t="s">
-        <v>143</v>
-      </c>
-      <c r="C4" s="48" t="s">
+      <c r="E5" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="F5" s="89"/>
+    </row>
+    <row r="6" spans="1:26" s="84" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="82">
+        <v>5</v>
+      </c>
+      <c r="B6" s="90" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="85" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="85" t="s">
+        <v>122</v>
+      </c>
+      <c r="F6" s="85" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" s="88" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="86">
+        <v>6</v>
+      </c>
+      <c r="B7" s="87" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="88" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="89" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="89" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="89" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" s="84" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="82">
+        <v>7</v>
+      </c>
+      <c r="B8" s="83" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="85" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="85" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="85" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" s="88" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="86">
+        <v>8</v>
+      </c>
+      <c r="B9" s="87" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="88" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="89" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="89" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="89" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" s="84" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="82">
+        <v>9</v>
+      </c>
+      <c r="B10" s="83" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="85" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="85" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" s="88" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="86">
+        <v>10</v>
+      </c>
+      <c r="B11" s="87" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="88" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="89" t="s">
+        <v>113</v>
+      </c>
+      <c r="E11" s="89" t="s">
         <v>123</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="F11" s="89" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" s="84" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="82">
+        <v>11</v>
+      </c>
+      <c r="B12" s="83" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="85" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="85" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="85" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" s="88" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="86">
+        <v>12</v>
+      </c>
+      <c r="B13" s="87" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="88" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="89" t="s">
+        <v>114</v>
+      </c>
+      <c r="E13" s="89" t="s">
+        <v>124</v>
+      </c>
+      <c r="F13" s="89" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" s="84" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="82">
+        <v>13</v>
+      </c>
+      <c r="B14" s="83" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="85" t="s">
+        <v>115</v>
+      </c>
+      <c r="E14" s="85"/>
+      <c r="F14" s="85" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" s="88" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="86">
+        <v>14</v>
+      </c>
+      <c r="B15" s="87" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="88" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="89" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="89" t="s">
+        <v>125</v>
+      </c>
+      <c r="F15" s="89" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="C5" s="48" t="s">
+    <row r="16" spans="1:26" s="84" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="82">
+        <v>15</v>
+      </c>
+      <c r="B16" s="83" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="85" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="85" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="85" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="88" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="86">
+        <v>16</v>
+      </c>
+      <c r="B17" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="88" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="89" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="89" t="s">
+        <v>126</v>
+      </c>
+      <c r="F17" s="89" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="84" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="82">
+        <v>17</v>
+      </c>
+      <c r="B18" s="83" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="48"/>
-    </row>
-    <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="49" t="s">
-        <v>144</v>
-      </c>
-      <c r="C6" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="48" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="48" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="48" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="48" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="47" t="s">
-        <v>110</v>
-      </c>
-      <c r="C9" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="48" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="48" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" s="48" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="47" t="s">
+      <c r="D18" s="85" t="s">
+        <v>116</v>
+      </c>
+      <c r="E18" s="85" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="85" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="88" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="86">
+        <v>18</v>
+      </c>
+      <c r="B19" s="87" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="88" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="89" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" s="89" t="s">
+        <v>127</v>
+      </c>
+      <c r="F19" s="89" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="84" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="82">
+        <v>19</v>
+      </c>
+      <c r="B20" s="83" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="85" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="85" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20" s="85" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="88" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="86">
+        <v>20</v>
+      </c>
+      <c r="B21" s="87" t="s">
         <v>111</v>
       </c>
-      <c r="C11" s="48" t="s">
-        <v>115</v>
-      </c>
-      <c r="D11" s="48" t="s">
-        <v>125</v>
-      </c>
-      <c r="E11" s="48" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="48" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" s="48" t="s">
-        <v>116</v>
-      </c>
-      <c r="D13" s="48" t="s">
-        <v>126</v>
-      </c>
-      <c r="E13" s="48" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="48" t="s">
+      <c r="C21" s="88" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="89" t="s">
         <v>117</v>
       </c>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="47" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15" s="48" t="s">
-        <v>127</v>
-      </c>
-      <c r="E15" s="48" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="47" t="s">
+      <c r="E21" s="89" t="s">
+        <v>86</v>
+      </c>
+      <c r="F21" s="89" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="84" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="82">
+        <v>21</v>
+      </c>
+      <c r="B22" s="83" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="85" t="s">
+        <v>118</v>
+      </c>
+      <c r="E22" s="85" t="s">
+        <v>128</v>
+      </c>
+      <c r="F22" s="85" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="86">
+        <v>22</v>
+      </c>
+      <c r="B23" s="87" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="88" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="89" t="s">
+        <v>119</v>
+      </c>
+      <c r="E23" s="89" t="s">
+        <v>129</v>
+      </c>
+      <c r="F23" s="89" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="84" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="82">
+        <v>23</v>
+      </c>
+      <c r="B24" s="83" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="85" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24" s="85" t="s">
+        <v>91</v>
+      </c>
+      <c r="F24" s="85" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="86">
+        <v>24</v>
+      </c>
+      <c r="B25" s="87" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="88" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="89" t="s">
+        <v>94</v>
+      </c>
+      <c r="E25" s="89" t="s">
+        <v>95</v>
+      </c>
+      <c r="F25" s="89" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="84" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="82">
+        <v>25</v>
+      </c>
+      <c r="B26" s="83" t="s">
         <v>112</v>
       </c>
-      <c r="C16" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="D16" s="48" t="s">
-        <v>75</v>
-      </c>
-      <c r="E16" s="48" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="50" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="D17" s="51" t="s">
-        <v>128</v>
-      </c>
-      <c r="E17" s="51" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="47" t="s">
-        <v>79</v>
-      </c>
-      <c r="C18" s="48" t="s">
-        <v>118</v>
-      </c>
-      <c r="D18" s="48" t="s">
-        <v>80</v>
-      </c>
-      <c r="E18" s="48" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="47" t="s">
-        <v>81</v>
-      </c>
-      <c r="C19" s="48" t="s">
-        <v>82</v>
-      </c>
-      <c r="D19" s="48" t="s">
-        <v>129</v>
-      </c>
-      <c r="E19" s="48" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="C20" s="48" t="s">
-        <v>85</v>
-      </c>
-      <c r="D20" s="48" t="s">
-        <v>86</v>
-      </c>
-      <c r="E20" s="48" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="47" t="s">
-        <v>113</v>
-      </c>
-      <c r="C21" s="48" t="s">
-        <v>119</v>
-      </c>
-      <c r="D21" s="48" t="s">
-        <v>88</v>
-      </c>
-      <c r="E21" s="48" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="47" t="s">
-        <v>89</v>
-      </c>
-      <c r="C22" s="48" t="s">
+      <c r="C26" s="83"/>
+      <c r="D26" s="85" t="s">
         <v>120</v>
       </c>
-      <c r="D22" s="48" t="s">
+      <c r="E26" s="85" t="s">
         <v>130</v>
       </c>
-      <c r="E22" s="48" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="47" t="s">
-        <v>90</v>
-      </c>
-      <c r="C23" s="48" t="s">
-        <v>121</v>
-      </c>
-      <c r="D23" s="48" t="s">
-        <v>131</v>
-      </c>
-      <c r="E23" s="48" t="s">
+      <c r="F26" s="85" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="47" t="s">
-        <v>91</v>
-      </c>
-      <c r="C24" s="48" t="s">
-        <v>92</v>
-      </c>
-      <c r="D24" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="E24" s="48" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25" s="47" t="s">
-        <v>95</v>
-      </c>
-      <c r="C25" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="D25" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="E25" s="48" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" s="47" t="s">
-        <v>114</v>
-      </c>
-      <c r="C26" s="48" t="s">
-        <v>122</v>
-      </c>
-      <c r="D26" s="48" t="s">
-        <v>132</v>
-      </c>
-      <c r="E26" s="48" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/P4_analyse_by_shehzad.xlsx
+++ b/P4_analyse_by_shehzad.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bureau\Desktop\P4_shehzad_qaiser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9AF1438-C5E4-4C3F-B9F4-480EC1765A1D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E7A28F7-06E0-42AE-ABDB-56FC1F75B87D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18690" windowHeight="9135" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18690" windowHeight="9135" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="L'Audit du site" sheetId="1" r:id="rId1"/>
     <sheet name="Résultat apres l'Audit" sheetId="2" r:id="rId2"/>
+    <sheet name="Recommandations" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="304">
   <si>
     <t>URL :</t>
   </si>
@@ -38,9 +40,6 @@
   </si>
   <si>
     <t>Outils utilisés</t>
-  </si>
-  <si>
-    <t>W3C Html&amp;Css</t>
   </si>
   <si>
     <t>Le site arrive-t-il en 1er avec une recherche du nom de l'agence ?</t>
@@ -758,12 +757,222 @@
   <si>
     <t>Categories</t>
   </si>
+  <si>
+    <t>Teste SEO et accesibilité sur Goggle</t>
+  </si>
+  <si>
+    <t>extension LightHouse dans Chrome</t>
+  </si>
+  <si>
+    <t>Principale Axe de Performance</t>
+  </si>
+  <si>
+    <t>Performance Technique</t>
+  </si>
+  <si>
+    <t>Amelioration SEO</t>
+  </si>
+  <si>
+    <t>Facilité l'Accesibilité</t>
+  </si>
+  <si>
+    <t>Point essentiel</t>
+  </si>
+  <si>
+    <t>Point secondaire</t>
+  </si>
+  <si>
+    <t>pas de balise Noindex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rediger les balise Meta </t>
+  </si>
+  <si>
+    <t>titre precis et comprehensible</t>
+  </si>
+  <si>
+    <t>Vocabulaire riche du contenu</t>
+  </si>
+  <si>
+    <t>Mettre le protocole HTTPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adapter la taile des images </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optimiser la vitesse de chargement </t>
+  </si>
+  <si>
+    <t>compatible Mobile</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - mettre en Fr</t>
+  </si>
+  <si>
+    <t>Les personnes malvoyantes utilisant des lecteurs d'écran ou l'élargissement/zoom pour accéder au texte.</t>
+  </si>
+  <si>
+    <t>Les personnes avec des troubles fonctionnels moteurs utilisant le clavier (ou d'autres fonctions sans souris) pour activer des fonctionnalités de site web.</t>
+  </si>
+  <si>
+    <t>Les personnes avec des troubles auditifs dépendant des légendes/sous-titres ou d'autres textes alternatifs pour du contenu audio/vidéo.</t>
+  </si>
+  <si>
+    <t>Le site doit etre utilisables par les personnes avec des handicap, et par tout type d'appreil (pc , tablette, mobile), ancien et nouveau Navigateur</t>
+  </si>
+  <si>
+    <t>Version mobile</t>
+  </si>
+  <si>
+    <t>Compatibilite avec les autre Navigateurs</t>
+  </si>
+  <si>
+    <t>Verifier le contraste et la police</t>
+  </si>
+  <si>
+    <t>Structure sémentique du code html css</t>
+  </si>
+  <si>
+    <t>Description Alt des images</t>
+  </si>
+  <si>
+    <t>Focus des boutons</t>
+  </si>
+  <si>
+    <t>Sous titre des videos</t>
+  </si>
+  <si>
+    <t>Validation de W3C pour le Html&amp;Css</t>
+  </si>
+  <si>
+    <t>Verifier Des pannes ou des ralentissements</t>
+  </si>
+  <si>
+    <t>https://www.uptrends.fr</t>
+  </si>
+  <si>
+    <t>Outils annexex</t>
+  </si>
+  <si>
+    <t>Catégorie</t>
+  </si>
+  <si>
+    <t>Recommandations</t>
+  </si>
+  <si>
+    <t>Référence</t>
+  </si>
+  <si>
+    <t>Organiser le nom de domaine pour l'indexation : Faciliter le crawling</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Présence de liens pointant vers "index.html" et non "./".</t>
+  </si>
+  <si>
+    <t>Structurer le site : Faciliter la compréhension (Google Bot &amp; Accessibilité)</t>
+  </si>
+  <si>
+    <t>La langue dans le html est "défaut"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pas de recours aux balises sémantiques </t>
+  </si>
+  <si>
+    <t>Utiliser au maximum les balises sémantiques</t>
+  </si>
+  <si>
+    <t>Elle facilite la compréhension par Google et par les utilisateurs d'assistant de lecture</t>
+  </si>
+  <si>
+    <t>Les utiliser (Header, footer…)</t>
+  </si>
+  <si>
+    <t>Optimiser la vitesse du site : Budget de crawling &amp; expérience utilisateur</t>
+  </si>
+  <si>
+    <t>Redimensionner ces images à la taille de le conteneur</t>
+  </si>
+  <si>
+    <t>Privilégier le CSS à Javascript quand cela est possible : Googlebot et le JS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le JS n'est pas toujours très bien compris par les robots google, et ralentit le crawl</t>
+  </si>
+  <si>
+    <t>S'assurer que le site est parfaitement responsive : Lecture optimale en toutes circonstances</t>
+  </si>
+  <si>
+    <t>Ne pas faire appel à des techniques de black-hat : Privilégier les pratiques vertueuses</t>
+  </si>
+  <si>
+    <t>La liste des liens concernant les annuaires n' est pas pertinente, voir suspicieuse…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utiliser l'expression clé de manière pertinente : Le mieux est parfois l'ennemi du bien </t>
+  </si>
+  <si>
+    <t>On doit maximiser l'apparation des mots clés souhaités, d'une part dans la structure du site (cf.infra) mais également dans son contenu. Néanmoins il faut toujours garder en tête que cela ne doit pas être fait au dépend de l'utilisateur</t>
+  </si>
+  <si>
+    <t>Optimiser les backlinks : De l'importance des réseaux sociaux en SEO et du partenariat</t>
+  </si>
+  <si>
+    <t>Créer une machine à contenu : Un site doit être vivant</t>
+  </si>
+  <si>
+    <t>Suivre l'évolution du/des mot clés : Rien n'est acquis</t>
+  </si>
+  <si>
+    <t>Source globale :</t>
+  </si>
+  <si>
+    <t>Bien débuter en SEO - le guide de Google</t>
+  </si>
+  <si>
+    <t>ACCESSIBILITE</t>
+  </si>
+  <si>
+    <t>BLOC 3 : Les couleurs de texte #F3976C ne semblent pas assez lisibles, notamment sur fond blanc</t>
+  </si>
+  <si>
+    <t>Le contraste des couleurs DOIT respecter le niveau AA de WCAG 2.0</t>
+  </si>
+  <si>
+    <t>Page Contact : Le texte du bloc 6 est de la même couleur que son fond.</t>
+  </si>
+  <si>
+    <t>L'information d'interaction des liens n'est véhiculée que par les couleurs</t>
+  </si>
+  <si>
+    <t>Tous les éléments de la page ne portent pas le focus de manière visible</t>
+  </si>
+  <si>
+    <t>Présence d'images composées uniquement de texte (cf. citation)</t>
+  </si>
+  <si>
+    <t>Les images avec du texte doivent être évitées.</t>
+  </si>
+  <si>
+    <t>Check List du MDN - Mozilla</t>
+  </si>
+  <si>
+    <t>Source Accesibilité :</t>
+  </si>
+  <si>
+    <t>L’information véhiculée par la couleur DOIT toujours être disponible via un autre moyen</t>
+  </si>
+  <si>
+    <t>Tous les éléments activables DOIVENT pouvoir porter le focus :</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -881,8 +1090,56 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF002060"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="8"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -973,8 +1230,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor rgb="FF7030A0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1099,12 +1392,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
@@ -1201,58 +1520,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1282,6 +1550,265 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1315,7 +1842,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>249382</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -1333,6 +1860,66 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="52064689" y="1781002"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180109</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>249382</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="ZoneTexte 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3475E33F-DB51-44FE-88A0-0121D59A86AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26335759" y="4516582"/>
           <a:ext cx="184731" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1635,10 +2222,10 @@
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:L169"/>
+  <dimension ref="A1:L208"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView showGridLines="0" topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="H214" sqref="H214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1659,7 +2246,7 @@
       <c r="D1" s="39"/>
       <c r="E1" s="37"/>
       <c r="F1" s="40" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G1" s="38"/>
       <c r="H1" s="38"/>
@@ -1699,7 +2286,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K6" s="45"/>
     </row>
@@ -1712,21 +2299,21 @@
         <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K8" s="45"/>
     </row>
     <row r="9" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="50"/>
       <c r="C9" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K9" s="45"/>
     </row>
     <row r="10" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="50"/>
       <c r="C10" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K10" s="45"/>
     </row>
@@ -1738,255 +2325,265 @@
       <c r="B12" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="47" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="1" t="s">
+      <c r="C12" s="79" t="s">
+        <v>262</v>
+      </c>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="80" t="s">
+        <v>162</v>
+      </c>
+      <c r="H12" s="80"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="80" t="s">
         <v>163</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="K12" s="45"/>
+      <c r="K12" s="81"/>
     </row>
     <row r="13" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="48"/>
-      <c r="C13" s="47" t="s">
+      <c r="B13" s="49"/>
+      <c r="C13" s="79" t="s">
+        <v>234</v>
+      </c>
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="80" t="s">
+        <v>235</v>
+      </c>
+      <c r="H13" s="80"/>
+      <c r="I13" s="80"/>
+      <c r="J13" s="80"/>
+      <c r="K13" s="81"/>
+    </row>
+    <row r="14" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="48"/>
+      <c r="C14" s="79" t="s">
         <v>154</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="80" t="s">
         <v>190</v>
       </c>
-      <c r="K13" s="45"/>
-    </row>
-    <row r="14" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="42"/>
-      <c r="C14" s="47" t="s">
-        <v>155</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="K14" s="45"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="80"/>
+      <c r="K14" s="81"/>
     </row>
     <row r="15" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="42"/>
-      <c r="C15" s="47" t="s">
-        <v>156</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="K15" s="45"/>
+      <c r="C15" s="82" t="s">
+        <v>263</v>
+      </c>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="80" t="s">
+        <v>264</v>
+      </c>
+      <c r="H15" s="80"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="80"/>
+      <c r="K15" s="81"/>
     </row>
     <row r="16" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="42"/>
-      <c r="C16" s="47" t="s">
-        <v>194</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>193</v>
-      </c>
+      <c r="C16" s="47"/>
       <c r="K16" s="45"/>
     </row>
     <row r="17" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="42"/>
+      <c r="B17" s="49" t="s">
+        <v>265</v>
+      </c>
       <c r="C17" s="47" t="s">
-        <v>196</v>
+        <v>153</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="K17" s="45"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="42"/>
       <c r="C18" s="47" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>157</v>
+        <v>191</v>
       </c>
       <c r="K18" s="45"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="42"/>
       <c r="C19" s="47" t="s">
-        <v>158</v>
+        <v>193</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="K19" s="45"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="42"/>
       <c r="C20" s="47" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="K20" s="45"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" s="42"/>
       <c r="C21" s="47" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="K21" s="45"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" s="42"/>
       <c r="C22" s="47" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="K22" s="45"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23" s="42"/>
-      <c r="C23" s="47"/>
+      <c r="C23" s="47" t="s">
+        <v>187</v>
+      </c>
       <c r="G23" s="1" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="K23" s="45"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24" s="42"/>
       <c r="C24" s="47" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="K24" s="45"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25" s="42"/>
       <c r="C25" s="47" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K25" s="45"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B26" s="42"/>
-      <c r="C26" s="47" t="s">
-        <v>175</v>
-      </c>
+      <c r="C26" s="47"/>
       <c r="G26" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K26" s="45"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B27" s="42"/>
-      <c r="C27" s="47"/>
+      <c r="C27" s="47" t="s">
+        <v>170</v>
+      </c>
       <c r="G27" s="1" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="K27" s="45"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B28" s="42"/>
+      <c r="C28" s="47" t="s">
+        <v>168</v>
+      </c>
       <c r="G28" s="1" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="K28" s="45"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B29" s="42"/>
       <c r="C29" s="47" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="K29" s="45"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B30" s="42"/>
-      <c r="C30" s="47" t="s">
-        <v>179</v>
-      </c>
+      <c r="C30" s="47"/>
       <c r="G30" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="K30" s="45"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B31" s="42"/>
+      <c r="G31" s="1" t="s">
+        <v>173</v>
+      </c>
       <c r="K31" s="45"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B32" s="43"/>
-      <c r="K32" s="46"/>
-    </row>
-    <row r="33" spans="2:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="B33" s="62" t="s">
-        <v>181</v>
-      </c>
-      <c r="C33" s="63"/>
-      <c r="D33" s="63"/>
-      <c r="E33" s="63"/>
-      <c r="F33" s="63"/>
-      <c r="G33" s="63"/>
-      <c r="H33" s="63"/>
-      <c r="I33" s="63"/>
-      <c r="J33" s="63"/>
-      <c r="K33" s="63"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="47" t="s">
+        <v>177</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="K32" s="45"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B33" s="42"/>
+      <c r="C33" s="47" t="s">
+        <v>178</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="K33" s="45"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B34" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
+      <c r="B34" s="42"/>
+      <c r="K34" s="45"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B35" s="3"/>
-      <c r="C35" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" s="8"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B36" s="4"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
+      <c r="B35" s="43"/>
+      <c r="K35" s="46"/>
+    </row>
+    <row r="36" spans="2:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="B36" s="92" t="s">
+        <v>180</v>
+      </c>
+      <c r="C36" s="93"/>
+      <c r="D36" s="93"/>
+      <c r="E36" s="93"/>
+      <c r="F36" s="93"/>
+      <c r="G36" s="93"/>
+      <c r="H36" s="93"/>
+      <c r="I36" s="93"/>
+      <c r="J36" s="93"/>
+      <c r="K36" s="93"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B37" s="5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
@@ -2001,7 +2598,7 @@
     <row r="38" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B38" s="3"/>
       <c r="C38" s="7" t="s">
-        <v>96</v>
+        <v>5</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="4"/>
@@ -2026,7 +2623,7 @@
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B40" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -2041,7 +2638,7 @@
     <row r="41" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B41" s="3"/>
       <c r="C41" s="7" t="s">
-        <v>146</v>
+        <v>95</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="4"/>
@@ -2054,9 +2651,7 @@
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B42" s="4"/>
-      <c r="C42" s="7" t="s">
-        <v>147</v>
-      </c>
+      <c r="C42" s="7"/>
       <c r="D42" s="8"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
@@ -2068,7 +2663,7 @@
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B43" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
@@ -2083,7 +2678,7 @@
     <row r="44" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B44" s="3"/>
       <c r="C44" s="7" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="4"/>
@@ -2095,9 +2690,9 @@
       <c r="K44" s="4"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B45" s="3"/>
+      <c r="B45" s="4"/>
       <c r="C45" s="7" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="4"/>
@@ -2109,23 +2704,25 @@
       <c r="K45" s="4"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B46" s="3"/>
-      <c r="C46" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D46" s="8"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
+      <c r="B46" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B47" s="3"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
+      <c r="C47" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="8"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
@@ -2135,23 +2732,23 @@
       <c r="K47" s="4"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B48" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B49" s="3"/>
       <c r="C49" s="7" t="s">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="4"/>
@@ -2163,74 +2760,74 @@
       <c r="K49" s="4"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B50" s="9"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="10"/>
-    </row>
-    <row r="52" spans="2:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="B52" s="64" t="s">
-        <v>182</v>
-      </c>
-      <c r="C52" s="65"/>
-      <c r="D52" s="65"/>
-      <c r="E52" s="65"/>
-      <c r="F52" s="65"/>
-      <c r="G52" s="65"/>
-      <c r="H52" s="65"/>
-      <c r="I52" s="65"/>
-      <c r="J52" s="65"/>
-      <c r="K52" s="65"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B51" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B52" s="3"/>
+      <c r="C52" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B53" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="14"/>
-      <c r="J53" s="14"/>
-      <c r="K53" s="14"/>
-    </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B54" s="12"/>
-      <c r="C54" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D54" s="12"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="12"/>
-      <c r="I54" s="12"/>
-      <c r="J54" s="12"/>
-      <c r="K54" s="12"/>
-    </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="12"/>
-      <c r="I55" s="12"/>
-      <c r="J55" s="12"/>
-      <c r="K55" s="12"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+    </row>
+    <row r="55" spans="2:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="B55" s="94" t="s">
+        <v>181</v>
+      </c>
+      <c r="C55" s="95"/>
+      <c r="D55" s="95"/>
+      <c r="E55" s="95"/>
+      <c r="F55" s="95"/>
+      <c r="G55" s="95"/>
+      <c r="H55" s="95"/>
+      <c r="I55" s="95"/>
+      <c r="J55" s="95"/>
+      <c r="K55" s="95"/>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B56" s="13" t="s">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="C56" s="14"/>
       <c r="D56" s="14"/>
@@ -2244,7 +2841,9 @@
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B57" s="12"/>
-      <c r="C57" s="12"/>
+      <c r="C57" s="15" t="s">
+        <v>14</v>
+      </c>
       <c r="D57" s="12"/>
       <c r="E57" s="16"/>
       <c r="F57" s="12"/>
@@ -2255,62 +2854,62 @@
       <c r="K57" s="12"/>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B58" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="14"/>
-      <c r="H58" s="14"/>
-      <c r="I58" s="14"/>
-      <c r="J58" s="14"/>
-      <c r="K58" s="14"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="12"/>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B59" s="12"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="16"/>
-      <c r="F59" s="12"/>
-      <c r="G59" s="12"/>
-      <c r="H59" s="12"/>
-      <c r="I59" s="12"/>
-      <c r="J59" s="12"/>
-      <c r="K59" s="12"/>
+      <c r="B59" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="14"/>
+      <c r="I59" s="14"/>
+      <c r="J59" s="14"/>
+      <c r="K59" s="14"/>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B60" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c r="G60" s="14"/>
-      <c r="H60" s="14"/>
-      <c r="I60" s="14"/>
-      <c r="J60" s="14"/>
-      <c r="K60" s="14"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="12"/>
+      <c r="K60" s="12"/>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B61" s="12"/>
-      <c r="C61" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D61" s="12"/>
-      <c r="E61" s="16"/>
-      <c r="F61" s="12"/>
-      <c r="G61" s="12"/>
-      <c r="H61" s="12"/>
-      <c r="I61" s="12"/>
-      <c r="J61" s="12"/>
-      <c r="K61" s="12"/>
+      <c r="B61" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="14"/>
+      <c r="H61" s="14"/>
+      <c r="I61" s="14"/>
+      <c r="J61" s="14"/>
+      <c r="K61" s="14"/>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B62" s="12"/>
-      <c r="C62" s="15"/>
+      <c r="C62" s="15" t="s">
+        <v>250</v>
+      </c>
       <c r="D62" s="12"/>
       <c r="E62" s="16"/>
       <c r="F62" s="12"/>
@@ -2322,7 +2921,7 @@
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B63" s="13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C63" s="14"/>
       <c r="D63" s="14"/>
@@ -2336,7 +2935,9 @@
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B64" s="12"/>
-      <c r="C64" s="12"/>
+      <c r="C64" s="15" t="s">
+        <v>16</v>
+      </c>
       <c r="D64" s="12"/>
       <c r="E64" s="16"/>
       <c r="F64" s="12"/>
@@ -2347,38 +2948,34 @@
       <c r="K64" s="12"/>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B65" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c r="G65" s="14"/>
-      <c r="H65" s="14"/>
-      <c r="I65" s="14"/>
-      <c r="J65" s="14"/>
-      <c r="K65" s="14"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="12"/>
+      <c r="J65" s="12"/>
+      <c r="K65" s="12"/>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B66" s="12"/>
-      <c r="C66" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="D66" s="12"/>
-      <c r="E66" s="16"/>
-      <c r="F66" s="12"/>
-      <c r="G66" s="12"/>
-      <c r="H66" s="12"/>
-      <c r="I66" s="12"/>
-      <c r="J66" s="12"/>
-      <c r="K66" s="12"/>
+      <c r="B66" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="14"/>
+      <c r="H66" s="14"/>
+      <c r="I66" s="14"/>
+      <c r="J66" s="14"/>
+      <c r="K66" s="14"/>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B67" s="12"/>
-      <c r="C67" s="15" t="s">
-        <v>101</v>
-      </c>
+      <c r="C67" s="12"/>
       <c r="D67" s="12"/>
       <c r="E67" s="16"/>
       <c r="F67" s="12"/>
@@ -2390,9 +2987,9 @@
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B68" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C68" s="17"/>
+        <v>18</v>
+      </c>
+      <c r="C68" s="14"/>
       <c r="D68" s="14"/>
       <c r="E68" s="14"/>
       <c r="F68" s="14"/>
@@ -2405,10 +3002,10 @@
     <row r="69" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B69" s="12"/>
       <c r="C69" s="15" t="s">
-        <v>152</v>
+        <v>99</v>
       </c>
       <c r="D69" s="12"/>
-      <c r="E69" s="12"/>
+      <c r="E69" s="16"/>
       <c r="F69" s="12"/>
       <c r="G69" s="12"/>
       <c r="H69" s="12"/>
@@ -2419,10 +3016,10 @@
     <row r="70" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B70" s="12"/>
       <c r="C70" s="15" t="s">
-        <v>151</v>
+        <v>100</v>
       </c>
       <c r="D70" s="12"/>
-      <c r="E70" s="12"/>
+      <c r="E70" s="16"/>
       <c r="F70" s="12"/>
       <c r="G70" s="12"/>
       <c r="H70" s="12"/>
@@ -2431,40 +3028,40 @@
       <c r="K70" s="12"/>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B71" s="12"/>
-      <c r="C71" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="D71" s="12"/>
-      <c r="E71" s="16"/>
-      <c r="F71" s="12"/>
-      <c r="G71" s="12"/>
-      <c r="H71" s="12"/>
-      <c r="I71" s="12"/>
-      <c r="J71" s="12"/>
-      <c r="K71" s="12"/>
+      <c r="B71" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C71" s="17"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c r="G71" s="14"/>
+      <c r="H71" s="14"/>
+      <c r="I71" s="14"/>
+      <c r="J71" s="14"/>
+      <c r="K71" s="14"/>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B72" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c r="G72" s="14"/>
-      <c r="H72" s="14"/>
-      <c r="I72" s="14"/>
-      <c r="J72" s="14"/>
-      <c r="K72" s="14"/>
+      <c r="B72" s="12"/>
+      <c r="C72" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="12"/>
+      <c r="J72" s="12"/>
+      <c r="K72" s="12"/>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B73" s="12"/>
       <c r="C73" s="15" t="s">
-        <v>102</v>
+        <v>150</v>
       </c>
       <c r="D73" s="12"/>
-      <c r="E73" s="16"/>
+      <c r="E73" s="12"/>
       <c r="F73" s="12"/>
       <c r="G73" s="12"/>
       <c r="H73" s="12"/>
@@ -2475,7 +3072,7 @@
     <row r="74" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B74" s="12"/>
       <c r="C74" s="15" t="s">
-        <v>103</v>
+        <v>149</v>
       </c>
       <c r="D74" s="12"/>
       <c r="E74" s="16"/>
@@ -2487,22 +3084,24 @@
       <c r="K74" s="12"/>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B75" s="12"/>
-      <c r="C75" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="D75" s="12"/>
-      <c r="E75" s="16"/>
-      <c r="F75" s="12"/>
-      <c r="G75" s="12"/>
-      <c r="H75" s="12"/>
-      <c r="I75" s="12"/>
-      <c r="J75" s="12"/>
-      <c r="K75" s="12"/>
+      <c r="B75" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c r="G75" s="14"/>
+      <c r="H75" s="14"/>
+      <c r="I75" s="14"/>
+      <c r="J75" s="14"/>
+      <c r="K75" s="14"/>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B76" s="12"/>
-      <c r="C76" s="15"/>
+      <c r="C76" s="15" t="s">
+        <v>101</v>
+      </c>
       <c r="D76" s="12"/>
       <c r="E76" s="16"/>
       <c r="F76" s="12"/>
@@ -2513,38 +3112,38 @@
       <c r="K76" s="12"/>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B77" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
-      <c r="G77" s="14"/>
-      <c r="H77" s="14"/>
-      <c r="I77" s="14"/>
-      <c r="J77" s="14"/>
-      <c r="K77" s="14"/>
+      <c r="B77" s="12"/>
+      <c r="C77" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D77" s="12"/>
+      <c r="E77" s="16"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="12"/>
+      <c r="H77" s="12"/>
+      <c r="I77" s="12"/>
+      <c r="J77" s="12"/>
+      <c r="K77" s="12"/>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B78" s="19"/>
-      <c r="C78" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="D78" s="11"/>
-      <c r="E78" s="11"/>
-      <c r="F78" s="11"/>
-      <c r="G78" s="11"/>
-      <c r="H78" s="11"/>
-      <c r="I78" s="11"/>
-      <c r="J78" s="11"/>
-      <c r="K78" s="11"/>
+      <c r="B78" s="12"/>
+      <c r="C78" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D78" s="12"/>
+      <c r="E78" s="16"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="12"/>
+      <c r="H78" s="12"/>
+      <c r="I78" s="12"/>
+      <c r="J78" s="12"/>
+      <c r="K78" s="12"/>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B79" s="21"/>
+      <c r="B79" s="12"/>
       <c r="C79" s="15"/>
       <c r="D79" s="12"/>
-      <c r="E79" s="12"/>
+      <c r="E79" s="16"/>
       <c r="F79" s="12"/>
       <c r="G79" s="12"/>
       <c r="H79" s="12"/>
@@ -2553,791 +3152,1212 @@
       <c r="K79" s="12"/>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B80" s="22" t="s">
+      <c r="B80" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
+      <c r="G80" s="14"/>
+      <c r="H80" s="14"/>
+      <c r="I80" s="14"/>
+      <c r="J80" s="14"/>
+      <c r="K80" s="14"/>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B81" s="19"/>
+      <c r="C81" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="D81" s="11"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="11"/>
+      <c r="H81" s="11"/>
+      <c r="I81" s="11"/>
+      <c r="J81" s="11"/>
+      <c r="K81" s="11"/>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B82" s="21"/>
+      <c r="C82" s="15"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="12"/>
+      <c r="H82" s="12"/>
+      <c r="I82" s="12"/>
+      <c r="J82" s="12"/>
+      <c r="K82" s="12"/>
+    </row>
+    <row r="83" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B83" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C83" s="23"/>
+      <c r="D83" s="24"/>
+      <c r="E83" s="24"/>
+      <c r="F83" s="24"/>
+      <c r="G83" s="24"/>
+      <c r="H83" s="24"/>
+      <c r="I83" s="24"/>
+      <c r="J83" s="24"/>
+      <c r="K83" s="24"/>
+    </row>
+    <row r="84" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B84" s="76" t="s">
+        <v>254</v>
+      </c>
+      <c r="C84" s="77"/>
+      <c r="D84" s="78"/>
+      <c r="E84" s="78"/>
+      <c r="F84" s="78"/>
+      <c r="G84" s="78"/>
+      <c r="H84" s="78"/>
+      <c r="I84" s="78"/>
+      <c r="J84" s="78"/>
+      <c r="K84" s="78"/>
+    </row>
+    <row r="85" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B85" s="76"/>
+      <c r="C85" s="77"/>
+      <c r="D85" s="78"/>
+      <c r="E85" s="78"/>
+      <c r="F85" s="78"/>
+      <c r="G85" s="78"/>
+      <c r="H85" s="78"/>
+      <c r="I85" s="78"/>
+      <c r="J85" s="78"/>
+      <c r="K85" s="78"/>
+    </row>
+    <row r="86" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B86" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="C86" s="26"/>
+      <c r="D86" s="78"/>
+      <c r="E86" s="78"/>
+      <c r="F86" s="78"/>
+      <c r="G86" s="78"/>
+      <c r="H86" s="78"/>
+      <c r="I86" s="78"/>
+      <c r="J86" s="78"/>
+      <c r="K86" s="78"/>
+    </row>
+    <row r="87" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B87" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="C87" s="26"/>
+      <c r="D87" s="78"/>
+      <c r="E87" s="78"/>
+      <c r="F87" s="78"/>
+      <c r="G87" s="78"/>
+      <c r="H87" s="78"/>
+      <c r="I87" s="78"/>
+      <c r="J87" s="78"/>
+      <c r="K87" s="78"/>
+    </row>
+    <row r="88" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B88" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="C88" s="26"/>
+      <c r="D88" s="78"/>
+      <c r="E88" s="78"/>
+      <c r="F88" s="78"/>
+      <c r="G88" s="78"/>
+      <c r="H88" s="78"/>
+      <c r="I88" s="78"/>
+      <c r="J88" s="78"/>
+      <c r="K88" s="78"/>
+    </row>
+    <row r="89" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B89" s="76"/>
+      <c r="C89" s="77"/>
+      <c r="D89" s="78"/>
+      <c r="E89" s="78"/>
+      <c r="F89" s="78"/>
+      <c r="G89" s="78"/>
+      <c r="H89" s="78"/>
+      <c r="I89" s="78"/>
+      <c r="J89" s="78"/>
+      <c r="K89" s="78"/>
+    </row>
+    <row r="90" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B90" s="76"/>
+      <c r="C90" s="77"/>
+      <c r="D90" s="78"/>
+      <c r="E90" s="78"/>
+      <c r="F90" s="78"/>
+      <c r="G90" s="78"/>
+      <c r="H90" s="78"/>
+      <c r="I90" s="78"/>
+      <c r="J90" s="78"/>
+      <c r="K90" s="78"/>
+    </row>
+    <row r="91" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B91" s="76"/>
+      <c r="C91" s="77"/>
+      <c r="D91" s="78"/>
+      <c r="E91" s="78"/>
+      <c r="F91" s="78"/>
+      <c r="G91" s="78"/>
+      <c r="H91" s="78"/>
+      <c r="I91" s="78"/>
+      <c r="J91" s="78"/>
+      <c r="K91" s="78"/>
+    </row>
+    <row r="92" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B92" s="76"/>
+      <c r="C92" s="77"/>
+      <c r="D92" s="78"/>
+      <c r="E92" s="78"/>
+      <c r="F92" s="78"/>
+      <c r="G92" s="78"/>
+      <c r="H92" s="78"/>
+      <c r="I92" s="78"/>
+      <c r="J92" s="78"/>
+      <c r="K92" s="78"/>
+    </row>
+    <row r="93" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B93" s="76"/>
+      <c r="C93" s="77"/>
+      <c r="D93" s="78"/>
+      <c r="E93" s="78"/>
+      <c r="F93" s="78"/>
+      <c r="G93" s="78"/>
+      <c r="H93" s="78"/>
+      <c r="I93" s="78"/>
+      <c r="J93" s="78"/>
+      <c r="K93" s="78"/>
+    </row>
+    <row r="94" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B94" s="76"/>
+      <c r="C94" s="77"/>
+      <c r="D94" s="78"/>
+      <c r="E94" s="78"/>
+      <c r="F94" s="78"/>
+      <c r="G94" s="78"/>
+      <c r="H94" s="78"/>
+      <c r="I94" s="78"/>
+      <c r="J94" s="78"/>
+      <c r="K94" s="78"/>
+    </row>
+    <row r="95" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B95" s="76"/>
+      <c r="C95" s="77"/>
+      <c r="D95" s="78"/>
+      <c r="E95" s="78"/>
+      <c r="F95" s="78"/>
+      <c r="G95" s="78"/>
+      <c r="H95" s="78"/>
+      <c r="I95" s="78"/>
+      <c r="J95" s="78"/>
+      <c r="K95" s="78"/>
+    </row>
+    <row r="96" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B96" s="76"/>
+      <c r="C96" s="77"/>
+      <c r="D96" s="78"/>
+      <c r="E96" s="78"/>
+      <c r="F96" s="78"/>
+      <c r="G96" s="78"/>
+      <c r="H96" s="78"/>
+      <c r="I96" s="78"/>
+      <c r="J96" s="78"/>
+      <c r="K96" s="78"/>
+    </row>
+    <row r="97" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B97" s="76"/>
+      <c r="C97" s="77"/>
+      <c r="D97" s="78"/>
+      <c r="E97" s="78"/>
+      <c r="F97" s="78"/>
+      <c r="G97" s="78"/>
+      <c r="H97" s="78"/>
+      <c r="I97" s="78"/>
+      <c r="J97" s="78"/>
+      <c r="K97" s="78"/>
+    </row>
+    <row r="98" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B98" s="76"/>
+      <c r="C98" s="77"/>
+      <c r="D98" s="78"/>
+      <c r="E98" s="78"/>
+      <c r="F98" s="78"/>
+      <c r="G98" s="78"/>
+      <c r="H98" s="78"/>
+      <c r="I98" s="78"/>
+      <c r="J98" s="78"/>
+      <c r="K98" s="78"/>
+    </row>
+    <row r="99" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B99" s="76"/>
+      <c r="C99" s="77"/>
+      <c r="D99" s="78"/>
+      <c r="E99" s="78"/>
+      <c r="F99" s="78"/>
+      <c r="G99" s="78"/>
+      <c r="H99" s="78"/>
+      <c r="I99" s="78"/>
+      <c r="J99" s="78"/>
+      <c r="K99" s="78"/>
+    </row>
+    <row r="100" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B100" s="76"/>
+      <c r="C100" s="77"/>
+      <c r="D100" s="78"/>
+      <c r="E100" s="78"/>
+      <c r="F100" s="78"/>
+      <c r="G100" s="78"/>
+      <c r="H100" s="78"/>
+      <c r="I100" s="78"/>
+      <c r="J100" s="78"/>
+      <c r="K100" s="78"/>
+    </row>
+    <row r="101" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B101" s="76"/>
+      <c r="C101" s="77"/>
+      <c r="D101" s="78"/>
+      <c r="E101" s="78"/>
+      <c r="F101" s="78"/>
+      <c r="G101" s="78"/>
+      <c r="H101" s="78"/>
+      <c r="I101" s="78"/>
+      <c r="J101" s="78"/>
+      <c r="K101" s="78"/>
+    </row>
+    <row r="102" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B102" s="76"/>
+      <c r="C102" s="77"/>
+      <c r="D102" s="78"/>
+      <c r="E102" s="78"/>
+      <c r="F102" s="78"/>
+      <c r="G102" s="78"/>
+      <c r="H102" s="78"/>
+      <c r="I102" s="78"/>
+      <c r="J102" s="78"/>
+      <c r="K102" s="78"/>
+    </row>
+    <row r="103" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B103" s="25"/>
+      <c r="C103" s="26"/>
+      <c r="D103" s="27"/>
+      <c r="E103" s="27"/>
+      <c r="F103" s="27"/>
+      <c r="G103" s="27"/>
+      <c r="H103" s="27"/>
+      <c r="I103" s="27"/>
+      <c r="J103" s="27"/>
+      <c r="K103" s="27"/>
+    </row>
+    <row r="105" spans="2:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="B105" s="96" t="s">
+        <v>182</v>
+      </c>
+      <c r="C105" s="97"/>
+      <c r="D105" s="97"/>
+      <c r="E105" s="97"/>
+      <c r="F105" s="97"/>
+      <c r="G105" s="97"/>
+      <c r="H105" s="97"/>
+      <c r="I105" s="97"/>
+      <c r="J105" s="97"/>
+      <c r="K105" s="31"/>
+    </row>
+    <row r="106" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B106" s="100" t="s">
+        <v>142</v>
+      </c>
+      <c r="C106" s="101"/>
+      <c r="D106" s="101"/>
+      <c r="E106" s="101"/>
+      <c r="F106" s="101"/>
+      <c r="G106" s="101"/>
+      <c r="H106" s="101"/>
+      <c r="I106" s="101"/>
+      <c r="J106" s="101"/>
+      <c r="K106" s="101"/>
+    </row>
+    <row r="107" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B107" s="102"/>
+      <c r="C107" s="103"/>
+      <c r="D107" s="103"/>
+      <c r="E107" s="103"/>
+      <c r="F107" s="103"/>
+      <c r="G107" s="103"/>
+      <c r="H107" s="103"/>
+      <c r="I107" s="103"/>
+      <c r="J107" s="103"/>
+      <c r="K107" s="103"/>
+    </row>
+    <row r="108" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B108" s="102" t="s">
+        <v>104</v>
+      </c>
+      <c r="C108" s="103"/>
+      <c r="D108" s="103"/>
+      <c r="E108" s="103"/>
+      <c r="F108" s="103"/>
+      <c r="G108" s="103"/>
+      <c r="H108" s="103"/>
+      <c r="I108" s="103"/>
+      <c r="J108" s="103"/>
+      <c r="K108" s="103"/>
+    </row>
+    <row r="109" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B109" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="C80" s="23"/>
-      <c r="D80" s="24"/>
-      <c r="E80" s="24"/>
-      <c r="F80" s="24"/>
-      <c r="G80" s="24"/>
-      <c r="H80" s="24"/>
-      <c r="I80" s="24"/>
-      <c r="J80" s="24"/>
-      <c r="K80" s="24"/>
-    </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B81" s="25"/>
-      <c r="C81" s="26"/>
-      <c r="D81" s="27"/>
-      <c r="E81" s="27"/>
-      <c r="F81" s="27"/>
-      <c r="G81" s="27"/>
-      <c r="H81" s="27"/>
-      <c r="I81" s="27"/>
-      <c r="J81" s="27"/>
-      <c r="K81" s="27"/>
-    </row>
-    <row r="83" spans="2:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="B83" s="66" t="s">
-        <v>183</v>
-      </c>
-      <c r="C83" s="67"/>
-      <c r="D83" s="67"/>
-      <c r="E83" s="67"/>
-      <c r="F83" s="67"/>
-      <c r="G83" s="67"/>
-      <c r="H83" s="67"/>
-      <c r="I83" s="67"/>
-      <c r="J83" s="67"/>
-      <c r="K83" s="31"/>
-    </row>
-    <row r="84" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B84" s="70" t="s">
-        <v>143</v>
-      </c>
-      <c r="C84" s="71"/>
-      <c r="D84" s="71"/>
-      <c r="E84" s="71"/>
-      <c r="F84" s="71"/>
-      <c r="G84" s="71"/>
-      <c r="H84" s="71"/>
-      <c r="I84" s="71"/>
-      <c r="J84" s="71"/>
-      <c r="K84" s="71"/>
-    </row>
-    <row r="85" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B85" s="72"/>
-      <c r="C85" s="73"/>
-      <c r="D85" s="73"/>
-      <c r="E85" s="73"/>
-      <c r="F85" s="73"/>
-      <c r="G85" s="73"/>
-      <c r="H85" s="73"/>
-      <c r="I85" s="73"/>
-      <c r="J85" s="73"/>
-      <c r="K85" s="73"/>
-    </row>
-    <row r="86" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B86" s="72" t="s">
+      <c r="C109" s="103"/>
+      <c r="D109" s="103"/>
+      <c r="E109" s="103"/>
+      <c r="F109" s="103"/>
+      <c r="G109" s="103"/>
+      <c r="H109" s="103"/>
+      <c r="I109" s="103"/>
+      <c r="J109" s="103"/>
+      <c r="K109" s="103"/>
+    </row>
+    <row r="110" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B110" s="102"/>
+      <c r="C110" s="103"/>
+      <c r="D110" s="103"/>
+      <c r="E110" s="103"/>
+      <c r="F110" s="103"/>
+      <c r="G110" s="103"/>
+      <c r="H110" s="103"/>
+      <c r="I110" s="103"/>
+      <c r="J110" s="103"/>
+      <c r="K110" s="103"/>
+    </row>
+    <row r="111" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B111" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="C111" s="103"/>
+      <c r="D111" s="103"/>
+      <c r="E111" s="103"/>
+      <c r="F111" s="103"/>
+      <c r="G111" s="103"/>
+      <c r="H111" s="103"/>
+      <c r="I111" s="103"/>
+      <c r="J111" s="103"/>
+      <c r="K111" s="103"/>
+    </row>
+    <row r="112" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B112" s="104" t="s">
+        <v>25</v>
+      </c>
+      <c r="C112" s="105"/>
+      <c r="D112" s="105"/>
+      <c r="E112" s="105"/>
+      <c r="F112" s="105"/>
+      <c r="G112" s="105"/>
+      <c r="H112" s="105"/>
+      <c r="I112" s="105"/>
+      <c r="J112" s="105"/>
+      <c r="K112" s="105"/>
+    </row>
+    <row r="113" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B113" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C113" s="31"/>
+      <c r="D113" s="31"/>
+      <c r="E113" s="31"/>
+      <c r="F113" s="31"/>
+      <c r="G113" s="31"/>
+      <c r="H113" s="31"/>
+      <c r="I113" s="31"/>
+      <c r="J113" s="31"/>
+      <c r="K113" s="31"/>
+    </row>
+    <row r="114" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B114" s="28"/>
+      <c r="C114" s="29"/>
+      <c r="D114" s="29"/>
+      <c r="E114" s="29"/>
+      <c r="F114" s="29"/>
+      <c r="G114" s="29"/>
+      <c r="H114" s="29"/>
+      <c r="I114" s="29"/>
+      <c r="J114" s="29"/>
+      <c r="K114" s="29"/>
+    </row>
+    <row r="115" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B115" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="C86" s="73"/>
-      <c r="D86" s="73"/>
-      <c r="E86" s="73"/>
-      <c r="F86" s="73"/>
-      <c r="G86" s="73"/>
-      <c r="H86" s="73"/>
-      <c r="I86" s="73"/>
-      <c r="J86" s="73"/>
-      <c r="K86" s="73"/>
-    </row>
-    <row r="87" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B87" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="C87" s="73"/>
-      <c r="D87" s="73"/>
-      <c r="E87" s="73"/>
-      <c r="F87" s="73"/>
-      <c r="G87" s="73"/>
-      <c r="H87" s="73"/>
-      <c r="I87" s="73"/>
-      <c r="J87" s="73"/>
-      <c r="K87" s="73"/>
-    </row>
-    <row r="88" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B88" s="72"/>
-      <c r="C88" s="73"/>
-      <c r="D88" s="73"/>
-      <c r="E88" s="73"/>
-      <c r="F88" s="73"/>
-      <c r="G88" s="73"/>
-      <c r="H88" s="73"/>
-      <c r="I88" s="73"/>
-      <c r="J88" s="73"/>
-      <c r="K88" s="73"/>
-    </row>
-    <row r="89" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B89" s="72" t="s">
-        <v>25</v>
-      </c>
-      <c r="C89" s="73"/>
-      <c r="D89" s="73"/>
-      <c r="E89" s="73"/>
-      <c r="F89" s="73"/>
-      <c r="G89" s="73"/>
-      <c r="H89" s="73"/>
-      <c r="I89" s="73"/>
-      <c r="J89" s="73"/>
-      <c r="K89" s="73"/>
-    </row>
-    <row r="90" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B90" s="74" t="s">
-        <v>26</v>
-      </c>
-      <c r="C90" s="75"/>
-      <c r="D90" s="75"/>
-      <c r="E90" s="75"/>
-      <c r="F90" s="75"/>
-      <c r="G90" s="75"/>
-      <c r="H90" s="75"/>
-      <c r="I90" s="75"/>
-      <c r="J90" s="75"/>
-      <c r="K90" s="75"/>
-    </row>
-    <row r="91" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B91" s="30" t="s">
+      <c r="C115" s="31"/>
+      <c r="D115" s="31"/>
+      <c r="E115" s="31"/>
+      <c r="F115" s="31"/>
+      <c r="G115" s="31"/>
+      <c r="H115" s="31"/>
+      <c r="I115" s="31"/>
+      <c r="J115" s="31"/>
+      <c r="K115" s="31"/>
+    </row>
+    <row r="116" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B116" s="32"/>
+      <c r="C116" s="33"/>
+      <c r="D116" s="33"/>
+      <c r="E116" s="33"/>
+      <c r="F116" s="33"/>
+      <c r="G116" s="33"/>
+      <c r="H116" s="33"/>
+      <c r="I116" s="33"/>
+      <c r="J116" s="33"/>
+      <c r="K116" s="33"/>
+    </row>
+    <row r="117" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B117" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C91" s="31"/>
-      <c r="D91" s="31"/>
-      <c r="E91" s="31"/>
-      <c r="F91" s="31"/>
-      <c r="G91" s="31"/>
-      <c r="H91" s="31"/>
-      <c r="I91" s="31"/>
-      <c r="J91" s="31"/>
-      <c r="K91" s="31"/>
-    </row>
-    <row r="92" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B92" s="28"/>
-      <c r="C92" s="29"/>
-      <c r="D92" s="29"/>
-      <c r="E92" s="29"/>
-      <c r="F92" s="29"/>
-      <c r="G92" s="29"/>
-      <c r="H92" s="29"/>
-      <c r="I92" s="29"/>
-      <c r="J92" s="29"/>
-      <c r="K92" s="29"/>
-    </row>
-    <row r="93" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B93" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="C93" s="31"/>
-      <c r="D93" s="31"/>
-      <c r="E93" s="31"/>
-      <c r="F93" s="31"/>
-      <c r="G93" s="31"/>
-      <c r="H93" s="31"/>
-      <c r="I93" s="31"/>
-      <c r="J93" s="31"/>
-      <c r="K93" s="31"/>
-    </row>
-    <row r="94" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B94" s="32"/>
-      <c r="C94" s="33"/>
-      <c r="D94" s="33"/>
-      <c r="E94" s="33"/>
-      <c r="F94" s="33"/>
-      <c r="G94" s="33"/>
-      <c r="H94" s="33"/>
-      <c r="I94" s="33"/>
-      <c r="J94" s="33"/>
-      <c r="K94" s="33"/>
-    </row>
-    <row r="95" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B95" s="32" t="s">
+      <c r="C117" s="33"/>
+      <c r="D117" s="33"/>
+      <c r="E117" s="33"/>
+      <c r="F117" s="33"/>
+      <c r="G117" s="33"/>
+      <c r="H117" s="33"/>
+      <c r="I117" s="33"/>
+      <c r="J117" s="33"/>
+      <c r="K117" s="33"/>
+    </row>
+    <row r="118" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B118" s="32"/>
+      <c r="C118" s="33"/>
+      <c r="D118" s="33"/>
+      <c r="E118" s="33"/>
+      <c r="F118" s="33"/>
+      <c r="G118" s="33"/>
+      <c r="H118" s="33"/>
+      <c r="I118" s="33"/>
+      <c r="J118" s="33"/>
+      <c r="K118" s="33"/>
+    </row>
+    <row r="120" spans="2:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="B120" s="98" t="s">
+        <v>184</v>
+      </c>
+      <c r="C120" s="99"/>
+      <c r="D120" s="99"/>
+      <c r="E120" s="99"/>
+      <c r="F120" s="99"/>
+      <c r="G120" s="99"/>
+      <c r="H120" s="99"/>
+      <c r="I120" s="99"/>
+      <c r="J120" s="99"/>
+      <c r="K120" s="99"/>
+    </row>
+    <row r="121" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B121" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C95" s="33"/>
-      <c r="D95" s="33"/>
-      <c r="E95" s="33"/>
-      <c r="F95" s="33"/>
-      <c r="G95" s="33"/>
-      <c r="H95" s="33"/>
-      <c r="I95" s="33"/>
-      <c r="J95" s="33"/>
-      <c r="K95" s="33"/>
-    </row>
-    <row r="96" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B96" s="32"/>
-      <c r="C96" s="33"/>
-      <c r="D96" s="33"/>
-      <c r="E96" s="33"/>
-      <c r="F96" s="33"/>
-      <c r="G96" s="33"/>
-      <c r="H96" s="33"/>
-      <c r="I96" s="33"/>
-      <c r="J96" s="33"/>
-      <c r="K96" s="33"/>
-    </row>
-    <row r="98" spans="2:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="B98" s="68" t="s">
-        <v>185</v>
-      </c>
-      <c r="C98" s="69"/>
-      <c r="D98" s="69"/>
-      <c r="E98" s="69"/>
-      <c r="F98" s="69"/>
-      <c r="G98" s="69"/>
-      <c r="H98" s="69"/>
-      <c r="I98" s="69"/>
-      <c r="J98" s="69"/>
-      <c r="K98" s="69"/>
-    </row>
-    <row r="99" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B99" s="34" t="s">
+      <c r="C121" s="35"/>
+      <c r="D121" s="35"/>
+      <c r="E121" s="35"/>
+      <c r="F121" s="35"/>
+      <c r="G121" s="35"/>
+      <c r="H121" s="35"/>
+      <c r="I121" s="35"/>
+      <c r="J121" s="35"/>
+      <c r="K121" s="35"/>
+    </row>
+    <row r="122" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B122" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C99" s="35"/>
-      <c r="D99" s="35"/>
-      <c r="E99" s="35"/>
-      <c r="F99" s="35"/>
-      <c r="G99" s="35"/>
-      <c r="H99" s="35"/>
-      <c r="I99" s="35"/>
-      <c r="J99" s="35"/>
-      <c r="K99" s="35"/>
-    </row>
-    <row r="100" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B100" s="34" t="s">
+      <c r="C122" s="35"/>
+      <c r="D122" s="35"/>
+      <c r="E122" s="35"/>
+      <c r="F122" s="35"/>
+      <c r="G122" s="35"/>
+      <c r="H122" s="35"/>
+      <c r="I122" s="35"/>
+      <c r="J122" s="35"/>
+      <c r="K122" s="35"/>
+    </row>
+    <row r="123" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B123" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="C100" s="35"/>
-      <c r="D100" s="35"/>
-      <c r="E100" s="35"/>
-      <c r="F100" s="35"/>
-      <c r="G100" s="35"/>
-      <c r="H100" s="35"/>
-      <c r="I100" s="35"/>
-      <c r="J100" s="35"/>
-      <c r="K100" s="35"/>
-    </row>
-    <row r="101" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B101" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="C101" s="35"/>
-      <c r="D101" s="35"/>
-      <c r="E101" s="35"/>
-      <c r="F101" s="35"/>
-      <c r="G101" s="35"/>
-      <c r="H101" s="35"/>
-      <c r="I101" s="35"/>
-      <c r="J101" s="35"/>
-      <c r="K101" s="35"/>
-    </row>
-    <row r="102" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B102" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="C102" s="35"/>
-      <c r="D102" s="35"/>
-      <c r="E102" s="35"/>
-      <c r="F102" s="35"/>
-      <c r="G102" s="35"/>
-      <c r="H102" s="35"/>
-      <c r="I102" s="35"/>
-      <c r="J102" s="35"/>
-      <c r="K102" s="35"/>
-    </row>
-    <row r="103" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B103" s="34" t="s">
+      <c r="C123" s="35"/>
+      <c r="D123" s="35"/>
+      <c r="E123" s="35"/>
+      <c r="F123" s="35"/>
+      <c r="G123" s="35"/>
+      <c r="H123" s="35"/>
+      <c r="I123" s="35"/>
+      <c r="J123" s="35"/>
+      <c r="K123" s="35"/>
+    </row>
+    <row r="124" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B124" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="C103" s="35"/>
-      <c r="D103" s="35"/>
-      <c r="E103" s="35"/>
-      <c r="F103" s="35"/>
-      <c r="G103" s="35"/>
-      <c r="H103" s="35"/>
-      <c r="I103" s="35"/>
-      <c r="J103" s="35"/>
-      <c r="K103" s="35"/>
-    </row>
-    <row r="104" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B104" s="34" t="s">
+      <c r="C124" s="35"/>
+      <c r="D124" s="35"/>
+      <c r="E124" s="35"/>
+      <c r="F124" s="35"/>
+      <c r="G124" s="35"/>
+      <c r="H124" s="35"/>
+      <c r="I124" s="35"/>
+      <c r="J124" s="35"/>
+      <c r="K124" s="35"/>
+    </row>
+    <row r="125" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B125" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="C104" s="35"/>
-      <c r="D104" s="35"/>
-      <c r="E104" s="35"/>
-      <c r="F104" s="35"/>
-      <c r="G104" s="35"/>
-      <c r="H104" s="35"/>
-      <c r="I104" s="35"/>
-      <c r="J104" s="35"/>
-      <c r="K104" s="35"/>
-    </row>
-    <row r="105" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B105" s="34"/>
-      <c r="C105" s="35"/>
-      <c r="D105" s="35"/>
-      <c r="E105" s="35"/>
-      <c r="F105" s="35"/>
-      <c r="G105" s="35"/>
-      <c r="H105" s="35"/>
-      <c r="I105" s="35"/>
-      <c r="J105" s="35"/>
-      <c r="K105" s="35"/>
-    </row>
-    <row r="107" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B107" s="76"/>
-      <c r="C107" s="76"/>
-      <c r="D107" s="76"/>
-      <c r="E107" s="76"/>
-      <c r="F107" s="76"/>
-      <c r="G107" s="76"/>
-      <c r="H107" s="76"/>
-      <c r="I107" s="76"/>
-      <c r="J107" s="76"/>
-      <c r="K107" s="76"/>
-    </row>
-    <row r="108" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B108" s="76"/>
-      <c r="C108" s="76"/>
-      <c r="D108" s="76"/>
-      <c r="E108" s="76"/>
-      <c r="F108" s="76"/>
-      <c r="G108" s="76"/>
-      <c r="H108" s="76"/>
-      <c r="I108" s="76"/>
-      <c r="J108" s="76"/>
-      <c r="K108" s="76"/>
-    </row>
-    <row r="109" spans="2:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="B109" s="77" t="s">
+      <c r="C125" s="35"/>
+      <c r="D125" s="35"/>
+      <c r="E125" s="35"/>
+      <c r="F125" s="35"/>
+      <c r="G125" s="35"/>
+      <c r="H125" s="35"/>
+      <c r="I125" s="35"/>
+      <c r="J125" s="35"/>
+      <c r="K125" s="35"/>
+    </row>
+    <row r="126" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B126" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="C126" s="35"/>
+      <c r="D126" s="35"/>
+      <c r="E126" s="35"/>
+      <c r="F126" s="35"/>
+      <c r="G126" s="35"/>
+      <c r="H126" s="35"/>
+      <c r="I126" s="35"/>
+      <c r="J126" s="35"/>
+      <c r="K126" s="35"/>
+    </row>
+    <row r="127" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B127" s="34"/>
+      <c r="C127" s="35"/>
+      <c r="D127" s="35"/>
+      <c r="E127" s="35"/>
+      <c r="F127" s="35"/>
+      <c r="G127" s="35"/>
+      <c r="H127" s="35"/>
+      <c r="I127" s="35"/>
+      <c r="J127" s="35"/>
+      <c r="K127" s="35"/>
+    </row>
+    <row r="129" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B129" s="62"/>
+      <c r="C129" s="62"/>
+      <c r="D129" s="62"/>
+      <c r="E129" s="62"/>
+      <c r="F129" s="62"/>
+      <c r="G129" s="62"/>
+      <c r="H129" s="62"/>
+      <c r="I129" s="62"/>
+      <c r="J129" s="62"/>
+      <c r="K129" s="62"/>
+    </row>
+    <row r="130" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B130" s="62"/>
+      <c r="C130" s="62"/>
+      <c r="D130" s="62"/>
+      <c r="E130" s="62"/>
+      <c r="F130" s="62"/>
+      <c r="G130" s="62"/>
+      <c r="H130" s="62"/>
+      <c r="I130" s="62"/>
+      <c r="J130" s="62"/>
+      <c r="K130" s="62"/>
+    </row>
+    <row r="131" spans="2:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="B131" s="89" t="s">
+        <v>224</v>
+      </c>
+      <c r="C131" s="90"/>
+      <c r="D131" s="90"/>
+      <c r="E131" s="90"/>
+      <c r="F131" s="90"/>
+      <c r="G131" s="90"/>
+      <c r="H131" s="90"/>
+      <c r="I131" s="90"/>
+      <c r="J131" s="90"/>
+      <c r="K131" s="90"/>
+    </row>
+    <row r="132" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B132" s="91"/>
+      <c r="C132" s="91"/>
+      <c r="D132" s="91"/>
+      <c r="E132" s="91"/>
+      <c r="F132" s="91"/>
+      <c r="G132" s="91"/>
+      <c r="H132" s="91"/>
+      <c r="I132" s="91"/>
+      <c r="J132" s="91"/>
+      <c r="K132" s="91"/>
+    </row>
+    <row r="133" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B133" s="62"/>
+      <c r="C133" s="63" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="134" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B134" s="62"/>
+      <c r="C134" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="135" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B135" s="62"/>
+    </row>
+    <row r="136" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B136" s="62"/>
+      <c r="C136" s="62" t="s">
+        <v>226</v>
+      </c>
+      <c r="D136" s="62"/>
+      <c r="E136" s="62"/>
+      <c r="F136" s="62"/>
+      <c r="G136" s="62"/>
+      <c r="H136" s="62"/>
+      <c r="I136" s="62"/>
+      <c r="J136" s="62"/>
+      <c r="K136" s="62"/>
+    </row>
+    <row r="137" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B137" s="62"/>
+      <c r="C137" s="62" t="s">
         <v>225</v>
       </c>
-      <c r="C109" s="78"/>
-      <c r="D109" s="78"/>
-      <c r="E109" s="78"/>
-      <c r="F109" s="78"/>
-      <c r="G109" s="78"/>
-      <c r="H109" s="78"/>
-      <c r="I109" s="78"/>
-      <c r="J109" s="78"/>
-      <c r="K109" s="78"/>
-    </row>
-    <row r="110" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B110" s="79"/>
-      <c r="C110" s="79"/>
-      <c r="D110" s="79"/>
-      <c r="E110" s="79"/>
-      <c r="F110" s="79"/>
-      <c r="G110" s="79"/>
-      <c r="H110" s="79"/>
-      <c r="I110" s="79"/>
-      <c r="J110" s="79"/>
-      <c r="K110" s="79"/>
-    </row>
-    <row r="111" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B111" s="76"/>
-      <c r="C111" s="80" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="112" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B112" s="76"/>
-      <c r="C112" s="1" t="s">
+      <c r="D137" s="62"/>
+      <c r="E137" s="62"/>
+      <c r="F137" s="62"/>
+      <c r="G137" s="62"/>
+      <c r="H137" s="62"/>
+      <c r="I137" s="62"/>
+      <c r="J137" s="62"/>
+      <c r="K137" s="62"/>
+    </row>
+    <row r="138" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B138" s="62"/>
+    </row>
+    <row r="139" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B139" s="62"/>
+      <c r="C139" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="113" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B113" s="76"/>
-    </row>
-    <row r="114" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B114" s="76"/>
-      <c r="C114" s="76" t="s">
+    <row r="140" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B140" s="62"/>
+    </row>
+    <row r="141" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B141" s="62"/>
+      <c r="C141" s="62" t="s">
+        <v>199</v>
+      </c>
+      <c r="D141" s="62"/>
+      <c r="E141" s="62"/>
+      <c r="F141" s="62"/>
+      <c r="G141" s="62"/>
+      <c r="H141" s="62"/>
+      <c r="I141" s="62"/>
+      <c r="J141" s="62"/>
+      <c r="K141" s="62"/>
+    </row>
+    <row r="142" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B142" s="62"/>
+    </row>
+    <row r="143" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B143" s="62"/>
+      <c r="C143" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="144" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B144" s="62"/>
+      <c r="C144" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="145" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B145" s="62"/>
+    </row>
+    <row r="146" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B146" s="62"/>
+      <c r="C146" s="62" t="s">
+        <v>202</v>
+      </c>
+      <c r="D146" s="62"/>
+      <c r="E146" s="62"/>
+      <c r="F146" s="62"/>
+      <c r="G146" s="62"/>
+      <c r="H146" s="62"/>
+      <c r="I146" s="62"/>
+      <c r="J146" s="62"/>
+      <c r="K146" s="62"/>
+    </row>
+    <row r="147" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B147" s="62"/>
+    </row>
+    <row r="148" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B148" s="62"/>
+      <c r="C148" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="149" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B149" s="62"/>
+    </row>
+    <row r="150" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B150" s="62"/>
+      <c r="C150" s="62" t="s">
+        <v>204</v>
+      </c>
+      <c r="D150" s="62"/>
+      <c r="E150" s="62"/>
+      <c r="F150" s="62"/>
+      <c r="G150" s="62"/>
+      <c r="H150" s="62"/>
+      <c r="I150" s="62"/>
+      <c r="J150" s="62"/>
+      <c r="K150" s="62"/>
+    </row>
+    <row r="151" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B151" s="62"/>
+    </row>
+    <row r="152" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B152" s="62"/>
+      <c r="C152" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="153" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B153" s="62"/>
+    </row>
+    <row r="154" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B154" s="62"/>
+      <c r="C154" s="62" t="s">
+        <v>206</v>
+      </c>
+      <c r="D154" s="62"/>
+      <c r="E154" s="62"/>
+      <c r="F154" s="62"/>
+      <c r="G154" s="62"/>
+      <c r="H154" s="62"/>
+      <c r="I154" s="62"/>
+      <c r="J154" s="62"/>
+      <c r="K154" s="62"/>
+    </row>
+    <row r="155" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B155" s="62"/>
+      <c r="C155" s="62" t="s">
+        <v>207</v>
+      </c>
+      <c r="D155" s="62"/>
+      <c r="E155" s="62"/>
+      <c r="F155" s="62"/>
+      <c r="G155" s="62"/>
+      <c r="H155" s="62"/>
+      <c r="I155" s="62"/>
+      <c r="J155" s="62"/>
+      <c r="K155" s="62"/>
+    </row>
+    <row r="156" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B156" s="62"/>
+    </row>
+    <row r="157" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B157" s="62"/>
+      <c r="C157" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="158" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B158" s="62"/>
+    </row>
+    <row r="159" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B159" s="62"/>
+      <c r="C159" s="62" t="s">
+        <v>209</v>
+      </c>
+      <c r="D159" s="62"/>
+      <c r="E159" s="62"/>
+      <c r="F159" s="62"/>
+      <c r="G159" s="62"/>
+      <c r="H159" s="62"/>
+      <c r="I159" s="62"/>
+      <c r="J159" s="62"/>
+      <c r="K159" s="62"/>
+    </row>
+    <row r="160" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B160" s="62"/>
+    </row>
+    <row r="161" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B161" s="62"/>
+      <c r="C161" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="162" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B162" s="62"/>
+    </row>
+    <row r="163" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B163" s="62"/>
+      <c r="C163" s="62" t="s">
+        <v>211</v>
+      </c>
+      <c r="D163" s="62"/>
+      <c r="E163" s="62"/>
+      <c r="F163" s="62"/>
+      <c r="G163" s="62"/>
+      <c r="H163" s="62"/>
+      <c r="I163" s="62"/>
+      <c r="J163" s="62"/>
+      <c r="K163" s="62"/>
+    </row>
+    <row r="164" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B164" s="62"/>
+    </row>
+    <row r="165" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B165" s="62"/>
+      <c r="C165" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="166" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B166" s="62"/>
+      <c r="C166" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="D114" s="76"/>
-      <c r="E114" s="76"/>
-      <c r="F114" s="76"/>
-      <c r="G114" s="76"/>
-      <c r="H114" s="76"/>
-      <c r="I114" s="76"/>
-      <c r="J114" s="76"/>
-      <c r="K114" s="76"/>
-    </row>
-    <row r="115" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B115" s="76"/>
-      <c r="C115" s="76" t="s">
-        <v>226</v>
-      </c>
-      <c r="D115" s="76"/>
-      <c r="E115" s="76"/>
-      <c r="F115" s="76"/>
-      <c r="G115" s="76"/>
-      <c r="H115" s="76"/>
-      <c r="I115" s="76"/>
-      <c r="J115" s="76"/>
-      <c r="K115" s="76"/>
-    </row>
-    <row r="116" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B116" s="76"/>
-    </row>
-    <row r="117" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B117" s="76"/>
-      <c r="C117" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="118" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B118" s="76"/>
-    </row>
-    <row r="119" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B119" s="76"/>
-      <c r="C119" s="76" t="s">
-        <v>200</v>
-      </c>
-      <c r="D119" s="76"/>
-      <c r="E119" s="76"/>
-      <c r="F119" s="76"/>
-      <c r="G119" s="76"/>
-      <c r="H119" s="76"/>
-      <c r="I119" s="76"/>
-      <c r="J119" s="76"/>
-      <c r="K119" s="76"/>
-    </row>
-    <row r="120" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B120" s="76"/>
-    </row>
-    <row r="121" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B121" s="76"/>
-      <c r="C121" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="122" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B122" s="76"/>
-      <c r="C122" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="123" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B123" s="76"/>
-    </row>
-    <row r="124" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B124" s="76"/>
-      <c r="C124" s="76" t="s">
-        <v>203</v>
-      </c>
-      <c r="D124" s="76"/>
-      <c r="E124" s="76"/>
-      <c r="F124" s="76"/>
-      <c r="G124" s="76"/>
-      <c r="H124" s="76"/>
-      <c r="I124" s="76"/>
-      <c r="J124" s="76"/>
-      <c r="K124" s="76"/>
-    </row>
-    <row r="125" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B125" s="76"/>
-    </row>
-    <row r="126" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B126" s="76"/>
-      <c r="C126" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="127" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B127" s="76"/>
-    </row>
-    <row r="128" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B128" s="76"/>
-      <c r="C128" s="76" t="s">
-        <v>205</v>
-      </c>
-      <c r="D128" s="76"/>
-      <c r="E128" s="76"/>
-      <c r="F128" s="76"/>
-      <c r="G128" s="76"/>
-      <c r="H128" s="76"/>
-      <c r="I128" s="76"/>
-      <c r="J128" s="76"/>
-      <c r="K128" s="76"/>
-    </row>
-    <row r="129" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B129" s="76"/>
-    </row>
-    <row r="130" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B130" s="76"/>
-      <c r="C130" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="131" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B131" s="76"/>
-    </row>
-    <row r="132" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B132" s="76"/>
-      <c r="C132" s="76" t="s">
-        <v>207</v>
-      </c>
-      <c r="D132" s="76"/>
-      <c r="E132" s="76"/>
-      <c r="F132" s="76"/>
-      <c r="G132" s="76"/>
-      <c r="H132" s="76"/>
-      <c r="I132" s="76"/>
-      <c r="J132" s="76"/>
-      <c r="K132" s="76"/>
-    </row>
-    <row r="133" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B133" s="76"/>
-      <c r="C133" s="76" t="s">
-        <v>208</v>
-      </c>
-      <c r="D133" s="76"/>
-      <c r="E133" s="76"/>
-      <c r="F133" s="76"/>
-      <c r="G133" s="76"/>
-      <c r="H133" s="76"/>
-      <c r="I133" s="76"/>
-      <c r="J133" s="76"/>
-      <c r="K133" s="76"/>
-    </row>
-    <row r="134" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B134" s="76"/>
-    </row>
-    <row r="135" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B135" s="76"/>
-      <c r="C135" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="136" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B136" s="76"/>
-    </row>
-    <row r="137" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B137" s="76"/>
-      <c r="C137" s="76" t="s">
-        <v>210</v>
-      </c>
-      <c r="D137" s="76"/>
-      <c r="E137" s="76"/>
-      <c r="F137" s="76"/>
-      <c r="G137" s="76"/>
-      <c r="H137" s="76"/>
-      <c r="I137" s="76"/>
-      <c r="J137" s="76"/>
-      <c r="K137" s="76"/>
-    </row>
-    <row r="138" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B138" s="76"/>
-    </row>
-    <row r="139" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B139" s="76"/>
-      <c r="C139" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="140" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B140" s="76"/>
-    </row>
-    <row r="141" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B141" s="76"/>
-      <c r="C141" s="76" t="s">
+    </row>
+    <row r="167" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B167" s="62"/>
+      <c r="C167" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D141" s="76"/>
-      <c r="E141" s="76"/>
-      <c r="F141" s="76"/>
-      <c r="G141" s="76"/>
-      <c r="H141" s="76"/>
-      <c r="I141" s="76"/>
-      <c r="J141" s="76"/>
-      <c r="K141" s="76"/>
-    </row>
-    <row r="142" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B142" s="76"/>
-    </row>
-    <row r="143" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B143" s="76"/>
-      <c r="C143" s="1" t="s">
+    </row>
+    <row r="168" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B168" s="62"/>
+    </row>
+    <row r="169" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B169" s="62"/>
+      <c r="C169" s="62" t="s">
+        <v>213</v>
+      </c>
+      <c r="D169" s="62"/>
+      <c r="E169" s="62"/>
+      <c r="F169" s="62"/>
+      <c r="G169" s="62"/>
+      <c r="H169" s="62"/>
+      <c r="I169" s="62"/>
+      <c r="J169" s="62"/>
+      <c r="K169" s="62"/>
+    </row>
+    <row r="170" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B170" s="62"/>
+    </row>
+    <row r="171" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B171" s="62"/>
+      <c r="C171" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="172" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B172" s="62"/>
+    </row>
+    <row r="173" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B173" s="62"/>
+      <c r="C173" s="62" t="s">
+        <v>215</v>
+      </c>
+      <c r="D173" s="62"/>
+      <c r="E173" s="62"/>
+      <c r="F173" s="62"/>
+      <c r="G173" s="62"/>
+      <c r="H173" s="62"/>
+      <c r="I173" s="62"/>
+      <c r="J173" s="62"/>
+      <c r="K173" s="62"/>
+    </row>
+    <row r="174" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B174" s="62"/>
+    </row>
+    <row r="175" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B175" s="62"/>
+      <c r="C175" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="176" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B176" s="62"/>
+    </row>
+    <row r="177" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B177" s="62"/>
+      <c r="C177" s="62" t="s">
+        <v>217</v>
+      </c>
+      <c r="D177" s="62"/>
+      <c r="E177" s="62"/>
+      <c r="F177" s="62"/>
+      <c r="G177" s="62"/>
+      <c r="H177" s="62"/>
+      <c r="I177" s="62"/>
+      <c r="J177" s="62"/>
+      <c r="K177" s="62"/>
+    </row>
+    <row r="178" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B178" s="62"/>
+    </row>
+    <row r="179" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B179" s="62"/>
+      <c r="C179" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="180" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B180" s="62"/>
+      <c r="C180" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="181" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B181" s="62"/>
+    </row>
+    <row r="182" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B182" s="62"/>
+      <c r="C182" s="62" t="s">
+        <v>220</v>
+      </c>
+      <c r="D182" s="62"/>
+      <c r="E182" s="62"/>
+      <c r="F182" s="62"/>
+      <c r="G182" s="62"/>
+      <c r="H182" s="62"/>
+      <c r="I182" s="62"/>
+      <c r="J182" s="62"/>
+      <c r="K182" s="62"/>
+    </row>
+    <row r="183" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B183" s="62"/>
+    </row>
+    <row r="184" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B184" s="62"/>
+      <c r="C184" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="185" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B185" s="62"/>
+      <c r="C185" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="144" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B144" s="76"/>
-      <c r="C144" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="145" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B145" s="76"/>
-      <c r="C145" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="146" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B146" s="76"/>
-    </row>
-    <row r="147" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B147" s="76"/>
-      <c r="C147" s="76" t="s">
-        <v>214</v>
-      </c>
-      <c r="D147" s="76"/>
-      <c r="E147" s="76"/>
-      <c r="F147" s="76"/>
-      <c r="G147" s="76"/>
-      <c r="H147" s="76"/>
-      <c r="I147" s="76"/>
-      <c r="J147" s="76"/>
-      <c r="K147" s="76"/>
-    </row>
-    <row r="148" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B148" s="76"/>
-    </row>
-    <row r="149" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B149" s="76"/>
-      <c r="C149" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="150" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B150" s="76"/>
-    </row>
-    <row r="151" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B151" s="76"/>
-      <c r="C151" s="76" t="s">
-        <v>216</v>
-      </c>
-      <c r="D151" s="76"/>
-      <c r="E151" s="76"/>
-      <c r="F151" s="76"/>
-      <c r="G151" s="76"/>
-      <c r="H151" s="76"/>
-      <c r="I151" s="76"/>
-      <c r="J151" s="76"/>
-      <c r="K151" s="76"/>
-    </row>
-    <row r="152" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B152" s="76"/>
-    </row>
-    <row r="153" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B153" s="76"/>
-      <c r="C153" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="154" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B154" s="76"/>
-    </row>
-    <row r="155" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B155" s="76"/>
-      <c r="C155" s="76" t="s">
-        <v>218</v>
-      </c>
-      <c r="D155" s="76"/>
-      <c r="E155" s="76"/>
-      <c r="F155" s="76"/>
-      <c r="G155" s="76"/>
-      <c r="H155" s="76"/>
-      <c r="I155" s="76"/>
-      <c r="J155" s="76"/>
-      <c r="K155" s="76"/>
-    </row>
-    <row r="156" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B156" s="76"/>
-    </row>
-    <row r="157" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B157" s="76"/>
-      <c r="C157" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="158" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B158" s="76"/>
-      <c r="C158" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="159" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B159" s="76"/>
-    </row>
-    <row r="160" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B160" s="76"/>
-      <c r="C160" s="76" t="s">
+    <row r="186" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B186" s="62"/>
+    </row>
+    <row r="187" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B187" s="62"/>
+      <c r="C187" s="62" t="s">
         <v>221</v>
       </c>
-      <c r="D160" s="76"/>
-      <c r="E160" s="76"/>
-      <c r="F160" s="76"/>
-      <c r="G160" s="76"/>
-      <c r="H160" s="76"/>
-      <c r="I160" s="76"/>
-      <c r="J160" s="76"/>
-      <c r="K160" s="76"/>
-    </row>
-    <row r="161" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B161" s="76"/>
-    </row>
-    <row r="162" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B162" s="76"/>
-      <c r="C162" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="163" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B163" s="76"/>
-      <c r="C163" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="164" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B164" s="76"/>
-    </row>
-    <row r="165" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B165" s="76"/>
-      <c r="C165" s="76" t="s">
+      <c r="D187" s="62"/>
+      <c r="E187" s="62"/>
+      <c r="F187" s="62"/>
+      <c r="G187" s="62"/>
+      <c r="H187" s="62"/>
+      <c r="I187" s="62"/>
+      <c r="J187" s="62"/>
+      <c r="K187" s="62"/>
+    </row>
+    <row r="188" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B188" s="62"/>
+    </row>
+    <row r="189" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B189" s="62"/>
+      <c r="C189" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D165" s="76"/>
-      <c r="E165" s="76"/>
-      <c r="F165" s="76"/>
-      <c r="G165" s="76"/>
-      <c r="H165" s="76"/>
-      <c r="I165" s="76"/>
-      <c r="J165" s="76"/>
-      <c r="K165" s="76"/>
-    </row>
-    <row r="166" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B166" s="76"/>
-    </row>
-    <row r="167" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B167" s="76"/>
-      <c r="C167" s="1" t="s">
+    </row>
+    <row r="190" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B190" s="62"/>
+    </row>
+    <row r="191" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B191" s="62"/>
+      <c r="C191" s="62" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="168" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B168" s="76"/>
-    </row>
-    <row r="169" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B169" s="76"/>
-      <c r="C169" s="76" t="s">
-        <v>224</v>
-      </c>
-      <c r="D169" s="76"/>
-      <c r="E169" s="76"/>
-      <c r="F169" s="76"/>
-      <c r="G169" s="76"/>
-      <c r="H169" s="76"/>
-      <c r="I169" s="76"/>
-      <c r="J169" s="76"/>
-      <c r="K169" s="76"/>
+      <c r="D191" s="62"/>
+      <c r="E191" s="62"/>
+      <c r="F191" s="62"/>
+      <c r="G191" s="62"/>
+      <c r="H191" s="62"/>
+      <c r="I191" s="62"/>
+      <c r="J191" s="62"/>
+      <c r="K191" s="62"/>
+    </row>
+    <row r="192" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B192" s="51"/>
+      <c r="C192" s="51"/>
+      <c r="D192" s="51"/>
+      <c r="E192" s="51"/>
+      <c r="F192" s="51"/>
+      <c r="G192" s="51"/>
+      <c r="H192" s="51"/>
+      <c r="I192" s="51"/>
+      <c r="J192" s="51"/>
+      <c r="K192" s="51"/>
+    </row>
+    <row r="193" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B193" s="51"/>
+      <c r="C193" s="51"/>
+      <c r="D193" s="51"/>
+      <c r="E193" s="51"/>
+      <c r="F193" s="51"/>
+      <c r="G193" s="51"/>
+      <c r="H193" s="51"/>
+      <c r="I193" s="51"/>
+      <c r="J193" s="51"/>
+      <c r="K193" s="51"/>
+    </row>
+    <row r="197" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C197" s="86" t="s">
+        <v>236</v>
+      </c>
+      <c r="D197" s="86"/>
+      <c r="E197" s="86"/>
+      <c r="F197" s="86"/>
+      <c r="G197" s="86"/>
+      <c r="H197" s="86"/>
+      <c r="I197" s="86"/>
+      <c r="J197" s="86"/>
+    </row>
+    <row r="198" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C198" s="86"/>
+      <c r="D198" s="86"/>
+      <c r="E198" s="86"/>
+      <c r="F198" s="86"/>
+      <c r="G198" s="86"/>
+      <c r="H198" s="86"/>
+      <c r="I198" s="86"/>
+      <c r="J198" s="86"/>
+    </row>
+    <row r="199" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C199" s="75"/>
+      <c r="D199" s="75"/>
+      <c r="E199" s="75"/>
+      <c r="F199" s="85" t="s">
+        <v>240</v>
+      </c>
+      <c r="G199" s="75"/>
+      <c r="H199" s="83"/>
+      <c r="I199" s="75" t="s">
+        <v>241</v>
+      </c>
+      <c r="J199" s="75"/>
+    </row>
+    <row r="200" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C200" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="D200" s="47"/>
+      <c r="F200" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="H200" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="201" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C201" s="47"/>
+      <c r="D201" s="47"/>
+      <c r="F201" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="H201" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="202" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C202" s="47"/>
+      <c r="D202" s="47"/>
+      <c r="H202" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="203" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C203" s="87" t="s">
+        <v>238</v>
+      </c>
+      <c r="D203" s="87"/>
+      <c r="E203" s="87"/>
+      <c r="F203" s="84" t="s">
+        <v>242</v>
+      </c>
+      <c r="G203" s="84"/>
+      <c r="H203" s="84" t="s">
+        <v>244</v>
+      </c>
+      <c r="I203" s="84"/>
+      <c r="J203" s="84"/>
+    </row>
+    <row r="204" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="F204" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H204" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="206" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C206" s="88" t="s">
+        <v>239</v>
+      </c>
+      <c r="D206" s="88"/>
+      <c r="E206" s="88"/>
+      <c r="F206" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="H206" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="207" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="F207" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="H207" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="208" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="F208" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="H208" s="1" t="s">
+        <v>260</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="16">
+    <mergeCell ref="B36:K36"/>
+    <mergeCell ref="B55:K55"/>
+    <mergeCell ref="B105:J105"/>
+    <mergeCell ref="B120:K120"/>
+    <mergeCell ref="B106:K106"/>
+    <mergeCell ref="B107:K107"/>
+    <mergeCell ref="B108:K108"/>
     <mergeCell ref="B109:K109"/>
     <mergeCell ref="B110:K110"/>
-    <mergeCell ref="B33:K33"/>
-    <mergeCell ref="B52:K52"/>
-    <mergeCell ref="B83:J83"/>
-    <mergeCell ref="B98:K98"/>
-    <mergeCell ref="B84:K84"/>
-    <mergeCell ref="B85:K85"/>
-    <mergeCell ref="B86:K86"/>
-    <mergeCell ref="B87:K87"/>
-    <mergeCell ref="B88:K88"/>
-    <mergeCell ref="B89:K89"/>
-    <mergeCell ref="B90:K90"/>
+    <mergeCell ref="B111:K111"/>
+    <mergeCell ref="B112:K112"/>
+    <mergeCell ref="C197:J198"/>
+    <mergeCell ref="C203:E203"/>
+    <mergeCell ref="C206:E206"/>
+    <mergeCell ref="B131:K131"/>
+    <mergeCell ref="B132:K132"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3349,10 +4369,10 @@
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Z1006"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3368,23 +4388,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="61" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="64" t="s">
+        <v>231</v>
+      </c>
+      <c r="B1" s="56" t="s">
         <v>232</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="C1" s="55" t="s">
         <v>233</v>
       </c>
-      <c r="C1" s="55" t="s">
-        <v>234</v>
-      </c>
       <c r="D1" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="F1" s="59" t="s">
         <v>33</v>
-      </c>
-      <c r="F1" s="59" t="s">
-        <v>34</v>
       </c>
       <c r="G1" s="60"/>
       <c r="H1" s="60"/>
@@ -3407,506 +4427,596 @@
       <c r="Y1" s="60"/>
       <c r="Z1" s="60"/>
     </row>
-    <row r="2" spans="1:26" s="84" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="82">
+    <row r="2" spans="1:26" s="67" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="65">
         <v>1</v>
       </c>
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="67" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="84" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="85" t="s">
+      <c r="E2" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="85" t="s">
+      <c r="F2" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="85" t="s">
+    </row>
+    <row r="3" spans="1:26" s="71" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="69">
+        <v>2</v>
+      </c>
+      <c r="B3" s="70" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" s="88" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="86">
-        <v>2</v>
-      </c>
-      <c r="B3" s="87" t="s">
+      <c r="C3" s="71" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="88" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="89" t="s">
+      <c r="E3" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="89" t="s">
+      <c r="F3" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="89" t="s">
+    </row>
+    <row r="4" spans="1:26" s="67" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="65">
+        <v>3</v>
+      </c>
+      <c r="B4" s="73" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="67" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="68" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" s="84" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="82">
-        <v>3</v>
-      </c>
-      <c r="B4" s="90" t="s">
+      <c r="E4" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="F4" s="68" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" s="71" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="69">
+        <v>4</v>
+      </c>
+      <c r="B5" s="70" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="71" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="72" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="72"/>
+    </row>
+    <row r="6" spans="1:26" s="67" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="65">
+        <v>5</v>
+      </c>
+      <c r="B6" s="73" t="s">
         <v>141</v>
       </c>
-      <c r="C4" s="84" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="85" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="85" t="s">
+      <c r="C6" s="67" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="68" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="F4" s="85" t="s">
+      <c r="F6" s="68" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" s="71" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="69">
+        <v>6</v>
+      </c>
+      <c r="B7" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="71" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="72" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="72" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="72" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="169">
+        <v>7</v>
+      </c>
+      <c r="B8" s="66" t="s">
+        <v>293</v>
+      </c>
+      <c r="C8" s="138" t="s">
+        <v>292</v>
+      </c>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" s="71" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="69">
+        <v>8</v>
+      </c>
+      <c r="B9" s="70" t="s">
+        <v>295</v>
+      </c>
+      <c r="C9" s="71" t="s">
+        <v>292</v>
+      </c>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="169">
+        <v>9</v>
+      </c>
+      <c r="B10" s="66" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" s="138" t="s">
+        <v>292</v>
+      </c>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" s="71" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="69">
+        <v>10</v>
+      </c>
+      <c r="B11" s="70" t="s">
+        <v>296</v>
+      </c>
+      <c r="C11" s="71" t="s">
+        <v>292</v>
+      </c>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="169">
+        <v>11</v>
+      </c>
+      <c r="B12" s="66" t="s">
+        <v>297</v>
+      </c>
+      <c r="C12" s="138" t="s">
+        <v>292</v>
+      </c>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" s="71" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="69">
+        <v>12</v>
+      </c>
+      <c r="B13" s="70" t="s">
+        <v>298</v>
+      </c>
+      <c r="C13" s="71" t="s">
+        <v>292</v>
+      </c>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" s="67" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="65">
+        <v>13</v>
+      </c>
+      <c r="B14" s="66" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="67" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="68" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="68" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" s="71" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="69">
+        <v>14</v>
+      </c>
+      <c r="B15" s="70" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" s="71" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="72" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="72" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" s="67" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="65">
+        <v>15</v>
+      </c>
+      <c r="B16" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="67" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="68" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="68" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="71" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="69">
+        <v>16</v>
+      </c>
+      <c r="B17" s="70" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" s="71" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="72" t="s">
+        <v>112</v>
+      </c>
+      <c r="E17" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="F17" s="72" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="67" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="65">
+        <v>17</v>
+      </c>
+      <c r="B18" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="67" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="68" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="68" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="71" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="69">
+        <v>18</v>
+      </c>
+      <c r="B19" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="71" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="72" t="s">
+        <v>113</v>
+      </c>
+      <c r="E19" s="72" t="s">
+        <v>123</v>
+      </c>
+      <c r="F19" s="72" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="1:26" s="88" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="86">
-        <v>4</v>
-      </c>
-      <c r="B5" s="87" t="s">
-        <v>107</v>
-      </c>
-      <c r="C5" s="88" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="89" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="89" t="s">
+    <row r="20" spans="1:6" s="67" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="65">
+        <v>19</v>
+      </c>
+      <c r="B20" s="66" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="67" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="68" t="s">
+        <v>114</v>
+      </c>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="71" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="69">
+        <v>20</v>
+      </c>
+      <c r="B21" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="71" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="72" t="s">
+        <v>124</v>
+      </c>
+      <c r="F21" s="72" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="67" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="65">
+        <v>21</v>
+      </c>
+      <c r="B22" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" s="67" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="68" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" s="68" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="71" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="69">
+        <v>22</v>
+      </c>
+      <c r="B23" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="71" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="72" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" s="72" t="s">
+        <v>125</v>
+      </c>
+      <c r="F23" s="72" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="67" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="65">
+        <v>23</v>
+      </c>
+      <c r="B24" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="89"/>
-    </row>
-    <row r="6" spans="1:26" s="84" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="82">
-        <v>5</v>
-      </c>
-      <c r="B6" s="90" t="s">
-        <v>142</v>
-      </c>
-      <c r="C6" s="84" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="85" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="85" t="s">
-        <v>122</v>
-      </c>
-      <c r="F6" s="85" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" s="88" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="86">
-        <v>6</v>
-      </c>
-      <c r="B7" s="87" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="88" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="89" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="89" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" s="89" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" s="84" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="82">
-        <v>7</v>
-      </c>
-      <c r="B8" s="83" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="84" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="85" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="85" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="85" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" s="88" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="86">
-        <v>8</v>
-      </c>
-      <c r="B9" s="87" t="s">
-        <v>108</v>
-      </c>
-      <c r="C9" s="88" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="89" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="89" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="89" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" s="84" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="82">
-        <v>9</v>
-      </c>
-      <c r="B10" s="83" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="84" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="85" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="85" t="s">
-        <v>60</v>
-      </c>
-      <c r="F10" s="85" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" s="88" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="86">
-        <v>10</v>
-      </c>
-      <c r="B11" s="87" t="s">
-        <v>109</v>
-      </c>
-      <c r="C11" s="88" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="89" t="s">
-        <v>113</v>
-      </c>
-      <c r="E11" s="89" t="s">
-        <v>123</v>
-      </c>
-      <c r="F11" s="89" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" s="84" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="82">
-        <v>11</v>
-      </c>
-      <c r="B12" s="83" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="84" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="85" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="85" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" s="85" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" s="88" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="86">
-        <v>12</v>
-      </c>
-      <c r="B13" s="87" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" s="88" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="89" t="s">
-        <v>114</v>
-      </c>
-      <c r="E13" s="89" t="s">
-        <v>124</v>
-      </c>
-      <c r="F13" s="89" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" s="84" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="82">
-        <v>13</v>
-      </c>
-      <c r="B14" s="83" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="84" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="85" t="s">
+      <c r="D24" s="68" t="s">
         <v>115</v>
       </c>
-      <c r="E14" s="85"/>
-      <c r="F14" s="85" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" s="88" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="86">
-        <v>14</v>
-      </c>
-      <c r="B15" s="87" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" s="88" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="89" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15" s="89" t="s">
-        <v>125</v>
-      </c>
-      <c r="F15" s="89" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" s="84" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="82">
-        <v>15</v>
-      </c>
-      <c r="B16" s="83" t="s">
+      <c r="E24" s="68" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" s="68" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="71" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="69">
+        <v>24</v>
+      </c>
+      <c r="B25" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="71" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="72" t="s">
+        <v>79</v>
+      </c>
+      <c r="E25" s="72" t="s">
+        <v>126</v>
+      </c>
+      <c r="F25" s="72" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="67" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="65">
+        <v>25</v>
+      </c>
+      <c r="B26" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="67" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="68" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="F26" s="68" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="71" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="69">
+        <v>26</v>
+      </c>
+      <c r="B27" s="70" t="s">
         <v>110</v>
       </c>
-      <c r="C16" s="84" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="85" t="s">
-        <v>72</v>
-      </c>
-      <c r="E16" s="85" t="s">
-        <v>73</v>
-      </c>
-      <c r="F16" s="85" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="88" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="86">
-        <v>16</v>
-      </c>
-      <c r="B17" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="88" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="89" t="s">
-        <v>76</v>
-      </c>
-      <c r="E17" s="89" t="s">
-        <v>126</v>
-      </c>
-      <c r="F17" s="89" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="84" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="82">
-        <v>17</v>
-      </c>
-      <c r="B18" s="83" t="s">
-        <v>77</v>
-      </c>
-      <c r="C18" s="91" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="85" t="s">
+      <c r="C27" s="71" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="72" t="s">
         <v>116</v>
       </c>
-      <c r="E18" s="85" t="s">
-        <v>78</v>
-      </c>
-      <c r="F18" s="85" t="s">
+      <c r="E27" s="72" t="s">
+        <v>85</v>
+      </c>
+      <c r="F27" s="72" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="88" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="86">
-        <v>18</v>
-      </c>
-      <c r="B19" s="87" t="s">
-        <v>79</v>
-      </c>
-      <c r="C19" s="88" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="89" t="s">
-        <v>80</v>
-      </c>
-      <c r="E19" s="89" t="s">
+    <row r="28" spans="1:6" s="67" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="65">
+        <v>27</v>
+      </c>
+      <c r="B28" s="66" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="67" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="68" t="s">
+        <v>117</v>
+      </c>
+      <c r="E28" s="68" t="s">
         <v>127</v>
       </c>
-      <c r="F19" s="89" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="84" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="82">
-        <v>19</v>
-      </c>
-      <c r="B20" s="83" t="s">
-        <v>82</v>
-      </c>
-      <c r="C20" s="84" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="85" t="s">
-        <v>83</v>
-      </c>
-      <c r="E20" s="85" t="s">
-        <v>84</v>
-      </c>
-      <c r="F20" s="85" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="88" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="86">
-        <v>20</v>
-      </c>
-      <c r="B21" s="87" t="s">
+      <c r="F28" s="68" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="69">
+        <v>28</v>
+      </c>
+      <c r="B29" s="70" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" s="71" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="72" t="s">
+        <v>118</v>
+      </c>
+      <c r="E29" s="72" t="s">
+        <v>128</v>
+      </c>
+      <c r="F29" s="72" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="67" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="65">
+        <v>29</v>
+      </c>
+      <c r="B30" s="66" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="67" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" s="68" t="s">
+        <v>89</v>
+      </c>
+      <c r="E30" s="68" t="s">
+        <v>90</v>
+      </c>
+      <c r="F30" s="68" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="69">
+        <v>30</v>
+      </c>
+      <c r="B31" s="70" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" s="71" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" s="72" t="s">
+        <v>93</v>
+      </c>
+      <c r="E31" s="72" t="s">
+        <v>94</v>
+      </c>
+      <c r="F31" s="72" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="67" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="65">
+        <v>31</v>
+      </c>
+      <c r="B32" s="66" t="s">
         <v>111</v>
       </c>
-      <c r="C21" s="88" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="89" t="s">
-        <v>117</v>
-      </c>
-      <c r="E21" s="89" t="s">
-        <v>86</v>
-      </c>
-      <c r="F21" s="89" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="84" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="82">
-        <v>21</v>
-      </c>
-      <c r="B22" s="83" t="s">
-        <v>87</v>
-      </c>
-      <c r="C22" s="84" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="85" t="s">
-        <v>118</v>
-      </c>
-      <c r="E22" s="85" t="s">
-        <v>128</v>
-      </c>
-      <c r="F22" s="85" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="86">
-        <v>22</v>
-      </c>
-      <c r="B23" s="87" t="s">
-        <v>88</v>
-      </c>
-      <c r="C23" s="88" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="89" t="s">
+      <c r="C32" s="66"/>
+      <c r="D32" s="68" t="s">
         <v>119</v>
       </c>
-      <c r="E23" s="89" t="s">
+      <c r="E32" s="68" t="s">
         <v>129</v>
       </c>
-      <c r="F23" s="89" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" s="84" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="82">
-        <v>23</v>
-      </c>
-      <c r="B24" s="83" t="s">
-        <v>89</v>
-      </c>
-      <c r="C24" s="84" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" s="85" t="s">
-        <v>90</v>
-      </c>
-      <c r="E24" s="85" t="s">
-        <v>91</v>
-      </c>
-      <c r="F24" s="85" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="86">
-        <v>24</v>
-      </c>
-      <c r="B25" s="87" t="s">
-        <v>93</v>
-      </c>
-      <c r="C25" s="88" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" s="89" t="s">
-        <v>94</v>
-      </c>
-      <c r="E25" s="89" t="s">
-        <v>95</v>
-      </c>
-      <c r="F25" s="89" t="s">
+      <c r="F32" s="68" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="84" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="82">
-        <v>25</v>
-      </c>
-      <c r="B26" s="83" t="s">
-        <v>112</v>
-      </c>
-      <c r="C26" s="83"/>
-      <c r="D26" s="85" t="s">
-        <v>120</v>
-      </c>
-      <c r="E26" s="85" t="s">
-        <v>130</v>
-      </c>
-      <c r="F26" s="85" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4874,9 +5984,1151 @@
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1004" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1005" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1006" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61398747-06B9-4CF6-8C5B-EBC87B275D74}">
+  <dimension ref="A1:AA78"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="34.9" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.21875" style="162"/>
+    <col min="2" max="2" width="18.33203125" style="163" customWidth="1"/>
+    <col min="3" max="3" width="99.77734375" style="111" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59.6640625" style="164" customWidth="1"/>
+    <col min="5" max="5" width="75.33203125" style="164" customWidth="1"/>
+    <col min="6" max="6" width="40.77734375" style="164" customWidth="1"/>
+    <col min="7" max="7" width="44.109375" style="164" customWidth="1"/>
+    <col min="8" max="27" width="10.5546875" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="11.21875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" s="111" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="106" t="s">
+        <v>231</v>
+      </c>
+      <c r="B1" s="107" t="s">
+        <v>266</v>
+      </c>
+      <c r="C1" s="108" t="s">
+        <v>267</v>
+      </c>
+      <c r="D1" s="107" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="107" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="107" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="109" t="s">
+        <v>268</v>
+      </c>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="110"/>
+      <c r="S1" s="110"/>
+      <c r="T1" s="110"/>
+      <c r="U1" s="110"/>
+      <c r="V1" s="110"/>
+      <c r="W1" s="110"/>
+      <c r="X1" s="110"/>
+      <c r="Y1" s="110"/>
+      <c r="Z1" s="110"/>
+      <c r="AA1" s="110"/>
+    </row>
+    <row r="2" spans="1:27" s="117" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="112">
+        <v>1</v>
+      </c>
+      <c r="B2" s="113" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="114" t="s">
+        <v>269</v>
+      </c>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="116"/>
+    </row>
+    <row r="3" spans="1:27" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="118"/>
+      <c r="B3" s="119"/>
+      <c r="C3" s="120" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="121" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="121" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="121" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="122" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="118"/>
+      <c r="B4" s="119"/>
+      <c r="C4" s="120" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="121" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="121" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="121" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="122" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="118"/>
+      <c r="B5" s="119"/>
+      <c r="C5" s="120" t="s">
+        <v>271</v>
+      </c>
+      <c r="D5" s="121" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="121" t="s">
+        <v>120</v>
+      </c>
+      <c r="F5" s="121" t="s">
+        <v>130</v>
+      </c>
+      <c r="G5" s="122" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="123"/>
+      <c r="B6" s="124"/>
+      <c r="C6" s="120" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="121" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="121" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="121"/>
+      <c r="G6" s="122" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" s="130" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="125">
+        <v>2</v>
+      </c>
+      <c r="B7" s="126" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="127" t="s">
+        <v>272</v>
+      </c>
+      <c r="D7" s="128"/>
+      <c r="E7" s="128"/>
+      <c r="F7" s="128"/>
+      <c r="G7" s="129"/>
+    </row>
+    <row r="8" spans="1:27" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="131"/>
+      <c r="B8" s="132"/>
+      <c r="C8" s="120" t="s">
+        <v>273</v>
+      </c>
+      <c r="D8" s="121" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="121" t="s">
+        <v>121</v>
+      </c>
+      <c r="F8" s="121" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="122" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" s="84" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A9" s="131"/>
+      <c r="B9" s="132"/>
+      <c r="C9" s="120" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="121" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="121" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="121" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="122" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" s="84" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A10" s="131"/>
+      <c r="B10" s="132"/>
+      <c r="C10" s="120" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="121" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="121" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="121" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="122" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="131"/>
+      <c r="B11" s="132"/>
+      <c r="C11" s="120" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" s="121" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="121" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="121" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="122" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" s="84" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A12" s="131"/>
+      <c r="B12" s="132"/>
+      <c r="C12" s="120" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="121" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="121" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="121" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" s="122" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" s="84" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A13" s="131"/>
+      <c r="B13" s="132"/>
+      <c r="C13" s="120" t="s">
+        <v>274</v>
+      </c>
+      <c r="D13" s="121" t="s">
+        <v>275</v>
+      </c>
+      <c r="E13" s="121" t="s">
+        <v>276</v>
+      </c>
+      <c r="F13" s="121" t="s">
+        <v>277</v>
+      </c>
+      <c r="G13" s="122"/>
+    </row>
+    <row r="14" spans="1:27" s="84" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A14" s="131"/>
+      <c r="B14" s="132"/>
+      <c r="C14" s="120" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" s="121" t="s">
+        <v>112</v>
+      </c>
+      <c r="E14" s="121" t="s">
+        <v>122</v>
+      </c>
+      <c r="F14" s="121" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="122" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="133"/>
+      <c r="B15" s="134"/>
+      <c r="C15" s="120" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="121" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="121" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="121" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="122" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" s="130" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="125">
+        <v>3</v>
+      </c>
+      <c r="B16" s="126" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="127" t="s">
+        <v>278</v>
+      </c>
+      <c r="D16" s="128"/>
+      <c r="E16" s="128"/>
+      <c r="F16" s="128"/>
+      <c r="G16" s="129"/>
+    </row>
+    <row r="17" spans="1:7" s="84" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A17" s="131"/>
+      <c r="B17" s="132"/>
+      <c r="C17" s="120" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="121" t="s">
+        <v>113</v>
+      </c>
+      <c r="E17" s="121" t="s">
+        <v>123</v>
+      </c>
+      <c r="F17" s="121" t="s">
+        <v>279</v>
+      </c>
+      <c r="G17" s="122" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="131"/>
+      <c r="B18" s="132"/>
+      <c r="C18" s="120" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="121" t="s">
+        <v>114</v>
+      </c>
+      <c r="E18" s="121"/>
+      <c r="F18" s="121" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" s="122" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="131"/>
+      <c r="B19" s="132"/>
+      <c r="C19" s="120" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="121" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="121" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19" s="121" t="s">
+        <v>132</v>
+      </c>
+      <c r="G19" s="122" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="131"/>
+      <c r="B20" s="132"/>
+      <c r="C20" s="120" t="s">
+        <v>109</v>
+      </c>
+      <c r="D20" s="121" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="121" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" s="121" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20" s="122" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="130" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="125">
+        <v>4</v>
+      </c>
+      <c r="B21" s="126" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="127" t="s">
+        <v>280</v>
+      </c>
+      <c r="D21" s="128"/>
+      <c r="E21" s="128"/>
+      <c r="F21" s="128"/>
+      <c r="G21" s="129"/>
+    </row>
+    <row r="22" spans="1:7" s="138" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A22" s="131"/>
+      <c r="B22" s="132"/>
+      <c r="C22" s="135" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="136" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="136" t="s">
+        <v>281</v>
+      </c>
+      <c r="F22" s="136" t="s">
+        <v>133</v>
+      </c>
+      <c r="G22" s="137" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="138" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A23" s="139"/>
+      <c r="B23" s="140"/>
+      <c r="C23" s="120" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="121" t="s">
+        <v>115</v>
+      </c>
+      <c r="E23" s="121" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23" s="121" t="s">
+        <v>134</v>
+      </c>
+      <c r="G23" s="122" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="141" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="125">
+        <v>5</v>
+      </c>
+      <c r="B24" s="126" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="127" t="s">
+        <v>282</v>
+      </c>
+      <c r="D24" s="128"/>
+      <c r="E24" s="128"/>
+      <c r="F24" s="128"/>
+      <c r="G24" s="129"/>
+    </row>
+    <row r="25" spans="1:7" s="84" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+      <c r="A25" s="133"/>
+      <c r="B25" s="134"/>
+      <c r="C25" s="120" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="121" t="s">
+        <v>79</v>
+      </c>
+      <c r="E25" s="121" t="s">
+        <v>126</v>
+      </c>
+      <c r="F25" s="121" t="s">
+        <v>80</v>
+      </c>
+      <c r="G25" s="122" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="130" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="125">
+        <v>6</v>
+      </c>
+      <c r="B26" s="126" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="127" t="s">
+        <v>283</v>
+      </c>
+      <c r="D26" s="128"/>
+      <c r="E26" s="128"/>
+      <c r="F26" s="128"/>
+      <c r="G26" s="129"/>
+    </row>
+    <row r="27" spans="1:7" s="84" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A27" s="131"/>
+      <c r="B27" s="132"/>
+      <c r="C27" s="120" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="121" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" s="121" t="s">
+        <v>83</v>
+      </c>
+      <c r="F27" s="121" t="s">
+        <v>84</v>
+      </c>
+      <c r="G27" s="122" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="84" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+      <c r="A28" s="133"/>
+      <c r="B28" s="134"/>
+      <c r="C28" s="120" t="s">
+        <v>284</v>
+      </c>
+      <c r="D28" s="121" t="s">
+        <v>116</v>
+      </c>
+      <c r="E28" s="121" t="s">
+        <v>85</v>
+      </c>
+      <c r="F28" s="121" t="s">
+        <v>135</v>
+      </c>
+      <c r="G28" s="122" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="130" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="142">
+        <v>7</v>
+      </c>
+      <c r="B29" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="144" t="s">
+        <v>285</v>
+      </c>
+      <c r="D29" s="145"/>
+      <c r="E29" s="145"/>
+      <c r="F29" s="145"/>
+      <c r="G29" s="146"/>
+    </row>
+    <row r="30" spans="1:7" s="84" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+      <c r="A30" s="147"/>
+      <c r="B30" s="148"/>
+      <c r="C30" s="120" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" s="121" t="s">
+        <v>286</v>
+      </c>
+      <c r="E30" s="121" t="s">
+        <v>127</v>
+      </c>
+      <c r="F30" s="121" t="s">
+        <v>136</v>
+      </c>
+      <c r="G30" s="122" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="130" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="149">
+        <v>8</v>
+      </c>
+      <c r="B31" s="150" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="151" t="s">
+        <v>287</v>
+      </c>
+      <c r="D31" s="152"/>
+      <c r="E31" s="152"/>
+      <c r="F31" s="152"/>
+      <c r="G31" s="153"/>
+    </row>
+    <row r="32" spans="1:7" s="130" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="154"/>
+      <c r="B32" s="155"/>
+      <c r="C32" s="120" t="s">
+        <v>87</v>
+      </c>
+      <c r="D32" s="121" t="s">
+        <v>118</v>
+      </c>
+      <c r="E32" s="121" t="s">
+        <v>128</v>
+      </c>
+      <c r="F32" s="121" t="s">
+        <v>137</v>
+      </c>
+      <c r="G32" s="122" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="156"/>
+      <c r="B33" s="157"/>
+      <c r="C33" s="120" t="s">
+        <v>88</v>
+      </c>
+      <c r="D33" s="121" t="s">
+        <v>89</v>
+      </c>
+      <c r="E33" s="121" t="s">
+        <v>90</v>
+      </c>
+      <c r="F33" s="121" t="s">
+        <v>91</v>
+      </c>
+      <c r="G33" s="122" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="130" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="149">
+        <v>9</v>
+      </c>
+      <c r="B34" s="150" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="151" t="s">
+        <v>288</v>
+      </c>
+      <c r="D34" s="152"/>
+      <c r="E34" s="152"/>
+      <c r="F34" s="152"/>
+      <c r="G34" s="153"/>
+    </row>
+    <row r="35" spans="1:7" s="84" customFormat="1" ht="90" x14ac:dyDescent="0.2">
+      <c r="A35" s="156"/>
+      <c r="B35" s="157"/>
+      <c r="C35" s="120" t="s">
+        <v>92</v>
+      </c>
+      <c r="D35" s="121" t="s">
+        <v>93</v>
+      </c>
+      <c r="E35" s="121" t="s">
+        <v>94</v>
+      </c>
+      <c r="F35" s="121" t="s">
+        <v>138</v>
+      </c>
+      <c r="G35" s="122" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="130" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="149">
+        <v>10</v>
+      </c>
+      <c r="B36" s="150" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="151" t="s">
+        <v>289</v>
+      </c>
+      <c r="D36" s="152"/>
+      <c r="E36" s="152"/>
+      <c r="F36" s="152"/>
+      <c r="G36" s="153"/>
+    </row>
+    <row r="37" spans="1:7" s="84" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+      <c r="A37" s="156"/>
+      <c r="B37" s="157"/>
+      <c r="C37" s="120" t="s">
+        <v>111</v>
+      </c>
+      <c r="D37" s="121" t="s">
+        <v>119</v>
+      </c>
+      <c r="E37" s="121" t="s">
+        <v>129</v>
+      </c>
+      <c r="F37" s="121" t="s">
+        <v>139</v>
+      </c>
+      <c r="G37" s="122" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="84" customFormat="1" ht="34.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="158"/>
+      <c r="B38" s="159"/>
+      <c r="C38" s="160"/>
+      <c r="D38" s="161"/>
+      <c r="E38" s="161"/>
+      <c r="F38" s="161"/>
+      <c r="G38" s="161"/>
+    </row>
+    <row r="39" spans="1:7" s="84" customFormat="1" ht="44.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="158"/>
+      <c r="B39" s="165" t="s">
+        <v>290</v>
+      </c>
+      <c r="C39" s="168" t="s">
+        <v>291</v>
+      </c>
+      <c r="D39" s="161"/>
+      <c r="E39" s="161"/>
+      <c r="F39" s="161"/>
+      <c r="G39" s="161"/>
+    </row>
+    <row r="40" spans="1:7" s="84" customFormat="1" ht="34.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="158"/>
+      <c r="B40" s="159"/>
+      <c r="C40" s="160"/>
+      <c r="D40" s="161"/>
+      <c r="E40" s="161"/>
+      <c r="F40" s="161"/>
+      <c r="G40" s="161"/>
+    </row>
+    <row r="41" spans="1:7" s="84" customFormat="1" ht="34.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="158"/>
+      <c r="B41" s="166" t="s">
+        <v>301</v>
+      </c>
+      <c r="C41" s="167" t="s">
+        <v>300</v>
+      </c>
+      <c r="E41" s="161"/>
+      <c r="F41" s="161"/>
+      <c r="G41" s="161"/>
+    </row>
+    <row r="42" spans="1:7" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="158"/>
+      <c r="B42" s="159"/>
+      <c r="C42" s="160"/>
+      <c r="D42" s="161"/>
+      <c r="E42" s="161"/>
+      <c r="F42" s="161"/>
+      <c r="G42" s="161"/>
+    </row>
+    <row r="43" spans="1:7" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="158"/>
+      <c r="B43" s="159"/>
+      <c r="C43" s="160"/>
+      <c r="D43" s="161"/>
+      <c r="E43" s="161"/>
+      <c r="F43" s="161"/>
+      <c r="G43" s="161"/>
+    </row>
+    <row r="44" spans="1:7" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="158"/>
+      <c r="B44" s="159"/>
+      <c r="C44" s="160"/>
+      <c r="D44" s="161"/>
+      <c r="E44" s="161"/>
+      <c r="F44" s="161"/>
+      <c r="G44" s="161"/>
+    </row>
+    <row r="45" spans="1:7" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="158"/>
+      <c r="B45" s="159"/>
+      <c r="C45" s="160"/>
+      <c r="D45" s="161"/>
+      <c r="E45" s="161"/>
+      <c r="F45" s="161"/>
+      <c r="G45" s="161"/>
+    </row>
+    <row r="46" spans="1:7" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="158"/>
+      <c r="B46" s="159"/>
+      <c r="C46" s="160"/>
+      <c r="D46" s="161"/>
+      <c r="E46" s="161"/>
+      <c r="F46" s="161"/>
+      <c r="G46" s="161"/>
+    </row>
+    <row r="47" spans="1:7" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="158"/>
+      <c r="B47" s="159"/>
+      <c r="C47" s="160"/>
+      <c r="D47" s="161"/>
+      <c r="E47" s="161"/>
+      <c r="F47" s="161"/>
+      <c r="G47" s="161"/>
+    </row>
+    <row r="48" spans="1:7" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="158"/>
+      <c r="B48" s="159"/>
+      <c r="C48" s="160"/>
+      <c r="D48" s="161"/>
+      <c r="E48" s="161"/>
+      <c r="F48" s="161"/>
+      <c r="G48" s="161"/>
+    </row>
+    <row r="49" spans="1:7" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="158"/>
+      <c r="B49" s="159"/>
+      <c r="C49" s="160"/>
+      <c r="D49" s="161"/>
+      <c r="E49" s="161"/>
+      <c r="F49" s="161"/>
+      <c r="G49" s="161"/>
+    </row>
+    <row r="50" spans="1:7" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="158"/>
+      <c r="B50" s="159"/>
+      <c r="C50" s="160"/>
+      <c r="D50" s="161"/>
+      <c r="E50" s="161"/>
+      <c r="F50" s="161"/>
+      <c r="G50" s="161"/>
+    </row>
+    <row r="51" spans="1:7" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="158"/>
+      <c r="B51" s="159"/>
+      <c r="C51" s="160"/>
+      <c r="D51" s="161"/>
+      <c r="E51" s="161"/>
+      <c r="F51" s="161"/>
+      <c r="G51" s="161"/>
+    </row>
+    <row r="52" spans="1:7" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="158"/>
+      <c r="B52" s="159"/>
+      <c r="C52" s="160"/>
+      <c r="D52" s="161"/>
+      <c r="E52" s="161"/>
+      <c r="F52" s="161"/>
+      <c r="G52" s="161"/>
+    </row>
+    <row r="53" spans="1:7" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="158"/>
+      <c r="B53" s="159"/>
+      <c r="C53" s="160"/>
+      <c r="D53" s="161"/>
+      <c r="E53" s="161"/>
+      <c r="F53" s="161"/>
+      <c r="G53" s="161"/>
+    </row>
+    <row r="54" spans="1:7" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="158"/>
+      <c r="B54" s="159"/>
+      <c r="C54" s="160"/>
+      <c r="D54" s="161"/>
+      <c r="E54" s="161"/>
+      <c r="F54" s="161"/>
+      <c r="G54" s="161"/>
+    </row>
+    <row r="55" spans="1:7" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="158"/>
+      <c r="B55" s="159"/>
+      <c r="C55" s="160"/>
+      <c r="D55" s="161"/>
+      <c r="E55" s="161"/>
+      <c r="F55" s="161"/>
+      <c r="G55" s="161"/>
+    </row>
+    <row r="56" spans="1:7" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="158"/>
+      <c r="B56" s="159"/>
+      <c r="C56" s="160"/>
+      <c r="D56" s="161"/>
+      <c r="E56" s="161"/>
+      <c r="F56" s="161"/>
+      <c r="G56" s="161"/>
+    </row>
+    <row r="57" spans="1:7" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="158"/>
+      <c r="B57" s="159"/>
+      <c r="C57" s="160"/>
+      <c r="D57" s="161"/>
+      <c r="E57" s="161"/>
+      <c r="F57" s="161"/>
+      <c r="G57" s="161"/>
+    </row>
+    <row r="58" spans="1:7" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="158"/>
+      <c r="B58" s="159"/>
+      <c r="C58" s="160"/>
+      <c r="D58" s="161"/>
+      <c r="E58" s="161"/>
+      <c r="F58" s="161"/>
+      <c r="G58" s="161"/>
+    </row>
+    <row r="59" spans="1:7" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="158"/>
+      <c r="B59" s="159"/>
+      <c r="C59" s="160"/>
+      <c r="D59" s="161"/>
+      <c r="E59" s="161"/>
+      <c r="F59" s="161"/>
+      <c r="G59" s="161"/>
+    </row>
+    <row r="60" spans="1:7" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="158"/>
+      <c r="B60" s="159"/>
+      <c r="C60" s="160"/>
+      <c r="D60" s="161"/>
+      <c r="E60" s="161"/>
+      <c r="F60" s="161"/>
+      <c r="G60" s="161"/>
+    </row>
+    <row r="61" spans="1:7" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="158"/>
+      <c r="B61" s="159"/>
+      <c r="C61" s="160"/>
+      <c r="D61" s="161"/>
+      <c r="E61" s="161"/>
+      <c r="F61" s="161"/>
+      <c r="G61" s="161"/>
+    </row>
+    <row r="62" spans="1:7" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="158"/>
+      <c r="B62" s="159"/>
+      <c r="C62" s="160"/>
+      <c r="D62" s="161"/>
+      <c r="E62" s="161"/>
+      <c r="F62" s="161"/>
+      <c r="G62" s="161"/>
+    </row>
+    <row r="63" spans="1:7" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="158"/>
+      <c r="B63" s="159"/>
+      <c r="C63" s="160"/>
+      <c r="D63" s="161"/>
+      <c r="E63" s="161"/>
+      <c r="F63" s="161"/>
+      <c r="G63" s="161"/>
+    </row>
+    <row r="64" spans="1:7" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="158"/>
+      <c r="B64" s="159"/>
+      <c r="C64" s="160"/>
+      <c r="D64" s="161"/>
+      <c r="E64" s="161"/>
+      <c r="F64" s="161"/>
+      <c r="G64" s="161"/>
+    </row>
+    <row r="65" spans="1:7" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="158"/>
+      <c r="B65" s="159"/>
+      <c r="C65" s="160"/>
+      <c r="D65" s="161"/>
+      <c r="E65" s="161"/>
+      <c r="F65" s="161"/>
+      <c r="G65" s="161"/>
+    </row>
+    <row r="66" spans="1:7" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="158"/>
+      <c r="B66" s="159"/>
+      <c r="C66" s="160"/>
+      <c r="D66" s="161"/>
+      <c r="E66" s="161"/>
+      <c r="F66" s="161"/>
+      <c r="G66" s="161"/>
+    </row>
+    <row r="67" spans="1:7" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="158"/>
+      <c r="B67" s="159"/>
+      <c r="C67" s="160"/>
+      <c r="D67" s="161"/>
+      <c r="E67" s="161"/>
+      <c r="F67" s="161"/>
+      <c r="G67" s="161"/>
+    </row>
+    <row r="68" spans="1:7" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="158"/>
+      <c r="B68" s="159"/>
+      <c r="C68" s="160"/>
+      <c r="D68" s="161"/>
+      <c r="E68" s="161"/>
+      <c r="F68" s="161"/>
+      <c r="G68" s="161"/>
+    </row>
+    <row r="69" spans="1:7" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="158"/>
+      <c r="B69" s="159"/>
+      <c r="C69" s="160"/>
+      <c r="D69" s="161"/>
+      <c r="E69" s="161"/>
+      <c r="F69" s="161"/>
+      <c r="G69" s="161"/>
+    </row>
+    <row r="70" spans="1:7" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="158"/>
+      <c r="B70" s="159"/>
+      <c r="C70" s="160"/>
+      <c r="D70" s="161"/>
+      <c r="E70" s="161"/>
+      <c r="F70" s="161"/>
+      <c r="G70" s="161"/>
+    </row>
+    <row r="71" spans="1:7" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="158"/>
+      <c r="B71" s="159"/>
+      <c r="C71" s="160"/>
+      <c r="D71" s="161"/>
+      <c r="E71" s="161"/>
+      <c r="F71" s="161"/>
+      <c r="G71" s="161"/>
+    </row>
+    <row r="72" spans="1:7" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="158"/>
+      <c r="B72" s="159"/>
+      <c r="C72" s="160"/>
+      <c r="D72" s="161"/>
+      <c r="E72" s="161"/>
+      <c r="F72" s="161"/>
+      <c r="G72" s="161"/>
+    </row>
+    <row r="73" spans="1:7" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="158"/>
+      <c r="B73" s="159"/>
+      <c r="C73" s="160"/>
+      <c r="D73" s="161"/>
+      <c r="E73" s="161"/>
+      <c r="F73" s="161"/>
+      <c r="G73" s="161"/>
+    </row>
+    <row r="74" spans="1:7" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="158"/>
+      <c r="B74" s="159"/>
+      <c r="C74" s="160"/>
+      <c r="D74" s="161"/>
+      <c r="E74" s="161"/>
+      <c r="F74" s="161"/>
+      <c r="G74" s="161"/>
+    </row>
+    <row r="75" spans="1:7" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="158"/>
+      <c r="B75" s="159"/>
+      <c r="C75" s="160"/>
+      <c r="D75" s="161"/>
+      <c r="E75" s="161"/>
+      <c r="F75" s="161"/>
+      <c r="G75" s="161"/>
+    </row>
+    <row r="76" spans="1:7" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="158"/>
+      <c r="B76" s="159"/>
+      <c r="C76" s="160"/>
+      <c r="D76" s="161"/>
+      <c r="E76" s="161"/>
+      <c r="F76" s="161"/>
+      <c r="G76" s="161"/>
+    </row>
+    <row r="77" spans="1:7" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="158"/>
+      <c r="B77" s="159"/>
+      <c r="C77" s="160"/>
+      <c r="D77" s="161"/>
+      <c r="E77" s="161"/>
+      <c r="F77" s="161"/>
+      <c r="G77" s="161"/>
+    </row>
+    <row r="78" spans="1:7" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="158"/>
+      <c r="B78" s="159"/>
+      <c r="C78" s="160"/>
+      <c r="D78" s="161"/>
+      <c r="E78" s="161"/>
+      <c r="F78" s="161"/>
+      <c r="G78" s="161"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="A7:A15"/>
+    <mergeCell ref="B7:B15"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="B16:B20"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="G3" r:id="rId1" xr:uid="{71A581F4-62A9-4E32-9200-FC3B79CF977C}"/>
+    <hyperlink ref="G4" r:id="rId2" xr:uid="{9BEF94F8-EA7E-4D13-B896-5DAD10B34F91}"/>
+    <hyperlink ref="G5" r:id="rId3" xr:uid="{3CB337AE-7E19-41F9-86C7-A29B0F7ECCF7}"/>
+    <hyperlink ref="G6" r:id="rId4" xr:uid="{8475B128-A7AD-419E-8850-5AF7DF7A6780}"/>
+    <hyperlink ref="G8" r:id="rId5" xr:uid="{63E41593-0A40-42C5-9100-97DDAF8B563C}"/>
+    <hyperlink ref="G9" r:id="rId6" xr:uid="{AE83C116-A634-4C85-8CEC-E45373168F4A}"/>
+    <hyperlink ref="G10" r:id="rId7" xr:uid="{23057CB7-45E6-44E6-9BE5-9A530440DF7E}"/>
+    <hyperlink ref="G11" r:id="rId8" xr:uid="{1D0DC9F0-6FCC-45D7-B245-2AFBE045F40C}"/>
+    <hyperlink ref="G15" r:id="rId9" xr:uid="{8D3614C2-ACF3-4659-A574-61637440A857}"/>
+    <hyperlink ref="G12" r:id="rId10" xr:uid="{BCB23831-88FE-4C90-9309-8F0D9E9C249E}"/>
+    <hyperlink ref="G14" r:id="rId11" xr:uid="{054E4839-19AA-45CD-A3E7-F9B007509AF0}"/>
+    <hyperlink ref="G17" r:id="rId12" xr:uid="{5B11B57C-C463-409B-B6B2-E360391D41B5}"/>
+    <hyperlink ref="G20" r:id="rId13" xr:uid="{EA77BC09-84BD-460C-81A9-A795CC753EC0}"/>
+    <hyperlink ref="G18" r:id="rId14" xr:uid="{095A22D6-2820-4129-880D-7F8BEA1888A3}"/>
+    <hyperlink ref="G19" r:id="rId15" xr:uid="{D0EF8016-890E-4EA4-99A5-555B2C676914}"/>
+    <hyperlink ref="G22" r:id="rId16" xr:uid="{3982FB6E-6F3C-4BEE-BEF3-19E5619F3A38}"/>
+    <hyperlink ref="G23" r:id="rId17" xr:uid="{953E91DB-D080-428C-A423-4BEDBE9C3E82}"/>
+    <hyperlink ref="G25" r:id="rId18" xr:uid="{8212E511-105C-4896-A4DE-43CDCA3340EE}"/>
+    <hyperlink ref="G27" r:id="rId19" xr:uid="{EACC93FF-9D5B-4EC8-AA4C-D5230119EAE1}"/>
+    <hyperlink ref="G28" r:id="rId20" xr:uid="{50CBE3E6-72D3-4DEE-B274-893934D2610C}"/>
+    <hyperlink ref="G30" r:id="rId21" xr:uid="{9670108D-2E56-43DF-8649-D40B0E7EB8EA}"/>
+    <hyperlink ref="G32" r:id="rId22" location="La_popularite_du_site" xr:uid="{4DE9A67D-9C35-4568-A6EF-19788D3CFA5E}"/>
+    <hyperlink ref="G33" r:id="rId23" xr:uid="{F6CB4D37-DF35-452C-B558-235EBFD02CBF}"/>
+    <hyperlink ref="G35" r:id="rId24" xr:uid="{05ECB950-0313-4A59-8ADC-7DF7A6BA48D0}"/>
+    <hyperlink ref="G37" r:id="rId25" xr:uid="{2B10C894-6620-415D-B507-ABF128B84473}"/>
+    <hyperlink ref="C39" r:id="rId26" xr:uid="{FD2E9C61-6EC9-4AB1-AF92-B92875E36004}"/>
+    <hyperlink ref="C41" r:id="rId27" xr:uid="{80819CCC-6531-4D85-BCE3-4DCDDAD922A6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId28"/>
+  <drawing r:id="rId29"/>
+</worksheet>
 </file>
--- a/P4_analyse_by_shehzad.xlsx
+++ b/P4_analyse_by_shehzad.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bureau\Desktop\P4_shehzad_qaiser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E7A28F7-06E0-42AE-ABDB-56FC1F75B87D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{546460D0-6BC7-4C5F-83A5-09EA30BED3F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18690" windowHeight="9135" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18690" windowHeight="9135" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="L'Audit du site" sheetId="1" r:id="rId1"/>
     <sheet name="Résultat apres l'Audit" sheetId="2" r:id="rId2"/>
-    <sheet name="Recommandations" sheetId="3" r:id="rId3"/>
+    <sheet name="Minifier " sheetId="5" r:id="rId3"/>
+    <sheet name="cours" sheetId="4" r:id="rId4"/>
+    <sheet name="Recommandations" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="356">
   <si>
     <t>URL :</t>
   </si>
@@ -967,12 +968,168 @@
   <si>
     <t>Tous les éléments activables DOIVENT pouvoir porter le focus :</t>
   </si>
+  <si>
+    <t>a) SEO</t>
+  </si>
+  <si>
+    <t>b)SEA</t>
+  </si>
+  <si>
+    <t>search engine Optimization</t>
+  </si>
+  <si>
+    <t>Ameliorer la visibilité de l'entreprise sur internet</t>
+  </si>
+  <si>
+    <t>c)SMO</t>
+  </si>
+  <si>
+    <t>Social Media Optimization</t>
+  </si>
+  <si>
+    <t>Par SMO, on entend l'optimisation d'un site ou d'une marque en s'appuyant sur les réseaux sociaux : Facebook, Instagram, LinkedIn, Twitter, etc.</t>
+  </si>
+  <si>
+    <t>le terme "SEO" se cache la notion de référencement naturel avec un objectif clair : améliorer le positionnement de son site Internet dans les résultats de Google</t>
+  </si>
+  <si>
+    <t>Hebergement en HTTPS pour sécuriser le site</t>
+  </si>
+  <si>
+    <t>Créez des pages optimisées pour présenter votre activité</t>
+  </si>
+  <si>
+    <t>Soignez le titre de votre page et l'URL dans le but de placer des mots clés.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Il est préférable que le titre de la page en lui-même ne dépasse par 60 caractères.</t>
+  </si>
+  <si>
+    <t>N'utilisez surtout pas une adresse de page du style "page-numero-1.html"</t>
+  </si>
+  <si>
+    <t>préférez une URL en adéquation avec le titre de la page, par exemple : "informatique-bien-choisir-son-pc.html"</t>
+  </si>
+  <si>
+    <t>La balise meta-description de la page : il s'agit d'une balise qui s'affiche dans le code HTML et qui sera utilisée pour décrire le contenu de la page. Là aussi, placez vos mots-clés par rapport au contenu de la page. Attention, cette description ne doit pas dépasser 160 caractères.</t>
+  </si>
+  <si>
+    <t>Quelques consignes additionnelles à respecter </t>
+  </si>
+  <si>
+    <t>ne pas copier-coller du texte d'un autre site </t>
+  </si>
+  <si>
+    <t>veillez à créer un site bien présenté et agréable</t>
+  </si>
+  <si>
+    <t>agréable à lire, créez des pages en rapport avec votre activité pour indexer un maximum de pages sur Google</t>
+  </si>
+  <si>
+    <t>vérifiez que votre site s'affiche correctement sur smartphones et tablettes (c'est un critère très important).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/vous devez commencer par établir votre stratégie de web-marketing et définir vos objectifs : </t>
+  </si>
+  <si>
+    <t>communiquer vos coordonnées et vos horaires d'ouverture, ou encore être référencé dans les annuaires pour professionnels (aux côtés de vos concurrents).</t>
+  </si>
+  <si>
+    <t>garder le contact avec vos clients grâce aux réseaux sociaux (par exemple)</t>
+  </si>
+  <si>
+    <t>vendre en ligne directement</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> être référencé dans les annuaires pour professionnels (aux côtés de vos concurrents).</t>
+  </si>
+  <si>
+    <t>2/ Ameliorer le Referencement du site web</t>
+  </si>
+  <si>
+    <t>Google My Business</t>
+  </si>
+  <si>
+    <t>le SEA (Search Engine Advertising) ou référencement payant</t>
+  </si>
+  <si>
+    <t>Concrètement, le SEO consiste à positionner le site web d'une entreprise sur la première page de résultats des moteurs de recherche, notamment de Google.</t>
+  </si>
+  <si>
+    <t>search engine Advertising</t>
+  </si>
+  <si>
+    <t>Pour ce faire, il est nécessaire d'avoir recours à différents critères on-page (choix des mots-clés, architecture du site, structure des liens internes, vitesse de chargement des pages…) et des critères off-page (netlinking, popularité du site, benchmark concurrentiel…)</t>
+  </si>
+  <si>
+    <t>le recours aux Google Adwords, il consiste à engager une campagne publicitaire pour faire apparaître le site web de l'entreprise en fonction des mots-clés recherchés par les internautes.</t>
+  </si>
+  <si>
+    <t>Il est composé du préfixe (www.) suivi du nom que vous aurez choisi, ainsi que de l’extension de domaine en « .fr », « .com », « .cm », « .gov », « .org », ou même « .shop ». </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optimiser son nom de domaine afin intégrer la localisation de votre société, ou encore son activité. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si votre boutique se situe en France, préférez un nom de domaine en ".fr" plutôt qu'en ".com" </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> l’extension de domaine est tres important pour le bon referencement , en « .fr », « .com », « .cm », « .gov », « .org », ou même « .shop ». </t>
+  </si>
+  <si>
+    <t>les accents et les caractères spéciaux sont en effet à proscrire lors du choix d’un nom de domaine</t>
+  </si>
+  <si>
+    <t>optimiser vos contenus.</t>
+  </si>
+  <si>
+    <t>Avec Analytics ou la Search Console, Google prend en compte le trafic sur les sites pour établir leur positionnement. Il évalue la popularité de votre site par le nombre de visites et le taux de rebond. Il tiendra également compte du temps passé par les internautes sur le site.</t>
+  </si>
+  <si>
+    <t>3/Améliorer l'expérience client (UX)</t>
+  </si>
+  <si>
+    <t>Ces derniers devraient pouvoir visiter une page, quel que soit le support utilisé (smartphone, tablette, PC…). Plus les visiteurs auront plaisir à s'attarder et à revenir sur un site, mieux il sera positionné sur les moteurs de recherche.</t>
+  </si>
+  <si>
+    <t>La satisfaction des utilisateurs est donc l'un des grands enjeux </t>
+  </si>
+  <si>
+    <t>L'amélioration de l'UX design sera un facteur clé de développement pour un site</t>
+  </si>
+  <si>
+    <t>En plus d'un contenu de qualité, pensez à créer un netlinking de qualité. Cette stratégie consiste à multiplier les backlinks vers un site web. Il faudra par contre mettre en place une campagne de netlinking efficace. Si la quantité est importante, il ne faudra pas lésiner sur la qualité pour autant. Il est préférable que les backlinks soient issus d'une page dont le PR est supérieur à 3. Choisissez de préférence les pages ayant une certaine ancienneté et de bons contenus.</t>
+  </si>
+  <si>
+    <t>4/ Le netlinking</t>
+  </si>
+  <si>
+    <t>5/ La recherche vocale</t>
+  </si>
+  <si>
+    <t>la recherche vocale est la nouvelle tendance SEO. Il est primordial d'adapter son site à la recherche vocale</t>
+  </si>
+  <si>
+    <t>6/ Verifier et analyser son positionnement sur google</t>
+  </si>
+  <si>
+    <t>https://jscompress.com</t>
+  </si>
+  <si>
+    <t>https://www.minifier.org</t>
+  </si>
+  <si>
+    <t>l’outil Google Page Speed pour tester la vitesse de chargement de votre site</t>
+  </si>
+  <si>
+    <t>https://pagespeed.web.dev/?utm_source=psi&amp;utm_medium=redirect&amp;hl=fr</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1138,8 +1295,34 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="22">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1263,6 +1446,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1423,7 +1618,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="182">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
@@ -1566,66 +1761,6 @@
     <xf numFmtId="0" fontId="19" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1644,12 +1779,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1660,12 +1789,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1675,18 +1798,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1697,18 +1808,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1726,89 +1825,197 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2224,7 +2431,7 @@
   </sheetPr>
   <dimension ref="A1:L208"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A113" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="H214" sqref="H214"/>
     </sheetView>
   </sheetViews>
@@ -2568,18 +2775,18 @@
       <c r="K35" s="46"/>
     </row>
     <row r="36" spans="2:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="B36" s="92" t="s">
+      <c r="B36" s="146" t="s">
         <v>180</v>
       </c>
-      <c r="C36" s="93"/>
-      <c r="D36" s="93"/>
-      <c r="E36" s="93"/>
-      <c r="F36" s="93"/>
-      <c r="G36" s="93"/>
-      <c r="H36" s="93"/>
-      <c r="I36" s="93"/>
-      <c r="J36" s="93"/>
-      <c r="K36" s="93"/>
+      <c r="C36" s="147"/>
+      <c r="D36" s="147"/>
+      <c r="E36" s="147"/>
+      <c r="F36" s="147"/>
+      <c r="G36" s="147"/>
+      <c r="H36" s="147"/>
+      <c r="I36" s="147"/>
+      <c r="J36" s="147"/>
+      <c r="K36" s="147"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B37" s="5" t="s">
@@ -2812,18 +3019,18 @@
       <c r="K53" s="10"/>
     </row>
     <row r="55" spans="2:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="B55" s="94" t="s">
+      <c r="B55" s="148" t="s">
         <v>181</v>
       </c>
-      <c r="C55" s="95"/>
-      <c r="D55" s="95"/>
-      <c r="E55" s="95"/>
-      <c r="F55" s="95"/>
-      <c r="G55" s="95"/>
-      <c r="H55" s="95"/>
-      <c r="I55" s="95"/>
-      <c r="J55" s="95"/>
-      <c r="K55" s="95"/>
+      <c r="C55" s="149"/>
+      <c r="D55" s="149"/>
+      <c r="E55" s="149"/>
+      <c r="F55" s="149"/>
+      <c r="G55" s="149"/>
+      <c r="H55" s="149"/>
+      <c r="I55" s="149"/>
+      <c r="J55" s="149"/>
+      <c r="K55" s="149"/>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B56" s="13" t="s">
@@ -3454,112 +3661,112 @@
       <c r="K103" s="27"/>
     </row>
     <row r="105" spans="2:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="B105" s="96" t="s">
+      <c r="B105" s="150" t="s">
         <v>182</v>
       </c>
-      <c r="C105" s="97"/>
-      <c r="D105" s="97"/>
-      <c r="E105" s="97"/>
-      <c r="F105" s="97"/>
-      <c r="G105" s="97"/>
-      <c r="H105" s="97"/>
-      <c r="I105" s="97"/>
-      <c r="J105" s="97"/>
+      <c r="C105" s="151"/>
+      <c r="D105" s="151"/>
+      <c r="E105" s="151"/>
+      <c r="F105" s="151"/>
+      <c r="G105" s="151"/>
+      <c r="H105" s="151"/>
+      <c r="I105" s="151"/>
+      <c r="J105" s="151"/>
       <c r="K105" s="31"/>
     </row>
     <row r="106" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B106" s="100" t="s">
+      <c r="B106" s="154" t="s">
         <v>142</v>
       </c>
-      <c r="C106" s="101"/>
-      <c r="D106" s="101"/>
-      <c r="E106" s="101"/>
-      <c r="F106" s="101"/>
-      <c r="G106" s="101"/>
-      <c r="H106" s="101"/>
-      <c r="I106" s="101"/>
-      <c r="J106" s="101"/>
-      <c r="K106" s="101"/>
+      <c r="C106" s="155"/>
+      <c r="D106" s="155"/>
+      <c r="E106" s="155"/>
+      <c r="F106" s="155"/>
+      <c r="G106" s="155"/>
+      <c r="H106" s="155"/>
+      <c r="I106" s="155"/>
+      <c r="J106" s="155"/>
+      <c r="K106" s="155"/>
     </row>
     <row r="107" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B107" s="102"/>
-      <c r="C107" s="103"/>
-      <c r="D107" s="103"/>
-      <c r="E107" s="103"/>
-      <c r="F107" s="103"/>
-      <c r="G107" s="103"/>
-      <c r="H107" s="103"/>
-      <c r="I107" s="103"/>
-      <c r="J107" s="103"/>
-      <c r="K107" s="103"/>
+      <c r="B107" s="156"/>
+      <c r="C107" s="157"/>
+      <c r="D107" s="157"/>
+      <c r="E107" s="157"/>
+      <c r="F107" s="157"/>
+      <c r="G107" s="157"/>
+      <c r="H107" s="157"/>
+      <c r="I107" s="157"/>
+      <c r="J107" s="157"/>
+      <c r="K107" s="157"/>
     </row>
     <row r="108" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B108" s="102" t="s">
+      <c r="B108" s="156" t="s">
         <v>104</v>
       </c>
-      <c r="C108" s="103"/>
-      <c r="D108" s="103"/>
-      <c r="E108" s="103"/>
-      <c r="F108" s="103"/>
-      <c r="G108" s="103"/>
-      <c r="H108" s="103"/>
-      <c r="I108" s="103"/>
-      <c r="J108" s="103"/>
-      <c r="K108" s="103"/>
+      <c r="C108" s="157"/>
+      <c r="D108" s="157"/>
+      <c r="E108" s="157"/>
+      <c r="F108" s="157"/>
+      <c r="G108" s="157"/>
+      <c r="H108" s="157"/>
+      <c r="I108" s="157"/>
+      <c r="J108" s="157"/>
+      <c r="K108" s="157"/>
     </row>
     <row r="109" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B109" s="102" t="s">
+      <c r="B109" s="156" t="s">
         <v>23</v>
       </c>
-      <c r="C109" s="103"/>
-      <c r="D109" s="103"/>
-      <c r="E109" s="103"/>
-      <c r="F109" s="103"/>
-      <c r="G109" s="103"/>
-      <c r="H109" s="103"/>
-      <c r="I109" s="103"/>
-      <c r="J109" s="103"/>
-      <c r="K109" s="103"/>
+      <c r="C109" s="157"/>
+      <c r="D109" s="157"/>
+      <c r="E109" s="157"/>
+      <c r="F109" s="157"/>
+      <c r="G109" s="157"/>
+      <c r="H109" s="157"/>
+      <c r="I109" s="157"/>
+      <c r="J109" s="157"/>
+      <c r="K109" s="157"/>
     </row>
     <row r="110" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B110" s="102"/>
-      <c r="C110" s="103"/>
-      <c r="D110" s="103"/>
-      <c r="E110" s="103"/>
-      <c r="F110" s="103"/>
-      <c r="G110" s="103"/>
-      <c r="H110" s="103"/>
-      <c r="I110" s="103"/>
-      <c r="J110" s="103"/>
-      <c r="K110" s="103"/>
+      <c r="B110" s="156"/>
+      <c r="C110" s="157"/>
+      <c r="D110" s="157"/>
+      <c r="E110" s="157"/>
+      <c r="F110" s="157"/>
+      <c r="G110" s="157"/>
+      <c r="H110" s="157"/>
+      <c r="I110" s="157"/>
+      <c r="J110" s="157"/>
+      <c r="K110" s="157"/>
     </row>
     <row r="111" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B111" s="102" t="s">
+      <c r="B111" s="156" t="s">
         <v>24</v>
       </c>
-      <c r="C111" s="103"/>
-      <c r="D111" s="103"/>
-      <c r="E111" s="103"/>
-      <c r="F111" s="103"/>
-      <c r="G111" s="103"/>
-      <c r="H111" s="103"/>
-      <c r="I111" s="103"/>
-      <c r="J111" s="103"/>
-      <c r="K111" s="103"/>
+      <c r="C111" s="157"/>
+      <c r="D111" s="157"/>
+      <c r="E111" s="157"/>
+      <c r="F111" s="157"/>
+      <c r="G111" s="157"/>
+      <c r="H111" s="157"/>
+      <c r="I111" s="157"/>
+      <c r="J111" s="157"/>
+      <c r="K111" s="157"/>
     </row>
     <row r="112" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B112" s="104" t="s">
+      <c r="B112" s="158" t="s">
         <v>25</v>
       </c>
-      <c r="C112" s="105"/>
-      <c r="D112" s="105"/>
-      <c r="E112" s="105"/>
-      <c r="F112" s="105"/>
-      <c r="G112" s="105"/>
-      <c r="H112" s="105"/>
-      <c r="I112" s="105"/>
-      <c r="J112" s="105"/>
-      <c r="K112" s="105"/>
+      <c r="C112" s="159"/>
+      <c r="D112" s="159"/>
+      <c r="E112" s="159"/>
+      <c r="F112" s="159"/>
+      <c r="G112" s="159"/>
+      <c r="H112" s="159"/>
+      <c r="I112" s="159"/>
+      <c r="J112" s="159"/>
+      <c r="K112" s="159"/>
     </row>
     <row r="113" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B113" s="30" t="s">
@@ -3640,18 +3847,18 @@
       <c r="K118" s="33"/>
     </row>
     <row r="120" spans="2:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="B120" s="98" t="s">
+      <c r="B120" s="152" t="s">
         <v>184</v>
       </c>
-      <c r="C120" s="99"/>
-      <c r="D120" s="99"/>
-      <c r="E120" s="99"/>
-      <c r="F120" s="99"/>
-      <c r="G120" s="99"/>
-      <c r="H120" s="99"/>
-      <c r="I120" s="99"/>
-      <c r="J120" s="99"/>
-      <c r="K120" s="99"/>
+      <c r="C120" s="153"/>
+      <c r="D120" s="153"/>
+      <c r="E120" s="153"/>
+      <c r="F120" s="153"/>
+      <c r="G120" s="153"/>
+      <c r="H120" s="153"/>
+      <c r="I120" s="153"/>
+      <c r="J120" s="153"/>
+      <c r="K120" s="153"/>
     </row>
     <row r="121" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B121" s="34" t="s">
@@ -3774,30 +3981,30 @@
       <c r="K130" s="62"/>
     </row>
     <row r="131" spans="2:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="B131" s="89" t="s">
+      <c r="B131" s="143" t="s">
         <v>224</v>
       </c>
-      <c r="C131" s="90"/>
-      <c r="D131" s="90"/>
-      <c r="E131" s="90"/>
-      <c r="F131" s="90"/>
-      <c r="G131" s="90"/>
-      <c r="H131" s="90"/>
-      <c r="I131" s="90"/>
-      <c r="J131" s="90"/>
-      <c r="K131" s="90"/>
+      <c r="C131" s="144"/>
+      <c r="D131" s="144"/>
+      <c r="E131" s="144"/>
+      <c r="F131" s="144"/>
+      <c r="G131" s="144"/>
+      <c r="H131" s="144"/>
+      <c r="I131" s="144"/>
+      <c r="J131" s="144"/>
+      <c r="K131" s="144"/>
     </row>
     <row r="132" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B132" s="91"/>
-      <c r="C132" s="91"/>
-      <c r="D132" s="91"/>
-      <c r="E132" s="91"/>
-      <c r="F132" s="91"/>
-      <c r="G132" s="91"/>
-      <c r="H132" s="91"/>
-      <c r="I132" s="91"/>
-      <c r="J132" s="91"/>
-      <c r="K132" s="91"/>
+      <c r="B132" s="145"/>
+      <c r="C132" s="145"/>
+      <c r="D132" s="145"/>
+      <c r="E132" s="145"/>
+      <c r="F132" s="145"/>
+      <c r="G132" s="145"/>
+      <c r="H132" s="145"/>
+      <c r="I132" s="145"/>
+      <c r="J132" s="145"/>
+      <c r="K132" s="145"/>
     </row>
     <row r="133" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B133" s="62"/>
@@ -4223,26 +4430,26 @@
       <c r="K193" s="51"/>
     </row>
     <row r="197" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C197" s="86" t="s">
+      <c r="C197" s="140" t="s">
         <v>236</v>
       </c>
-      <c r="D197" s="86"/>
-      <c r="E197" s="86"/>
-      <c r="F197" s="86"/>
-      <c r="G197" s="86"/>
-      <c r="H197" s="86"/>
-      <c r="I197" s="86"/>
-      <c r="J197" s="86"/>
+      <c r="D197" s="140"/>
+      <c r="E197" s="140"/>
+      <c r="F197" s="140"/>
+      <c r="G197" s="140"/>
+      <c r="H197" s="140"/>
+      <c r="I197" s="140"/>
+      <c r="J197" s="140"/>
     </row>
     <row r="198" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C198" s="86"/>
-      <c r="D198" s="86"/>
-      <c r="E198" s="86"/>
-      <c r="F198" s="86"/>
-      <c r="G198" s="86"/>
-      <c r="H198" s="86"/>
-      <c r="I198" s="86"/>
-      <c r="J198" s="86"/>
+      <c r="C198" s="140"/>
+      <c r="D198" s="140"/>
+      <c r="E198" s="140"/>
+      <c r="F198" s="140"/>
+      <c r="G198" s="140"/>
+      <c r="H198" s="140"/>
+      <c r="I198" s="140"/>
+      <c r="J198" s="140"/>
     </row>
     <row r="199" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C199" s="75"/>
@@ -4288,11 +4495,11 @@
       </c>
     </row>
     <row r="203" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C203" s="87" t="s">
+      <c r="C203" s="141" t="s">
         <v>238</v>
       </c>
-      <c r="D203" s="87"/>
-      <c r="E203" s="87"/>
+      <c r="D203" s="141"/>
+      <c r="E203" s="141"/>
       <c r="F203" s="84" t="s">
         <v>242</v>
       </c>
@@ -4312,11 +4519,11 @@
       </c>
     </row>
     <row r="206" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C206" s="88" t="s">
+      <c r="C206" s="142" t="s">
         <v>239</v>
       </c>
-      <c r="D206" s="88"/>
-      <c r="E206" s="88"/>
+      <c r="D206" s="142"/>
+      <c r="E206" s="142"/>
       <c r="F206" s="1" t="s">
         <v>257</v>
       </c>
@@ -4371,7 +4578,7 @@
   </sheetPr>
   <dimension ref="A1:Z1006"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
@@ -4545,14 +4752,14 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:26" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="169">
+    <row r="8" spans="1:26" s="106" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="127">
         <v>7</v>
       </c>
       <c r="B8" s="66" t="s">
         <v>293</v>
       </c>
-      <c r="C8" s="138" t="s">
+      <c r="C8" s="106" t="s">
         <v>292</v>
       </c>
       <c r="D8" s="68"/>
@@ -4577,14 +4784,14 @@
         <v>294</v>
       </c>
     </row>
-    <row r="10" spans="1:26" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="169">
+    <row r="10" spans="1:26" s="106" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="127">
         <v>9</v>
       </c>
       <c r="B10" s="66" t="s">
         <v>141</v>
       </c>
-      <c r="C10" s="138" t="s">
+      <c r="C10" s="106" t="s">
         <v>292</v>
       </c>
       <c r="D10" s="68"/>
@@ -4609,14 +4816,14 @@
         <v>302</v>
       </c>
     </row>
-    <row r="12" spans="1:26" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="169">
+    <row r="12" spans="1:26" s="106" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="127">
         <v>11</v>
       </c>
       <c r="B12" s="66" t="s">
         <v>297</v>
       </c>
-      <c r="C12" s="138" t="s">
+      <c r="C12" s="106" t="s">
         <v>292</v>
       </c>
       <c r="D12" s="68"/>
@@ -5998,1082 +6205,1421 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C23A6C3-FC5E-44F0-A53C-07F02337905C}">
+  <sheetPr>
+    <tabColor theme="4" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A4:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>354</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F4A845E-4CCD-4EA3-AC92-F73812CE63D8}">
+  <sheetPr>
+    <tabColor theme="4" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:J63"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="130" t="s">
+        <v>307</v>
+      </c>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="133"/>
+      <c r="B2" s="134"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="133"/>
+      <c r="B3" s="134"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="135" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="131"/>
+      <c r="B5" s="131" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="131"/>
+      <c r="B6" s="131" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="131"/>
+      <c r="B7" s="131" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="131"/>
+      <c r="B8" s="131" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="131"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="135" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="136" t="s">
+        <v>304</v>
+      </c>
+      <c r="B11" t="s">
+        <v>306</v>
+      </c>
+      <c r="E11" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="139"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="137" t="s">
+        <v>305</v>
+      </c>
+      <c r="B13" s="131" t="s">
+        <v>333</v>
+      </c>
+      <c r="D13" t="s">
+        <v>331</v>
+      </c>
+      <c r="E13" s="131"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="128"/>
+      <c r="E14" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="128"/>
+      <c r="E15" s="131" t="s">
+        <v>330</v>
+      </c>
+      <c r="F15" s="131"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="128"/>
+      <c r="E16" s="131"/>
+      <c r="F16" s="131"/>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="138" t="s">
+        <v>308</v>
+      </c>
+      <c r="B17" t="s">
+        <v>309</v>
+      </c>
+      <c r="E17" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="136" t="s">
+        <v>304</v>
+      </c>
+      <c r="B23" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="139"/>
+      <c r="B24" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="139"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B26" s="132" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B27" s="132" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B28" s="132"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>338</v>
+      </c>
+      <c r="J30" s="131" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B33" s="132" t="s">
+        <v>313</v>
+      </c>
+      <c r="G33" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C34" s="131" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C35" s="131" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C36" s="131" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C37" s="131" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B39" s="132" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B42" s="132" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C43" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C44" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C45" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B47" s="132" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="135" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B51" s="131" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B52" s="131" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="135" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="135" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="131"/>
+      <c r="B58" s="131" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="131"/>
+      <c r="B59" s="131"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="131"/>
+      <c r="B60" s="131"/>
+    </row>
+    <row r="61" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="135" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="131" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
+        <v>342</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61398747-06B9-4CF6-8C5B-EBC87B275D74}">
   <dimension ref="A1:AA78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="34.9" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.21875" style="162"/>
-    <col min="2" max="2" width="18.33203125" style="163" customWidth="1"/>
-    <col min="3" max="3" width="99.77734375" style="111" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="59.6640625" style="164" customWidth="1"/>
-    <col min="5" max="5" width="75.33203125" style="164" customWidth="1"/>
-    <col min="6" max="6" width="40.77734375" style="164" customWidth="1"/>
-    <col min="7" max="7" width="44.109375" style="164" customWidth="1"/>
+    <col min="1" max="1" width="11.21875" style="120"/>
+    <col min="2" max="2" width="18.33203125" style="121" customWidth="1"/>
+    <col min="3" max="3" width="99.77734375" style="91" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59.6640625" style="122" customWidth="1"/>
+    <col min="5" max="5" width="75.33203125" style="122" customWidth="1"/>
+    <col min="6" max="6" width="40.77734375" style="122" customWidth="1"/>
+    <col min="7" max="7" width="44.109375" style="122" customWidth="1"/>
     <col min="8" max="27" width="10.5546875" style="1" customWidth="1"/>
     <col min="28" max="16384" width="11.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="111" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="106" t="s">
+    <row r="1" spans="1:27" s="91" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="86" t="s">
         <v>231</v>
       </c>
-      <c r="B1" s="107" t="s">
+      <c r="B1" s="87" t="s">
         <v>266</v>
       </c>
-      <c r="C1" s="108" t="s">
+      <c r="C1" s="88" t="s">
         <v>267</v>
       </c>
-      <c r="D1" s="107" t="s">
+      <c r="D1" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="107" t="s">
+      <c r="E1" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="107" t="s">
+      <c r="F1" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="109" t="s">
+      <c r="G1" s="89" t="s">
         <v>268</v>
       </c>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="110"/>
-      <c r="R1" s="110"/>
-      <c r="S1" s="110"/>
-      <c r="T1" s="110"/>
-      <c r="U1" s="110"/>
-      <c r="V1" s="110"/>
-      <c r="W1" s="110"/>
-      <c r="X1" s="110"/>
-      <c r="Y1" s="110"/>
-      <c r="Z1" s="110"/>
-      <c r="AA1" s="110"/>
-    </row>
-    <row r="2" spans="1:27" s="117" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="112">
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="90"/>
+      <c r="S1" s="90"/>
+      <c r="T1" s="90"/>
+      <c r="U1" s="90"/>
+      <c r="V1" s="90"/>
+      <c r="W1" s="90"/>
+      <c r="X1" s="90"/>
+      <c r="Y1" s="90"/>
+      <c r="Z1" s="90"/>
+      <c r="AA1" s="90"/>
+    </row>
+    <row r="2" spans="1:27" s="95" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="160">
         <v>1</v>
       </c>
-      <c r="B2" s="113" t="s">
+      <c r="B2" s="163" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="114" t="s">
+      <c r="C2" s="92" t="s">
         <v>269</v>
       </c>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="116"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="94"/>
     </row>
     <row r="3" spans="1:27" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="118"/>
-      <c r="B3" s="119"/>
-      <c r="C3" s="120" t="s">
+      <c r="A3" s="161"/>
+      <c r="B3" s="164"/>
+      <c r="C3" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="121" t="s">
+      <c r="D3" s="97" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="121" t="s">
+      <c r="E3" s="97" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="121" t="s">
+      <c r="F3" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="122" t="s">
+      <c r="G3" s="98" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:27" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="118"/>
-      <c r="B4" s="119"/>
-      <c r="C4" s="120" t="s">
+      <c r="A4" s="161"/>
+      <c r="B4" s="164"/>
+      <c r="C4" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="121" t="s">
+      <c r="D4" s="97" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="121" t="s">
+      <c r="E4" s="97" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="121" t="s">
+      <c r="F4" s="97" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="122" t="s">
+      <c r="G4" s="98" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:27" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="118"/>
-      <c r="B5" s="119"/>
-      <c r="C5" s="120" t="s">
+      <c r="A5" s="161"/>
+      <c r="B5" s="164"/>
+      <c r="C5" s="96" t="s">
         <v>271</v>
       </c>
-      <c r="D5" s="121" t="s">
+      <c r="D5" s="97" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="121" t="s">
+      <c r="E5" s="97" t="s">
         <v>120</v>
       </c>
-      <c r="F5" s="121" t="s">
+      <c r="F5" s="97" t="s">
         <v>130</v>
       </c>
-      <c r="G5" s="122" t="s">
+      <c r="G5" s="98" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:27" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="123"/>
-      <c r="B6" s="124"/>
-      <c r="C6" s="120" t="s">
+      <c r="A6" s="162"/>
+      <c r="B6" s="165"/>
+      <c r="C6" s="96" t="s">
         <v>106</v>
       </c>
-      <c r="D6" s="121" t="s">
+      <c r="D6" s="97" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="121" t="s">
+      <c r="E6" s="97" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="121"/>
-      <c r="G6" s="122" t="s">
+      <c r="F6" s="97"/>
+      <c r="G6" s="98" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="7" spans="1:27" s="130" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="125">
+    <row r="7" spans="1:27" s="102" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="166">
         <v>2</v>
       </c>
-      <c r="B7" s="126" t="s">
+      <c r="B7" s="169" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="127" t="s">
+      <c r="C7" s="99" t="s">
         <v>272</v>
       </c>
-      <c r="D7" s="128"/>
-      <c r="E7" s="128"/>
-      <c r="F7" s="128"/>
-      <c r="G7" s="129"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="101"/>
     </row>
     <row r="8" spans="1:27" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="131"/>
-      <c r="B8" s="132"/>
-      <c r="C8" s="120" t="s">
+      <c r="A8" s="167"/>
+      <c r="B8" s="170"/>
+      <c r="C8" s="96" t="s">
         <v>273</v>
       </c>
-      <c r="D8" s="121" t="s">
+      <c r="D8" s="97" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="121" t="s">
+      <c r="E8" s="97" t="s">
         <v>121</v>
       </c>
-      <c r="F8" s="121" t="s">
+      <c r="F8" s="97" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="122" t="s">
+      <c r="G8" s="98" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:27" s="84" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A9" s="131"/>
-      <c r="B9" s="132"/>
-      <c r="C9" s="120" t="s">
+      <c r="A9" s="167"/>
+      <c r="B9" s="170"/>
+      <c r="C9" s="96" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="121" t="s">
+      <c r="D9" s="97" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="121" t="s">
+      <c r="E9" s="97" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="121" t="s">
+      <c r="F9" s="97" t="s">
         <v>52</v>
       </c>
-      <c r="G9" s="122" t="s">
+      <c r="G9" s="98" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:27" s="84" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A10" s="131"/>
-      <c r="B10" s="132"/>
-      <c r="C10" s="120" t="s">
+      <c r="A10" s="167"/>
+      <c r="B10" s="170"/>
+      <c r="C10" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="121" t="s">
+      <c r="D10" s="97" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="121" t="s">
+      <c r="E10" s="97" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="121" t="s">
+      <c r="F10" s="97" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="122" t="s">
+      <c r="G10" s="98" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:27" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="131"/>
-      <c r="B11" s="132"/>
-      <c r="C11" s="120" t="s">
+      <c r="A11" s="167"/>
+      <c r="B11" s="170"/>
+      <c r="C11" s="96" t="s">
         <v>107</v>
       </c>
-      <c r="D11" s="121" t="s">
+      <c r="D11" s="97" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="121" t="s">
+      <c r="E11" s="97" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="121" t="s">
+      <c r="F11" s="97" t="s">
         <v>56</v>
       </c>
-      <c r="G11" s="122" t="s">
+      <c r="G11" s="98" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:27" s="84" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A12" s="131"/>
-      <c r="B12" s="132"/>
-      <c r="C12" s="120" t="s">
+      <c r="A12" s="167"/>
+      <c r="B12" s="170"/>
+      <c r="C12" s="96" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="121" t="s">
+      <c r="D12" s="97" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="121" t="s">
+      <c r="E12" s="97" t="s">
         <v>59</v>
       </c>
-      <c r="F12" s="121" t="s">
+      <c r="F12" s="97" t="s">
         <v>60</v>
       </c>
-      <c r="G12" s="122" t="s">
+      <c r="G12" s="98" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="13" spans="1:27" s="84" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A13" s="131"/>
-      <c r="B13" s="132"/>
-      <c r="C13" s="120" t="s">
+      <c r="A13" s="167"/>
+      <c r="B13" s="170"/>
+      <c r="C13" s="96" t="s">
         <v>274</v>
       </c>
-      <c r="D13" s="121" t="s">
+      <c r="D13" s="97" t="s">
         <v>275</v>
       </c>
-      <c r="E13" s="121" t="s">
+      <c r="E13" s="97" t="s">
         <v>276</v>
       </c>
-      <c r="F13" s="121" t="s">
+      <c r="F13" s="97" t="s">
         <v>277</v>
       </c>
-      <c r="G13" s="122"/>
+      <c r="G13" s="98"/>
     </row>
     <row r="14" spans="1:27" s="84" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A14" s="131"/>
-      <c r="B14" s="132"/>
-      <c r="C14" s="120" t="s">
+      <c r="A14" s="167"/>
+      <c r="B14" s="170"/>
+      <c r="C14" s="96" t="s">
         <v>108</v>
       </c>
-      <c r="D14" s="121" t="s">
+      <c r="D14" s="97" t="s">
         <v>112</v>
       </c>
-      <c r="E14" s="121" t="s">
+      <c r="E14" s="97" t="s">
         <v>122</v>
       </c>
-      <c r="F14" s="121" t="s">
+      <c r="F14" s="97" t="s">
         <v>61</v>
       </c>
-      <c r="G14" s="122" t="s">
+      <c r="G14" s="98" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="15" spans="1:27" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="133"/>
-      <c r="B15" s="134"/>
-      <c r="C15" s="120" t="s">
+      <c r="A15" s="168"/>
+      <c r="B15" s="171"/>
+      <c r="C15" s="96" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="121" t="s">
+      <c r="D15" s="97" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="121" t="s">
+      <c r="E15" s="97" t="s">
         <v>64</v>
       </c>
-      <c r="F15" s="121" t="s">
+      <c r="F15" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="G15" s="122" t="s">
+      <c r="G15" s="98" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="16" spans="1:27" s="130" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="125">
+    <row r="16" spans="1:27" s="102" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="166">
         <v>3</v>
       </c>
-      <c r="B16" s="126" t="s">
+      <c r="B16" s="169" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="127" t="s">
+      <c r="C16" s="99" t="s">
         <v>278</v>
       </c>
-      <c r="D16" s="128"/>
-      <c r="E16" s="128"/>
-      <c r="F16" s="128"/>
-      <c r="G16" s="129"/>
+      <c r="D16" s="100"/>
+      <c r="E16" s="100"/>
+      <c r="F16" s="100"/>
+      <c r="G16" s="101"/>
     </row>
     <row r="17" spans="1:7" s="84" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A17" s="131"/>
-      <c r="B17" s="132"/>
-      <c r="C17" s="120" t="s">
+      <c r="A17" s="167"/>
+      <c r="B17" s="170"/>
+      <c r="C17" s="96" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="121" t="s">
+      <c r="D17" s="97" t="s">
         <v>113</v>
       </c>
-      <c r="E17" s="121" t="s">
+      <c r="E17" s="97" t="s">
         <v>123</v>
       </c>
-      <c r="F17" s="121" t="s">
+      <c r="F17" s="97" t="s">
         <v>279</v>
       </c>
-      <c r="G17" s="122" t="s">
+      <c r="G17" s="98" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="131"/>
-      <c r="B18" s="132"/>
-      <c r="C18" s="120" t="s">
+      <c r="A18" s="167"/>
+      <c r="B18" s="170"/>
+      <c r="C18" s="96" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="121" t="s">
+      <c r="D18" s="97" t="s">
         <v>114</v>
       </c>
-      <c r="E18" s="121"/>
-      <c r="F18" s="121" t="s">
+      <c r="E18" s="97"/>
+      <c r="F18" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="G18" s="122" t="s">
+      <c r="G18" s="98" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="131"/>
-      <c r="B19" s="132"/>
-      <c r="C19" s="120" t="s">
+      <c r="A19" s="167"/>
+      <c r="B19" s="170"/>
+      <c r="C19" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="D19" s="121" t="s">
+      <c r="D19" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="E19" s="121" t="s">
+      <c r="E19" s="97" t="s">
         <v>124</v>
       </c>
-      <c r="F19" s="121" t="s">
+      <c r="F19" s="97" t="s">
         <v>132</v>
       </c>
-      <c r="G19" s="122" t="s">
+      <c r="G19" s="98" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="131"/>
-      <c r="B20" s="132"/>
-      <c r="C20" s="120" t="s">
+      <c r="A20" s="167"/>
+      <c r="B20" s="170"/>
+      <c r="C20" s="96" t="s">
         <v>109</v>
       </c>
-      <c r="D20" s="121" t="s">
+      <c r="D20" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="E20" s="121" t="s">
+      <c r="E20" s="97" t="s">
         <v>72</v>
       </c>
-      <c r="F20" s="121" t="s">
+      <c r="F20" s="97" t="s">
         <v>73</v>
       </c>
-      <c r="G20" s="122" t="s">
+      <c r="G20" s="98" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="130" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="125">
+    <row r="21" spans="1:7" s="102" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="166">
         <v>4</v>
       </c>
-      <c r="B21" s="126" t="s">
+      <c r="B21" s="169" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="127" t="s">
+      <c r="C21" s="99" t="s">
         <v>280</v>
       </c>
-      <c r="D21" s="128"/>
-      <c r="E21" s="128"/>
-      <c r="F21" s="128"/>
-      <c r="G21" s="129"/>
-    </row>
-    <row r="22" spans="1:7" s="138" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A22" s="131"/>
-      <c r="B22" s="132"/>
-      <c r="C22" s="135" t="s">
+      <c r="D21" s="100"/>
+      <c r="E21" s="100"/>
+      <c r="F21" s="100"/>
+      <c r="G21" s="101"/>
+    </row>
+    <row r="22" spans="1:7" s="106" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A22" s="167"/>
+      <c r="B22" s="170"/>
+      <c r="C22" s="103" t="s">
         <v>74</v>
       </c>
-      <c r="D22" s="136" t="s">
+      <c r="D22" s="104" t="s">
         <v>75</v>
       </c>
-      <c r="E22" s="136" t="s">
+      <c r="E22" s="104" t="s">
         <v>281</v>
       </c>
-      <c r="F22" s="136" t="s">
+      <c r="F22" s="104" t="s">
         <v>133</v>
       </c>
-      <c r="G22" s="137" t="s">
+      <c r="G22" s="105" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="138" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A23" s="139"/>
-      <c r="B23" s="140"/>
-      <c r="C23" s="120" t="s">
+    <row r="23" spans="1:7" s="106" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A23" s="107"/>
+      <c r="B23" s="108"/>
+      <c r="C23" s="96" t="s">
         <v>76</v>
       </c>
-      <c r="D23" s="121" t="s">
+      <c r="D23" s="97" t="s">
         <v>115</v>
       </c>
-      <c r="E23" s="121" t="s">
+      <c r="E23" s="97" t="s">
         <v>77</v>
       </c>
-      <c r="F23" s="121" t="s">
+      <c r="F23" s="97" t="s">
         <v>134</v>
       </c>
-      <c r="G23" s="122" t="s">
+      <c r="G23" s="98" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="141" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="125">
+    <row r="24" spans="1:7" s="109" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="166">
         <v>5</v>
       </c>
-      <c r="B24" s="126" t="s">
+      <c r="B24" s="169" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="127" t="s">
+      <c r="C24" s="99" t="s">
         <v>282</v>
       </c>
-      <c r="D24" s="128"/>
-      <c r="E24" s="128"/>
-      <c r="F24" s="128"/>
-      <c r="G24" s="129"/>
+      <c r="D24" s="100"/>
+      <c r="E24" s="100"/>
+      <c r="F24" s="100"/>
+      <c r="G24" s="101"/>
     </row>
     <row r="25" spans="1:7" s="84" customFormat="1" ht="60" x14ac:dyDescent="0.2">
-      <c r="A25" s="133"/>
-      <c r="B25" s="134"/>
-      <c r="C25" s="120" t="s">
+      <c r="A25" s="168"/>
+      <c r="B25" s="171"/>
+      <c r="C25" s="96" t="s">
         <v>78</v>
       </c>
-      <c r="D25" s="121" t="s">
+      <c r="D25" s="97" t="s">
         <v>79</v>
       </c>
-      <c r="E25" s="121" t="s">
+      <c r="E25" s="97" t="s">
         <v>126</v>
       </c>
-      <c r="F25" s="121" t="s">
+      <c r="F25" s="97" t="s">
         <v>80</v>
       </c>
-      <c r="G25" s="122" t="s">
+      <c r="G25" s="98" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="130" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="125">
+    <row r="26" spans="1:7" s="102" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="166">
         <v>6</v>
       </c>
-      <c r="B26" s="126" t="s">
+      <c r="B26" s="169" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="127" t="s">
+      <c r="C26" s="99" t="s">
         <v>283</v>
       </c>
-      <c r="D26" s="128"/>
-      <c r="E26" s="128"/>
-      <c r="F26" s="128"/>
-      <c r="G26" s="129"/>
+      <c r="D26" s="100"/>
+      <c r="E26" s="100"/>
+      <c r="F26" s="100"/>
+      <c r="G26" s="101"/>
     </row>
     <row r="27" spans="1:7" s="84" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A27" s="131"/>
-      <c r="B27" s="132"/>
-      <c r="C27" s="120" t="s">
+      <c r="A27" s="167"/>
+      <c r="B27" s="170"/>
+      <c r="C27" s="96" t="s">
         <v>81</v>
       </c>
-      <c r="D27" s="121" t="s">
+      <c r="D27" s="97" t="s">
         <v>82</v>
       </c>
-      <c r="E27" s="121" t="s">
+      <c r="E27" s="97" t="s">
         <v>83</v>
       </c>
-      <c r="F27" s="121" t="s">
+      <c r="F27" s="97" t="s">
         <v>84</v>
       </c>
-      <c r="G27" s="122" t="s">
+      <c r="G27" s="98" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="84" customFormat="1" ht="75" x14ac:dyDescent="0.2">
-      <c r="A28" s="133"/>
-      <c r="B28" s="134"/>
-      <c r="C28" s="120" t="s">
+      <c r="A28" s="168"/>
+      <c r="B28" s="171"/>
+      <c r="C28" s="96" t="s">
         <v>284</v>
       </c>
-      <c r="D28" s="121" t="s">
+      <c r="D28" s="97" t="s">
         <v>116</v>
       </c>
-      <c r="E28" s="121" t="s">
+      <c r="E28" s="97" t="s">
         <v>85</v>
       </c>
-      <c r="F28" s="121" t="s">
+      <c r="F28" s="97" t="s">
         <v>135</v>
       </c>
-      <c r="G28" s="122" t="s">
+      <c r="G28" s="98" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="130" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="142">
+    <row r="29" spans="1:7" s="102" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="176">
         <v>7</v>
       </c>
-      <c r="B29" s="143" t="s">
+      <c r="B29" s="178" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="144" t="s">
+      <c r="C29" s="110" t="s">
         <v>285</v>
       </c>
-      <c r="D29" s="145"/>
-      <c r="E29" s="145"/>
-      <c r="F29" s="145"/>
-      <c r="G29" s="146"/>
+      <c r="D29" s="111"/>
+      <c r="E29" s="111"/>
+      <c r="F29" s="111"/>
+      <c r="G29" s="112"/>
     </row>
     <row r="30" spans="1:7" s="84" customFormat="1" ht="60" x14ac:dyDescent="0.2">
-      <c r="A30" s="147"/>
-      <c r="B30" s="148"/>
-      <c r="C30" s="120" t="s">
+      <c r="A30" s="177"/>
+      <c r="B30" s="179"/>
+      <c r="C30" s="96" t="s">
         <v>86</v>
       </c>
-      <c r="D30" s="121" t="s">
+      <c r="D30" s="97" t="s">
         <v>286</v>
       </c>
-      <c r="E30" s="121" t="s">
+      <c r="E30" s="97" t="s">
         <v>127</v>
       </c>
-      <c r="F30" s="121" t="s">
+      <c r="F30" s="97" t="s">
         <v>136</v>
       </c>
-      <c r="G30" s="122" t="s">
+      <c r="G30" s="98" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="130" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="149">
+    <row r="31" spans="1:7" s="102" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="172">
         <v>8</v>
       </c>
-      <c r="B31" s="150" t="s">
+      <c r="B31" s="174" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="151" t="s">
+      <c r="C31" s="113" t="s">
         <v>287</v>
       </c>
-      <c r="D31" s="152"/>
-      <c r="E31" s="152"/>
-      <c r="F31" s="152"/>
-      <c r="G31" s="153"/>
-    </row>
-    <row r="32" spans="1:7" s="130" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="154"/>
-      <c r="B32" s="155"/>
-      <c r="C32" s="120" t="s">
+      <c r="D31" s="114"/>
+      <c r="E31" s="114"/>
+      <c r="F31" s="114"/>
+      <c r="G31" s="115"/>
+    </row>
+    <row r="32" spans="1:7" s="102" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="180"/>
+      <c r="B32" s="181"/>
+      <c r="C32" s="96" t="s">
         <v>87</v>
       </c>
-      <c r="D32" s="121" t="s">
+      <c r="D32" s="97" t="s">
         <v>118</v>
       </c>
-      <c r="E32" s="121" t="s">
+      <c r="E32" s="97" t="s">
         <v>128</v>
       </c>
-      <c r="F32" s="121" t="s">
+      <c r="F32" s="97" t="s">
         <v>137</v>
       </c>
-      <c r="G32" s="122" t="s">
+      <c r="G32" s="98" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="156"/>
-      <c r="B33" s="157"/>
-      <c r="C33" s="120" t="s">
+      <c r="A33" s="173"/>
+      <c r="B33" s="175"/>
+      <c r="C33" s="96" t="s">
         <v>88</v>
       </c>
-      <c r="D33" s="121" t="s">
+      <c r="D33" s="97" t="s">
         <v>89</v>
       </c>
-      <c r="E33" s="121" t="s">
+      <c r="E33" s="97" t="s">
         <v>90</v>
       </c>
-      <c r="F33" s="121" t="s">
+      <c r="F33" s="97" t="s">
         <v>91</v>
       </c>
-      <c r="G33" s="122" t="s">
+      <c r="G33" s="98" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="130" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="149">
+    <row r="34" spans="1:7" s="102" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="172">
         <v>9</v>
       </c>
-      <c r="B34" s="150" t="s">
+      <c r="B34" s="174" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="151" t="s">
+      <c r="C34" s="113" t="s">
         <v>288</v>
       </c>
-      <c r="D34" s="152"/>
-      <c r="E34" s="152"/>
-      <c r="F34" s="152"/>
-      <c r="G34" s="153"/>
+      <c r="D34" s="114"/>
+      <c r="E34" s="114"/>
+      <c r="F34" s="114"/>
+      <c r="G34" s="115"/>
     </row>
     <row r="35" spans="1:7" s="84" customFormat="1" ht="90" x14ac:dyDescent="0.2">
-      <c r="A35" s="156"/>
-      <c r="B35" s="157"/>
-      <c r="C35" s="120" t="s">
+      <c r="A35" s="173"/>
+      <c r="B35" s="175"/>
+      <c r="C35" s="96" t="s">
         <v>92</v>
       </c>
-      <c r="D35" s="121" t="s">
+      <c r="D35" s="97" t="s">
         <v>93</v>
       </c>
-      <c r="E35" s="121" t="s">
+      <c r="E35" s="97" t="s">
         <v>94</v>
       </c>
-      <c r="F35" s="121" t="s">
+      <c r="F35" s="97" t="s">
         <v>138</v>
       </c>
-      <c r="G35" s="122" t="s">
+      <c r="G35" s="98" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="130" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="149">
+    <row r="36" spans="1:7" s="102" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="172">
         <v>10</v>
       </c>
-      <c r="B36" s="150" t="s">
+      <c r="B36" s="174" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="151" t="s">
+      <c r="C36" s="113" t="s">
         <v>289</v>
       </c>
-      <c r="D36" s="152"/>
-      <c r="E36" s="152"/>
-      <c r="F36" s="152"/>
-      <c r="G36" s="153"/>
+      <c r="D36" s="114"/>
+      <c r="E36" s="114"/>
+      <c r="F36" s="114"/>
+      <c r="G36" s="115"/>
     </row>
     <row r="37" spans="1:7" s="84" customFormat="1" ht="75" x14ac:dyDescent="0.2">
-      <c r="A37" s="156"/>
-      <c r="B37" s="157"/>
-      <c r="C37" s="120" t="s">
+      <c r="A37" s="173"/>
+      <c r="B37" s="175"/>
+      <c r="C37" s="96" t="s">
         <v>111</v>
       </c>
-      <c r="D37" s="121" t="s">
+      <c r="D37" s="97" t="s">
         <v>119</v>
       </c>
-      <c r="E37" s="121" t="s">
+      <c r="E37" s="97" t="s">
         <v>129</v>
       </c>
-      <c r="F37" s="121" t="s">
+      <c r="F37" s="97" t="s">
         <v>139</v>
       </c>
-      <c r="G37" s="122" t="s">
+      <c r="G37" s="98" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="38" spans="1:7" s="84" customFormat="1" ht="34.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="158"/>
-      <c r="B38" s="159"/>
-      <c r="C38" s="160"/>
-      <c r="D38" s="161"/>
-      <c r="E38" s="161"/>
-      <c r="F38" s="161"/>
-      <c r="G38" s="161"/>
+      <c r="A38" s="116"/>
+      <c r="B38" s="117"/>
+      <c r="C38" s="118"/>
+      <c r="D38" s="119"/>
+      <c r="E38" s="119"/>
+      <c r="F38" s="119"/>
+      <c r="G38" s="119"/>
     </row>
     <row r="39" spans="1:7" s="84" customFormat="1" ht="44.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="158"/>
-      <c r="B39" s="165" t="s">
+      <c r="A39" s="116"/>
+      <c r="B39" s="123" t="s">
         <v>290</v>
       </c>
-      <c r="C39" s="168" t="s">
+      <c r="C39" s="126" t="s">
         <v>291</v>
       </c>
-      <c r="D39" s="161"/>
-      <c r="E39" s="161"/>
-      <c r="F39" s="161"/>
-      <c r="G39" s="161"/>
+      <c r="D39" s="119"/>
+      <c r="E39" s="119"/>
+      <c r="F39" s="119"/>
+      <c r="G39" s="119"/>
     </row>
     <row r="40" spans="1:7" s="84" customFormat="1" ht="34.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="158"/>
-      <c r="B40" s="159"/>
-      <c r="C40" s="160"/>
-      <c r="D40" s="161"/>
-      <c r="E40" s="161"/>
-      <c r="F40" s="161"/>
-      <c r="G40" s="161"/>
+      <c r="A40" s="116"/>
+      <c r="B40" s="117"/>
+      <c r="C40" s="118"/>
+      <c r="D40" s="119"/>
+      <c r="E40" s="119"/>
+      <c r="F40" s="119"/>
+      <c r="G40" s="119"/>
     </row>
     <row r="41" spans="1:7" s="84" customFormat="1" ht="34.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="158"/>
-      <c r="B41" s="166" t="s">
+      <c r="A41" s="116"/>
+      <c r="B41" s="124" t="s">
         <v>301</v>
       </c>
-      <c r="C41" s="167" t="s">
+      <c r="C41" s="125" t="s">
         <v>300</v>
       </c>
-      <c r="E41" s="161"/>
-      <c r="F41" s="161"/>
-      <c r="G41" s="161"/>
+      <c r="E41" s="119"/>
+      <c r="F41" s="119"/>
+      <c r="G41" s="119"/>
     </row>
     <row r="42" spans="1:7" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="158"/>
-      <c r="B42" s="159"/>
-      <c r="C42" s="160"/>
-      <c r="D42" s="161"/>
-      <c r="E42" s="161"/>
-      <c r="F42" s="161"/>
-      <c r="G42" s="161"/>
+      <c r="A42" s="116"/>
+      <c r="B42" s="117"/>
+      <c r="C42" s="118"/>
+      <c r="D42" s="119"/>
+      <c r="E42" s="119"/>
+      <c r="F42" s="119"/>
+      <c r="G42" s="119"/>
     </row>
     <row r="43" spans="1:7" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="158"/>
-      <c r="B43" s="159"/>
-      <c r="C43" s="160"/>
-      <c r="D43" s="161"/>
-      <c r="E43" s="161"/>
-      <c r="F43" s="161"/>
-      <c r="G43" s="161"/>
+      <c r="A43" s="116"/>
+      <c r="B43" s="117"/>
+      <c r="C43" s="118"/>
+      <c r="D43" s="119"/>
+      <c r="E43" s="119"/>
+      <c r="F43" s="119"/>
+      <c r="G43" s="119"/>
     </row>
     <row r="44" spans="1:7" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="158"/>
-      <c r="B44" s="159"/>
-      <c r="C44" s="160"/>
-      <c r="D44" s="161"/>
-      <c r="E44" s="161"/>
-      <c r="F44" s="161"/>
-      <c r="G44" s="161"/>
+      <c r="A44" s="116"/>
+      <c r="B44" s="117"/>
+      <c r="C44" s="118"/>
+      <c r="D44" s="119"/>
+      <c r="E44" s="119"/>
+      <c r="F44" s="119"/>
+      <c r="G44" s="119"/>
     </row>
     <row r="45" spans="1:7" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="158"/>
-      <c r="B45" s="159"/>
-      <c r="C45" s="160"/>
-      <c r="D45" s="161"/>
-      <c r="E45" s="161"/>
-      <c r="F45" s="161"/>
-      <c r="G45" s="161"/>
+      <c r="A45" s="116"/>
+      <c r="B45" s="117"/>
+      <c r="C45" s="118"/>
+      <c r="D45" s="119"/>
+      <c r="E45" s="119"/>
+      <c r="F45" s="119"/>
+      <c r="G45" s="119"/>
     </row>
     <row r="46" spans="1:7" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="158"/>
-      <c r="B46" s="159"/>
-      <c r="C46" s="160"/>
-      <c r="D46" s="161"/>
-      <c r="E46" s="161"/>
-      <c r="F46" s="161"/>
-      <c r="G46" s="161"/>
+      <c r="A46" s="116"/>
+      <c r="B46" s="117"/>
+      <c r="C46" s="118"/>
+      <c r="D46" s="119"/>
+      <c r="E46" s="119"/>
+      <c r="F46" s="119"/>
+      <c r="G46" s="119"/>
     </row>
     <row r="47" spans="1:7" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="158"/>
-      <c r="B47" s="159"/>
-      <c r="C47" s="160"/>
-      <c r="D47" s="161"/>
-      <c r="E47" s="161"/>
-      <c r="F47" s="161"/>
-      <c r="G47" s="161"/>
+      <c r="A47" s="116"/>
+      <c r="B47" s="117"/>
+      <c r="C47" s="118"/>
+      <c r="D47" s="119"/>
+      <c r="E47" s="119"/>
+      <c r="F47" s="119"/>
+      <c r="G47" s="119"/>
     </row>
     <row r="48" spans="1:7" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="158"/>
-      <c r="B48" s="159"/>
-      <c r="C48" s="160"/>
-      <c r="D48" s="161"/>
-      <c r="E48" s="161"/>
-      <c r="F48" s="161"/>
-      <c r="G48" s="161"/>
+      <c r="A48" s="116"/>
+      <c r="B48" s="117"/>
+      <c r="C48" s="118"/>
+      <c r="D48" s="119"/>
+      <c r="E48" s="119"/>
+      <c r="F48" s="119"/>
+      <c r="G48" s="119"/>
     </row>
     <row r="49" spans="1:7" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="158"/>
-      <c r="B49" s="159"/>
-      <c r="C49" s="160"/>
-      <c r="D49" s="161"/>
-      <c r="E49" s="161"/>
-      <c r="F49" s="161"/>
-      <c r="G49" s="161"/>
+      <c r="A49" s="116"/>
+      <c r="B49" s="117"/>
+      <c r="C49" s="118"/>
+      <c r="D49" s="119"/>
+      <c r="E49" s="119"/>
+      <c r="F49" s="119"/>
+      <c r="G49" s="119"/>
     </row>
     <row r="50" spans="1:7" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="158"/>
-      <c r="B50" s="159"/>
-      <c r="C50" s="160"/>
-      <c r="D50" s="161"/>
-      <c r="E50" s="161"/>
-      <c r="F50" s="161"/>
-      <c r="G50" s="161"/>
+      <c r="A50" s="116"/>
+      <c r="B50" s="117"/>
+      <c r="C50" s="118"/>
+      <c r="D50" s="119"/>
+      <c r="E50" s="119"/>
+      <c r="F50" s="119"/>
+      <c r="G50" s="119"/>
     </row>
     <row r="51" spans="1:7" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="158"/>
-      <c r="B51" s="159"/>
-      <c r="C51" s="160"/>
-      <c r="D51" s="161"/>
-      <c r="E51" s="161"/>
-      <c r="F51" s="161"/>
-      <c r="G51" s="161"/>
+      <c r="A51" s="116"/>
+      <c r="B51" s="117"/>
+      <c r="C51" s="118"/>
+      <c r="D51" s="119"/>
+      <c r="E51" s="119"/>
+      <c r="F51" s="119"/>
+      <c r="G51" s="119"/>
     </row>
     <row r="52" spans="1:7" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="158"/>
-      <c r="B52" s="159"/>
-      <c r="C52" s="160"/>
-      <c r="D52" s="161"/>
-      <c r="E52" s="161"/>
-      <c r="F52" s="161"/>
-      <c r="G52" s="161"/>
+      <c r="A52" s="116"/>
+      <c r="B52" s="117"/>
+      <c r="C52" s="118"/>
+      <c r="D52" s="119"/>
+      <c r="E52" s="119"/>
+      <c r="F52" s="119"/>
+      <c r="G52" s="119"/>
     </row>
     <row r="53" spans="1:7" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="158"/>
-      <c r="B53" s="159"/>
-      <c r="C53" s="160"/>
-      <c r="D53" s="161"/>
-      <c r="E53" s="161"/>
-      <c r="F53" s="161"/>
-      <c r="G53" s="161"/>
+      <c r="A53" s="116"/>
+      <c r="B53" s="117"/>
+      <c r="C53" s="118"/>
+      <c r="D53" s="119"/>
+      <c r="E53" s="119"/>
+      <c r="F53" s="119"/>
+      <c r="G53" s="119"/>
     </row>
     <row r="54" spans="1:7" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="158"/>
-      <c r="B54" s="159"/>
-      <c r="C54" s="160"/>
-      <c r="D54" s="161"/>
-      <c r="E54" s="161"/>
-      <c r="F54" s="161"/>
-      <c r="G54" s="161"/>
+      <c r="A54" s="116"/>
+      <c r="B54" s="117"/>
+      <c r="C54" s="118"/>
+      <c r="D54" s="119"/>
+      <c r="E54" s="119"/>
+      <c r="F54" s="119"/>
+      <c r="G54" s="119"/>
     </row>
     <row r="55" spans="1:7" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="158"/>
-      <c r="B55" s="159"/>
-      <c r="C55" s="160"/>
-      <c r="D55" s="161"/>
-      <c r="E55" s="161"/>
-      <c r="F55" s="161"/>
-      <c r="G55" s="161"/>
+      <c r="A55" s="116"/>
+      <c r="B55" s="117"/>
+      <c r="C55" s="118"/>
+      <c r="D55" s="119"/>
+      <c r="E55" s="119"/>
+      <c r="F55" s="119"/>
+      <c r="G55" s="119"/>
     </row>
     <row r="56" spans="1:7" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="158"/>
-      <c r="B56" s="159"/>
-      <c r="C56" s="160"/>
-      <c r="D56" s="161"/>
-      <c r="E56" s="161"/>
-      <c r="F56" s="161"/>
-      <c r="G56" s="161"/>
+      <c r="A56" s="116"/>
+      <c r="B56" s="117"/>
+      <c r="C56" s="118"/>
+      <c r="D56" s="119"/>
+      <c r="E56" s="119"/>
+      <c r="F56" s="119"/>
+      <c r="G56" s="119"/>
     </row>
     <row r="57" spans="1:7" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="158"/>
-      <c r="B57" s="159"/>
-      <c r="C57" s="160"/>
-      <c r="D57" s="161"/>
-      <c r="E57" s="161"/>
-      <c r="F57" s="161"/>
-      <c r="G57" s="161"/>
+      <c r="A57" s="116"/>
+      <c r="B57" s="117"/>
+      <c r="C57" s="118"/>
+      <c r="D57" s="119"/>
+      <c r="E57" s="119"/>
+      <c r="F57" s="119"/>
+      <c r="G57" s="119"/>
     </row>
     <row r="58" spans="1:7" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="158"/>
-      <c r="B58" s="159"/>
-      <c r="C58" s="160"/>
-      <c r="D58" s="161"/>
-      <c r="E58" s="161"/>
-      <c r="F58" s="161"/>
-      <c r="G58" s="161"/>
+      <c r="A58" s="116"/>
+      <c r="B58" s="117"/>
+      <c r="C58" s="118"/>
+      <c r="D58" s="119"/>
+      <c r="E58" s="119"/>
+      <c r="F58" s="119"/>
+      <c r="G58" s="119"/>
     </row>
     <row r="59" spans="1:7" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="158"/>
-      <c r="B59" s="159"/>
-      <c r="C59" s="160"/>
-      <c r="D59" s="161"/>
-      <c r="E59" s="161"/>
-      <c r="F59" s="161"/>
-      <c r="G59" s="161"/>
+      <c r="A59" s="116"/>
+      <c r="B59" s="117"/>
+      <c r="C59" s="118"/>
+      <c r="D59" s="119"/>
+      <c r="E59" s="119"/>
+      <c r="F59" s="119"/>
+      <c r="G59" s="119"/>
     </row>
     <row r="60" spans="1:7" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="158"/>
-      <c r="B60" s="159"/>
-      <c r="C60" s="160"/>
-      <c r="D60" s="161"/>
-      <c r="E60" s="161"/>
-      <c r="F60" s="161"/>
-      <c r="G60" s="161"/>
+      <c r="A60" s="116"/>
+      <c r="B60" s="117"/>
+      <c r="C60" s="118"/>
+      <c r="D60" s="119"/>
+      <c r="E60" s="119"/>
+      <c r="F60" s="119"/>
+      <c r="G60" s="119"/>
     </row>
     <row r="61" spans="1:7" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="158"/>
-      <c r="B61" s="159"/>
-      <c r="C61" s="160"/>
-      <c r="D61" s="161"/>
-      <c r="E61" s="161"/>
-      <c r="F61" s="161"/>
-      <c r="G61" s="161"/>
+      <c r="A61" s="116"/>
+      <c r="B61" s="117"/>
+      <c r="C61" s="118"/>
+      <c r="D61" s="119"/>
+      <c r="E61" s="119"/>
+      <c r="F61" s="119"/>
+      <c r="G61" s="119"/>
     </row>
     <row r="62" spans="1:7" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="158"/>
-      <c r="B62" s="159"/>
-      <c r="C62" s="160"/>
-      <c r="D62" s="161"/>
-      <c r="E62" s="161"/>
-      <c r="F62" s="161"/>
-      <c r="G62" s="161"/>
+      <c r="A62" s="116"/>
+      <c r="B62" s="117"/>
+      <c r="C62" s="118"/>
+      <c r="D62" s="119"/>
+      <c r="E62" s="119"/>
+      <c r="F62" s="119"/>
+      <c r="G62" s="119"/>
     </row>
     <row r="63" spans="1:7" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="158"/>
-      <c r="B63" s="159"/>
-      <c r="C63" s="160"/>
-      <c r="D63" s="161"/>
-      <c r="E63" s="161"/>
-      <c r="F63" s="161"/>
-      <c r="G63" s="161"/>
+      <c r="A63" s="116"/>
+      <c r="B63" s="117"/>
+      <c r="C63" s="118"/>
+      <c r="D63" s="119"/>
+      <c r="E63" s="119"/>
+      <c r="F63" s="119"/>
+      <c r="G63" s="119"/>
     </row>
     <row r="64" spans="1:7" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="158"/>
-      <c r="B64" s="159"/>
-      <c r="C64" s="160"/>
-      <c r="D64" s="161"/>
-      <c r="E64" s="161"/>
-      <c r="F64" s="161"/>
-      <c r="G64" s="161"/>
+      <c r="A64" s="116"/>
+      <c r="B64" s="117"/>
+      <c r="C64" s="118"/>
+      <c r="D64" s="119"/>
+      <c r="E64" s="119"/>
+      <c r="F64" s="119"/>
+      <c r="G64" s="119"/>
     </row>
     <row r="65" spans="1:7" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="158"/>
-      <c r="B65" s="159"/>
-      <c r="C65" s="160"/>
-      <c r="D65" s="161"/>
-      <c r="E65" s="161"/>
-      <c r="F65" s="161"/>
-      <c r="G65" s="161"/>
+      <c r="A65" s="116"/>
+      <c r="B65" s="117"/>
+      <c r="C65" s="118"/>
+      <c r="D65" s="119"/>
+      <c r="E65" s="119"/>
+      <c r="F65" s="119"/>
+      <c r="G65" s="119"/>
     </row>
     <row r="66" spans="1:7" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="158"/>
-      <c r="B66" s="159"/>
-      <c r="C66" s="160"/>
-      <c r="D66" s="161"/>
-      <c r="E66" s="161"/>
-      <c r="F66" s="161"/>
-      <c r="G66" s="161"/>
+      <c r="A66" s="116"/>
+      <c r="B66" s="117"/>
+      <c r="C66" s="118"/>
+      <c r="D66" s="119"/>
+      <c r="E66" s="119"/>
+      <c r="F66" s="119"/>
+      <c r="G66" s="119"/>
     </row>
     <row r="67" spans="1:7" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="158"/>
-      <c r="B67" s="159"/>
-      <c r="C67" s="160"/>
-      <c r="D67" s="161"/>
-      <c r="E67" s="161"/>
-      <c r="F67" s="161"/>
-      <c r="G67" s="161"/>
+      <c r="A67" s="116"/>
+      <c r="B67" s="117"/>
+      <c r="C67" s="118"/>
+      <c r="D67" s="119"/>
+      <c r="E67" s="119"/>
+      <c r="F67" s="119"/>
+      <c r="G67" s="119"/>
     </row>
     <row r="68" spans="1:7" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="158"/>
-      <c r="B68" s="159"/>
-      <c r="C68" s="160"/>
-      <c r="D68" s="161"/>
-      <c r="E68" s="161"/>
-      <c r="F68" s="161"/>
-      <c r="G68" s="161"/>
+      <c r="A68" s="116"/>
+      <c r="B68" s="117"/>
+      <c r="C68" s="118"/>
+      <c r="D68" s="119"/>
+      <c r="E68" s="119"/>
+      <c r="F68" s="119"/>
+      <c r="G68" s="119"/>
     </row>
     <row r="69" spans="1:7" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="158"/>
-      <c r="B69" s="159"/>
-      <c r="C69" s="160"/>
-      <c r="D69" s="161"/>
-      <c r="E69" s="161"/>
-      <c r="F69" s="161"/>
-      <c r="G69" s="161"/>
+      <c r="A69" s="116"/>
+      <c r="B69" s="117"/>
+      <c r="C69" s="118"/>
+      <c r="D69" s="119"/>
+      <c r="E69" s="119"/>
+      <c r="F69" s="119"/>
+      <c r="G69" s="119"/>
     </row>
     <row r="70" spans="1:7" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="158"/>
-      <c r="B70" s="159"/>
-      <c r="C70" s="160"/>
-      <c r="D70" s="161"/>
-      <c r="E70" s="161"/>
-      <c r="F70" s="161"/>
-      <c r="G70" s="161"/>
+      <c r="A70" s="116"/>
+      <c r="B70" s="117"/>
+      <c r="C70" s="118"/>
+      <c r="D70" s="119"/>
+      <c r="E70" s="119"/>
+      <c r="F70" s="119"/>
+      <c r="G70" s="119"/>
     </row>
     <row r="71" spans="1:7" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="158"/>
-      <c r="B71" s="159"/>
-      <c r="C71" s="160"/>
-      <c r="D71" s="161"/>
-      <c r="E71" s="161"/>
-      <c r="F71" s="161"/>
-      <c r="G71" s="161"/>
+      <c r="A71" s="116"/>
+      <c r="B71" s="117"/>
+      <c r="C71" s="118"/>
+      <c r="D71" s="119"/>
+      <c r="E71" s="119"/>
+      <c r="F71" s="119"/>
+      <c r="G71" s="119"/>
     </row>
     <row r="72" spans="1:7" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="158"/>
-      <c r="B72" s="159"/>
-      <c r="C72" s="160"/>
-      <c r="D72" s="161"/>
-      <c r="E72" s="161"/>
-      <c r="F72" s="161"/>
-      <c r="G72" s="161"/>
+      <c r="A72" s="116"/>
+      <c r="B72" s="117"/>
+      <c r="C72" s="118"/>
+      <c r="D72" s="119"/>
+      <c r="E72" s="119"/>
+      <c r="F72" s="119"/>
+      <c r="G72" s="119"/>
     </row>
     <row r="73" spans="1:7" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="158"/>
-      <c r="B73" s="159"/>
-      <c r="C73" s="160"/>
-      <c r="D73" s="161"/>
-      <c r="E73" s="161"/>
-      <c r="F73" s="161"/>
-      <c r="G73" s="161"/>
+      <c r="A73" s="116"/>
+      <c r="B73" s="117"/>
+      <c r="C73" s="118"/>
+      <c r="D73" s="119"/>
+      <c r="E73" s="119"/>
+      <c r="F73" s="119"/>
+      <c r="G73" s="119"/>
     </row>
     <row r="74" spans="1:7" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="158"/>
-      <c r="B74" s="159"/>
-      <c r="C74" s="160"/>
-      <c r="D74" s="161"/>
-      <c r="E74" s="161"/>
-      <c r="F74" s="161"/>
-      <c r="G74" s="161"/>
+      <c r="A74" s="116"/>
+      <c r="B74" s="117"/>
+      <c r="C74" s="118"/>
+      <c r="D74" s="119"/>
+      <c r="E74" s="119"/>
+      <c r="F74" s="119"/>
+      <c r="G74" s="119"/>
     </row>
     <row r="75" spans="1:7" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="158"/>
-      <c r="B75" s="159"/>
-      <c r="C75" s="160"/>
-      <c r="D75" s="161"/>
-      <c r="E75" s="161"/>
-      <c r="F75" s="161"/>
-      <c r="G75" s="161"/>
+      <c r="A75" s="116"/>
+      <c r="B75" s="117"/>
+      <c r="C75" s="118"/>
+      <c r="D75" s="119"/>
+      <c r="E75" s="119"/>
+      <c r="F75" s="119"/>
+      <c r="G75" s="119"/>
     </row>
     <row r="76" spans="1:7" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="158"/>
-      <c r="B76" s="159"/>
-      <c r="C76" s="160"/>
-      <c r="D76" s="161"/>
-      <c r="E76" s="161"/>
-      <c r="F76" s="161"/>
-      <c r="G76" s="161"/>
+      <c r="A76" s="116"/>
+      <c r="B76" s="117"/>
+      <c r="C76" s="118"/>
+      <c r="D76" s="119"/>
+      <c r="E76" s="119"/>
+      <c r="F76" s="119"/>
+      <c r="G76" s="119"/>
     </row>
     <row r="77" spans="1:7" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="158"/>
-      <c r="B77" s="159"/>
-      <c r="C77" s="160"/>
-      <c r="D77" s="161"/>
-      <c r="E77" s="161"/>
-      <c r="F77" s="161"/>
-      <c r="G77" s="161"/>
+      <c r="A77" s="116"/>
+      <c r="B77" s="117"/>
+      <c r="C77" s="118"/>
+      <c r="D77" s="119"/>
+      <c r="E77" s="119"/>
+      <c r="F77" s="119"/>
+      <c r="G77" s="119"/>
     </row>
     <row r="78" spans="1:7" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="158"/>
-      <c r="B78" s="159"/>
-      <c r="C78" s="160"/>
-      <c r="D78" s="161"/>
-      <c r="E78" s="161"/>
-      <c r="F78" s="161"/>
-      <c r="G78" s="161"/>
+      <c r="A78" s="116"/>
+      <c r="B78" s="117"/>
+      <c r="C78" s="118"/>
+      <c r="D78" s="119"/>
+      <c r="E78" s="119"/>
+      <c r="F78" s="119"/>
+      <c r="G78" s="119"/>
     </row>
   </sheetData>
   <mergeCells count="20">

--- a/P4_analyse_by_shehzad.xlsx
+++ b/P4_analyse_by_shehzad.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bureau\Desktop\P4_shehzad_qaiser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{546460D0-6BC7-4C5F-83A5-09EA30BED3F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{137F2CB1-AD1F-40BF-A02C-9E065D88E2C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18690" windowHeight="9135" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18690" windowHeight="9135" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="L'Audit du site" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="359">
   <si>
     <t>URL :</t>
   </si>
@@ -1123,6 +1123,15 @@
   </si>
   <si>
     <t>https://pagespeed.web.dev/?utm_source=psi&amp;utm_medium=redirect&amp;hl=fr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minifier des fichiers html css js </t>
+  </si>
+  <si>
+    <t>Compresser les images</t>
+  </si>
+  <si>
+    <t>https://fr.imgtools.co/compress-image</t>
   </si>
 </sst>
 </file>
@@ -4578,7 +4587,7 @@
   </sheetPr>
   <dimension ref="A1:Z1006"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
@@ -6209,14 +6218,17 @@
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A4:B15"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="130" t="s">
+        <v>356</v>
+      </c>
+    </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>352</v>
@@ -6237,8 +6249,19 @@
         <v>354</v>
       </c>
     </row>
+    <row r="19" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="130" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>358</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/P4_analyse_by_shehzad.xlsx
+++ b/P4_analyse_by_shehzad.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bureau\Desktop\P4_shehzad_qaiser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{137F2CB1-AD1F-40BF-A02C-9E065D88E2C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB2200F-05AC-4C24-8605-72F1AC8A5FE9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18690" windowHeight="9135" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18690" windowHeight="9135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="L'Audit du site" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="373">
   <si>
     <t>URL :</t>
   </si>
@@ -473,672 +473,713 @@
     </r>
   </si>
   <si>
+    <t>Site de l'agence de WebDesign "La Chouette Agence"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Non mais la présence de lien sur la page d'accueil </t>
+  </si>
+  <si>
+    <t>- et la page 2 vers "index.html" plutôt que vers "./" suggère du contenu dupliqué</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rôle du marketing : Faire connaître l'agence, amener plus de visiteurs, </t>
+  </si>
+  <si>
+    <t>les insiter à aller sur la page "contactez nous" afin de remplir le formulaire</t>
+  </si>
+  <si>
+    <t>- vérifier si le cache est paramétré correctement sur les autres éléments</t>
+  </si>
+  <si>
+    <t>- vérifier si le cache est paramétré correctement sur les éléments "statiques"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Optimiser la vitesse de chargement: </t>
+  </si>
+  <si>
+    <t>- Ok 410 mots sur la page d'accueil</t>
+  </si>
+  <si>
+    <t>Teste de crawlabilité sur Seolyser</t>
+  </si>
+  <si>
+    <t>Teste de vitesse sur Gtmetrix</t>
+  </si>
+  <si>
+    <t>Teste de contenu dupliqué Siteliner</t>
+  </si>
+  <si>
+    <t>https://search.google.com/test/mobile-friendly</t>
+  </si>
+  <si>
+    <t>recherche de mots clés</t>
+  </si>
+  <si>
+    <t>Keyword Planner de Google ou KWFinder</t>
+  </si>
+  <si>
+    <t>&lt;link rel="alternate" hreflang="en" href="https://votre-site.fr/en/" /&gt;</t>
+  </si>
+  <si>
+    <t>à vos visiteurs en fonction de leur langue et de leur situation géographique.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">un site multilingue : la balise hreflang est utilisée pour aider Google à identifier la page url qui doivent être servies </t>
+  </si>
+  <si>
+    <t>https://validator.w3.org</t>
+  </si>
+  <si>
+    <t>https://jigsaw.w3.org/css-validator/</t>
+  </si>
+  <si>
+    <t>Teste d'optimisation mobile de Google</t>
+  </si>
+  <si>
+    <t>https://chrome.google.com/webstore/detail/wave-evaluation-tool/jbbplnpkjmmeebjpijfedlgcdilocofh</t>
+  </si>
+  <si>
+    <t>https://chrome.google.com/webstore/detail/headingsmap/flbjommegcjonpdmenkdiocclhjacmbi</t>
+  </si>
+  <si>
+    <t>https://www.tpgi.com/color-contrast-checker/</t>
+  </si>
+  <si>
+    <t>Vérifier le contraste des elements d'un site</t>
+  </si>
+  <si>
+    <t>https://www.nvaccess.org</t>
+  </si>
+  <si>
+    <t>HeadingsMap : Générer un Plan du site cliquable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teste d'accessibilité automatisé </t>
+  </si>
+  <si>
+    <t>https://chrome.google.com/webstore/detail/axe-devtools-web-accessib/lhdoppojpmngadmnindnejefpokejbdd</t>
+  </si>
+  <si>
+    <t>https://validator.w3.org/nu/</t>
+  </si>
+  <si>
+    <t>lecteur d’écran</t>
+  </si>
+  <si>
+    <t>https://blog.atalan.fr/tester-accessibilite-web-pdf-lecteur-ecran-nvda/</t>
+  </si>
+  <si>
+    <t>https://whatcms.org</t>
+  </si>
+  <si>
+    <t>Technologie de codage d'un site</t>
+  </si>
+  <si>
+    <t>suivre l’évolution du référencement d’un site web</t>
+  </si>
+  <si>
+    <t>Google Search Console et Google Analytics</t>
+  </si>
+  <si>
+    <t>1. Detecter les problèmes évidents</t>
+  </si>
+  <si>
+    <t>2. Analyse On-page</t>
+  </si>
+  <si>
+    <t>3 . Analyse des mots-clés existants et de la position des mots clés</t>
+  </si>
+  <si>
+    <t>Audit SEO d'un site web : La Chouette agence</t>
+  </si>
+  <si>
+    <t>4. Étude de la qualité des liens</t>
+  </si>
+  <si>
+    <t>Google Search Console</t>
+  </si>
+  <si>
+    <t>Outil utiliser pour connaître la position de mes mots-clés dans Google </t>
+  </si>
+  <si>
+    <t>Générer des mots-clés pertinents et optimiser le référencement</t>
+  </si>
+  <si>
+    <t>https://neilpatel.com/fr/ubersuggest/</t>
+  </si>
+  <si>
+    <t>https://seolyzer.io/fr/</t>
+  </si>
+  <si>
+    <t>https://gtmetrix.com</t>
+  </si>
+  <si>
+    <t>https://www.siteliner.com</t>
+  </si>
+  <si>
+    <t>https://alyze.com</t>
+  </si>
+  <si>
+    <t>Teste des mots clés avec Alize</t>
+  </si>
+  <si>
+    <t>https://www.tanaguru.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teste l'accessibilité avec Tanaguru </t>
+  </si>
+  <si>
+    <t>La checklist pour renforcer son SEO on-site</t>
+  </si>
+  <si>
+    <t>Les « classiques » du SEO à réaliser en priorité</t>
+  </si>
+  <si>
+    <t>2) Vérifiez que toutes vos pages ont une balise META &lt;title&gt; qui ne dépasse pas 65 caractères idéalement.</t>
+  </si>
+  <si>
+    <t>3) Rédigez des balises META &lt;description&gt; entre 70 et 320 caractères qui donnent envie aux internautes de cliquer.</t>
+  </si>
+  <si>
+    <t>4) Vos URLs doivent être compréhensibles par un humain, et idéalement ne dépassent pas 115 caractères.</t>
+  </si>
+  <si>
+    <t>Votre contenu à proprement dit</t>
+  </si>
+  <si>
+    <t>5) Rédigez des contenus de plus de 500 mots, voire encore plus longs si vous le pouvez (la longueur du texte compte pour votre référencement).</t>
+  </si>
+  <si>
+    <t>6) Utilisez les mots justes et un vocabulaire riche dans vos contenus pour maximiser votre impact SEO (aidez vous d’un outil).</t>
+  </si>
+  <si>
+    <t>7) Utilisez des images dans vos contenus, en prenant soin de renseigner les balises &lt;alt&gt; et &lt;title&gt; de vos visuels.</t>
+  </si>
+  <si>
+    <t>8) Prenez soins de garder la taille de vos images la plus légère possible pour ne pas impacter défavorablement votre temps de chargement.</t>
+  </si>
+  <si>
+    <t>9) « Stratégisez » votre maillage interne en utilisant un outil comme Google Search Console.</t>
+  </si>
+  <si>
+    <t>Soigner la structuration HTML</t>
+  </si>
+  <si>
+    <t>10) Structurez votre contenu avec des titres H1 – H6.</t>
+  </si>
+  <si>
+    <t>11) Si vous avez un contenu qui se lit sur plusieurs pages, utilisez les balises de pagination rel= »next » et rel= »prev ».</t>
+  </si>
+  <si>
+    <t>12) Si votre contenu s’y prête, n’oubliez pas d’ajouter toutes les micro-données possibles  (voir schema.org).</t>
+  </si>
+  <si>
+    <t>13) Votre contenu texte doit idéalement représenter plus de 10% de votre code HTML.</t>
+  </si>
+  <si>
+    <t>L’expérience utilisateur a aussi un impact SEO</t>
+  </si>
+  <si>
+    <t>15) Assurez-vous que votre site est compatible avec les appareils mobiles et évitez les erreurs UX basiques d’un site mobile.</t>
+  </si>
+  <si>
+    <t>16) Assurez vous de garder une page légère, pour favoriser un temps de chargement rapide.</t>
+  </si>
+  <si>
+    <t>17) Corrigez toutes les erreurs d’exploitation, et faites la chasse aux pages 404.</t>
+  </si>
+  <si>
+    <t>18) Déliez tous les liens cassés qui peuvent être présents sur votre site.</t>
+  </si>
+  <si>
+    <t>19) Ajoutez une Favicon à votre site, qui apparaisse sur tous les navigateurs.</t>
+  </si>
+  <si>
+    <t>20) Ne pensez pas qu’aux moteurs de recherche et cherchez à développer une vraie marque sur la toile pour gagner la bataille du « préférencement ».</t>
+  </si>
+  <si>
+    <t>Les éléments techniques SEO à prendre en compte</t>
+  </si>
+  <si>
+    <t>21) Assurez-vous d’avoir un sitemap XML</t>
+  </si>
+  <si>
+    <t>23) Eviter que les éventuels paramètres de vos URLs (ex: quand vous filtrez un catalogue produit) génèrent du duplicate content, ou cannibalisent le SEO d’autres pages.</t>
+  </si>
+  <si>
+    <t>24) De manière générale, évitez les techniques de cloaking (servir un contenu différent aux moteurs de recherche et aux utilisateurs)</t>
+  </si>
+  <si>
+    <t>25) Passez au protocole HTTPs (tout en évitant ses pièges SEO)</t>
+  </si>
+  <si>
+    <t>5. CHECK LIST SEO</t>
+  </si>
+  <si>
+    <t>d’une en-tête HTTP X-Robots-Tag ou d’une indication de non indexation dans votre fichier robot.txt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Assurez vous que l‘indexation de vos pages n’est pas bloquée à cause d’une balise NoIndex, </t>
+  </si>
+  <si>
+    <t>pour essayer d’influencer votre classement dans les moteurs de recherche.</t>
+  </si>
+  <si>
+    <t>14) N’utilisez pas de liens ou de textes cachés (par exemple un texte blanc sur fond blanc) au risque que Google considère la manœuvre comme une tentative malhonnête</t>
+  </si>
+  <si>
+    <t>Utilisez une balise &lt;canonical&gt; pour déclarer quelle variante vous voulez voir dans les résultats de recherche.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22) Évitez le duplicate content « bête » à cause des deux variantes de votre site, avec ou sans les « www » (par exemple, http://www.monsite.com et http://monsite.com). </t>
+  </si>
+  <si>
+    <t>N°</t>
+  </si>
+  <si>
+    <t>Problèmes analysés</t>
+  </si>
+  <si>
+    <t>Categories</t>
+  </si>
+  <si>
+    <t>Teste SEO et accesibilité sur Goggle</t>
+  </si>
+  <si>
+    <t>extension LightHouse dans Chrome</t>
+  </si>
+  <si>
+    <t>Principale Axe de Performance</t>
+  </si>
+  <si>
+    <t>Performance Technique</t>
+  </si>
+  <si>
+    <t>Amelioration SEO</t>
+  </si>
+  <si>
+    <t>Facilité l'Accesibilité</t>
+  </si>
+  <si>
+    <t>Point essentiel</t>
+  </si>
+  <si>
+    <t>Point secondaire</t>
+  </si>
+  <si>
+    <t>pas de balise Noindex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rediger les balise Meta </t>
+  </si>
+  <si>
+    <t>titre precis et comprehensible</t>
+  </si>
+  <si>
+    <t>Vocabulaire riche du contenu</t>
+  </si>
+  <si>
+    <t>Mettre le protocole HTTPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adapter la taile des images </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optimiser la vitesse de chargement </t>
+  </si>
+  <si>
+    <t>compatible Mobile</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - mettre en Fr</t>
+  </si>
+  <si>
+    <t>Les personnes malvoyantes utilisant des lecteurs d'écran ou l'élargissement/zoom pour accéder au texte.</t>
+  </si>
+  <si>
+    <t>Les personnes avec des troubles fonctionnels moteurs utilisant le clavier (ou d'autres fonctions sans souris) pour activer des fonctionnalités de site web.</t>
+  </si>
+  <si>
+    <t>Les personnes avec des troubles auditifs dépendant des légendes/sous-titres ou d'autres textes alternatifs pour du contenu audio/vidéo.</t>
+  </si>
+  <si>
+    <t>Le site doit etre utilisables par les personnes avec des handicap, et par tout type d'appreil (pc , tablette, mobile), ancien et nouveau Navigateur</t>
+  </si>
+  <si>
+    <t>Version mobile</t>
+  </si>
+  <si>
+    <t>Compatibilite avec les autre Navigateurs</t>
+  </si>
+  <si>
+    <t>Structure sémentique du code html css</t>
+  </si>
+  <si>
+    <t>Description Alt des images</t>
+  </si>
+  <si>
+    <t>Focus des boutons</t>
+  </si>
+  <si>
+    <t>Sous titre des videos</t>
+  </si>
+  <si>
+    <t>Validation de W3C pour le Html&amp;Css</t>
+  </si>
+  <si>
+    <t>Verifier Des pannes ou des ralentissements</t>
+  </si>
+  <si>
+    <t>https://www.uptrends.fr</t>
+  </si>
+  <si>
+    <t>Outils annexex</t>
+  </si>
+  <si>
+    <t>Catégorie</t>
+  </si>
+  <si>
+    <t>Recommandations</t>
+  </si>
+  <si>
+    <t>Référence</t>
+  </si>
+  <si>
+    <t>Organiser le nom de domaine pour l'indexation : Faciliter le crawling</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Présence de liens pointant vers "index.html" et non "./".</t>
+  </si>
+  <si>
+    <t>Structurer le site : Faciliter la compréhension (Google Bot &amp; Accessibilité)</t>
+  </si>
+  <si>
+    <t>La langue dans le html est "défaut"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pas de recours aux balises sémantiques </t>
+  </si>
+  <si>
+    <t>Utiliser au maximum les balises sémantiques</t>
+  </si>
+  <si>
+    <t>Elle facilite la compréhension par Google et par les utilisateurs d'assistant de lecture</t>
+  </si>
+  <si>
+    <t>Les utiliser (Header, footer…)</t>
+  </si>
+  <si>
+    <t>Optimiser la vitesse du site : Budget de crawling &amp; expérience utilisateur</t>
+  </si>
+  <si>
+    <t>Redimensionner ces images à la taille de le conteneur</t>
+  </si>
+  <si>
+    <t>Privilégier le CSS à Javascript quand cela est possible : Googlebot et le JS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le JS n'est pas toujours très bien compris par les robots google, et ralentit le crawl</t>
+  </si>
+  <si>
+    <t>S'assurer que le site est parfaitement responsive : Lecture optimale en toutes circonstances</t>
+  </si>
+  <si>
+    <t>Ne pas faire appel à des techniques de black-hat : Privilégier les pratiques vertueuses</t>
+  </si>
+  <si>
+    <t>La liste des liens concernant les annuaires n' est pas pertinente, voir suspicieuse…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utiliser l'expression clé de manière pertinente : Le mieux est parfois l'ennemi du bien </t>
+  </si>
+  <si>
+    <t>On doit maximiser l'apparation des mots clés souhaités, d'une part dans la structure du site (cf.infra) mais également dans son contenu. Néanmoins il faut toujours garder en tête que cela ne doit pas être fait au dépend de l'utilisateur</t>
+  </si>
+  <si>
+    <t>Optimiser les backlinks : De l'importance des réseaux sociaux en SEO et du partenariat</t>
+  </si>
+  <si>
+    <t>Créer une machine à contenu : Un site doit être vivant</t>
+  </si>
+  <si>
+    <t>Suivre l'évolution du/des mot clés : Rien n'est acquis</t>
+  </si>
+  <si>
+    <t>Source globale :</t>
+  </si>
+  <si>
+    <t>Bien débuter en SEO - le guide de Google</t>
+  </si>
+  <si>
+    <t>ACCESSIBILITE</t>
+  </si>
+  <si>
+    <t>BLOC 3 : Les couleurs de texte #F3976C ne semblent pas assez lisibles, notamment sur fond blanc</t>
+  </si>
+  <si>
+    <t>Le contraste des couleurs DOIT respecter le niveau AA de WCAG 2.0</t>
+  </si>
+  <si>
+    <t>Page Contact : Le texte du bloc 6 est de la même couleur que son fond.</t>
+  </si>
+  <si>
+    <t>L'information d'interaction des liens n'est véhiculée que par les couleurs</t>
+  </si>
+  <si>
+    <t>Tous les éléments de la page ne portent pas le focus de manière visible</t>
+  </si>
+  <si>
+    <t>Présence d'images composées uniquement de texte (cf. citation)</t>
+  </si>
+  <si>
+    <t>Les images avec du texte doivent être évitées.</t>
+  </si>
+  <si>
+    <t>Check List du MDN - Mozilla</t>
+  </si>
+  <si>
+    <t>Source Accesibilité :</t>
+  </si>
+  <si>
+    <t>L’information véhiculée par la couleur DOIT toujours être disponible via un autre moyen</t>
+  </si>
+  <si>
+    <t>Tous les éléments activables DOIVENT pouvoir porter le focus :</t>
+  </si>
+  <si>
+    <t>a) SEO</t>
+  </si>
+  <si>
+    <t>b)SEA</t>
+  </si>
+  <si>
+    <t>search engine Optimization</t>
+  </si>
+  <si>
+    <t>Ameliorer la visibilité de l'entreprise sur internet</t>
+  </si>
+  <si>
+    <t>c)SMO</t>
+  </si>
+  <si>
+    <t>Social Media Optimization</t>
+  </si>
+  <si>
+    <t>Par SMO, on entend l'optimisation d'un site ou d'une marque en s'appuyant sur les réseaux sociaux : Facebook, Instagram, LinkedIn, Twitter, etc.</t>
+  </si>
+  <si>
+    <t>le terme "SEO" se cache la notion de référencement naturel avec un objectif clair : améliorer le positionnement de son site Internet dans les résultats de Google</t>
+  </si>
+  <si>
+    <t>Hebergement en HTTPS pour sécuriser le site</t>
+  </si>
+  <si>
+    <t>Créez des pages optimisées pour présenter votre activité</t>
+  </si>
+  <si>
+    <t>Soignez le titre de votre page et l'URL dans le but de placer des mots clés.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Il est préférable que le titre de la page en lui-même ne dépasse par 60 caractères.</t>
+  </si>
+  <si>
+    <t>N'utilisez surtout pas une adresse de page du style "page-numero-1.html"</t>
+  </si>
+  <si>
+    <t>préférez une URL en adéquation avec le titre de la page, par exemple : "informatique-bien-choisir-son-pc.html"</t>
+  </si>
+  <si>
+    <t>La balise meta-description de la page : il s'agit d'une balise qui s'affiche dans le code HTML et qui sera utilisée pour décrire le contenu de la page. Là aussi, placez vos mots-clés par rapport au contenu de la page. Attention, cette description ne doit pas dépasser 160 caractères.</t>
+  </si>
+  <si>
+    <t>Quelques consignes additionnelles à respecter </t>
+  </si>
+  <si>
+    <t>ne pas copier-coller du texte d'un autre site </t>
+  </si>
+  <si>
+    <t>veillez à créer un site bien présenté et agréable</t>
+  </si>
+  <si>
+    <t>agréable à lire, créez des pages en rapport avec votre activité pour indexer un maximum de pages sur Google</t>
+  </si>
+  <si>
+    <t>vérifiez que votre site s'affiche correctement sur smartphones et tablettes (c'est un critère très important).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/vous devez commencer par établir votre stratégie de web-marketing et définir vos objectifs : </t>
+  </si>
+  <si>
+    <t>communiquer vos coordonnées et vos horaires d'ouverture, ou encore être référencé dans les annuaires pour professionnels (aux côtés de vos concurrents).</t>
+  </si>
+  <si>
+    <t>garder le contact avec vos clients grâce aux réseaux sociaux (par exemple)</t>
+  </si>
+  <si>
+    <t>vendre en ligne directement</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> être référencé dans les annuaires pour professionnels (aux côtés de vos concurrents).</t>
+  </si>
+  <si>
+    <t>2/ Ameliorer le Referencement du site web</t>
+  </si>
+  <si>
+    <t>Google My Business</t>
+  </si>
+  <si>
+    <t>le SEA (Search Engine Advertising) ou référencement payant</t>
+  </si>
+  <si>
+    <t>Concrètement, le SEO consiste à positionner le site web d'une entreprise sur la première page de résultats des moteurs de recherche, notamment de Google.</t>
+  </si>
+  <si>
+    <t>search engine Advertising</t>
+  </si>
+  <si>
+    <t>Pour ce faire, il est nécessaire d'avoir recours à différents critères on-page (choix des mots-clés, architecture du site, structure des liens internes, vitesse de chargement des pages…) et des critères off-page (netlinking, popularité du site, benchmark concurrentiel…)</t>
+  </si>
+  <si>
+    <t>le recours aux Google Adwords, il consiste à engager une campagne publicitaire pour faire apparaître le site web de l'entreprise en fonction des mots-clés recherchés par les internautes.</t>
+  </si>
+  <si>
+    <t>Il est composé du préfixe (www.) suivi du nom que vous aurez choisi, ainsi que de l’extension de domaine en « .fr », « .com », « .cm », « .gov », « .org », ou même « .shop ». </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optimiser son nom de domaine afin intégrer la localisation de votre société, ou encore son activité. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si votre boutique se situe en France, préférez un nom de domaine en ".fr" plutôt qu'en ".com" </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> l’extension de domaine est tres important pour le bon referencement , en « .fr », « .com », « .cm », « .gov », « .org », ou même « .shop ». </t>
+  </si>
+  <si>
+    <t>les accents et les caractères spéciaux sont en effet à proscrire lors du choix d’un nom de domaine</t>
+  </si>
+  <si>
+    <t>optimiser vos contenus.</t>
+  </si>
+  <si>
+    <t>Avec Analytics ou la Search Console, Google prend en compte le trafic sur les sites pour établir leur positionnement. Il évalue la popularité de votre site par le nombre de visites et le taux de rebond. Il tiendra également compte du temps passé par les internautes sur le site.</t>
+  </si>
+  <si>
+    <t>3/Améliorer l'expérience client (UX)</t>
+  </si>
+  <si>
+    <t>Ces derniers devraient pouvoir visiter une page, quel que soit le support utilisé (smartphone, tablette, PC…). Plus les visiteurs auront plaisir à s'attarder et à revenir sur un site, mieux il sera positionné sur les moteurs de recherche.</t>
+  </si>
+  <si>
+    <t>La satisfaction des utilisateurs est donc l'un des grands enjeux </t>
+  </si>
+  <si>
+    <t>L'amélioration de l'UX design sera un facteur clé de développement pour un site</t>
+  </si>
+  <si>
+    <t>En plus d'un contenu de qualité, pensez à créer un netlinking de qualité. Cette stratégie consiste à multiplier les backlinks vers un site web. Il faudra par contre mettre en place une campagne de netlinking efficace. Si la quantité est importante, il ne faudra pas lésiner sur la qualité pour autant. Il est préférable que les backlinks soient issus d'une page dont le PR est supérieur à 3. Choisissez de préférence les pages ayant une certaine ancienneté et de bons contenus.</t>
+  </si>
+  <si>
+    <t>4/ Le netlinking</t>
+  </si>
+  <si>
+    <t>5/ La recherche vocale</t>
+  </si>
+  <si>
+    <t>la recherche vocale est la nouvelle tendance SEO. Il est primordial d'adapter son site à la recherche vocale</t>
+  </si>
+  <si>
+    <t>6/ Verifier et analyser son positionnement sur google</t>
+  </si>
+  <si>
+    <t>https://jscompress.com</t>
+  </si>
+  <si>
+    <t>https://www.minifier.org</t>
+  </si>
+  <si>
+    <t>l’outil Google Page Speed pour tester la vitesse de chargement de votre site</t>
+  </si>
+  <si>
+    <t>https://pagespeed.web.dev/?utm_source=psi&amp;utm_medium=redirect&amp;hl=fr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minifier des fichiers html css js </t>
+  </si>
+  <si>
+    <t>Compresser les images</t>
+  </si>
+  <si>
+    <t>https://fr.imgtools.co/compress-image</t>
+  </si>
+  <si>
+    <t>Site :</t>
+  </si>
+  <si>
+    <t>"Entreprise web design Lyon" au niveau de son SEO &amp; Accessibilité</t>
+  </si>
+  <si>
+    <t>Probleme du site :</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Améliorer le site </t>
+      <t xml:space="preserve">Améliorer le Referencement du site </t>
     </r>
     <r>
       <rPr>
         <b/>
-        <u/>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t>"Entreprise web design Lyon" au niveau de son SEO &amp; Accessibilité</t>
+      <t>"La chouette agence" au niveau de son SEO &amp; Accessibilité</t>
     </r>
   </si>
   <si>
-    <t>Site de l'agence de WebDesign "La Chouette Agence"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Non mais la présence de lien sur la page d'accueil </t>
-  </si>
-  <si>
-    <t>- et la page 2 vers "index.html" plutôt que vers "./" suggère du contenu dupliqué</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rôle du marketing : Faire connaître l'agence, amener plus de visiteurs, </t>
-  </si>
-  <si>
-    <t>les insiter à aller sur la page "contactez nous" afin de remplir le formulaire</t>
-  </si>
-  <si>
-    <t>- vérifier si le cache est paramétré correctement sur les autres éléments</t>
-  </si>
-  <si>
-    <t>- vérifier si le cache est paramétré correctement sur les éléments "statiques"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Optimiser la vitesse de chargement: </t>
-  </si>
-  <si>
-    <t>- Ok 410 mots sur la page d'accueil</t>
-  </si>
-  <si>
-    <t>Teste de crawlabilité sur Seolyser</t>
-  </si>
-  <si>
-    <t>Teste de vitesse sur Gtmetrix</t>
-  </si>
-  <si>
-    <t>Teste de contenu dupliqué Siteliner</t>
-  </si>
-  <si>
-    <t>https://search.google.com/test/mobile-friendly</t>
-  </si>
-  <si>
-    <t>recherche de mots clés</t>
-  </si>
-  <si>
-    <t>Keyword Planner de Google ou KWFinder</t>
-  </si>
-  <si>
-    <t>&lt;link rel="alternate" hreflang="en" href="https://votre-site.fr/en/" /&gt;</t>
-  </si>
-  <si>
-    <t>à vos visiteurs en fonction de leur langue et de leur situation géographique.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">un site multilingue : la balise hreflang est utilisée pour aider Google à identifier la page url qui doivent être servies </t>
-  </si>
-  <si>
-    <t>https://validator.w3.org</t>
-  </si>
-  <si>
-    <t>https://jigsaw.w3.org/css-validator/</t>
-  </si>
-  <si>
-    <t>Teste d'optimisation mobile de Google</t>
-  </si>
-  <si>
-    <t>https://chrome.google.com/webstore/detail/wave-evaluation-tool/jbbplnpkjmmeebjpijfedlgcdilocofh</t>
-  </si>
-  <si>
-    <t>https://chrome.google.com/webstore/detail/headingsmap/flbjommegcjonpdmenkdiocclhjacmbi</t>
-  </si>
-  <si>
-    <t>https://www.tpgi.com/color-contrast-checker/</t>
-  </si>
-  <si>
-    <t>Vérifier le contraste des elements d'un site</t>
-  </si>
-  <si>
-    <t>https://www.nvaccess.org</t>
-  </si>
-  <si>
-    <t>HeadingsMap : Générer un Plan du site cliquable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Teste d'accessibilité automatisé </t>
-  </si>
-  <si>
-    <t>https://chrome.google.com/webstore/detail/axe-devtools-web-accessib/lhdoppojpmngadmnindnejefpokejbdd</t>
-  </si>
-  <si>
-    <t>https://validator.w3.org/nu/</t>
-  </si>
-  <si>
-    <t>lecteur d’écran</t>
-  </si>
-  <si>
-    <t>https://blog.atalan.fr/tester-accessibilite-web-pdf-lecteur-ecran-nvda/</t>
-  </si>
-  <si>
-    <t>https://whatcms.org</t>
-  </si>
-  <si>
-    <t>Technologie de codage d'un site</t>
-  </si>
-  <si>
-    <t>suivre l’évolution du référencement d’un site web</t>
-  </si>
-  <si>
-    <t>Google Search Console et Google Analytics</t>
-  </si>
-  <si>
-    <t>1. Detecter les problèmes évidents</t>
-  </si>
-  <si>
-    <t>2. Analyse On-page</t>
-  </si>
-  <si>
-    <t>3 . Analyse des mots-clés existants et de la position des mots clés</t>
-  </si>
-  <si>
-    <t>Audit SEO d'un site web : La Chouette agence</t>
-  </si>
-  <si>
-    <t>4. Étude de la qualité des liens</t>
-  </si>
-  <si>
-    <t>Google Search Console</t>
-  </si>
-  <si>
-    <t>Outil utiliser pour connaître la position de mes mots-clés dans Google </t>
-  </si>
-  <si>
-    <t>Générer des mots-clés pertinents et optimiser le référencement</t>
-  </si>
-  <si>
-    <t>https://neilpatel.com/fr/ubersuggest/</t>
-  </si>
-  <si>
-    <t>https://seolyzer.io/fr/</t>
-  </si>
-  <si>
-    <t>https://gtmetrix.com</t>
-  </si>
-  <si>
-    <t>https://www.siteliner.com</t>
-  </si>
-  <si>
-    <t>https://alyze.com</t>
-  </si>
-  <si>
-    <t>Teste des mots clés avec Alize</t>
-  </si>
-  <si>
-    <t>https://www.tanaguru.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Teste l'accessibilité avec Tanaguru </t>
-  </si>
-  <si>
-    <t>La checklist pour renforcer son SEO on-site</t>
-  </si>
-  <si>
-    <t>Les « classiques » du SEO à réaliser en priorité</t>
-  </si>
-  <si>
-    <t>2) Vérifiez que toutes vos pages ont une balise META &lt;title&gt; qui ne dépasse pas 65 caractères idéalement.</t>
-  </si>
-  <si>
-    <t>3) Rédigez des balises META &lt;description&gt; entre 70 et 320 caractères qui donnent envie aux internautes de cliquer.</t>
-  </si>
-  <si>
-    <t>4) Vos URLs doivent être compréhensibles par un humain, et idéalement ne dépassent pas 115 caractères.</t>
-  </si>
-  <si>
-    <t>Votre contenu à proprement dit</t>
-  </si>
-  <si>
-    <t>5) Rédigez des contenus de plus de 500 mots, voire encore plus longs si vous le pouvez (la longueur du texte compte pour votre référencement).</t>
-  </si>
-  <si>
-    <t>6) Utilisez les mots justes et un vocabulaire riche dans vos contenus pour maximiser votre impact SEO (aidez vous d’un outil).</t>
-  </si>
-  <si>
-    <t>7) Utilisez des images dans vos contenus, en prenant soin de renseigner les balises &lt;alt&gt; et &lt;title&gt; de vos visuels.</t>
-  </si>
-  <si>
-    <t>8) Prenez soins de garder la taille de vos images la plus légère possible pour ne pas impacter défavorablement votre temps de chargement.</t>
-  </si>
-  <si>
-    <t>9) « Stratégisez » votre maillage interne en utilisant un outil comme Google Search Console.</t>
-  </si>
-  <si>
-    <t>Soigner la structuration HTML</t>
-  </si>
-  <si>
-    <t>10) Structurez votre contenu avec des titres H1 – H6.</t>
-  </si>
-  <si>
-    <t>11) Si vous avez un contenu qui se lit sur plusieurs pages, utilisez les balises de pagination rel= »next » et rel= »prev ».</t>
-  </si>
-  <si>
-    <t>12) Si votre contenu s’y prête, n’oubliez pas d’ajouter toutes les micro-données possibles  (voir schema.org).</t>
-  </si>
-  <si>
-    <t>13) Votre contenu texte doit idéalement représenter plus de 10% de votre code HTML.</t>
-  </si>
-  <si>
-    <t>L’expérience utilisateur a aussi un impact SEO</t>
-  </si>
-  <si>
-    <t>15) Assurez-vous que votre site est compatible avec les appareils mobiles et évitez les erreurs UX basiques d’un site mobile.</t>
-  </si>
-  <si>
-    <t>16) Assurez vous de garder une page légère, pour favoriser un temps de chargement rapide.</t>
-  </si>
-  <si>
-    <t>17) Corrigez toutes les erreurs d’exploitation, et faites la chasse aux pages 404.</t>
-  </si>
-  <si>
-    <t>18) Déliez tous les liens cassés qui peuvent être présents sur votre site.</t>
-  </si>
-  <si>
-    <t>19) Ajoutez une Favicon à votre site, qui apparaisse sur tous les navigateurs.</t>
-  </si>
-  <si>
-    <t>20) Ne pensez pas qu’aux moteurs de recherche et cherchez à développer une vraie marque sur la toile pour gagner la bataille du « préférencement ».</t>
-  </si>
-  <si>
-    <t>Les éléments techniques SEO à prendre en compte</t>
-  </si>
-  <si>
-    <t>21) Assurez-vous d’avoir un sitemap XML</t>
-  </si>
-  <si>
-    <t>23) Eviter que les éventuels paramètres de vos URLs (ex: quand vous filtrez un catalogue produit) génèrent du duplicate content, ou cannibalisent le SEO d’autres pages.</t>
-  </si>
-  <si>
-    <t>24) De manière générale, évitez les techniques de cloaking (servir un contenu différent aux moteurs de recherche et aux utilisateurs)</t>
-  </si>
-  <si>
-    <t>25) Passez au protocole HTTPs (tout en évitant ses pièges SEO)</t>
-  </si>
-  <si>
-    <t>5. CHECK LIST SEO</t>
-  </si>
-  <si>
-    <t>d’une en-tête HTTP X-Robots-Tag ou d’une indication de non indexation dans votre fichier robot.txt.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) Assurez vous que l‘indexation de vos pages n’est pas bloquée à cause d’une balise NoIndex, </t>
-  </si>
-  <si>
-    <t>pour essayer d’influencer votre classement dans les moteurs de recherche.</t>
-  </si>
-  <si>
-    <t>14) N’utilisez pas de liens ou de textes cachés (par exemple un texte blanc sur fond blanc) au risque que Google considère la manœuvre comme une tentative malhonnête</t>
-  </si>
-  <si>
-    <t>Utilisez une balise &lt;canonical&gt; pour déclarer quelle variante vous voulez voir dans les résultats de recherche.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22) Évitez le duplicate content « bête » à cause des deux variantes de votre site, avec ou sans les « www » (par exemple, http://www.monsite.com et http://monsite.com). </t>
-  </si>
-  <si>
-    <t>N°</t>
-  </si>
-  <si>
-    <t>Problèmes analysés</t>
-  </si>
-  <si>
-    <t>Categories</t>
-  </si>
-  <si>
-    <t>Teste SEO et accesibilité sur Goggle</t>
-  </si>
-  <si>
-    <t>extension LightHouse dans Chrome</t>
-  </si>
-  <si>
-    <t>Principale Axe de Performance</t>
-  </si>
-  <si>
-    <t>Performance Technique</t>
-  </si>
-  <si>
-    <t>Amelioration SEO</t>
-  </si>
-  <si>
-    <t>Facilité l'Accesibilité</t>
-  </si>
-  <si>
-    <t>Point essentiel</t>
-  </si>
-  <si>
-    <t>Point secondaire</t>
-  </si>
-  <si>
-    <t>pas de balise Noindex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rediger les balise Meta </t>
-  </si>
-  <si>
-    <t>titre precis et comprehensible</t>
-  </si>
-  <si>
-    <t>Vocabulaire riche du contenu</t>
-  </si>
-  <si>
-    <t>Mettre le protocole HTTPS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adapter la taile des images </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Optimiser la vitesse de chargement </t>
-  </si>
-  <si>
-    <t>compatible Mobile</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - mettre en Fr</t>
-  </si>
-  <si>
-    <t>Les personnes malvoyantes utilisant des lecteurs d'écran ou l'élargissement/zoom pour accéder au texte.</t>
-  </si>
-  <si>
-    <t>Les personnes avec des troubles fonctionnels moteurs utilisant le clavier (ou d'autres fonctions sans souris) pour activer des fonctionnalités de site web.</t>
-  </si>
-  <si>
-    <t>Les personnes avec des troubles auditifs dépendant des légendes/sous-titres ou d'autres textes alternatifs pour du contenu audio/vidéo.</t>
-  </si>
-  <si>
-    <t>Le site doit etre utilisables par les personnes avec des handicap, et par tout type d'appreil (pc , tablette, mobile), ancien et nouveau Navigateur</t>
-  </si>
-  <si>
-    <t>Version mobile</t>
-  </si>
-  <si>
-    <t>Compatibilite avec les autre Navigateurs</t>
-  </si>
-  <si>
-    <t>Verifier le contraste et la police</t>
-  </si>
-  <si>
-    <t>Structure sémentique du code html css</t>
-  </si>
-  <si>
-    <t>Description Alt des images</t>
-  </si>
-  <si>
-    <t>Focus des boutons</t>
-  </si>
-  <si>
-    <t>Sous titre des videos</t>
-  </si>
-  <si>
-    <t>Validation de W3C pour le Html&amp;Css</t>
-  </si>
-  <si>
-    <t>Verifier Des pannes ou des ralentissements</t>
-  </si>
-  <si>
-    <t>https://www.uptrends.fr</t>
-  </si>
-  <si>
-    <t>Outils annexex</t>
-  </si>
-  <si>
-    <t>Catégorie</t>
-  </si>
-  <si>
-    <t>Recommandations</t>
-  </si>
-  <si>
-    <t>Référence</t>
-  </si>
-  <si>
-    <t>Organiser le nom de domaine pour l'indexation : Faciliter le crawling</t>
-  </si>
-  <si>
-    <t>Source</t>
-  </si>
-  <si>
-    <t>Présence de liens pointant vers "index.html" et non "./".</t>
-  </si>
-  <si>
-    <t>Structurer le site : Faciliter la compréhension (Google Bot &amp; Accessibilité)</t>
-  </si>
-  <si>
-    <t>La langue dans le html est "défaut"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pas de recours aux balises sémantiques </t>
-  </si>
-  <si>
-    <t>Utiliser au maximum les balises sémantiques</t>
-  </si>
-  <si>
-    <t>Elle facilite la compréhension par Google et par les utilisateurs d'assistant de lecture</t>
-  </si>
-  <si>
-    <t>Les utiliser (Header, footer…)</t>
-  </si>
-  <si>
-    <t>Optimiser la vitesse du site : Budget de crawling &amp; expérience utilisateur</t>
-  </si>
-  <si>
-    <t>Redimensionner ces images à la taille de le conteneur</t>
-  </si>
-  <si>
-    <t>Privilégier le CSS à Javascript quand cela est possible : Googlebot et le JS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Le JS n'est pas toujours très bien compris par les robots google, et ralentit le crawl</t>
-  </si>
-  <si>
-    <t>S'assurer que le site est parfaitement responsive : Lecture optimale en toutes circonstances</t>
-  </si>
-  <si>
-    <t>Ne pas faire appel à des techniques de black-hat : Privilégier les pratiques vertueuses</t>
-  </si>
-  <si>
-    <t>La liste des liens concernant les annuaires n' est pas pertinente, voir suspicieuse…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utiliser l'expression clé de manière pertinente : Le mieux est parfois l'ennemi du bien </t>
-  </si>
-  <si>
-    <t>On doit maximiser l'apparation des mots clés souhaités, d'une part dans la structure du site (cf.infra) mais également dans son contenu. Néanmoins il faut toujours garder en tête que cela ne doit pas être fait au dépend de l'utilisateur</t>
-  </si>
-  <si>
-    <t>Optimiser les backlinks : De l'importance des réseaux sociaux en SEO et du partenariat</t>
-  </si>
-  <si>
-    <t>Créer une machine à contenu : Un site doit être vivant</t>
-  </si>
-  <si>
-    <t>Suivre l'évolution du/des mot clés : Rien n'est acquis</t>
-  </si>
-  <si>
-    <t>Source globale :</t>
-  </si>
-  <si>
-    <t>Bien débuter en SEO - le guide de Google</t>
-  </si>
-  <si>
-    <t>ACCESSIBILITE</t>
-  </si>
-  <si>
-    <t>BLOC 3 : Les couleurs de texte #F3976C ne semblent pas assez lisibles, notamment sur fond blanc</t>
-  </si>
-  <si>
-    <t>Le contraste des couleurs DOIT respecter le niveau AA de WCAG 2.0</t>
-  </si>
-  <si>
-    <t>Page Contact : Le texte du bloc 6 est de la même couleur que son fond.</t>
-  </si>
-  <si>
-    <t>L'information d'interaction des liens n'est véhiculée que par les couleurs</t>
-  </si>
-  <si>
-    <t>Tous les éléments de la page ne portent pas le focus de manière visible</t>
-  </si>
-  <si>
-    <t>Présence d'images composées uniquement de texte (cf. citation)</t>
-  </si>
-  <si>
-    <t>Les images avec du texte doivent être évitées.</t>
-  </si>
-  <si>
-    <t>Check List du MDN - Mozilla</t>
-  </si>
-  <si>
-    <t>Source Accesibilité :</t>
-  </si>
-  <si>
-    <t>L’information véhiculée par la couleur DOIT toujours être disponible via un autre moyen</t>
-  </si>
-  <si>
-    <t>Tous les éléments activables DOIVENT pouvoir porter le focus :</t>
-  </si>
-  <si>
-    <t>a) SEO</t>
-  </si>
-  <si>
-    <t>b)SEA</t>
-  </si>
-  <si>
-    <t>search engine Optimization</t>
-  </si>
-  <si>
-    <t>Ameliorer la visibilité de l'entreprise sur internet</t>
-  </si>
-  <si>
-    <t>c)SMO</t>
-  </si>
-  <si>
-    <t>Social Media Optimization</t>
-  </si>
-  <si>
-    <t>Par SMO, on entend l'optimisation d'un site ou d'une marque en s'appuyant sur les réseaux sociaux : Facebook, Instagram, LinkedIn, Twitter, etc.</t>
-  </si>
-  <si>
-    <t>le terme "SEO" se cache la notion de référencement naturel avec un objectif clair : améliorer le positionnement de son site Internet dans les résultats de Google</t>
-  </si>
-  <si>
-    <t>Hebergement en HTTPS pour sécuriser le site</t>
-  </si>
-  <si>
-    <t>Créez des pages optimisées pour présenter votre activité</t>
-  </si>
-  <si>
-    <t>Soignez le titre de votre page et l'URL dans le but de placer des mots clés.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Il est préférable que le titre de la page en lui-même ne dépasse par 60 caractères.</t>
-  </si>
-  <si>
-    <t>N'utilisez surtout pas une adresse de page du style "page-numero-1.html"</t>
-  </si>
-  <si>
-    <t>préférez une URL en adéquation avec le titre de la page, par exemple : "informatique-bien-choisir-son-pc.html"</t>
-  </si>
-  <si>
-    <t>La balise meta-description de la page : il s'agit d'une balise qui s'affiche dans le code HTML et qui sera utilisée pour décrire le contenu de la page. Là aussi, placez vos mots-clés par rapport au contenu de la page. Attention, cette description ne doit pas dépasser 160 caractères.</t>
-  </si>
-  <si>
-    <t>Quelques consignes additionnelles à respecter </t>
-  </si>
-  <si>
-    <t>ne pas copier-coller du texte d'un autre site </t>
-  </si>
-  <si>
-    <t>veillez à créer un site bien présenté et agréable</t>
-  </si>
-  <si>
-    <t>agréable à lire, créez des pages en rapport avec votre activité pour indexer un maximum de pages sur Google</t>
-  </si>
-  <si>
-    <t>vérifiez que votre site s'affiche correctement sur smartphones et tablettes (c'est un critère très important).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1/vous devez commencer par établir votre stratégie de web-marketing et définir vos objectifs : </t>
-  </si>
-  <si>
-    <t>communiquer vos coordonnées et vos horaires d'ouverture, ou encore être référencé dans les annuaires pour professionnels (aux côtés de vos concurrents).</t>
-  </si>
-  <si>
-    <t>garder le contact avec vos clients grâce aux réseaux sociaux (par exemple)</t>
-  </si>
-  <si>
-    <t>vendre en ligne directement</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> être référencé dans les annuaires pour professionnels (aux côtés de vos concurrents).</t>
-  </si>
-  <si>
-    <t>2/ Ameliorer le Referencement du site web</t>
-  </si>
-  <si>
-    <t>Google My Business</t>
-  </si>
-  <si>
-    <t>le SEA (Search Engine Advertising) ou référencement payant</t>
-  </si>
-  <si>
-    <t>Concrètement, le SEO consiste à positionner le site web d'une entreprise sur la première page de résultats des moteurs de recherche, notamment de Google.</t>
-  </si>
-  <si>
-    <t>search engine Advertising</t>
-  </si>
-  <si>
-    <t>Pour ce faire, il est nécessaire d'avoir recours à différents critères on-page (choix des mots-clés, architecture du site, structure des liens internes, vitesse de chargement des pages…) et des critères off-page (netlinking, popularité du site, benchmark concurrentiel…)</t>
-  </si>
-  <si>
-    <t>le recours aux Google Adwords, il consiste à engager une campagne publicitaire pour faire apparaître le site web de l'entreprise en fonction des mots-clés recherchés par les internautes.</t>
-  </si>
-  <si>
-    <t>Il est composé du préfixe (www.) suivi du nom que vous aurez choisi, ainsi que de l’extension de domaine en « .fr », « .com », « .cm », « .gov », « .org », ou même « .shop ». </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Optimiser son nom de domaine afin intégrer la localisation de votre société, ou encore son activité. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Si votre boutique se situe en France, préférez un nom de domaine en ".fr" plutôt qu'en ".com" </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> l’extension de domaine est tres important pour le bon referencement , en « .fr », « .com », « .cm », « .gov », « .org », ou même « .shop ». </t>
-  </si>
-  <si>
-    <t>les accents et les caractères spéciaux sont en effet à proscrire lors du choix d’un nom de domaine</t>
-  </si>
-  <si>
-    <t>optimiser vos contenus.</t>
-  </si>
-  <si>
-    <t>Avec Analytics ou la Search Console, Google prend en compte le trafic sur les sites pour établir leur positionnement. Il évalue la popularité de votre site par le nombre de visites et le taux de rebond. Il tiendra également compte du temps passé par les internautes sur le site.</t>
-  </si>
-  <si>
-    <t>3/Améliorer l'expérience client (UX)</t>
-  </si>
-  <si>
-    <t>Ces derniers devraient pouvoir visiter une page, quel que soit le support utilisé (smartphone, tablette, PC…). Plus les visiteurs auront plaisir à s'attarder et à revenir sur un site, mieux il sera positionné sur les moteurs de recherche.</t>
-  </si>
-  <si>
-    <t>La satisfaction des utilisateurs est donc l'un des grands enjeux </t>
-  </si>
-  <si>
-    <t>L'amélioration de l'UX design sera un facteur clé de développement pour un site</t>
-  </si>
-  <si>
-    <t>En plus d'un contenu de qualité, pensez à créer un netlinking de qualité. Cette stratégie consiste à multiplier les backlinks vers un site web. Il faudra par contre mettre en place une campagne de netlinking efficace. Si la quantité est importante, il ne faudra pas lésiner sur la qualité pour autant. Il est préférable que les backlinks soient issus d'une page dont le PR est supérieur à 3. Choisissez de préférence les pages ayant une certaine ancienneté et de bons contenus.</t>
-  </si>
-  <si>
-    <t>4/ Le netlinking</t>
-  </si>
-  <si>
-    <t>5/ La recherche vocale</t>
-  </si>
-  <si>
-    <t>la recherche vocale est la nouvelle tendance SEO. Il est primordial d'adapter son site à la recherche vocale</t>
-  </si>
-  <si>
-    <t>6/ Verifier et analyser son positionnement sur google</t>
-  </si>
-  <si>
-    <t>https://jscompress.com</t>
-  </si>
-  <si>
-    <t>https://www.minifier.org</t>
-  </si>
-  <si>
-    <t>l’outil Google Page Speed pour tester la vitesse de chargement de votre site</t>
-  </si>
-  <si>
-    <t>https://pagespeed.web.dev/?utm_source=psi&amp;utm_medium=redirect&amp;hl=fr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minifier des fichiers html css js </t>
-  </si>
-  <si>
-    <t>Compresser les images</t>
-  </si>
-  <si>
-    <t>https://fr.imgtools.co/compress-image</t>
+    <t>https://webservicesfrance.github.io/P4_shehzad_qaiser/</t>
+  </si>
+  <si>
+    <t>Le site n’apparaît qu’en deuxième page des moteurs de recherche</t>
+  </si>
+  <si>
+    <t>Action à mener:</t>
+  </si>
+  <si>
+    <t>Analyse de l’état actuel de SEO du site</t>
+  </si>
+  <si>
+    <t>Amélioration du SEO du site.</t>
+  </si>
+  <si>
+    <t>Comparaison des résultats avec une presentation</t>
+  </si>
+  <si>
+    <t>Améliorer l'accessibilité sur du site</t>
+  </si>
+  <si>
+    <t>La couleur</t>
+  </si>
+  <si>
+    <t>La visibilité</t>
+  </si>
+  <si>
+    <t>Les techniques de masquage du contenu, telles que l'opacité nulle, l'ordre d'indexation en « z » et le placement hors écran, NE DOIVENT PAS être utilisées exclusivement pour gérer la visibilité.</t>
+  </si>
+  <si>
+    <t>Un contraste dont le ratio est de 4.5:1 pour les textes normaux</t>
+  </si>
+  <si>
+    <t>Verifier le contraste et la taille de la police</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1328,6 +1369,12 @@
       <sz val="12"/>
       <color rgb="FF00B0F0"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Verdana"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1627,7 +1674,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="182">
+  <cellXfs count="184">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
@@ -1900,6 +1947,51 @@
     <xf numFmtId="0" fontId="26" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="26" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1918,47 +2010,53 @@
     <xf numFmtId="0" fontId="2" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1978,54 +2076,7 @@
     <xf numFmtId="0" fontId="21" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -2438,9 +2489,9 @@
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:L208"/>
+  <dimension ref="A1:L221"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C197" workbookViewId="0">
       <selection activeCell="H214" sqref="H214"/>
     </sheetView>
   </sheetViews>
@@ -2462,7 +2513,7 @@
       <c r="D1" s="39"/>
       <c r="E1" s="37"/>
       <c r="F1" s="40" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G1" s="38"/>
       <c r="H1" s="38"/>
@@ -2483,432 +2534,393 @@
       <c r="K2" s="44"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="42"/>
+      <c r="B3" s="49" t="s">
+        <v>357</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>358</v>
+      </c>
       <c r="K3" s="45"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>361</v>
+      </c>
       <c r="K4" s="45"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="50"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="2"/>
       <c r="K5" s="45"/>
     </row>
-    <row r="6" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>143</v>
+        <v>359</v>
+      </c>
+      <c r="C6" s="183" t="s">
+        <v>362</v>
       </c>
       <c r="K6" s="45"/>
     </row>
-    <row r="7" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="50"/>
       <c r="K7" s="45"/>
     </row>
     <row r="8" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="49" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>144</v>
+        <v>360</v>
       </c>
       <c r="K8" s="45"/>
     </row>
     <row r="9" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="50"/>
-      <c r="C9" s="1" t="s">
-        <v>147</v>
-      </c>
+      <c r="B9" s="49"/>
       <c r="K9" s="45"/>
     </row>
     <row r="10" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="50"/>
+      <c r="B10" s="49" t="s">
+        <v>363</v>
+      </c>
       <c r="C10" s="1" t="s">
-        <v>148</v>
+        <v>364</v>
       </c>
       <c r="K10" s="45"/>
     </row>
     <row r="11" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="50"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="1" t="s">
+        <v>365</v>
+      </c>
       <c r="K11" s="45"/>
     </row>
     <row r="12" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="49" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="79" t="s">
-        <v>262</v>
-      </c>
-      <c r="D12" s="80"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="80"/>
-      <c r="G12" s="80" t="s">
-        <v>162</v>
-      </c>
-      <c r="H12" s="80"/>
-      <c r="I12" s="80"/>
-      <c r="J12" s="80" t="s">
-        <v>163</v>
-      </c>
-      <c r="K12" s="81"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="K12" s="45"/>
     </row>
     <row r="13" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="49"/>
-      <c r="C13" s="79" t="s">
+      <c r="C13" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="K13" s="45"/>
+    </row>
+    <row r="14" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="50"/>
+      <c r="K14" s="45"/>
+    </row>
+    <row r="15" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="K15" s="45"/>
+    </row>
+    <row r="16" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="50"/>
+      <c r="C16" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K16" s="45"/>
+    </row>
+    <row r="17" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="50"/>
+      <c r="C17" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K17" s="45"/>
+    </row>
+    <row r="18" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="50"/>
+      <c r="K18" s="45"/>
+    </row>
+    <row r="19" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="79" t="s">
+        <v>260</v>
+      </c>
+      <c r="D19" s="80"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="80" t="s">
+        <v>161</v>
+      </c>
+      <c r="H19" s="80"/>
+      <c r="I19" s="80"/>
+      <c r="J19" s="80" t="s">
+        <v>162</v>
+      </c>
+      <c r="K19" s="81"/>
+    </row>
+    <row r="20" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="49"/>
+      <c r="C20" s="79" t="s">
+        <v>233</v>
+      </c>
+      <c r="D20" s="80"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="80" t="s">
         <v>234</v>
       </c>
-      <c r="D13" s="80"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="80" t="s">
-        <v>235</v>
-      </c>
-      <c r="H13" s="80"/>
-      <c r="I13" s="80"/>
-      <c r="J13" s="80"/>
-      <c r="K13" s="81"/>
-    </row>
-    <row r="14" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="48"/>
-      <c r="C14" s="79" t="s">
-        <v>154</v>
-      </c>
-      <c r="D14" s="80"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="80"/>
-      <c r="G14" s="80" t="s">
-        <v>190</v>
-      </c>
-      <c r="H14" s="80"/>
-      <c r="I14" s="80"/>
-      <c r="J14" s="80"/>
-      <c r="K14" s="81"/>
-    </row>
-    <row r="15" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="42"/>
-      <c r="C15" s="82" t="s">
+      <c r="H20" s="80"/>
+      <c r="I20" s="80"/>
+      <c r="J20" s="80"/>
+      <c r="K20" s="81"/>
+    </row>
+    <row r="21" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="48"/>
+      <c r="C21" s="79" t="s">
+        <v>153</v>
+      </c>
+      <c r="D21" s="80"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="80" t="s">
+        <v>189</v>
+      </c>
+      <c r="H21" s="80"/>
+      <c r="I21" s="80"/>
+      <c r="J21" s="80"/>
+      <c r="K21" s="81"/>
+    </row>
+    <row r="22" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="42"/>
+      <c r="C22" s="82" t="s">
+        <v>261</v>
+      </c>
+      <c r="D22" s="80"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="80" t="s">
+        <v>262</v>
+      </c>
+      <c r="H22" s="80"/>
+      <c r="I22" s="80"/>
+      <c r="J22" s="80"/>
+      <c r="K22" s="81"/>
+    </row>
+    <row r="23" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="42"/>
+      <c r="C23" s="47"/>
+      <c r="K23" s="45"/>
+    </row>
+    <row r="24" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="49" t="s">
         <v>263</v>
       </c>
-      <c r="D15" s="80"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="80"/>
-      <c r="G15" s="80" t="s">
-        <v>264</v>
-      </c>
-      <c r="H15" s="80"/>
-      <c r="I15" s="80"/>
-      <c r="J15" s="80"/>
-      <c r="K15" s="81"/>
-    </row>
-    <row r="16" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="42"/>
-      <c r="C16" s="47"/>
-      <c r="K16" s="45"/>
-    </row>
-    <row r="17" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="49" t="s">
-        <v>265</v>
-      </c>
-      <c r="C17" s="47" t="s">
-        <v>153</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="K17" s="45"/>
-    </row>
-    <row r="18" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="42"/>
-      <c r="C18" s="47" t="s">
-        <v>155</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="K18" s="45"/>
-    </row>
-    <row r="19" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="42"/>
-      <c r="C19" s="47" t="s">
-        <v>193</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="K19" s="45"/>
-    </row>
-    <row r="20" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="42"/>
-      <c r="C20" s="47" t="s">
-        <v>195</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="K20" s="45"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B21" s="42"/>
-      <c r="C21" s="47" t="s">
-        <v>164</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="K21" s="45"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B22" s="42"/>
-      <c r="C22" s="47" t="s">
-        <v>157</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="K22" s="45"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B23" s="42"/>
-      <c r="C23" s="47" t="s">
-        <v>187</v>
-      </c>
-      <c r="G23" s="1" t="s">
+      <c r="C24" s="47" t="s">
+        <v>152</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="K23" s="45"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B24" s="42"/>
-      <c r="C24" s="47" t="s">
-        <v>186</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>185</v>
-      </c>
       <c r="K24" s="45"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="42"/>
       <c r="C25" s="47" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="K25" s="45"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="42"/>
-      <c r="C26" s="47"/>
+      <c r="C26" s="47" t="s">
+        <v>192</v>
+      </c>
       <c r="G26" s="1" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="K26" s="45"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="42"/>
       <c r="C27" s="47" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="K27" s="45"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B28" s="42"/>
       <c r="C28" s="47" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="K28" s="45"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B29" s="42"/>
       <c r="C29" s="47" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="K29" s="45"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B30" s="42"/>
-      <c r="C30" s="47"/>
+      <c r="C30" s="47" t="s">
+        <v>186</v>
+      </c>
       <c r="G30" s="1" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="K30" s="45"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B31" s="42"/>
+      <c r="C31" s="47" t="s">
+        <v>185</v>
+      </c>
       <c r="G31" s="1" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="K31" s="45"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B32" s="42"/>
       <c r="C32" s="47" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="K32" s="45"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B33" s="42"/>
-      <c r="C33" s="47" t="s">
-        <v>178</v>
-      </c>
+      <c r="C33" s="47"/>
       <c r="G33" s="1" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="K33" s="45"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B34" s="42"/>
+      <c r="C34" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>165</v>
+      </c>
       <c r="K34" s="45"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B35" s="43"/>
-      <c r="K35" s="46"/>
-    </row>
-    <row r="36" spans="2:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="B36" s="146" t="s">
-        <v>180</v>
-      </c>
-      <c r="C36" s="147"/>
-      <c r="D36" s="147"/>
-      <c r="E36" s="147"/>
-      <c r="F36" s="147"/>
-      <c r="G36" s="147"/>
-      <c r="H36" s="147"/>
-      <c r="I36" s="147"/>
-      <c r="J36" s="147"/>
-      <c r="K36" s="147"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="47" t="s">
+        <v>167</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="K35" s="45"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B36" s="42"/>
+      <c r="C36" s="47" t="s">
+        <v>173</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="K36" s="45"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="42"/>
+      <c r="C37" s="47"/>
+      <c r="G37" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="K37" s="45"/>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B38" s="42"/>
+      <c r="G38" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="K38" s="45"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B39" s="42"/>
+      <c r="C39" s="47" t="s">
+        <v>176</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="K39" s="45"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B40" s="42"/>
+      <c r="C40" s="47" t="s">
+        <v>177</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="K40" s="45"/>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B41" s="42"/>
+      <c r="K41" s="45"/>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B42" s="43"/>
+      <c r="K42" s="46"/>
+    </row>
+    <row r="43" spans="2:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="B43" s="141" t="s">
+        <v>179</v>
+      </c>
+      <c r="C43" s="142"/>
+      <c r="D43" s="142"/>
+      <c r="E43" s="142"/>
+      <c r="F43" s="142"/>
+      <c r="G43" s="142"/>
+      <c r="H43" s="142"/>
+      <c r="I43" s="142"/>
+      <c r="J43" s="142"/>
+      <c r="K43" s="142"/>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B44" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B38" s="3"/>
-      <c r="C38" s="7" t="s">
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B45" s="3"/>
+      <c r="C45" s="7" t="s">
         <v>5</v>
-      </c>
-      <c r="D38" s="8"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B39" s="4"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B40" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B41" s="3"/>
-      <c r="C41" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D41" s="8"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B42" s="4"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B43" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B44" s="3"/>
-      <c r="C44" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="D44" s="8"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B45" s="4"/>
-      <c r="C45" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="4"/>
@@ -2920,37 +2932,35 @@
       <c r="K45" s="4"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B46" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B47" s="3"/>
-      <c r="C47" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="8"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
+      <c r="B47" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B48" s="3"/>
       <c r="C48" s="7" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="4"/>
@@ -2962,10 +2972,8 @@
       <c r="K48" s="4"/>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B49" s="3"/>
-      <c r="C49" s="7" t="s">
-        <v>96</v>
-      </c>
+      <c r="B49" s="4"/>
+      <c r="C49" s="7"/>
       <c r="D49" s="8"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
@@ -2976,35 +2984,37 @@
       <c r="K49" s="4"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B50" s="3"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
-      <c r="K50" s="4"/>
+      <c r="B50" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B51" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="6"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B52" s="3"/>
+      <c r="B52" s="4"/>
       <c r="C52" s="7" t="s">
-        <v>12</v>
+        <v>145</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="4"/>
@@ -3016,128 +3026,130 @@
       <c r="K52" s="4"/>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B53" s="9"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="10"/>
-      <c r="K53" s="10"/>
-    </row>
-    <row r="55" spans="2:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="B55" s="148" t="s">
-        <v>181</v>
-      </c>
-      <c r="C55" s="149"/>
-      <c r="D55" s="149"/>
-      <c r="E55" s="149"/>
-      <c r="F55" s="149"/>
-      <c r="G55" s="149"/>
-      <c r="H55" s="149"/>
-      <c r="I55" s="149"/>
-      <c r="J55" s="149"/>
-      <c r="K55" s="149"/>
+      <c r="B53" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B54" s="3"/>
+      <c r="C54" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B55" s="3"/>
+      <c r="C55" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B56" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
-      <c r="H56" s="14"/>
-      <c r="I56" s="14"/>
-      <c r="J56" s="14"/>
-      <c r="K56" s="14"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B57" s="12"/>
-      <c r="C57" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D57" s="12"/>
-      <c r="E57" s="16"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="12"/>
-      <c r="I57" s="12"/>
-      <c r="J57" s="12"/>
-      <c r="K57" s="12"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B58" s="12"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="12"/>
-      <c r="I58" s="12"/>
-      <c r="J58" s="12"/>
-      <c r="K58" s="12"/>
+      <c r="B58" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="6"/>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B59" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="14"/>
-      <c r="H59" s="14"/>
-      <c r="I59" s="14"/>
-      <c r="J59" s="14"/>
-      <c r="K59" s="14"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="4"/>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B60" s="12"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="16"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="12"/>
-      <c r="H60" s="12"/>
-      <c r="I60" s="12"/>
-      <c r="J60" s="12"/>
-      <c r="K60" s="12"/>
-    </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B61" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c r="G61" s="14"/>
-      <c r="H61" s="14"/>
-      <c r="I61" s="14"/>
-      <c r="J61" s="14"/>
-      <c r="K61" s="14"/>
-    </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B62" s="12"/>
-      <c r="C62" s="15" t="s">
-        <v>250</v>
-      </c>
-      <c r="D62" s="12"/>
-      <c r="E62" s="16"/>
-      <c r="F62" s="12"/>
-      <c r="G62" s="12"/>
-      <c r="H62" s="12"/>
-      <c r="I62" s="12"/>
-      <c r="J62" s="12"/>
-      <c r="K62" s="12"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="10"/>
+    </row>
+    <row r="62" spans="2:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="B62" s="143" t="s">
+        <v>180</v>
+      </c>
+      <c r="C62" s="144"/>
+      <c r="D62" s="144"/>
+      <c r="E62" s="144"/>
+      <c r="F62" s="144"/>
+      <c r="G62" s="144"/>
+      <c r="H62" s="144"/>
+      <c r="I62" s="144"/>
+      <c r="J62" s="144"/>
+      <c r="K62" s="144"/>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B63" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C63" s="14"/>
       <c r="D63" s="14"/>
@@ -3152,7 +3164,7 @@
     <row r="64" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B64" s="12"/>
       <c r="C64" s="15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D64" s="12"/>
       <c r="E64" s="16"/>
@@ -3165,7 +3177,7 @@
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B65" s="12"/>
-      <c r="C65" s="15"/>
+      <c r="C65" s="12"/>
       <c r="D65" s="12"/>
       <c r="E65" s="16"/>
       <c r="F65" s="12"/>
@@ -3177,7 +3189,7 @@
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B66" s="13" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="C66" s="14"/>
       <c r="D66" s="14"/>
@@ -3203,7 +3215,7 @@
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B68" s="13" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="C68" s="14"/>
       <c r="D68" s="14"/>
@@ -3218,7 +3230,7 @@
     <row r="69" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B69" s="12"/>
       <c r="C69" s="15" t="s">
-        <v>99</v>
+        <v>249</v>
       </c>
       <c r="D69" s="12"/>
       <c r="E69" s="16"/>
@@ -3230,40 +3242,38 @@
       <c r="K69" s="12"/>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B70" s="12"/>
-      <c r="C70" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="D70" s="12"/>
-      <c r="E70" s="16"/>
-      <c r="F70" s="12"/>
-      <c r="G70" s="12"/>
-      <c r="H70" s="12"/>
-      <c r="I70" s="12"/>
-      <c r="J70" s="12"/>
-      <c r="K70" s="12"/>
+      <c r="B70" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="14"/>
+      <c r="H70" s="14"/>
+      <c r="I70" s="14"/>
+      <c r="J70" s="14"/>
+      <c r="K70" s="14"/>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B71" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C71" s="17"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c r="G71" s="14"/>
-      <c r="H71" s="14"/>
-      <c r="I71" s="14"/>
-      <c r="J71" s="14"/>
-      <c r="K71" s="14"/>
+      <c r="B71" s="12"/>
+      <c r="C71" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D71" s="12"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="12"/>
+      <c r="I71" s="12"/>
+      <c r="J71" s="12"/>
+      <c r="K71" s="12"/>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B72" s="12"/>
-      <c r="C72" s="15" t="s">
-        <v>151</v>
-      </c>
+      <c r="C72" s="15"/>
       <c r="D72" s="12"/>
-      <c r="E72" s="12"/>
+      <c r="E72" s="16"/>
       <c r="F72" s="12"/>
       <c r="G72" s="12"/>
       <c r="H72" s="12"/>
@@ -3272,24 +3282,22 @@
       <c r="K72" s="12"/>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B73" s="12"/>
-      <c r="C73" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="D73" s="12"/>
-      <c r="E73" s="12"/>
-      <c r="F73" s="12"/>
-      <c r="G73" s="12"/>
-      <c r="H73" s="12"/>
-      <c r="I73" s="12"/>
-      <c r="J73" s="12"/>
-      <c r="K73" s="12"/>
+      <c r="B73" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c r="G73" s="14"/>
+      <c r="H73" s="14"/>
+      <c r="I73" s="14"/>
+      <c r="J73" s="14"/>
+      <c r="K73" s="14"/>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B74" s="12"/>
-      <c r="C74" s="15" t="s">
-        <v>149</v>
-      </c>
+      <c r="C74" s="12"/>
       <c r="D74" s="12"/>
       <c r="E74" s="16"/>
       <c r="F74" s="12"/>
@@ -3301,7 +3309,7 @@
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B75" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C75" s="14"/>
       <c r="D75" s="14"/>
@@ -3316,7 +3324,7 @@
     <row r="76" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B76" s="12"/>
       <c r="C76" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D76" s="12"/>
       <c r="E76" s="16"/>
@@ -3330,7 +3338,7 @@
     <row r="77" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B77" s="12"/>
       <c r="C77" s="15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D77" s="12"/>
       <c r="E77" s="16"/>
@@ -3342,24 +3350,26 @@
       <c r="K77" s="12"/>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B78" s="12"/>
-      <c r="C78" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="D78" s="12"/>
-      <c r="E78" s="16"/>
-      <c r="F78" s="12"/>
-      <c r="G78" s="12"/>
-      <c r="H78" s="12"/>
-      <c r="I78" s="12"/>
-      <c r="J78" s="12"/>
-      <c r="K78" s="12"/>
+      <c r="B78" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C78" s="17"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c r="G78" s="14"/>
+      <c r="H78" s="14"/>
+      <c r="I78" s="14"/>
+      <c r="J78" s="14"/>
+      <c r="K78" s="14"/>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B79" s="12"/>
-      <c r="C79" s="15"/>
+      <c r="C79" s="15" t="s">
+        <v>150</v>
+      </c>
       <c r="D79" s="12"/>
-      <c r="E79" s="16"/>
+      <c r="E79" s="12"/>
       <c r="F79" s="12"/>
       <c r="G79" s="12"/>
       <c r="H79" s="12"/>
@@ -3368,153 +3378,159 @@
       <c r="K79" s="12"/>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B80" s="18" t="s">
+      <c r="B80" s="12"/>
+      <c r="C80" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="D80" s="12"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="12"/>
+      <c r="H80" s="12"/>
+      <c r="I80" s="12"/>
+      <c r="J80" s="12"/>
+      <c r="K80" s="12"/>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B81" s="12"/>
+      <c r="C81" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="D81" s="12"/>
+      <c r="E81" s="16"/>
+      <c r="F81" s="12"/>
+      <c r="G81" s="12"/>
+      <c r="H81" s="12"/>
+      <c r="I81" s="12"/>
+      <c r="J81" s="12"/>
+      <c r="K81" s="12"/>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B82" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="14"/>
+      <c r="G82" s="14"/>
+      <c r="H82" s="14"/>
+      <c r="I82" s="14"/>
+      <c r="J82" s="14"/>
+      <c r="K82" s="14"/>
+    </row>
+    <row r="83" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B83" s="12"/>
+      <c r="C83" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D83" s="12"/>
+      <c r="E83" s="16"/>
+      <c r="F83" s="12"/>
+      <c r="G83" s="12"/>
+      <c r="H83" s="12"/>
+      <c r="I83" s="12"/>
+      <c r="J83" s="12"/>
+      <c r="K83" s="12"/>
+    </row>
+    <row r="84" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B84" s="12"/>
+      <c r="C84" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D84" s="12"/>
+      <c r="E84" s="16"/>
+      <c r="F84" s="12"/>
+      <c r="G84" s="12"/>
+      <c r="H84" s="12"/>
+      <c r="I84" s="12"/>
+      <c r="J84" s="12"/>
+      <c r="K84" s="12"/>
+    </row>
+    <row r="85" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B85" s="12"/>
+      <c r="C85" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D85" s="12"/>
+      <c r="E85" s="16"/>
+      <c r="F85" s="12"/>
+      <c r="G85" s="12"/>
+      <c r="H85" s="12"/>
+      <c r="I85" s="12"/>
+      <c r="J85" s="12"/>
+      <c r="K85" s="12"/>
+    </row>
+    <row r="86" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B86" s="12"/>
+      <c r="C86" s="15"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="16"/>
+      <c r="F86" s="12"/>
+      <c r="G86" s="12"/>
+      <c r="H86" s="12"/>
+      <c r="I86" s="12"/>
+      <c r="J86" s="12"/>
+      <c r="K86" s="12"/>
+    </row>
+    <row r="87" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B87" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
-      <c r="G80" s="14"/>
-      <c r="H80" s="14"/>
-      <c r="I80" s="14"/>
-      <c r="J80" s="14"/>
-      <c r="K80" s="14"/>
-    </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B81" s="19"/>
-      <c r="C81" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="D81" s="11"/>
-      <c r="E81" s="11"/>
-      <c r="F81" s="11"/>
-      <c r="G81" s="11"/>
-      <c r="H81" s="11"/>
-      <c r="I81" s="11"/>
-      <c r="J81" s="11"/>
-      <c r="K81" s="11"/>
-    </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B82" s="21"/>
-      <c r="C82" s="15"/>
-      <c r="D82" s="12"/>
-      <c r="E82" s="12"/>
-      <c r="F82" s="12"/>
-      <c r="G82" s="12"/>
-      <c r="H82" s="12"/>
-      <c r="I82" s="12"/>
-      <c r="J82" s="12"/>
-      <c r="K82" s="12"/>
-    </row>
-    <row r="83" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B83" s="22" t="s">
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="14"/>
+      <c r="G87" s="14"/>
+      <c r="H87" s="14"/>
+      <c r="I87" s="14"/>
+      <c r="J87" s="14"/>
+      <c r="K87" s="14"/>
+    </row>
+    <row r="88" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B88" s="19"/>
+      <c r="C88" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="D88" s="11"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="11"/>
+      <c r="G88" s="11"/>
+      <c r="H88" s="11"/>
+      <c r="I88" s="11"/>
+      <c r="J88" s="11"/>
+      <c r="K88" s="11"/>
+    </row>
+    <row r="89" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B89" s="21"/>
+      <c r="C89" s="15"/>
+      <c r="D89" s="12"/>
+      <c r="E89" s="12"/>
+      <c r="F89" s="12"/>
+      <c r="G89" s="12"/>
+      <c r="H89" s="12"/>
+      <c r="I89" s="12"/>
+      <c r="J89" s="12"/>
+      <c r="K89" s="12"/>
+    </row>
+    <row r="90" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B90" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C83" s="23"/>
-      <c r="D83" s="24"/>
-      <c r="E83" s="24"/>
-      <c r="F83" s="24"/>
-      <c r="G83" s="24"/>
-      <c r="H83" s="24"/>
-      <c r="I83" s="24"/>
-      <c r="J83" s="24"/>
-      <c r="K83" s="24"/>
-    </row>
-    <row r="84" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B84" s="76" t="s">
-        <v>254</v>
-      </c>
-      <c r="C84" s="77"/>
-      <c r="D84" s="78"/>
-      <c r="E84" s="78"/>
-      <c r="F84" s="78"/>
-      <c r="G84" s="78"/>
-      <c r="H84" s="78"/>
-      <c r="I84" s="78"/>
-      <c r="J84" s="78"/>
-      <c r="K84" s="78"/>
-    </row>
-    <row r="85" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B85" s="76"/>
-      <c r="C85" s="77"/>
-      <c r="D85" s="78"/>
-      <c r="E85" s="78"/>
-      <c r="F85" s="78"/>
-      <c r="G85" s="78"/>
-      <c r="H85" s="78"/>
-      <c r="I85" s="78"/>
-      <c r="J85" s="78"/>
-      <c r="K85" s="78"/>
-    </row>
-    <row r="86" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B86" s="25" t="s">
-        <v>251</v>
-      </c>
-      <c r="C86" s="26"/>
-      <c r="D86" s="78"/>
-      <c r="E86" s="78"/>
-      <c r="F86" s="78"/>
-      <c r="G86" s="78"/>
-      <c r="H86" s="78"/>
-      <c r="I86" s="78"/>
-      <c r="J86" s="78"/>
-      <c r="K86" s="78"/>
-    </row>
-    <row r="87" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B87" s="25" t="s">
-        <v>252</v>
-      </c>
-      <c r="C87" s="26"/>
-      <c r="D87" s="78"/>
-      <c r="E87" s="78"/>
-      <c r="F87" s="78"/>
-      <c r="G87" s="78"/>
-      <c r="H87" s="78"/>
-      <c r="I87" s="78"/>
-      <c r="J87" s="78"/>
-      <c r="K87" s="78"/>
-    </row>
-    <row r="88" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B88" s="25" t="s">
+      <c r="C90" s="23"/>
+      <c r="D90" s="24"/>
+      <c r="E90" s="24"/>
+      <c r="F90" s="24"/>
+      <c r="G90" s="24"/>
+      <c r="H90" s="24"/>
+      <c r="I90" s="24"/>
+      <c r="J90" s="24"/>
+      <c r="K90" s="24"/>
+    </row>
+    <row r="91" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B91" s="76" t="s">
         <v>253</v>
       </c>
-      <c r="C88" s="26"/>
-      <c r="D88" s="78"/>
-      <c r="E88" s="78"/>
-      <c r="F88" s="78"/>
-      <c r="G88" s="78"/>
-      <c r="H88" s="78"/>
-      <c r="I88" s="78"/>
-      <c r="J88" s="78"/>
-      <c r="K88" s="78"/>
-    </row>
-    <row r="89" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B89" s="76"/>
-      <c r="C89" s="77"/>
-      <c r="D89" s="78"/>
-      <c r="E89" s="78"/>
-      <c r="F89" s="78"/>
-      <c r="G89" s="78"/>
-      <c r="H89" s="78"/>
-      <c r="I89" s="78"/>
-      <c r="J89" s="78"/>
-      <c r="K89" s="78"/>
-    </row>
-    <row r="90" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B90" s="76"/>
-      <c r="C90" s="77"/>
-      <c r="D90" s="78"/>
-      <c r="E90" s="78"/>
-      <c r="F90" s="78"/>
-      <c r="G90" s="78"/>
-      <c r="H90" s="78"/>
-      <c r="I90" s="78"/>
-      <c r="J90" s="78"/>
-      <c r="K90" s="78"/>
-    </row>
-    <row r="91" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B91" s="76"/>
       <c r="C91" s="77"/>
       <c r="D91" s="78"/>
       <c r="E91" s="78"/>
@@ -3538,8 +3554,10 @@
       <c r="K92" s="78"/>
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B93" s="76"/>
-      <c r="C93" s="77"/>
+      <c r="B93" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="C93" s="26"/>
       <c r="D93" s="78"/>
       <c r="E93" s="78"/>
       <c r="F93" s="78"/>
@@ -3550,8 +3568,10 @@
       <c r="K93" s="78"/>
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B94" s="76"/>
-      <c r="C94" s="77"/>
+      <c r="B94" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="C94" s="26"/>
       <c r="D94" s="78"/>
       <c r="E94" s="78"/>
       <c r="F94" s="78"/>
@@ -3562,8 +3582,10 @@
       <c r="K94" s="78"/>
     </row>
     <row r="95" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B95" s="76"/>
-      <c r="C95" s="77"/>
+      <c r="B95" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="C95" s="26"/>
       <c r="D95" s="78"/>
       <c r="E95" s="78"/>
       <c r="F95" s="78"/>
@@ -3658,383 +3680,400 @@
       <c r="K102" s="78"/>
     </row>
     <row r="103" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B103" s="25"/>
-      <c r="C103" s="26"/>
-      <c r="D103" s="27"/>
-      <c r="E103" s="27"/>
-      <c r="F103" s="27"/>
-      <c r="G103" s="27"/>
-      <c r="H103" s="27"/>
-      <c r="I103" s="27"/>
-      <c r="J103" s="27"/>
-      <c r="K103" s="27"/>
-    </row>
-    <row r="105" spans="2:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="B105" s="150" t="s">
-        <v>182</v>
-      </c>
-      <c r="C105" s="151"/>
-      <c r="D105" s="151"/>
-      <c r="E105" s="151"/>
-      <c r="F105" s="151"/>
-      <c r="G105" s="151"/>
-      <c r="H105" s="151"/>
-      <c r="I105" s="151"/>
-      <c r="J105" s="151"/>
-      <c r="K105" s="31"/>
+      <c r="B103" s="76"/>
+      <c r="C103" s="77"/>
+      <c r="D103" s="78"/>
+      <c r="E103" s="78"/>
+      <c r="F103" s="78"/>
+      <c r="G103" s="78"/>
+      <c r="H103" s="78"/>
+      <c r="I103" s="78"/>
+      <c r="J103" s="78"/>
+      <c r="K103" s="78"/>
+    </row>
+    <row r="104" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B104" s="76"/>
+      <c r="C104" s="77"/>
+      <c r="D104" s="78"/>
+      <c r="E104" s="78"/>
+      <c r="F104" s="78"/>
+      <c r="G104" s="78"/>
+      <c r="H104" s="78"/>
+      <c r="I104" s="78"/>
+      <c r="J104" s="78"/>
+      <c r="K104" s="78"/>
+    </row>
+    <row r="105" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B105" s="76"/>
+      <c r="C105" s="77"/>
+      <c r="D105" s="78"/>
+      <c r="E105" s="78"/>
+      <c r="F105" s="78"/>
+      <c r="G105" s="78"/>
+      <c r="H105" s="78"/>
+      <c r="I105" s="78"/>
+      <c r="J105" s="78"/>
+      <c r="K105" s="78"/>
     </row>
     <row r="106" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B106" s="154" t="s">
+      <c r="B106" s="76"/>
+      <c r="C106" s="77"/>
+      <c r="D106" s="78"/>
+      <c r="E106" s="78"/>
+      <c r="F106" s="78"/>
+      <c r="G106" s="78"/>
+      <c r="H106" s="78"/>
+      <c r="I106" s="78"/>
+      <c r="J106" s="78"/>
+      <c r="K106" s="78"/>
+    </row>
+    <row r="107" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B107" s="76"/>
+      <c r="C107" s="77"/>
+      <c r="D107" s="78"/>
+      <c r="E107" s="78"/>
+      <c r="F107" s="78"/>
+      <c r="G107" s="78"/>
+      <c r="H107" s="78"/>
+      <c r="I107" s="78"/>
+      <c r="J107" s="78"/>
+      <c r="K107" s="78"/>
+    </row>
+    <row r="108" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B108" s="76"/>
+      <c r="C108" s="77"/>
+      <c r="D108" s="78"/>
+      <c r="E108" s="78"/>
+      <c r="F108" s="78"/>
+      <c r="G108" s="78"/>
+      <c r="H108" s="78"/>
+      <c r="I108" s="78"/>
+      <c r="J108" s="78"/>
+      <c r="K108" s="78"/>
+    </row>
+    <row r="109" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B109" s="76"/>
+      <c r="C109" s="77"/>
+      <c r="D109" s="78"/>
+      <c r="E109" s="78"/>
+      <c r="F109" s="78"/>
+      <c r="G109" s="78"/>
+      <c r="H109" s="78"/>
+      <c r="I109" s="78"/>
+      <c r="J109" s="78"/>
+      <c r="K109" s="78"/>
+    </row>
+    <row r="110" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B110" s="25"/>
+      <c r="C110" s="26"/>
+      <c r="D110" s="27"/>
+      <c r="E110" s="27"/>
+      <c r="F110" s="27"/>
+      <c r="G110" s="27"/>
+      <c r="H110" s="27"/>
+      <c r="I110" s="27"/>
+      <c r="J110" s="27"/>
+      <c r="K110" s="27"/>
+    </row>
+    <row r="112" spans="2:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="B112" s="145" t="s">
+        <v>181</v>
+      </c>
+      <c r="C112" s="146"/>
+      <c r="D112" s="146"/>
+      <c r="E112" s="146"/>
+      <c r="F112" s="146"/>
+      <c r="G112" s="146"/>
+      <c r="H112" s="146"/>
+      <c r="I112" s="146"/>
+      <c r="J112" s="146"/>
+      <c r="K112" s="31"/>
+    </row>
+    <row r="113" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B113" s="149" t="s">
         <v>142</v>
       </c>
-      <c r="C106" s="155"/>
-      <c r="D106" s="155"/>
-      <c r="E106" s="155"/>
-      <c r="F106" s="155"/>
-      <c r="G106" s="155"/>
-      <c r="H106" s="155"/>
-      <c r="I106" s="155"/>
-      <c r="J106" s="155"/>
-      <c r="K106" s="155"/>
-    </row>
-    <row r="107" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B107" s="156"/>
-      <c r="C107" s="157"/>
-      <c r="D107" s="157"/>
-      <c r="E107" s="157"/>
-      <c r="F107" s="157"/>
-      <c r="G107" s="157"/>
-      <c r="H107" s="157"/>
-      <c r="I107" s="157"/>
-      <c r="J107" s="157"/>
-      <c r="K107" s="157"/>
-    </row>
-    <row r="108" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B108" s="156" t="s">
+      <c r="C113" s="150"/>
+      <c r="D113" s="150"/>
+      <c r="E113" s="150"/>
+      <c r="F113" s="150"/>
+      <c r="G113" s="150"/>
+      <c r="H113" s="150"/>
+      <c r="I113" s="150"/>
+      <c r="J113" s="150"/>
+      <c r="K113" s="150"/>
+    </row>
+    <row r="114" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B114" s="151"/>
+      <c r="C114" s="152"/>
+      <c r="D114" s="152"/>
+      <c r="E114" s="152"/>
+      <c r="F114" s="152"/>
+      <c r="G114" s="152"/>
+      <c r="H114" s="152"/>
+      <c r="I114" s="152"/>
+      <c r="J114" s="152"/>
+      <c r="K114" s="152"/>
+    </row>
+    <row r="115" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B115" s="151" t="s">
         <v>104</v>
       </c>
-      <c r="C108" s="157"/>
-      <c r="D108" s="157"/>
-      <c r="E108" s="157"/>
-      <c r="F108" s="157"/>
-      <c r="G108" s="157"/>
-      <c r="H108" s="157"/>
-      <c r="I108" s="157"/>
-      <c r="J108" s="157"/>
-      <c r="K108" s="157"/>
-    </row>
-    <row r="109" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B109" s="156" t="s">
+      <c r="C115" s="152"/>
+      <c r="D115" s="152"/>
+      <c r="E115" s="152"/>
+      <c r="F115" s="152"/>
+      <c r="G115" s="152"/>
+      <c r="H115" s="152"/>
+      <c r="I115" s="152"/>
+      <c r="J115" s="152"/>
+      <c r="K115" s="152"/>
+    </row>
+    <row r="116" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B116" s="151" t="s">
         <v>23</v>
       </c>
-      <c r="C109" s="157"/>
-      <c r="D109" s="157"/>
-      <c r="E109" s="157"/>
-      <c r="F109" s="157"/>
-      <c r="G109" s="157"/>
-      <c r="H109" s="157"/>
-      <c r="I109" s="157"/>
-      <c r="J109" s="157"/>
-      <c r="K109" s="157"/>
-    </row>
-    <row r="110" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B110" s="156"/>
-      <c r="C110" s="157"/>
-      <c r="D110" s="157"/>
-      <c r="E110" s="157"/>
-      <c r="F110" s="157"/>
-      <c r="G110" s="157"/>
-      <c r="H110" s="157"/>
-      <c r="I110" s="157"/>
-      <c r="J110" s="157"/>
-      <c r="K110" s="157"/>
-    </row>
-    <row r="111" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B111" s="156" t="s">
+      <c r="C116" s="152"/>
+      <c r="D116" s="152"/>
+      <c r="E116" s="152"/>
+      <c r="F116" s="152"/>
+      <c r="G116" s="152"/>
+      <c r="H116" s="152"/>
+      <c r="I116" s="152"/>
+      <c r="J116" s="152"/>
+      <c r="K116" s="152"/>
+    </row>
+    <row r="117" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B117" s="151"/>
+      <c r="C117" s="152"/>
+      <c r="D117" s="152"/>
+      <c r="E117" s="152"/>
+      <c r="F117" s="152"/>
+      <c r="G117" s="152"/>
+      <c r="H117" s="152"/>
+      <c r="I117" s="152"/>
+      <c r="J117" s="152"/>
+      <c r="K117" s="152"/>
+    </row>
+    <row r="118" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B118" s="151" t="s">
         <v>24</v>
       </c>
-      <c r="C111" s="157"/>
-      <c r="D111" s="157"/>
-      <c r="E111" s="157"/>
-      <c r="F111" s="157"/>
-      <c r="G111" s="157"/>
-      <c r="H111" s="157"/>
-      <c r="I111" s="157"/>
-      <c r="J111" s="157"/>
-      <c r="K111" s="157"/>
-    </row>
-    <row r="112" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B112" s="158" t="s">
+      <c r="C118" s="152"/>
+      <c r="D118" s="152"/>
+      <c r="E118" s="152"/>
+      <c r="F118" s="152"/>
+      <c r="G118" s="152"/>
+      <c r="H118" s="152"/>
+      <c r="I118" s="152"/>
+      <c r="J118" s="152"/>
+      <c r="K118" s="152"/>
+    </row>
+    <row r="119" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B119" s="153" t="s">
         <v>25</v>
       </c>
-      <c r="C112" s="159"/>
-      <c r="D112" s="159"/>
-      <c r="E112" s="159"/>
-      <c r="F112" s="159"/>
-      <c r="G112" s="159"/>
-      <c r="H112" s="159"/>
-      <c r="I112" s="159"/>
-      <c r="J112" s="159"/>
-      <c r="K112" s="159"/>
-    </row>
-    <row r="113" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B113" s="30" t="s">
+      <c r="C119" s="154"/>
+      <c r="D119" s="154"/>
+      <c r="E119" s="154"/>
+      <c r="F119" s="154"/>
+      <c r="G119" s="154"/>
+      <c r="H119" s="154"/>
+      <c r="I119" s="154"/>
+      <c r="J119" s="154"/>
+      <c r="K119" s="154"/>
+    </row>
+    <row r="120" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B120" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="C113" s="31"/>
-      <c r="D113" s="31"/>
-      <c r="E113" s="31"/>
-      <c r="F113" s="31"/>
-      <c r="G113" s="31"/>
-      <c r="H113" s="31"/>
-      <c r="I113" s="31"/>
-      <c r="J113" s="31"/>
-      <c r="K113" s="31"/>
-    </row>
-    <row r="114" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B114" s="28"/>
-      <c r="C114" s="29"/>
-      <c r="D114" s="29"/>
-      <c r="E114" s="29"/>
-      <c r="F114" s="29"/>
-      <c r="G114" s="29"/>
-      <c r="H114" s="29"/>
-      <c r="I114" s="29"/>
-      <c r="J114" s="29"/>
-      <c r="K114" s="29"/>
-    </row>
-    <row r="115" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B115" s="30" t="s">
+      <c r="C120" s="31"/>
+      <c r="D120" s="31"/>
+      <c r="E120" s="31"/>
+      <c r="F120" s="31"/>
+      <c r="G120" s="31"/>
+      <c r="H120" s="31"/>
+      <c r="I120" s="31"/>
+      <c r="J120" s="31"/>
+      <c r="K120" s="31"/>
+    </row>
+    <row r="121" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B121" s="28"/>
+      <c r="C121" s="29"/>
+      <c r="D121" s="29"/>
+      <c r="E121" s="29"/>
+      <c r="F121" s="29"/>
+      <c r="G121" s="29"/>
+      <c r="H121" s="29"/>
+      <c r="I121" s="29"/>
+      <c r="J121" s="29"/>
+      <c r="K121" s="29"/>
+    </row>
+    <row r="122" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B122" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="C115" s="31"/>
-      <c r="D115" s="31"/>
-      <c r="E115" s="31"/>
-      <c r="F115" s="31"/>
-      <c r="G115" s="31"/>
-      <c r="H115" s="31"/>
-      <c r="I115" s="31"/>
-      <c r="J115" s="31"/>
-      <c r="K115" s="31"/>
-    </row>
-    <row r="116" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B116" s="32"/>
-      <c r="C116" s="33"/>
-      <c r="D116" s="33"/>
-      <c r="E116" s="33"/>
-      <c r="F116" s="33"/>
-      <c r="G116" s="33"/>
-      <c r="H116" s="33"/>
-      <c r="I116" s="33"/>
-      <c r="J116" s="33"/>
-      <c r="K116" s="33"/>
-    </row>
-    <row r="117" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B117" s="32" t="s">
+      <c r="C122" s="31"/>
+      <c r="D122" s="31"/>
+      <c r="E122" s="31"/>
+      <c r="F122" s="31"/>
+      <c r="G122" s="31"/>
+      <c r="H122" s="31"/>
+      <c r="I122" s="31"/>
+      <c r="J122" s="31"/>
+      <c r="K122" s="31"/>
+    </row>
+    <row r="123" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B123" s="32"/>
+      <c r="C123" s="33"/>
+      <c r="D123" s="33"/>
+      <c r="E123" s="33"/>
+      <c r="F123" s="33"/>
+      <c r="G123" s="33"/>
+      <c r="H123" s="33"/>
+      <c r="I123" s="33"/>
+      <c r="J123" s="33"/>
+      <c r="K123" s="33"/>
+    </row>
+    <row r="124" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B124" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C117" s="33"/>
-      <c r="D117" s="33"/>
-      <c r="E117" s="33"/>
-      <c r="F117" s="33"/>
-      <c r="G117" s="33"/>
-      <c r="H117" s="33"/>
-      <c r="I117" s="33"/>
-      <c r="J117" s="33"/>
-      <c r="K117" s="33"/>
-    </row>
-    <row r="118" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B118" s="32"/>
-      <c r="C118" s="33"/>
-      <c r="D118" s="33"/>
-      <c r="E118" s="33"/>
-      <c r="F118" s="33"/>
-      <c r="G118" s="33"/>
-      <c r="H118" s="33"/>
-      <c r="I118" s="33"/>
-      <c r="J118" s="33"/>
-      <c r="K118" s="33"/>
-    </row>
-    <row r="120" spans="2:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="B120" s="152" t="s">
-        <v>184</v>
-      </c>
-      <c r="C120" s="153"/>
-      <c r="D120" s="153"/>
-      <c r="E120" s="153"/>
-      <c r="F120" s="153"/>
-      <c r="G120" s="153"/>
-      <c r="H120" s="153"/>
-      <c r="I120" s="153"/>
-      <c r="J120" s="153"/>
-      <c r="K120" s="153"/>
-    </row>
-    <row r="121" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B121" s="34" t="s">
+      <c r="C124" s="33"/>
+      <c r="D124" s="33"/>
+      <c r="E124" s="33"/>
+      <c r="F124" s="33"/>
+      <c r="G124" s="33"/>
+      <c r="H124" s="33"/>
+      <c r="I124" s="33"/>
+      <c r="J124" s="33"/>
+      <c r="K124" s="33"/>
+    </row>
+    <row r="125" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B125" s="32"/>
+      <c r="C125" s="33"/>
+      <c r="D125" s="33"/>
+      <c r="E125" s="33"/>
+      <c r="F125" s="33"/>
+      <c r="G125" s="33"/>
+      <c r="H125" s="33"/>
+      <c r="I125" s="33"/>
+      <c r="J125" s="33"/>
+      <c r="K125" s="33"/>
+    </row>
+    <row r="127" spans="2:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="B127" s="147" t="s">
+        <v>183</v>
+      </c>
+      <c r="C127" s="148"/>
+      <c r="D127" s="148"/>
+      <c r="E127" s="148"/>
+      <c r="F127" s="148"/>
+      <c r="G127" s="148"/>
+      <c r="H127" s="148"/>
+      <c r="I127" s="148"/>
+      <c r="J127" s="148"/>
+      <c r="K127" s="148"/>
+    </row>
+    <row r="128" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B128" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C121" s="35"/>
-      <c r="D121" s="35"/>
-      <c r="E121" s="35"/>
-      <c r="F121" s="35"/>
-      <c r="G121" s="35"/>
-      <c r="H121" s="35"/>
-      <c r="I121" s="35"/>
-      <c r="J121" s="35"/>
-      <c r="K121" s="35"/>
-    </row>
-    <row r="122" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B122" s="34" t="s">
+      <c r="C128" s="35"/>
+      <c r="D128" s="35"/>
+      <c r="E128" s="35"/>
+      <c r="F128" s="35"/>
+      <c r="G128" s="35"/>
+      <c r="H128" s="35"/>
+      <c r="I128" s="35"/>
+      <c r="J128" s="35"/>
+      <c r="K128" s="35"/>
+    </row>
+    <row r="129" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B129" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C122" s="35"/>
-      <c r="D122" s="35"/>
-      <c r="E122" s="35"/>
-      <c r="F122" s="35"/>
-      <c r="G122" s="35"/>
-      <c r="H122" s="35"/>
-      <c r="I122" s="35"/>
-      <c r="J122" s="35"/>
-      <c r="K122" s="35"/>
-    </row>
-    <row r="123" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B123" s="34" t="s">
+      <c r="C129" s="35"/>
+      <c r="D129" s="35"/>
+      <c r="E129" s="35"/>
+      <c r="F129" s="35"/>
+      <c r="G129" s="35"/>
+      <c r="H129" s="35"/>
+      <c r="I129" s="35"/>
+      <c r="J129" s="35"/>
+      <c r="K129" s="35"/>
+    </row>
+    <row r="130" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B130" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="C123" s="35"/>
-      <c r="D123" s="35"/>
-      <c r="E123" s="35"/>
-      <c r="F123" s="35"/>
-      <c r="G123" s="35"/>
-      <c r="H123" s="35"/>
-      <c r="I123" s="35"/>
-      <c r="J123" s="35"/>
-      <c r="K123" s="35"/>
-    </row>
-    <row r="124" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B124" s="34" t="s">
-        <v>161</v>
-      </c>
-      <c r="C124" s="35"/>
-      <c r="D124" s="35"/>
-      <c r="E124" s="35"/>
-      <c r="F124" s="35"/>
-      <c r="G124" s="35"/>
-      <c r="H124" s="35"/>
-      <c r="I124" s="35"/>
-      <c r="J124" s="35"/>
-      <c r="K124" s="35"/>
-    </row>
-    <row r="125" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B125" s="34" t="s">
+      <c r="C130" s="35"/>
+      <c r="D130" s="35"/>
+      <c r="E130" s="35"/>
+      <c r="F130" s="35"/>
+      <c r="G130" s="35"/>
+      <c r="H130" s="35"/>
+      <c r="I130" s="35"/>
+      <c r="J130" s="35"/>
+      <c r="K130" s="35"/>
+    </row>
+    <row r="131" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B131" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="C125" s="35"/>
-      <c r="D125" s="35"/>
-      <c r="E125" s="35"/>
-      <c r="F125" s="35"/>
-      <c r="G125" s="35"/>
-      <c r="H125" s="35"/>
-      <c r="I125" s="35"/>
-      <c r="J125" s="35"/>
-      <c r="K125" s="35"/>
-    </row>
-    <row r="126" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B126" s="34" t="s">
+      <c r="C131" s="35"/>
+      <c r="D131" s="35"/>
+      <c r="E131" s="35"/>
+      <c r="F131" s="35"/>
+      <c r="G131" s="35"/>
+      <c r="H131" s="35"/>
+      <c r="I131" s="35"/>
+      <c r="J131" s="35"/>
+      <c r="K131" s="35"/>
+    </row>
+    <row r="132" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B132" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="C126" s="35"/>
-      <c r="D126" s="35"/>
-      <c r="E126" s="35"/>
-      <c r="F126" s="35"/>
-      <c r="G126" s="35"/>
-      <c r="H126" s="35"/>
-      <c r="I126" s="35"/>
-      <c r="J126" s="35"/>
-      <c r="K126" s="35"/>
-    </row>
-    <row r="127" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B127" s="34"/>
-      <c r="C127" s="35"/>
-      <c r="D127" s="35"/>
-      <c r="E127" s="35"/>
-      <c r="F127" s="35"/>
-      <c r="G127" s="35"/>
-      <c r="H127" s="35"/>
-      <c r="I127" s="35"/>
-      <c r="J127" s="35"/>
-      <c r="K127" s="35"/>
-    </row>
-    <row r="129" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B129" s="62"/>
-      <c r="C129" s="62"/>
-      <c r="D129" s="62"/>
-      <c r="E129" s="62"/>
-      <c r="F129" s="62"/>
-      <c r="G129" s="62"/>
-      <c r="H129" s="62"/>
-      <c r="I129" s="62"/>
-      <c r="J129" s="62"/>
-      <c r="K129" s="62"/>
-    </row>
-    <row r="130" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B130" s="62"/>
-      <c r="C130" s="62"/>
-      <c r="D130" s="62"/>
-      <c r="E130" s="62"/>
-      <c r="F130" s="62"/>
-      <c r="G130" s="62"/>
-      <c r="H130" s="62"/>
-      <c r="I130" s="62"/>
-      <c r="J130" s="62"/>
-      <c r="K130" s="62"/>
-    </row>
-    <row r="131" spans="2:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="B131" s="143" t="s">
-        <v>224</v>
-      </c>
-      <c r="C131" s="144"/>
-      <c r="D131" s="144"/>
-      <c r="E131" s="144"/>
-      <c r="F131" s="144"/>
-      <c r="G131" s="144"/>
-      <c r="H131" s="144"/>
-      <c r="I131" s="144"/>
-      <c r="J131" s="144"/>
-      <c r="K131" s="144"/>
-    </row>
-    <row r="132" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B132" s="145"/>
-      <c r="C132" s="145"/>
-      <c r="D132" s="145"/>
-      <c r="E132" s="145"/>
-      <c r="F132" s="145"/>
-      <c r="G132" s="145"/>
-      <c r="H132" s="145"/>
-      <c r="I132" s="145"/>
-      <c r="J132" s="145"/>
-      <c r="K132" s="145"/>
+      <c r="C132" s="35"/>
+      <c r="D132" s="35"/>
+      <c r="E132" s="35"/>
+      <c r="F132" s="35"/>
+      <c r="G132" s="35"/>
+      <c r="H132" s="35"/>
+      <c r="I132" s="35"/>
+      <c r="J132" s="35"/>
+      <c r="K132" s="35"/>
     </row>
     <row r="133" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B133" s="62"/>
-      <c r="C133" s="63" t="s">
-        <v>196</v>
-      </c>
+      <c r="B133" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="C133" s="35"/>
+      <c r="D133" s="35"/>
+      <c r="E133" s="35"/>
+      <c r="F133" s="35"/>
+      <c r="G133" s="35"/>
+      <c r="H133" s="35"/>
+      <c r="I133" s="35"/>
+      <c r="J133" s="35"/>
+      <c r="K133" s="35"/>
     </row>
     <row r="134" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B134" s="62"/>
-      <c r="C134" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="135" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B135" s="62"/>
+      <c r="B134" s="34"/>
+      <c r="C134" s="35"/>
+      <c r="D134" s="35"/>
+      <c r="E134" s="35"/>
+      <c r="F134" s="35"/>
+      <c r="G134" s="35"/>
+      <c r="H134" s="35"/>
+      <c r="I134" s="35"/>
+      <c r="J134" s="35"/>
+      <c r="K134" s="35"/>
     </row>
     <row r="136" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B136" s="62"/>
-      <c r="C136" s="62" t="s">
-        <v>226</v>
-      </c>
+      <c r="C136" s="62"/>
       <c r="D136" s="62"/>
       <c r="E136" s="62"/>
       <c r="F136" s="62"/>
@@ -4046,9 +4085,7 @@
     </row>
     <row r="137" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B137" s="62"/>
-      <c r="C137" s="62" t="s">
-        <v>225</v>
-      </c>
+      <c r="C137" s="62"/>
       <c r="D137" s="62"/>
       <c r="E137" s="62"/>
       <c r="F137" s="62"/>
@@ -4058,522 +4095,614 @@
       <c r="J137" s="62"/>
       <c r="K137" s="62"/>
     </row>
-    <row r="138" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B138" s="62"/>
+    <row r="138" spans="2:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="B138" s="158" t="s">
+        <v>223</v>
+      </c>
+      <c r="C138" s="159"/>
+      <c r="D138" s="159"/>
+      <c r="E138" s="159"/>
+      <c r="F138" s="159"/>
+      <c r="G138" s="159"/>
+      <c r="H138" s="159"/>
+      <c r="I138" s="159"/>
+      <c r="J138" s="159"/>
+      <c r="K138" s="159"/>
     </row>
     <row r="139" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B139" s="62"/>
-      <c r="C139" s="1" t="s">
-        <v>198</v>
-      </c>
+      <c r="B139" s="160"/>
+      <c r="C139" s="160"/>
+      <c r="D139" s="160"/>
+      <c r="E139" s="160"/>
+      <c r="F139" s="160"/>
+      <c r="G139" s="160"/>
+      <c r="H139" s="160"/>
+      <c r="I139" s="160"/>
+      <c r="J139" s="160"/>
+      <c r="K139" s="160"/>
     </row>
     <row r="140" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B140" s="62"/>
+      <c r="C140" s="63" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="141" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B141" s="62"/>
-      <c r="C141" s="62" t="s">
-        <v>199</v>
-      </c>
-      <c r="D141" s="62"/>
-      <c r="E141" s="62"/>
-      <c r="F141" s="62"/>
-      <c r="G141" s="62"/>
-      <c r="H141" s="62"/>
-      <c r="I141" s="62"/>
-      <c r="J141" s="62"/>
-      <c r="K141" s="62"/>
+      <c r="C141" s="1" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="142" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B142" s="62"/>
     </row>
     <row r="143" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B143" s="62"/>
-      <c r="C143" s="1" t="s">
-        <v>200</v>
-      </c>
+      <c r="C143" s="62" t="s">
+        <v>225</v>
+      </c>
+      <c r="D143" s="62"/>
+      <c r="E143" s="62"/>
+      <c r="F143" s="62"/>
+      <c r="G143" s="62"/>
+      <c r="H143" s="62"/>
+      <c r="I143" s="62"/>
+      <c r="J143" s="62"/>
+      <c r="K143" s="62"/>
     </row>
     <row r="144" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B144" s="62"/>
-      <c r="C144" s="1" t="s">
-        <v>201</v>
-      </c>
+      <c r="C144" s="62" t="s">
+        <v>224</v>
+      </c>
+      <c r="D144" s="62"/>
+      <c r="E144" s="62"/>
+      <c r="F144" s="62"/>
+      <c r="G144" s="62"/>
+      <c r="H144" s="62"/>
+      <c r="I144" s="62"/>
+      <c r="J144" s="62"/>
+      <c r="K144" s="62"/>
     </row>
     <row r="145" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B145" s="62"/>
     </row>
     <row r="146" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B146" s="62"/>
-      <c r="C146" s="62" t="s">
-        <v>202</v>
-      </c>
-      <c r="D146" s="62"/>
-      <c r="E146" s="62"/>
-      <c r="F146" s="62"/>
-      <c r="G146" s="62"/>
-      <c r="H146" s="62"/>
-      <c r="I146" s="62"/>
-      <c r="J146" s="62"/>
-      <c r="K146" s="62"/>
+      <c r="C146" s="1" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="147" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B147" s="62"/>
     </row>
     <row r="148" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B148" s="62"/>
-      <c r="C148" s="1" t="s">
-        <v>203</v>
-      </c>
+      <c r="C148" s="62" t="s">
+        <v>198</v>
+      </c>
+      <c r="D148" s="62"/>
+      <c r="E148" s="62"/>
+      <c r="F148" s="62"/>
+      <c r="G148" s="62"/>
+      <c r="H148" s="62"/>
+      <c r="I148" s="62"/>
+      <c r="J148" s="62"/>
+      <c r="K148" s="62"/>
     </row>
     <row r="149" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B149" s="62"/>
     </row>
     <row r="150" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B150" s="62"/>
-      <c r="C150" s="62" t="s">
-        <v>204</v>
-      </c>
-      <c r="D150" s="62"/>
-      <c r="E150" s="62"/>
-      <c r="F150" s="62"/>
-      <c r="G150" s="62"/>
-      <c r="H150" s="62"/>
-      <c r="I150" s="62"/>
-      <c r="J150" s="62"/>
-      <c r="K150" s="62"/>
+      <c r="C150" s="1" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="151" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B151" s="62"/>
+      <c r="C151" s="1" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="152" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B152" s="62"/>
-      <c r="C152" s="1" t="s">
-        <v>205</v>
-      </c>
     </row>
     <row r="153" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B153" s="62"/>
+      <c r="C153" s="62" t="s">
+        <v>201</v>
+      </c>
+      <c r="D153" s="62"/>
+      <c r="E153" s="62"/>
+      <c r="F153" s="62"/>
+      <c r="G153" s="62"/>
+      <c r="H153" s="62"/>
+      <c r="I153" s="62"/>
+      <c r="J153" s="62"/>
+      <c r="K153" s="62"/>
     </row>
     <row r="154" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B154" s="62"/>
-      <c r="C154" s="62" t="s">
-        <v>206</v>
-      </c>
-      <c r="D154" s="62"/>
-      <c r="E154" s="62"/>
-      <c r="F154" s="62"/>
-      <c r="G154" s="62"/>
-      <c r="H154" s="62"/>
-      <c r="I154" s="62"/>
-      <c r="J154" s="62"/>
-      <c r="K154" s="62"/>
     </row>
     <row r="155" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B155" s="62"/>
-      <c r="C155" s="62" t="s">
-        <v>207</v>
-      </c>
-      <c r="D155" s="62"/>
-      <c r="E155" s="62"/>
-      <c r="F155" s="62"/>
-      <c r="G155" s="62"/>
-      <c r="H155" s="62"/>
-      <c r="I155" s="62"/>
-      <c r="J155" s="62"/>
-      <c r="K155" s="62"/>
+      <c r="C155" s="1" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="156" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B156" s="62"/>
     </row>
     <row r="157" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B157" s="62"/>
-      <c r="C157" s="1" t="s">
-        <v>208</v>
-      </c>
+      <c r="C157" s="62" t="s">
+        <v>203</v>
+      </c>
+      <c r="D157" s="62"/>
+      <c r="E157" s="62"/>
+      <c r="F157" s="62"/>
+      <c r="G157" s="62"/>
+      <c r="H157" s="62"/>
+      <c r="I157" s="62"/>
+      <c r="J157" s="62"/>
+      <c r="K157" s="62"/>
     </row>
     <row r="158" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B158" s="62"/>
     </row>
     <row r="159" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B159" s="62"/>
-      <c r="C159" s="62" t="s">
-        <v>209</v>
-      </c>
-      <c r="D159" s="62"/>
-      <c r="E159" s="62"/>
-      <c r="F159" s="62"/>
-      <c r="G159" s="62"/>
-      <c r="H159" s="62"/>
-      <c r="I159" s="62"/>
-      <c r="J159" s="62"/>
-      <c r="K159" s="62"/>
+      <c r="C159" s="1" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="160" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B160" s="62"/>
     </row>
     <row r="161" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B161" s="62"/>
-      <c r="C161" s="1" t="s">
-        <v>210</v>
-      </c>
+      <c r="C161" s="62" t="s">
+        <v>205</v>
+      </c>
+      <c r="D161" s="62"/>
+      <c r="E161" s="62"/>
+      <c r="F161" s="62"/>
+      <c r="G161" s="62"/>
+      <c r="H161" s="62"/>
+      <c r="I161" s="62"/>
+      <c r="J161" s="62"/>
+      <c r="K161" s="62"/>
     </row>
     <row r="162" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B162" s="62"/>
+      <c r="C162" s="62" t="s">
+        <v>206</v>
+      </c>
+      <c r="D162" s="62"/>
+      <c r="E162" s="62"/>
+      <c r="F162" s="62"/>
+      <c r="G162" s="62"/>
+      <c r="H162" s="62"/>
+      <c r="I162" s="62"/>
+      <c r="J162" s="62"/>
+      <c r="K162" s="62"/>
     </row>
     <row r="163" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B163" s="62"/>
-      <c r="C163" s="62" t="s">
-        <v>211</v>
-      </c>
-      <c r="D163" s="62"/>
-      <c r="E163" s="62"/>
-      <c r="F163" s="62"/>
-      <c r="G163" s="62"/>
-      <c r="H163" s="62"/>
-      <c r="I163" s="62"/>
-      <c r="J163" s="62"/>
-      <c r="K163" s="62"/>
     </row>
     <row r="164" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B164" s="62"/>
+      <c r="C164" s="1" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="165" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B165" s="62"/>
-      <c r="C165" s="1" t="s">
-        <v>228</v>
-      </c>
     </row>
     <row r="166" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B166" s="62"/>
-      <c r="C166" s="1" t="s">
-        <v>227</v>
-      </c>
+      <c r="C166" s="62" t="s">
+        <v>208</v>
+      </c>
+      <c r="D166" s="62"/>
+      <c r="E166" s="62"/>
+      <c r="F166" s="62"/>
+      <c r="G166" s="62"/>
+      <c r="H166" s="62"/>
+      <c r="I166" s="62"/>
+      <c r="J166" s="62"/>
+      <c r="K166" s="62"/>
     </row>
     <row r="167" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B167" s="62"/>
-      <c r="C167" s="1" t="s">
-        <v>212</v>
-      </c>
     </row>
     <row r="168" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B168" s="62"/>
+      <c r="C168" s="1" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="169" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B169" s="62"/>
-      <c r="C169" s="62" t="s">
-        <v>213</v>
-      </c>
-      <c r="D169" s="62"/>
-      <c r="E169" s="62"/>
-      <c r="F169" s="62"/>
-      <c r="G169" s="62"/>
-      <c r="H169" s="62"/>
-      <c r="I169" s="62"/>
-      <c r="J169" s="62"/>
-      <c r="K169" s="62"/>
     </row>
     <row r="170" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B170" s="62"/>
+      <c r="C170" s="62" t="s">
+        <v>210</v>
+      </c>
+      <c r="D170" s="62"/>
+      <c r="E170" s="62"/>
+      <c r="F170" s="62"/>
+      <c r="G170" s="62"/>
+      <c r="H170" s="62"/>
+      <c r="I170" s="62"/>
+      <c r="J170" s="62"/>
+      <c r="K170" s="62"/>
     </row>
     <row r="171" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B171" s="62"/>
-      <c r="C171" s="1" t="s">
-        <v>214</v>
-      </c>
     </row>
     <row r="172" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B172" s="62"/>
+      <c r="C172" s="1" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="173" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B173" s="62"/>
-      <c r="C173" s="62" t="s">
-        <v>215</v>
-      </c>
-      <c r="D173" s="62"/>
-      <c r="E173" s="62"/>
-      <c r="F173" s="62"/>
-      <c r="G173" s="62"/>
-      <c r="H173" s="62"/>
-      <c r="I173" s="62"/>
-      <c r="J173" s="62"/>
-      <c r="K173" s="62"/>
+      <c r="C173" s="1" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="174" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B174" s="62"/>
+      <c r="C174" s="1" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="175" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B175" s="62"/>
-      <c r="C175" s="1" t="s">
-        <v>216</v>
-      </c>
     </row>
     <row r="176" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B176" s="62"/>
+      <c r="C176" s="62" t="s">
+        <v>212</v>
+      </c>
+      <c r="D176" s="62"/>
+      <c r="E176" s="62"/>
+      <c r="F176" s="62"/>
+      <c r="G176" s="62"/>
+      <c r="H176" s="62"/>
+      <c r="I176" s="62"/>
+      <c r="J176" s="62"/>
+      <c r="K176" s="62"/>
     </row>
     <row r="177" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B177" s="62"/>
-      <c r="C177" s="62" t="s">
-        <v>217</v>
-      </c>
-      <c r="D177" s="62"/>
-      <c r="E177" s="62"/>
-      <c r="F177" s="62"/>
-      <c r="G177" s="62"/>
-      <c r="H177" s="62"/>
-      <c r="I177" s="62"/>
-      <c r="J177" s="62"/>
-      <c r="K177" s="62"/>
     </row>
     <row r="178" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B178" s="62"/>
+      <c r="C178" s="1" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="179" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B179" s="62"/>
-      <c r="C179" s="1" t="s">
-        <v>218</v>
-      </c>
     </row>
     <row r="180" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B180" s="62"/>
-      <c r="C180" s="1" t="s">
-        <v>219</v>
-      </c>
+      <c r="C180" s="62" t="s">
+        <v>214</v>
+      </c>
+      <c r="D180" s="62"/>
+      <c r="E180" s="62"/>
+      <c r="F180" s="62"/>
+      <c r="G180" s="62"/>
+      <c r="H180" s="62"/>
+      <c r="I180" s="62"/>
+      <c r="J180" s="62"/>
+      <c r="K180" s="62"/>
     </row>
     <row r="181" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B181" s="62"/>
     </row>
     <row r="182" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B182" s="62"/>
-      <c r="C182" s="62" t="s">
-        <v>220</v>
-      </c>
-      <c r="D182" s="62"/>
-      <c r="E182" s="62"/>
-      <c r="F182" s="62"/>
-      <c r="G182" s="62"/>
-      <c r="H182" s="62"/>
-      <c r="I182" s="62"/>
-      <c r="J182" s="62"/>
-      <c r="K182" s="62"/>
+      <c r="C182" s="1" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="183" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B183" s="62"/>
     </row>
     <row r="184" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B184" s="62"/>
-      <c r="C184" s="1" t="s">
-        <v>230</v>
-      </c>
+      <c r="C184" s="62" t="s">
+        <v>216</v>
+      </c>
+      <c r="D184" s="62"/>
+      <c r="E184" s="62"/>
+      <c r="F184" s="62"/>
+      <c r="G184" s="62"/>
+      <c r="H184" s="62"/>
+      <c r="I184" s="62"/>
+      <c r="J184" s="62"/>
+      <c r="K184" s="62"/>
     </row>
     <row r="185" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B185" s="62"/>
-      <c r="C185" s="1" t="s">
-        <v>229</v>
-      </c>
     </row>
     <row r="186" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B186" s="62"/>
+      <c r="C186" s="1" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="187" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B187" s="62"/>
-      <c r="C187" s="62" t="s">
-        <v>221</v>
-      </c>
-      <c r="D187" s="62"/>
-      <c r="E187" s="62"/>
-      <c r="F187" s="62"/>
-      <c r="G187" s="62"/>
-      <c r="H187" s="62"/>
-      <c r="I187" s="62"/>
-      <c r="J187" s="62"/>
-      <c r="K187" s="62"/>
+      <c r="C187" s="1" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="188" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B188" s="62"/>
     </row>
     <row r="189" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B189" s="62"/>
-      <c r="C189" s="1" t="s">
-        <v>222</v>
-      </c>
+      <c r="C189" s="62" t="s">
+        <v>219</v>
+      </c>
+      <c r="D189" s="62"/>
+      <c r="E189" s="62"/>
+      <c r="F189" s="62"/>
+      <c r="G189" s="62"/>
+      <c r="H189" s="62"/>
+      <c r="I189" s="62"/>
+      <c r="J189" s="62"/>
+      <c r="K189" s="62"/>
     </row>
     <row r="190" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B190" s="62"/>
     </row>
     <row r="191" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B191" s="62"/>
-      <c r="C191" s="62" t="s">
-        <v>223</v>
-      </c>
-      <c r="D191" s="62"/>
-      <c r="E191" s="62"/>
-      <c r="F191" s="62"/>
-      <c r="G191" s="62"/>
-      <c r="H191" s="62"/>
-      <c r="I191" s="62"/>
-      <c r="J191" s="62"/>
-      <c r="K191" s="62"/>
+      <c r="C191" s="1" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="192" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B192" s="51"/>
-      <c r="C192" s="51"/>
-      <c r="D192" s="51"/>
-      <c r="E192" s="51"/>
-      <c r="F192" s="51"/>
-      <c r="G192" s="51"/>
-      <c r="H192" s="51"/>
-      <c r="I192" s="51"/>
-      <c r="J192" s="51"/>
-      <c r="K192" s="51"/>
+      <c r="B192" s="62"/>
+      <c r="C192" s="1" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="193" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B193" s="51"/>
-      <c r="C193" s="51"/>
-      <c r="D193" s="51"/>
-      <c r="E193" s="51"/>
-      <c r="F193" s="51"/>
-      <c r="G193" s="51"/>
-      <c r="H193" s="51"/>
-      <c r="I193" s="51"/>
-      <c r="J193" s="51"/>
-      <c r="K193" s="51"/>
+      <c r="B193" s="62"/>
+    </row>
+    <row r="194" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B194" s="62"/>
+      <c r="C194" s="62" t="s">
+        <v>220</v>
+      </c>
+      <c r="D194" s="62"/>
+      <c r="E194" s="62"/>
+      <c r="F194" s="62"/>
+      <c r="G194" s="62"/>
+      <c r="H194" s="62"/>
+      <c r="I194" s="62"/>
+      <c r="J194" s="62"/>
+      <c r="K194" s="62"/>
+    </row>
+    <row r="195" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B195" s="62"/>
+    </row>
+    <row r="196" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B196" s="62"/>
+      <c r="C196" s="1" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="197" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C197" s="140" t="s">
+      <c r="B197" s="62"/>
+    </row>
+    <row r="198" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B198" s="62"/>
+      <c r="C198" s="62" t="s">
+        <v>222</v>
+      </c>
+      <c r="D198" s="62"/>
+      <c r="E198" s="62"/>
+      <c r="F198" s="62"/>
+      <c r="G198" s="62"/>
+      <c r="H198" s="62"/>
+      <c r="I198" s="62"/>
+      <c r="J198" s="62"/>
+      <c r="K198" s="62"/>
+    </row>
+    <row r="199" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B199" s="51"/>
+      <c r="C199" s="51"/>
+      <c r="D199" s="51"/>
+      <c r="E199" s="51"/>
+      <c r="F199" s="51"/>
+      <c r="G199" s="51"/>
+      <c r="H199" s="51"/>
+      <c r="I199" s="51"/>
+      <c r="J199" s="51"/>
+      <c r="K199" s="51"/>
+    </row>
+    <row r="200" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B200" s="51"/>
+      <c r="C200" s="51"/>
+      <c r="D200" s="51"/>
+      <c r="E200" s="51"/>
+      <c r="F200" s="51"/>
+      <c r="G200" s="51"/>
+      <c r="H200" s="51"/>
+      <c r="I200" s="51"/>
+      <c r="J200" s="51"/>
+      <c r="K200" s="51"/>
+    </row>
+    <row r="204" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C204" s="155" t="s">
+        <v>235</v>
+      </c>
+      <c r="D204" s="155"/>
+      <c r="E204" s="155"/>
+      <c r="F204" s="155"/>
+      <c r="G204" s="155"/>
+      <c r="H204" s="155"/>
+      <c r="I204" s="155"/>
+      <c r="J204" s="155"/>
+    </row>
+    <row r="205" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C205" s="155"/>
+      <c r="D205" s="155"/>
+      <c r="E205" s="155"/>
+      <c r="F205" s="155"/>
+      <c r="G205" s="155"/>
+      <c r="H205" s="155"/>
+      <c r="I205" s="155"/>
+      <c r="J205" s="155"/>
+    </row>
+    <row r="206" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C206" s="75"/>
+      <c r="D206" s="75"/>
+      <c r="E206" s="75"/>
+      <c r="F206" s="85" t="s">
+        <v>239</v>
+      </c>
+      <c r="G206" s="75"/>
+      <c r="H206" s="83"/>
+      <c r="I206" s="75" t="s">
+        <v>240</v>
+      </c>
+      <c r="J206" s="75"/>
+    </row>
+    <row r="207" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C207" s="47" t="s">
         <v>236</v>
       </c>
-      <c r="D197" s="140"/>
-      <c r="E197" s="140"/>
-      <c r="F197" s="140"/>
-      <c r="G197" s="140"/>
-      <c r="H197" s="140"/>
-      <c r="I197" s="140"/>
-      <c r="J197" s="140"/>
-    </row>
-    <row r="198" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C198" s="140"/>
-      <c r="D198" s="140"/>
-      <c r="E198" s="140"/>
-      <c r="F198" s="140"/>
-      <c r="G198" s="140"/>
-      <c r="H198" s="140"/>
-      <c r="I198" s="140"/>
-      <c r="J198" s="140"/>
-    </row>
-    <row r="199" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C199" s="75"/>
-      <c r="D199" s="75"/>
-      <c r="E199" s="75"/>
-      <c r="F199" s="85" t="s">
-        <v>240</v>
-      </c>
-      <c r="G199" s="75"/>
-      <c r="H199" s="83"/>
-      <c r="I199" s="75" t="s">
+      <c r="D207" s="47"/>
+      <c r="F207" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="H207" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="208" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C208" s="47"/>
+      <c r="D208" s="47"/>
+      <c r="F208" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="H208" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="209" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C209" s="47"/>
+      <c r="D209" s="47"/>
+      <c r="H209" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="210" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C210" s="156" t="s">
+        <v>237</v>
+      </c>
+      <c r="D210" s="156"/>
+      <c r="E210" s="156"/>
+      <c r="F210" s="84" t="s">
         <v>241</v>
       </c>
-      <c r="J199" s="75"/>
-    </row>
-    <row r="200" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C200" s="47" t="s">
-        <v>237</v>
-      </c>
-      <c r="D200" s="47"/>
-      <c r="F200" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="H200" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="201" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C201" s="47"/>
-      <c r="D201" s="47"/>
-      <c r="F201" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="H201" s="1" t="s">
+      <c r="G210" s="84"/>
+      <c r="H210" s="84" t="s">
+        <v>243</v>
+      </c>
+      <c r="I210" s="84"/>
+      <c r="J210" s="84"/>
+    </row>
+    <row r="211" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="F211" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="H211" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="213" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C213" s="157" t="s">
+        <v>238</v>
+      </c>
+      <c r="D213" s="157"/>
+      <c r="E213" s="157"/>
+      <c r="F213" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="214" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="F214" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="H214" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="216" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="F216" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="G216" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="217" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C217" s="140"/>
+      <c r="D217" s="140"/>
+      <c r="E217" s="140"/>
+    </row>
+    <row r="218" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="F218" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="H218" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="219" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="F219" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="H219" s="1" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="202" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C202" s="47"/>
-      <c r="D202" s="47"/>
-      <c r="H202" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="203" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C203" s="141" t="s">
-        <v>238</v>
-      </c>
-      <c r="D203" s="141"/>
-      <c r="E203" s="141"/>
-      <c r="F203" s="84" t="s">
-        <v>242</v>
-      </c>
-      <c r="G203" s="84"/>
-      <c r="H203" s="84" t="s">
-        <v>244</v>
-      </c>
-      <c r="I203" s="84"/>
-      <c r="J203" s="84"/>
-    </row>
-    <row r="204" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="F204" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="H204" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="206" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C206" s="142" t="s">
-        <v>239</v>
-      </c>
-      <c r="D206" s="142"/>
-      <c r="E206" s="142"/>
-      <c r="F206" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="H206" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="207" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="F207" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="H207" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="208" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="F208" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="H208" s="1" t="s">
-        <v>260</v>
+    <row r="221" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="H221" s="1" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B36:K36"/>
-    <mergeCell ref="B55:K55"/>
-    <mergeCell ref="B105:J105"/>
-    <mergeCell ref="B120:K120"/>
-    <mergeCell ref="B106:K106"/>
-    <mergeCell ref="B107:K107"/>
-    <mergeCell ref="B108:K108"/>
-    <mergeCell ref="B109:K109"/>
-    <mergeCell ref="B110:K110"/>
-    <mergeCell ref="B111:K111"/>
-    <mergeCell ref="B112:K112"/>
-    <mergeCell ref="C197:J198"/>
-    <mergeCell ref="C203:E203"/>
-    <mergeCell ref="C206:E206"/>
-    <mergeCell ref="B131:K131"/>
-    <mergeCell ref="B132:K132"/>
+    <mergeCell ref="C204:J205"/>
+    <mergeCell ref="C210:E210"/>
+    <mergeCell ref="C213:E213"/>
+    <mergeCell ref="B138:K138"/>
+    <mergeCell ref="B139:K139"/>
+    <mergeCell ref="B43:K43"/>
+    <mergeCell ref="B62:K62"/>
+    <mergeCell ref="B112:J112"/>
+    <mergeCell ref="B127:K127"/>
+    <mergeCell ref="B113:K113"/>
+    <mergeCell ref="B114:K114"/>
+    <mergeCell ref="B115:K115"/>
+    <mergeCell ref="B116:K116"/>
+    <mergeCell ref="B117:K117"/>
+    <mergeCell ref="B118:K118"/>
+    <mergeCell ref="B119:K119"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4605,13 +4734,13 @@
   <sheetData>
     <row r="1" spans="1:26" s="61" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="64" t="s">
+        <v>230</v>
+      </c>
+      <c r="B1" s="56" t="s">
         <v>231</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="C1" s="55" t="s">
         <v>232</v>
-      </c>
-      <c r="C1" s="55" t="s">
-        <v>233</v>
       </c>
       <c r="D1" s="57" t="s">
         <v>31</v>
@@ -4766,15 +4895,15 @@
         <v>7</v>
       </c>
       <c r="B8" s="66" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C8" s="106" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D8" s="68"/>
       <c r="E8" s="68"/>
       <c r="F8" s="68" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="9" spans="1:26" s="71" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4782,15 +4911,15 @@
         <v>8</v>
       </c>
       <c r="B9" s="70" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C9" s="71" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D9" s="72"/>
       <c r="E9" s="72"/>
       <c r="F9" s="72" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="10" spans="1:26" s="106" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4801,12 +4930,12 @@
         <v>141</v>
       </c>
       <c r="C10" s="106" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D10" s="68"/>
       <c r="E10" s="68"/>
       <c r="F10" s="68" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:26" s="71" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4814,15 +4943,15 @@
         <v>10</v>
       </c>
       <c r="B11" s="70" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C11" s="71" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D11" s="72"/>
       <c r="E11" s="72"/>
       <c r="F11" s="72" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:26" s="106" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4830,15 +4959,15 @@
         <v>11</v>
       </c>
       <c r="B12" s="66" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C12" s="106" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D12" s="68"/>
       <c r="E12" s="68"/>
       <c r="F12" s="68" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="13" spans="1:26" s="71" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4846,15 +4975,15 @@
         <v>12</v>
       </c>
       <c r="B13" s="70" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C13" s="71" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D13" s="72"/>
       <c r="E13" s="72"/>
       <c r="F13" s="72" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:26" s="67" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6220,43 +6349,45 @@
   </sheetPr>
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="130" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="130" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -6280,7 +6411,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="130" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B1" s="129"/>
       <c r="C1" s="129"/>
@@ -6300,31 +6431,31 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="135" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="131"/>
       <c r="B5" s="131" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="131"/>
       <c r="B6" s="131" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="131"/>
       <c r="B7" s="131" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="131"/>
       <c r="B8" s="131" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -6332,18 +6463,18 @@
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="135" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="136" t="s">
+        <v>302</v>
+      </c>
+      <c r="B11" t="s">
         <v>304</v>
       </c>
-      <c r="B11" t="s">
-        <v>306</v>
-      </c>
       <c r="E11" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -6351,26 +6482,26 @@
     </row>
     <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="137" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B13" s="131" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D13" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E13" s="131"/>
     </row>
     <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="128"/>
       <c r="E14" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="128"/>
       <c r="E15" s="131" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F15" s="131"/>
     </row>
@@ -6381,27 +6512,27 @@
     </row>
     <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="138" t="s">
+        <v>306</v>
+      </c>
+      <c r="B17" t="s">
+        <v>307</v>
+      </c>
+      <c r="E17" t="s">
         <v>308</v>
-      </c>
-      <c r="B17" t="s">
-        <v>309</v>
-      </c>
-      <c r="E17" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="136" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B23" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="139"/>
       <c r="B24" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -6409,12 +6540,12 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B26" s="132" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B27" s="132" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -6422,119 +6553,119 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="J30" s="131" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B33" s="132" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G33" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C34" s="131" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C35" s="131" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C36" s="131" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C37" s="131" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B39" s="132" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B42" s="132" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C43" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C45" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B47" s="132" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="135" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B51" s="131" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B52" s="131" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="135" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="135" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="131"/>
       <c r="B58" s="131" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -6547,17 +6678,17 @@
     </row>
     <row r="61" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="135" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="131" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -6589,13 +6720,13 @@
   <sheetData>
     <row r="1" spans="1:27" s="91" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="86" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B1" s="87" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C1" s="88" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D1" s="87" t="s">
         <v>31</v>
@@ -6607,7 +6738,7 @@
         <v>33</v>
       </c>
       <c r="G1" s="89" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H1" s="90"/>
       <c r="I1" s="90"/>
@@ -6631,14 +6762,14 @@
       <c r="AA1" s="90"/>
     </row>
     <row r="2" spans="1:27" s="95" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="160">
+      <c r="A2" s="177">
         <v>1</v>
       </c>
-      <c r="B2" s="163" t="s">
+      <c r="B2" s="180" t="s">
         <v>34</v>
       </c>
       <c r="C2" s="92" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D2" s="93"/>
       <c r="E2" s="93"/>
@@ -6646,8 +6777,8 @@
       <c r="G2" s="94"/>
     </row>
     <row r="3" spans="1:27" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="161"/>
-      <c r="B3" s="164"/>
+      <c r="A3" s="178"/>
+      <c r="B3" s="181"/>
       <c r="C3" s="96" t="s">
         <v>35</v>
       </c>
@@ -6661,12 +6792,12 @@
         <v>38</v>
       </c>
       <c r="G3" s="98" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:27" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="161"/>
-      <c r="B4" s="164"/>
+      <c r="A4" s="178"/>
+      <c r="B4" s="181"/>
       <c r="C4" s="96" t="s">
         <v>39</v>
       </c>
@@ -6680,14 +6811,14 @@
         <v>42</v>
       </c>
       <c r="G4" s="98" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:27" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="161"/>
-      <c r="B5" s="164"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="181"/>
       <c r="C5" s="96" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D5" s="97" t="s">
         <v>43</v>
@@ -6699,12 +6830,12 @@
         <v>130</v>
       </c>
       <c r="G5" s="98" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:27" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="162"/>
-      <c r="B6" s="165"/>
+      <c r="A6" s="179"/>
+      <c r="B6" s="182"/>
       <c r="C6" s="96" t="s">
         <v>106</v>
       </c>
@@ -6716,18 +6847,18 @@
       </c>
       <c r="F6" s="97"/>
       <c r="G6" s="98" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" s="102" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="171">
+        <v>2</v>
+      </c>
+      <c r="B7" s="173" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="99" t="s">
         <v>270</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" s="102" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="166">
-        <v>2</v>
-      </c>
-      <c r="B7" s="169" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="99" t="s">
-        <v>272</v>
       </c>
       <c r="D7" s="100"/>
       <c r="E7" s="100"/>
@@ -6735,10 +6866,10 @@
       <c r="G7" s="101"/>
     </row>
     <row r="8" spans="1:27" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="167"/>
-      <c r="B8" s="170"/>
+      <c r="A8" s="172"/>
+      <c r="B8" s="174"/>
       <c r="C8" s="96" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D8" s="97" t="s">
         <v>47</v>
@@ -6750,12 +6881,12 @@
         <v>48</v>
       </c>
       <c r="G8" s="98" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:27" s="84" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A9" s="167"/>
-      <c r="B9" s="170"/>
+      <c r="A9" s="172"/>
+      <c r="B9" s="174"/>
       <c r="C9" s="96" t="s">
         <v>49</v>
       </c>
@@ -6769,12 +6900,12 @@
         <v>52</v>
       </c>
       <c r="G9" s="98" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:27" s="84" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A10" s="167"/>
-      <c r="B10" s="170"/>
+      <c r="A10" s="172"/>
+      <c r="B10" s="174"/>
       <c r="C10" s="96" t="s">
         <v>53</v>
       </c>
@@ -6788,12 +6919,12 @@
         <v>52</v>
       </c>
       <c r="G10" s="98" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:27" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="167"/>
-      <c r="B11" s="170"/>
+      <c r="A11" s="172"/>
+      <c r="B11" s="174"/>
       <c r="C11" s="96" t="s">
         <v>107</v>
       </c>
@@ -6807,12 +6938,12 @@
         <v>56</v>
       </c>
       <c r="G11" s="98" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:27" s="84" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A12" s="167"/>
-      <c r="B12" s="170"/>
+      <c r="A12" s="172"/>
+      <c r="B12" s="174"/>
       <c r="C12" s="96" t="s">
         <v>57</v>
       </c>
@@ -6826,29 +6957,29 @@
         <v>60</v>
       </c>
       <c r="G12" s="98" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="13" spans="1:27" s="84" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A13" s="167"/>
-      <c r="B13" s="170"/>
+      <c r="A13" s="172"/>
+      <c r="B13" s="174"/>
       <c r="C13" s="96" t="s">
+        <v>272</v>
+      </c>
+      <c r="D13" s="97" t="s">
+        <v>273</v>
+      </c>
+      <c r="E13" s="97" t="s">
         <v>274</v>
       </c>
-      <c r="D13" s="97" t="s">
+      <c r="F13" s="97" t="s">
         <v>275</v>
       </c>
-      <c r="E13" s="97" t="s">
-        <v>276</v>
-      </c>
-      <c r="F13" s="97" t="s">
-        <v>277</v>
-      </c>
       <c r="G13" s="98"/>
     </row>
     <row r="14" spans="1:27" s="84" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A14" s="167"/>
-      <c r="B14" s="170"/>
+      <c r="A14" s="172"/>
+      <c r="B14" s="174"/>
       <c r="C14" s="96" t="s">
         <v>108</v>
       </c>
@@ -6862,12 +6993,12 @@
         <v>61</v>
       </c>
       <c r="G14" s="98" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:27" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="168"/>
-      <c r="B15" s="171"/>
+      <c r="A15" s="175"/>
+      <c r="B15" s="176"/>
       <c r="C15" s="96" t="s">
         <v>62</v>
       </c>
@@ -6881,18 +7012,18 @@
         <v>65</v>
       </c>
       <c r="G15" s="98" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="16" spans="1:27" s="102" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="166">
+      <c r="A16" s="171">
         <v>3</v>
       </c>
-      <c r="B16" s="169" t="s">
+      <c r="B16" s="173" t="s">
         <v>34</v>
       </c>
       <c r="C16" s="99" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D16" s="100"/>
       <c r="E16" s="100"/>
@@ -6900,8 +7031,8 @@
       <c r="G16" s="101"/>
     </row>
     <row r="17" spans="1:7" s="84" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A17" s="167"/>
-      <c r="B17" s="170"/>
+      <c r="A17" s="172"/>
+      <c r="B17" s="174"/>
       <c r="C17" s="96" t="s">
         <v>66</v>
       </c>
@@ -6912,15 +7043,15 @@
         <v>123</v>
       </c>
       <c r="F17" s="97" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G17" s="98" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="167"/>
-      <c r="B18" s="170"/>
+      <c r="A18" s="172"/>
+      <c r="B18" s="174"/>
       <c r="C18" s="96" t="s">
         <v>67</v>
       </c>
@@ -6932,12 +7063,12 @@
         <v>68</v>
       </c>
       <c r="G18" s="98" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="167"/>
-      <c r="B19" s="170"/>
+      <c r="A19" s="172"/>
+      <c r="B19" s="174"/>
       <c r="C19" s="96" t="s">
         <v>69</v>
       </c>
@@ -6951,12 +7082,12 @@
         <v>132</v>
       </c>
       <c r="G19" s="98" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="167"/>
-      <c r="B20" s="170"/>
+      <c r="A20" s="172"/>
+      <c r="B20" s="174"/>
       <c r="C20" s="96" t="s">
         <v>109</v>
       </c>
@@ -6970,18 +7101,18 @@
         <v>73</v>
       </c>
       <c r="G20" s="98" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="102" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="166">
+      <c r="A21" s="171">
         <v>4</v>
       </c>
-      <c r="B21" s="169" t="s">
+      <c r="B21" s="173" t="s">
         <v>34</v>
       </c>
       <c r="C21" s="99" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D21" s="100"/>
       <c r="E21" s="100"/>
@@ -6989,8 +7120,8 @@
       <c r="G21" s="101"/>
     </row>
     <row r="22" spans="1:7" s="106" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A22" s="167"/>
-      <c r="B22" s="170"/>
+      <c r="A22" s="172"/>
+      <c r="B22" s="174"/>
       <c r="C22" s="103" t="s">
         <v>74</v>
       </c>
@@ -6998,13 +7129,13 @@
         <v>75</v>
       </c>
       <c r="E22" s="104" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F22" s="104" t="s">
         <v>133</v>
       </c>
       <c r="G22" s="105" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="106" customFormat="1" ht="45" x14ac:dyDescent="0.2">
@@ -7023,18 +7154,18 @@
         <v>134</v>
       </c>
       <c r="G23" s="98" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="109" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="166">
+      <c r="A24" s="171">
         <v>5</v>
       </c>
-      <c r="B24" s="169" t="s">
+      <c r="B24" s="173" t="s">
         <v>46</v>
       </c>
       <c r="C24" s="99" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D24" s="100"/>
       <c r="E24" s="100"/>
@@ -7042,8 +7173,8 @@
       <c r="G24" s="101"/>
     </row>
     <row r="25" spans="1:7" s="84" customFormat="1" ht="60" x14ac:dyDescent="0.2">
-      <c r="A25" s="168"/>
-      <c r="B25" s="171"/>
+      <c r="A25" s="175"/>
+      <c r="B25" s="176"/>
       <c r="C25" s="96" t="s">
         <v>78</v>
       </c>
@@ -7057,18 +7188,18 @@
         <v>80</v>
       </c>
       <c r="G25" s="98" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="102" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="166">
+      <c r="A26" s="171">
         <v>6</v>
       </c>
-      <c r="B26" s="169" t="s">
+      <c r="B26" s="173" t="s">
         <v>46</v>
       </c>
       <c r="C26" s="99" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D26" s="100"/>
       <c r="E26" s="100"/>
@@ -7076,8 +7207,8 @@
       <c r="G26" s="101"/>
     </row>
     <row r="27" spans="1:7" s="84" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A27" s="167"/>
-      <c r="B27" s="170"/>
+      <c r="A27" s="172"/>
+      <c r="B27" s="174"/>
       <c r="C27" s="96" t="s">
         <v>81</v>
       </c>
@@ -7091,14 +7222,14 @@
         <v>84</v>
       </c>
       <c r="G27" s="98" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="84" customFormat="1" ht="75" x14ac:dyDescent="0.2">
-      <c r="A28" s="168"/>
-      <c r="B28" s="171"/>
+      <c r="A28" s="175"/>
+      <c r="B28" s="176"/>
       <c r="C28" s="96" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D28" s="97" t="s">
         <v>116</v>
@@ -7110,18 +7241,18 @@
         <v>135</v>
       </c>
       <c r="G28" s="98" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="102" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="176">
+      <c r="A29" s="165">
         <v>7</v>
       </c>
-      <c r="B29" s="178" t="s">
+      <c r="B29" s="167" t="s">
         <v>34</v>
       </c>
       <c r="C29" s="110" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D29" s="111"/>
       <c r="E29" s="111"/>
@@ -7129,13 +7260,13 @@
       <c r="G29" s="112"/>
     </row>
     <row r="30" spans="1:7" s="84" customFormat="1" ht="60" x14ac:dyDescent="0.2">
-      <c r="A30" s="177"/>
-      <c r="B30" s="179"/>
+      <c r="A30" s="166"/>
+      <c r="B30" s="168"/>
       <c r="C30" s="96" t="s">
         <v>86</v>
       </c>
       <c r="D30" s="97" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E30" s="97" t="s">
         <v>127</v>
@@ -7144,18 +7275,18 @@
         <v>136</v>
       </c>
       <c r="G30" s="98" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="102" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="172">
+      <c r="A31" s="161">
         <v>8</v>
       </c>
-      <c r="B31" s="174" t="s">
+      <c r="B31" s="163" t="s">
         <v>34</v>
       </c>
       <c r="C31" s="113" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D31" s="114"/>
       <c r="E31" s="114"/>
@@ -7163,8 +7294,8 @@
       <c r="G31" s="115"/>
     </row>
     <row r="32" spans="1:7" s="102" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="180"/>
-      <c r="B32" s="181"/>
+      <c r="A32" s="169"/>
+      <c r="B32" s="170"/>
       <c r="C32" s="96" t="s">
         <v>87</v>
       </c>
@@ -7178,12 +7309,12 @@
         <v>137</v>
       </c>
       <c r="G32" s="98" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="84" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="173"/>
-      <c r="B33" s="175"/>
+      <c r="A33" s="162"/>
+      <c r="B33" s="164"/>
       <c r="C33" s="96" t="s">
         <v>88</v>
       </c>
@@ -7197,18 +7328,18 @@
         <v>91</v>
       </c>
       <c r="G33" s="98" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="102" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="172">
+      <c r="A34" s="161">
         <v>9</v>
       </c>
-      <c r="B34" s="174" t="s">
+      <c r="B34" s="163" t="s">
         <v>34</v>
       </c>
       <c r="C34" s="113" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D34" s="114"/>
       <c r="E34" s="114"/>
@@ -7216,8 +7347,8 @@
       <c r="G34" s="115"/>
     </row>
     <row r="35" spans="1:7" s="84" customFormat="1" ht="90" x14ac:dyDescent="0.2">
-      <c r="A35" s="173"/>
-      <c r="B35" s="175"/>
+      <c r="A35" s="162"/>
+      <c r="B35" s="164"/>
       <c r="C35" s="96" t="s">
         <v>92</v>
       </c>
@@ -7231,18 +7362,18 @@
         <v>138</v>
       </c>
       <c r="G35" s="98" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="36" spans="1:7" s="102" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="172">
+      <c r="A36" s="161">
         <v>10</v>
       </c>
-      <c r="B36" s="174" t="s">
+      <c r="B36" s="163" t="s">
         <v>34</v>
       </c>
       <c r="C36" s="113" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D36" s="114"/>
       <c r="E36" s="114"/>
@@ -7250,8 +7381,8 @@
       <c r="G36" s="115"/>
     </row>
     <row r="37" spans="1:7" s="84" customFormat="1" ht="75" x14ac:dyDescent="0.2">
-      <c r="A37" s="173"/>
-      <c r="B37" s="175"/>
+      <c r="A37" s="162"/>
+      <c r="B37" s="164"/>
       <c r="C37" s="96" t="s">
         <v>111</v>
       </c>
@@ -7265,7 +7396,7 @@
         <v>139</v>
       </c>
       <c r="G37" s="98" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="38" spans="1:7" s="84" customFormat="1" ht="34.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -7280,10 +7411,10 @@
     <row r="39" spans="1:7" s="84" customFormat="1" ht="44.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="116"/>
       <c r="B39" s="123" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C39" s="126" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D39" s="119"/>
       <c r="E39" s="119"/>
@@ -7302,10 +7433,10 @@
     <row r="41" spans="1:7" s="84" customFormat="1" ht="34.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="116"/>
       <c r="B41" s="124" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C41" s="125" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E41" s="119"/>
       <c r="F41" s="119"/>
@@ -7646,6 +7777,18 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="A7:A15"/>
+    <mergeCell ref="B7:B15"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="B26:B28"/>
     <mergeCell ref="A36:A37"/>
     <mergeCell ref="B36:B37"/>
     <mergeCell ref="A29:A30"/>
@@ -7654,18 +7797,6 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="B34:B35"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="A7:A15"/>
-    <mergeCell ref="B7:B15"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="B16:B20"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G3" r:id="rId1" xr:uid="{71A581F4-62A9-4E32-9200-FC3B79CF977C}"/>
